--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HY102"/>
+  <dimension ref="A1:HZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,6 +1055,9 @@
       <c r="HY1" t="n">
         <v>10321</v>
       </c>
+      <c r="HZ1" t="n">
+        <v>10335</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1758,6 +1761,9 @@
       <c r="HY2" t="n">
         <v>2020</v>
       </c>
+      <c r="HZ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2461,6 +2467,9 @@
       <c r="HY3" t="n">
         <v>25</v>
       </c>
+      <c r="HZ3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3164,6 +3173,9 @@
       <c r="HY4" t="n">
         <v>0</v>
       </c>
+      <c r="HZ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3867,6 +3879,9 @@
       <c r="HY5" t="n">
         <v>1</v>
       </c>
+      <c r="HZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4570,6 +4585,9 @@
       <c r="HY6" t="n">
         <v>75</v>
       </c>
+      <c r="HZ6" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5273,6 +5291,9 @@
       <c r="HY7" t="n">
         <v>76</v>
       </c>
+      <c r="HZ7" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5976,6 +5997,9 @@
       <c r="HY8" t="n">
         <v>-1</v>
       </c>
+      <c r="HZ8" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6679,6 +6703,9 @@
       <c r="HY9" t="n">
         <v>0</v>
       </c>
+      <c r="HZ9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7382,6 +7409,9 @@
       <c r="HY10" t="n">
         <v>4</v>
       </c>
+      <c r="HZ10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8085,6 +8115,9 @@
       <c r="HY11" t="n">
         <v>181</v>
       </c>
+      <c r="HZ11" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8788,6 +8821,9 @@
       <c r="HY12" t="n">
         <v>104</v>
       </c>
+      <c r="HZ12" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9491,6 +9527,9 @@
       <c r="HY13" t="n">
         <v>285</v>
       </c>
+      <c r="HZ13" t="n">
+        <v>390</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10194,6 +10233,9 @@
       <c r="HY14" t="n">
         <v>1.74</v>
       </c>
+      <c r="HZ14" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10897,6 +10939,9 @@
       <c r="HY15" t="n">
         <v>87</v>
       </c>
+      <c r="HZ15" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11600,6 +11645,9 @@
       <c r="HY16" t="n">
         <v>42</v>
       </c>
+      <c r="HZ16" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12303,6 +12351,9 @@
       <c r="HY17" t="n">
         <v>26</v>
       </c>
+      <c r="HZ17" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13006,6 +13057,9 @@
       <c r="HY18" t="n">
         <v>12</v>
       </c>
+      <c r="HZ18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13709,6 +13763,9 @@
       <c r="HY19" t="n">
         <v>16</v>
       </c>
+      <c r="HZ19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14412,6 +14469,9 @@
       <c r="HY20" t="n">
         <v>11</v>
       </c>
+      <c r="HZ20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15115,6 +15175,9 @@
       <c r="HY21" t="n">
         <v>10</v>
       </c>
+      <c r="HZ21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15818,6 +15881,9 @@
       <c r="HY22" t="n">
         <v>9</v>
       </c>
+      <c r="HZ22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16521,6 +16587,9 @@
       <c r="HY23" t="n">
         <v>0</v>
       </c>
+      <c r="HZ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17224,6 +17293,9 @@
       <c r="HY24" t="n">
         <v>20</v>
       </c>
+      <c r="HZ24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17927,6 +17999,9 @@
       <c r="HY25" t="n">
         <v>55</v>
       </c>
+      <c r="HZ25" t="n">
+        <v>52.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18630,6 +18705,9 @@
       <c r="HY26" t="n">
         <v>25.91</v>
       </c>
+      <c r="HZ26" t="n">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19333,6 +19411,9 @@
       <c r="HY27" t="n">
         <v>14.25</v>
       </c>
+      <c r="HZ27" t="n">
+        <v>16.96</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20036,6 +20117,9 @@
       <c r="HY28" t="n">
         <v>30</v>
       </c>
+      <c r="HZ28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20739,6 +20823,9 @@
       <c r="HY29" t="n">
         <v>42</v>
       </c>
+      <c r="HZ29" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21442,6 +21529,9 @@
       <c r="HY30" t="n">
         <v>28</v>
       </c>
+      <c r="HZ30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22145,6 +22235,9 @@
       <c r="HY31" t="n">
         <v>38</v>
       </c>
+      <c r="HZ31" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22848,6 +22941,9 @@
       <c r="HY32" t="n">
         <v>1.9</v>
       </c>
+      <c r="HZ32" t="n">
+        <v>2.26</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23551,6 +23647,9 @@
       <c r="HY33" t="n">
         <v>3.45</v>
       </c>
+      <c r="HZ33" t="n">
+        <v>4.33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24254,6 +24353,9 @@
       <c r="HY34" t="n">
         <v>52.6</v>
       </c>
+      <c r="HZ34" t="n">
+        <v>44.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24957,6 +25059,9 @@
       <c r="HY35" t="n">
         <v>28.9</v>
       </c>
+      <c r="HZ35" t="n">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25660,6 +25765,9 @@
       <c r="HY36" t="n">
         <v>188</v>
       </c>
+      <c r="HZ36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26363,6 +26471,9 @@
       <c r="HY37" t="n">
         <v>88.3</v>
       </c>
+      <c r="HZ37" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27066,6 +27177,9 @@
       <c r="HY38" t="n">
         <v>26.66</v>
       </c>
+      <c r="HZ38" t="n">
+        <v>26.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27769,6 +27883,9 @@
       <c r="HY39" t="n">
         <v>128.5</v>
       </c>
+      <c r="HZ39" t="n">
+        <v>120.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28472,6 +28589,9 @@
       <c r="HY40" t="n">
         <v>4</v>
       </c>
+      <c r="HZ40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29175,6 +29295,9 @@
       <c r="HY41" t="n">
         <v>6</v>
       </c>
+      <c r="HZ41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29878,6 +30001,9 @@
       <c r="HY42" t="n">
         <v>3</v>
       </c>
+      <c r="HZ42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30581,6 +30707,9 @@
       <c r="HY43" t="n">
         <v>9</v>
       </c>
+      <c r="HZ43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31284,6 +31413,9 @@
       <c r="HY44" t="n">
         <v>109</v>
       </c>
+      <c r="HZ44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31987,6 +32119,9 @@
       <c r="HY45" t="n">
         <v>176</v>
       </c>
+      <c r="HZ45" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32690,6 +32825,9 @@
       <c r="HY46" t="n">
         <v>211</v>
       </c>
+      <c r="HZ46" t="n">
+        <v>305</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33393,6 +33531,9 @@
       <c r="HY47" t="n">
         <v>74</v>
       </c>
+      <c r="HZ47" t="n">
+        <v>78.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34096,6 +34237,9 @@
       <c r="HY48" t="n">
         <v>42</v>
       </c>
+      <c r="HZ48" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34799,6 +34943,9 @@
       <c r="HY49" t="n">
         <v>13</v>
       </c>
+      <c r="HZ49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35502,6 +35649,9 @@
       <c r="HY50" t="n">
         <v>10</v>
       </c>
+      <c r="HZ50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36205,6 +36355,9 @@
       <c r="HY51" t="n">
         <v>30</v>
       </c>
+      <c r="HZ51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36908,6 +37061,9 @@
       <c r="HY52" t="n">
         <v>28</v>
       </c>
+      <c r="HZ52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37611,6 +37767,9 @@
       <c r="HY53" t="n">
         <v>49</v>
       </c>
+      <c r="HZ53" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38314,6 +38473,9 @@
       <c r="HY54" t="n">
         <v>2</v>
       </c>
+      <c r="HZ54" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39017,6 +39179,9 @@
       <c r="HY55" t="n">
         <v>10</v>
       </c>
+      <c r="HZ55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39720,6 +39885,9 @@
       <c r="HY56" t="n">
         <v>90.90000000000001</v>
       </c>
+      <c r="HZ56" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40423,6 +40591,9 @@
       <c r="HY57" t="n">
         <v>163</v>
       </c>
+      <c r="HZ57" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41126,6 +41297,9 @@
       <c r="HY58" t="n">
         <v>119</v>
       </c>
+      <c r="HZ58" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41829,6 +42003,9 @@
       <c r="HY59" t="n">
         <v>282</v>
       </c>
+      <c r="HZ59" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42532,6 +42709,9 @@
       <c r="HY60" t="n">
         <v>1.37</v>
       </c>
+      <c r="HZ60" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43235,6 +43415,9 @@
       <c r="HY61" t="n">
         <v>61</v>
       </c>
+      <c r="HZ61" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43938,6 +44121,9 @@
       <c r="HY62" t="n">
         <v>48</v>
       </c>
+      <c r="HZ62" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44641,6 +44827,9 @@
       <c r="HY63" t="n">
         <v>28</v>
       </c>
+      <c r="HZ63" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45344,6 +45533,9 @@
       <c r="HY64" t="n">
         <v>16</v>
       </c>
+      <c r="HZ64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46047,6 +46239,9 @@
       <c r="HY65" t="n">
         <v>12</v>
       </c>
+      <c r="HZ65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46750,6 +46945,9 @@
       <c r="HY66" t="n">
         <v>12</v>
       </c>
+      <c r="HZ66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47453,6 +47651,9 @@
       <c r="HY67" t="n">
         <v>8</v>
       </c>
+      <c r="HZ67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48156,6 +48357,9 @@
       <c r="HY68" t="n">
         <v>4</v>
       </c>
+      <c r="HZ68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48859,6 +49063,9 @@
       <c r="HY69" t="n">
         <v>0</v>
       </c>
+      <c r="HZ69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49562,6 +49769,9 @@
       <c r="HY70" t="n">
         <v>16</v>
       </c>
+      <c r="HZ70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50265,6 +50475,9 @@
       <c r="HY71" t="n">
         <v>75</v>
       </c>
+      <c r="HZ71" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50968,6 +51181,9 @@
       <c r="HY72" t="n">
         <v>23.5</v>
       </c>
+      <c r="HZ72" t="n">
+        <v>47.62</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51671,6 +51887,9 @@
       <c r="HY73" t="n">
         <v>17.62</v>
       </c>
+      <c r="HZ73" t="n">
+        <v>21.17</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52374,6 +52593,9 @@
       <c r="HY74" t="n">
         <v>27</v>
       </c>
+      <c r="HZ74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53077,6 +53299,9 @@
       <c r="HY75" t="n">
         <v>38</v>
       </c>
+      <c r="HZ75" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53780,6 +54005,9 @@
       <c r="HY76" t="n">
         <v>25</v>
       </c>
+      <c r="HZ76" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54483,6 +54711,9 @@
       <c r="HY77" t="n">
         <v>40</v>
       </c>
+      <c r="HZ77" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55186,6 +55417,9 @@
       <c r="HY78" t="n">
         <v>2.5</v>
       </c>
+      <c r="HZ78" t="n">
+        <v>2.44</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55889,6 +56123,9 @@
       <c r="HY79" t="n">
         <v>3.33</v>
       </c>
+      <c r="HZ79" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56592,6 +56829,9 @@
       <c r="HY80" t="n">
         <v>40</v>
       </c>
+      <c r="HZ80" t="n">
+        <v>40.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57295,6 +57535,9 @@
       <c r="HY81" t="n">
         <v>30</v>
       </c>
+      <c r="HZ81" t="n">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57998,6 +58241,9 @@
       <c r="HY82" t="n">
         <v>189.3</v>
       </c>
+      <c r="HZ82" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58701,6 +58947,9 @@
       <c r="HY83" t="n">
         <v>89</v>
       </c>
+      <c r="HZ83" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59404,6 +59653,9 @@
       <c r="HY84" t="n">
         <v>26.8</v>
       </c>
+      <c r="HZ84" t="n">
+        <v>24.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60107,6 +60359,9 @@
       <c r="HY85" t="n">
         <v>111</v>
       </c>
+      <c r="HZ85" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60810,6 +61065,9 @@
       <c r="HY86" t="n">
         <v>5</v>
       </c>
+      <c r="HZ86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61513,6 +61771,9 @@
       <c r="HY87" t="n">
         <v>5</v>
       </c>
+      <c r="HZ87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62216,6 +62477,9 @@
       <c r="HY88" t="n">
         <v>4</v>
       </c>
+      <c r="HZ88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62919,6 +63183,9 @@
       <c r="HY89" t="n">
         <v>8</v>
       </c>
+      <c r="HZ89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63622,6 +63889,9 @@
       <c r="HY90" t="n">
         <v>120</v>
       </c>
+      <c r="HZ90" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64325,6 +64595,9 @@
       <c r="HY91" t="n">
         <v>163</v>
       </c>
+      <c r="HZ91" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65028,6 +65301,9 @@
       <c r="HY92" t="n">
         <v>206</v>
       </c>
+      <c r="HZ92" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65731,6 +66007,9 @@
       <c r="HY93" t="n">
         <v>73</v>
       </c>
+      <c r="HZ93" t="n">
+        <v>79.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66434,6 +66713,9 @@
       <c r="HY94" t="n">
         <v>38</v>
       </c>
+      <c r="HZ94" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67137,6 +67419,9 @@
       <c r="HY95" t="n">
         <v>11</v>
       </c>
+      <c r="HZ95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67840,6 +68125,9 @@
       <c r="HY96" t="n">
         <v>7</v>
       </c>
+      <c r="HZ96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68543,6 +68831,9 @@
       <c r="HY97" t="n">
         <v>27</v>
       </c>
+      <c r="HZ97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69246,6 +69537,9 @@
       <c r="HY98" t="n">
         <v>25</v>
       </c>
+      <c r="HZ98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69949,6 +70243,9 @@
       <c r="HY99" t="n">
         <v>49</v>
       </c>
+      <c r="HZ99" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70652,6 +70949,9 @@
       <c r="HY100" t="n">
         <v>3</v>
       </c>
+      <c r="HZ100" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71355,6 +71655,9 @@
       <c r="HY101" t="n">
         <v>8</v>
       </c>
+      <c r="HZ101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72058,6 +72361,9 @@
       <c r="HY102" t="n">
         <v>66.7</v>
       </c>
+      <c r="HZ102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HZ102"/>
+  <dimension ref="A1:IA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,6 +1058,9 @@
       <c r="HZ1" t="n">
         <v>10335</v>
       </c>
+      <c r="IA1" t="n">
+        <v>10343</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1764,6 +1767,9 @@
       <c r="HZ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IA2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2470,6 +2476,9 @@
       <c r="HZ3" t="n">
         <v>1</v>
       </c>
+      <c r="IA3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3176,6 +3185,9 @@
       <c r="HZ4" t="n">
         <v>0</v>
       </c>
+      <c r="IA4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3882,6 +3894,9 @@
       <c r="HZ5" t="n">
         <v>0</v>
       </c>
+      <c r="IA5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4588,6 +4603,9 @@
       <c r="HZ6" t="n">
         <v>83</v>
       </c>
+      <c r="IA6" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5294,6 +5312,9 @@
       <c r="HZ7" t="n">
         <v>58</v>
       </c>
+      <c r="IA7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6000,6 +6021,9 @@
       <c r="HZ8" t="n">
         <v>25</v>
       </c>
+      <c r="IA8" t="n">
+        <v>-7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6706,6 +6730,9 @@
       <c r="HZ9" t="n">
         <v>1</v>
       </c>
+      <c r="IA9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7412,6 +7439,9 @@
       <c r="HZ10" t="n">
         <v>8</v>
       </c>
+      <c r="IA10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8118,6 +8148,9 @@
       <c r="HZ11" t="n">
         <v>259</v>
       </c>
+      <c r="IA11" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8824,6 +8857,9 @@
       <c r="HZ12" t="n">
         <v>131</v>
       </c>
+      <c r="IA12" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9530,6 +9566,9 @@
       <c r="HZ13" t="n">
         <v>390</v>
       </c>
+      <c r="IA13" t="n">
+        <v>312</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10236,6 +10275,9 @@
       <c r="HZ14" t="n">
         <v>1.98</v>
       </c>
+      <c r="IA14" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10942,6 +10984,9 @@
       <c r="HZ15" t="n">
         <v>145</v>
       </c>
+      <c r="IA15" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11648,6 +11693,9 @@
       <c r="HZ16" t="n">
         <v>34</v>
       </c>
+      <c r="IA16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12354,6 +12402,9 @@
       <c r="HZ17" t="n">
         <v>23</v>
       </c>
+      <c r="IA17" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13060,6 +13111,9 @@
       <c r="HZ18" t="n">
         <v>20</v>
       </c>
+      <c r="IA18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13766,6 +13820,9 @@
       <c r="HZ19" t="n">
         <v>15</v>
       </c>
+      <c r="IA19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14472,6 +14529,9 @@
       <c r="HZ20" t="n">
         <v>12</v>
       </c>
+      <c r="IA20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15178,6 +15238,9 @@
       <c r="HZ21" t="n">
         <v>7</v>
       </c>
+      <c r="IA21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15884,6 +15947,9 @@
       <c r="HZ22" t="n">
         <v>11</v>
       </c>
+      <c r="IA22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16590,6 +16656,9 @@
       <c r="HZ23" t="n">
         <v>0</v>
       </c>
+      <c r="IA23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17296,6 +17365,9 @@
       <c r="HZ24" t="n">
         <v>23</v>
       </c>
+      <c r="IA24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18002,6 +18074,9 @@
       <c r="HZ25" t="n">
         <v>52.2</v>
       </c>
+      <c r="IA25" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18708,6 +18783,9 @@
       <c r="HZ26" t="n">
         <v>32.5</v>
       </c>
+      <c r="IA26" t="n">
+        <v>22.29</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19414,6 +19492,9 @@
       <c r="HZ27" t="n">
         <v>16.96</v>
       </c>
+      <c r="IA27" t="n">
+        <v>13.57</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20120,6 +20201,9 @@
       <c r="HZ28" t="n">
         <v>30</v>
       </c>
+      <c r="IA28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20826,6 +20910,9 @@
       <c r="HZ29" t="n">
         <v>44</v>
       </c>
+      <c r="IA29" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21532,6 +21619,9 @@
       <c r="HZ30" t="n">
         <v>36</v>
       </c>
+      <c r="IA30" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22238,6 +22328,9 @@
       <c r="HZ31" t="n">
         <v>52</v>
       </c>
+      <c r="IA31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22944,6 +23037,9 @@
       <c r="HZ32" t="n">
         <v>2.26</v>
       </c>
+      <c r="IA32" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23650,6 +23746,9 @@
       <c r="HZ33" t="n">
         <v>4.33</v>
       </c>
+      <c r="IA33" t="n">
+        <v>3.36</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24356,6 +24455,9 @@
       <c r="HZ34" t="n">
         <v>44.2</v>
       </c>
+      <c r="IA34" t="n">
+        <v>46.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25062,6 +25164,9 @@
       <c r="HZ35" t="n">
         <v>23.1</v>
       </c>
+      <c r="IA35" t="n">
+        <v>29.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25768,6 +25873,9 @@
       <c r="HZ36" t="n">
         <v>188.4</v>
       </c>
+      <c r="IA36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26474,6 +26582,9 @@
       <c r="HZ37" t="n">
         <v>88.09999999999999</v>
       </c>
+      <c r="IA37" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27180,6 +27291,9 @@
       <c r="HZ38" t="n">
         <v>26.91</v>
       </c>
+      <c r="IA38" t="n">
+        <v>26.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27886,6 +28000,9 @@
       <c r="HZ39" t="n">
         <v>120.5</v>
       </c>
+      <c r="IA39" t="n">
+        <v>120.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28592,6 +28709,9 @@
       <c r="HZ40" t="n">
         <v>5</v>
       </c>
+      <c r="IA40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29298,6 +29418,9 @@
       <c r="HZ41" t="n">
         <v>6</v>
       </c>
+      <c r="IA41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30004,6 +30127,9 @@
       <c r="HZ42" t="n">
         <v>3</v>
       </c>
+      <c r="IA42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30710,6 +30836,9 @@
       <c r="HZ43" t="n">
         <v>8</v>
       </c>
+      <c r="IA43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31416,6 +31545,9 @@
       <c r="HZ44" t="n">
         <v>120</v>
       </c>
+      <c r="IA44" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32122,6 +32254,9 @@
       <c r="HZ45" t="n">
         <v>265</v>
       </c>
+      <c r="IA45" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32828,6 +32963,9 @@
       <c r="HZ46" t="n">
         <v>305</v>
       </c>
+      <c r="IA46" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33534,6 +33672,9 @@
       <c r="HZ47" t="n">
         <v>78.2</v>
       </c>
+      <c r="IA47" t="n">
+        <v>71.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34240,6 +34381,9 @@
       <c r="HZ48" t="n">
         <v>44</v>
       </c>
+      <c r="IA48" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34946,6 +35090,9 @@
       <c r="HZ49" t="n">
         <v>15</v>
       </c>
+      <c r="IA49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35652,6 +35799,9 @@
       <c r="HZ50" t="n">
         <v>14</v>
       </c>
+      <c r="IA50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36358,6 +36508,9 @@
       <c r="HZ51" t="n">
         <v>30</v>
       </c>
+      <c r="IA51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37064,6 +37217,9 @@
       <c r="HZ52" t="n">
         <v>36</v>
       </c>
+      <c r="IA52" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37770,6 +37926,9 @@
       <c r="HZ53" t="n">
         <v>38</v>
       </c>
+      <c r="IA53" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38476,6 +38635,9 @@
       <c r="HZ54" t="n">
         <v>12</v>
       </c>
+      <c r="IA54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39182,6 +39344,9 @@
       <c r="HZ55" t="n">
         <v>7</v>
       </c>
+      <c r="IA55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39888,6 +40053,9 @@
       <c r="HZ56" t="n">
         <v>58.3</v>
       </c>
+      <c r="IA56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40594,6 +40762,9 @@
       <c r="HZ57" t="n">
         <v>256</v>
       </c>
+      <c r="IA57" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41300,6 +41471,9 @@
       <c r="HZ58" t="n">
         <v>125</v>
       </c>
+      <c r="IA58" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42006,6 +42180,9 @@
       <c r="HZ59" t="n">
         <v>381</v>
       </c>
+      <c r="IA59" t="n">
+        <v>406</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42712,6 +42889,9 @@
       <c r="HZ60" t="n">
         <v>2.05</v>
       </c>
+      <c r="IA60" t="n">
+        <v>1.11</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43418,6 +43598,9 @@
       <c r="HZ61" t="n">
         <v>137</v>
       </c>
+      <c r="IA61" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44124,6 +44307,9 @@
       <c r="HZ62" t="n">
         <v>39</v>
       </c>
+      <c r="IA62" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44830,6 +45016,9 @@
       <c r="HZ63" t="n">
         <v>31</v>
       </c>
+      <c r="IA63" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45536,6 +45725,9 @@
       <c r="HZ64" t="n">
         <v>15</v>
       </c>
+      <c r="IA64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46242,6 +46434,9 @@
       <c r="HZ65" t="n">
         <v>20</v>
       </c>
+      <c r="IA65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46948,6 +47143,9 @@
       <c r="HZ66" t="n">
         <v>8</v>
       </c>
+      <c r="IA66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47654,6 +47852,9 @@
       <c r="HZ67" t="n">
         <v>4</v>
       </c>
+      <c r="IA67" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48360,6 +48561,9 @@
       <c r="HZ68" t="n">
         <v>10</v>
       </c>
+      <c r="IA68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49066,6 +49270,9 @@
       <c r="HZ69" t="n">
         <v>0</v>
       </c>
+      <c r="IA69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49772,6 +49979,9 @@
       <c r="HZ70" t="n">
         <v>18</v>
       </c>
+      <c r="IA70" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50478,6 +50688,9 @@
       <c r="HZ71" t="n">
         <v>44.4</v>
       </c>
+      <c r="IA71" t="n">
+        <v>46.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51184,6 +51397,9 @@
       <c r="HZ72" t="n">
         <v>47.62</v>
       </c>
+      <c r="IA72" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51890,6 +52106,9 @@
       <c r="HZ73" t="n">
         <v>21.17</v>
       </c>
+      <c r="IA73" t="n">
+        <v>13.53</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52596,6 +52815,9 @@
       <c r="HZ74" t="n">
         <v>30</v>
       </c>
+      <c r="IA74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53302,6 +53524,9 @@
       <c r="HZ75" t="n">
         <v>64</v>
       </c>
+      <c r="IA75" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54008,6 +54233,9 @@
       <c r="HZ76" t="n">
         <v>39</v>
       </c>
+      <c r="IA76" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54714,6 +54942,9 @@
       <c r="HZ77" t="n">
         <v>44</v>
       </c>
+      <c r="IA77" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55420,6 +55651,9 @@
       <c r="HZ78" t="n">
         <v>2.44</v>
       </c>
+      <c r="IA78" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56126,6 +56360,9 @@
       <c r="HZ79" t="n">
         <v>5.5</v>
       </c>
+      <c r="IA79" t="n">
+        <v>3.64</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56832,6 +57069,9 @@
       <c r="HZ80" t="n">
         <v>40.9</v>
       </c>
+      <c r="IA80" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57538,6 +57778,9 @@
       <c r="HZ81" t="n">
         <v>18.2</v>
       </c>
+      <c r="IA81" t="n">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58244,6 +58487,9 @@
       <c r="HZ82" t="n">
         <v>187.4</v>
       </c>
+      <c r="IA82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58950,6 +59196,9 @@
       <c r="HZ83" t="n">
         <v>85.7</v>
       </c>
+      <c r="IA83" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59656,6 +59905,9 @@
       <c r="HZ84" t="n">
         <v>24.24</v>
       </c>
+      <c r="IA84" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60362,6 +60614,9 @@
       <c r="HZ85" t="n">
         <v>69</v>
       </c>
+      <c r="IA85" t="n">
+        <v>89.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61068,6 +61323,9 @@
       <c r="HZ86" t="n">
         <v>11</v>
       </c>
+      <c r="IA86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61774,6 +62032,9 @@
       <c r="HZ87" t="n">
         <v>5</v>
       </c>
+      <c r="IA87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62480,6 +62741,9 @@
       <c r="HZ88" t="n">
         <v>5</v>
       </c>
+      <c r="IA88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63186,6 +63450,9 @@
       <c r="HZ89" t="n">
         <v>2</v>
       </c>
+      <c r="IA89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63892,6 +64159,9 @@
       <c r="HZ90" t="n">
         <v>114</v>
       </c>
+      <c r="IA90" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64598,6 +64868,9 @@
       <c r="HZ91" t="n">
         <v>264</v>
       </c>
+      <c r="IA91" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65304,6 +65577,9 @@
       <c r="HZ92" t="n">
         <v>302</v>
       </c>
+      <c r="IA92" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66010,6 +66286,9 @@
       <c r="HZ93" t="n">
         <v>79.3</v>
       </c>
+      <c r="IA93" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66716,6 +66995,9 @@
       <c r="HZ94" t="n">
         <v>64</v>
       </c>
+      <c r="IA94" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67422,6 +67704,9 @@
       <c r="HZ95" t="n">
         <v>8</v>
       </c>
+      <c r="IA95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68128,6 +68413,9 @@
       <c r="HZ96" t="n">
         <v>5</v>
       </c>
+      <c r="IA96" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68834,6 +69122,9 @@
       <c r="HZ97" t="n">
         <v>30</v>
       </c>
+      <c r="IA97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69540,6 +69831,9 @@
       <c r="HZ98" t="n">
         <v>39</v>
       </c>
+      <c r="IA98" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70246,6 +70540,9 @@
       <c r="HZ99" t="n">
         <v>37</v>
       </c>
+      <c r="IA99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70952,6 +71249,9 @@
       <c r="HZ100" t="n">
         <v>14</v>
       </c>
+      <c r="IA100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71658,6 +71958,9 @@
       <c r="HZ101" t="n">
         <v>4</v>
       </c>
+      <c r="IA101" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72364,6 +72667,9 @@
       <c r="HZ102" t="n">
         <v>50</v>
       </c>
+      <c r="IA102" t="n">
+        <v>85.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IA102"/>
+  <dimension ref="A1:IB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,6 +1061,9 @@
       <c r="IA1" t="n">
         <v>10343</v>
       </c>
+      <c r="IB1" t="n">
+        <v>10350</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1770,6 +1773,9 @@
       <c r="IA2" t="n">
         <v>2021</v>
       </c>
+      <c r="IB2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2479,6 +2485,9 @@
       <c r="IA3" t="n">
         <v>2</v>
       </c>
+      <c r="IB3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3188,6 +3197,9 @@
       <c r="IA4" t="n">
         <v>1</v>
       </c>
+      <c r="IB4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3897,6 +3909,9 @@
       <c r="IA5" t="n">
         <v>0</v>
       </c>
+      <c r="IB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4606,6 +4621,9 @@
       <c r="IA6" t="n">
         <v>93</v>
       </c>
+      <c r="IB6" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5315,6 +5333,9 @@
       <c r="IA7" t="n">
         <v>100</v>
       </c>
+      <c r="IB7" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6024,6 +6045,9 @@
       <c r="IA8" t="n">
         <v>-7</v>
       </c>
+      <c r="IB8" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6733,6 +6757,9 @@
       <c r="IA9" t="n">
         <v>0</v>
       </c>
+      <c r="IB9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7442,6 +7469,9 @@
       <c r="IA10" t="n">
         <v>18</v>
       </c>
+      <c r="IB10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8151,6 +8181,9 @@
       <c r="IA11" t="n">
         <v>219</v>
       </c>
+      <c r="IB11" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8860,6 +8893,9 @@
       <c r="IA12" t="n">
         <v>93</v>
       </c>
+      <c r="IB12" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9569,6 +9605,9 @@
       <c r="IA13" t="n">
         <v>312</v>
       </c>
+      <c r="IB13" t="n">
+        <v>412</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10278,6 +10317,9 @@
       <c r="IA14" t="n">
         <v>2.35</v>
       </c>
+      <c r="IB14" t="n">
+        <v>1.94</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10987,6 +11029,9 @@
       <c r="IA15" t="n">
         <v>102</v>
       </c>
+      <c r="IB15" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11696,6 +11741,9 @@
       <c r="IA16" t="n">
         <v>46</v>
       </c>
+      <c r="IB16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12405,6 +12453,9 @@
       <c r="IA17" t="n">
         <v>52</v>
       </c>
+      <c r="IB17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13114,6 +13165,9 @@
       <c r="IA18" t="n">
         <v>19</v>
       </c>
+      <c r="IB18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13823,6 +13877,9 @@
       <c r="IA19" t="n">
         <v>14</v>
       </c>
+      <c r="IB19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14532,6 +14589,9 @@
       <c r="IA20" t="n">
         <v>14</v>
       </c>
+      <c r="IB20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15241,6 +15301,9 @@
       <c r="IA21" t="n">
         <v>10</v>
       </c>
+      <c r="IB21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15950,6 +16013,9 @@
       <c r="IA22" t="n">
         <v>8</v>
       </c>
+      <c r="IB22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16659,6 +16725,9 @@
       <c r="IA23" t="n">
         <v>1</v>
       </c>
+      <c r="IB23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17368,6 +17437,9 @@
       <c r="IA24" t="n">
         <v>23</v>
       </c>
+      <c r="IB24" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18077,6 +18149,9 @@
       <c r="IA25" t="n">
         <v>60.9</v>
       </c>
+      <c r="IB25" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18786,6 +18861,9 @@
       <c r="IA26" t="n">
         <v>22.29</v>
       </c>
+      <c r="IB26" t="n">
+        <v>25.75</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19495,6 +19573,9 @@
       <c r="IA27" t="n">
         <v>13.57</v>
       </c>
+      <c r="IB27" t="n">
+        <v>14.71</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20204,6 +20285,9 @@
       <c r="IA28" t="n">
         <v>36</v>
       </c>
+      <c r="IB28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20913,6 +20997,9 @@
       <c r="IA29" t="n">
         <v>47</v>
       </c>
+      <c r="IB29" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21622,6 +21709,9 @@
       <c r="IA30" t="n">
         <v>37</v>
       </c>
+      <c r="IB30" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22331,6 +22421,9 @@
       <c r="IA31" t="n">
         <v>47</v>
       </c>
+      <c r="IB31" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23040,6 +23133,9 @@
       <c r="IA32" t="n">
         <v>2.04</v>
       </c>
+      <c r="IB32" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23749,6 +23845,9 @@
       <c r="IA33" t="n">
         <v>3.36</v>
       </c>
+      <c r="IB33" t="n">
+        <v>3.56</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24458,6 +24557,9 @@
       <c r="IA34" t="n">
         <v>46.8</v>
       </c>
+      <c r="IB34" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25167,6 +25269,9 @@
       <c r="IA35" t="n">
         <v>29.8</v>
       </c>
+      <c r="IB35" t="n">
+        <v>28.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25876,6 +25981,9 @@
       <c r="IA36" t="n">
         <v>188.2</v>
       </c>
+      <c r="IB36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26585,6 +26693,9 @@
       <c r="IA37" t="n">
         <v>88.09999999999999</v>
       </c>
+      <c r="IB37" t="n">
+        <v>87.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27294,6 +27405,9 @@
       <c r="IA38" t="n">
         <v>26.91</v>
       </c>
+      <c r="IB38" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28003,6 +28117,9 @@
       <c r="IA39" t="n">
         <v>120.5</v>
       </c>
+      <c r="IB39" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28712,6 +28829,9 @@
       <c r="IA40" t="n">
         <v>5</v>
       </c>
+      <c r="IB40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29421,6 +29541,9 @@
       <c r="IA41" t="n">
         <v>6</v>
       </c>
+      <c r="IB41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30130,6 +30253,9 @@
       <c r="IA42" t="n">
         <v>3</v>
       </c>
+      <c r="IB42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30839,6 +30965,9 @@
       <c r="IA43" t="n">
         <v>8</v>
       </c>
+      <c r="IB43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31548,6 +31677,9 @@
       <c r="IA44" t="n">
         <v>128</v>
       </c>
+      <c r="IB44" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32257,6 +32389,9 @@
       <c r="IA45" t="n">
         <v>179</v>
       </c>
+      <c r="IB45" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32966,6 +33101,9 @@
       <c r="IA46" t="n">
         <v>223</v>
       </c>
+      <c r="IB46" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33675,6 +33813,9 @@
       <c r="IA47" t="n">
         <v>71.5</v>
       </c>
+      <c r="IB47" t="n">
+        <v>79.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34384,6 +34525,9 @@
       <c r="IA48" t="n">
         <v>47</v>
       </c>
+      <c r="IB48" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35093,6 +35237,9 @@
       <c r="IA49" t="n">
         <v>16</v>
       </c>
+      <c r="IB49" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35802,6 +35949,9 @@
       <c r="IA50" t="n">
         <v>13</v>
       </c>
+      <c r="IB50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36511,6 +36661,9 @@
       <c r="IA51" t="n">
         <v>36</v>
       </c>
+      <c r="IB51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37220,6 +37373,9 @@
       <c r="IA52" t="n">
         <v>37</v>
       </c>
+      <c r="IB52" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37929,6 +38085,9 @@
       <c r="IA53" t="n">
         <v>57</v>
       </c>
+      <c r="IB53" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38638,6 +38797,9 @@
       <c r="IA54" t="n">
         <v>3</v>
       </c>
+      <c r="IB54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39347,6 +39509,9 @@
       <c r="IA55" t="n">
         <v>10</v>
       </c>
+      <c r="IB55" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40056,6 +40221,9 @@
       <c r="IA56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IB56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40765,6 +40933,9 @@
       <c r="IA57" t="n">
         <v>214</v>
       </c>
+      <c r="IB57" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41474,6 +41645,9 @@
       <c r="IA58" t="n">
         <v>192</v>
       </c>
+      <c r="IB58" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42183,6 +42357,9 @@
       <c r="IA59" t="n">
         <v>406</v>
       </c>
+      <c r="IB59" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42892,6 +43069,9 @@
       <c r="IA60" t="n">
         <v>1.11</v>
       </c>
+      <c r="IB60" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43601,6 +43781,9 @@
       <c r="IA61" t="n">
         <v>95</v>
       </c>
+      <c r="IB61" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44310,6 +44493,9 @@
       <c r="IA62" t="n">
         <v>43</v>
       </c>
+      <c r="IB62" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45019,6 +45205,9 @@
       <c r="IA63" t="n">
         <v>21</v>
       </c>
+      <c r="IB63" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45728,6 +45917,9 @@
       <c r="IA64" t="n">
         <v>14</v>
       </c>
+      <c r="IB64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46437,6 +46629,9 @@
       <c r="IA65" t="n">
         <v>19</v>
       </c>
+      <c r="IB65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47146,6 +47341,9 @@
       <c r="IA66" t="n">
         <v>14</v>
       </c>
+      <c r="IB66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47855,6 +48053,9 @@
       <c r="IA67" t="n">
         <v>12</v>
       </c>
+      <c r="IB67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48564,6 +48765,9 @@
       <c r="IA68" t="n">
         <v>12</v>
       </c>
+      <c r="IB68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49273,6 +49477,9 @@
       <c r="IA69" t="n">
         <v>4</v>
       </c>
+      <c r="IB69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49982,6 +50189,9 @@
       <c r="IA70" t="n">
         <v>30</v>
       </c>
+      <c r="IB70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50691,6 +50901,9 @@
       <c r="IA71" t="n">
         <v>46.7</v>
       </c>
+      <c r="IB71" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51400,6 +51613,9 @@
       <c r="IA72" t="n">
         <v>29</v>
       </c>
+      <c r="IB72" t="n">
+        <v>31.91</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52109,6 +52325,9 @@
       <c r="IA73" t="n">
         <v>13.53</v>
       </c>
+      <c r="IB73" t="n">
+        <v>21.94</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52818,6 +53037,9 @@
       <c r="IA74" t="n">
         <v>41</v>
       </c>
+      <c r="IB74" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53527,6 +53749,9 @@
       <c r="IA75" t="n">
         <v>51</v>
       </c>
+      <c r="IB75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54236,6 +54461,9 @@
       <c r="IA76" t="n">
         <v>31</v>
       </c>
+      <c r="IB76" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54945,6 +55173,9 @@
       <c r="IA77" t="n">
         <v>51</v>
       </c>
+      <c r="IB77" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55654,6 +55885,9 @@
       <c r="IA78" t="n">
         <v>1.7</v>
       </c>
+      <c r="IB78" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56363,6 +56597,9 @@
       <c r="IA79" t="n">
         <v>3.64</v>
       </c>
+      <c r="IB79" t="n">
+        <v>3.64</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57072,6 +57309,9 @@
       <c r="IA80" t="n">
         <v>51</v>
       </c>
+      <c r="IB80" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57781,6 +58021,9 @@
       <c r="IA81" t="n">
         <v>27.5</v>
       </c>
+      <c r="IB81" t="n">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58490,6 +58733,9 @@
       <c r="IA82" t="n">
         <v>187.7</v>
       </c>
+      <c r="IB82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59199,6 +59445,9 @@
       <c r="IA83" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="IB83" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59908,6 +60157,9 @@
       <c r="IA84" t="n">
         <v>25.58</v>
       </c>
+      <c r="IB84" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60617,6 +60869,9 @@
       <c r="IA85" t="n">
         <v>89.8</v>
       </c>
+      <c r="IB85" t="n">
+        <v>103.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61326,6 +61581,9 @@
       <c r="IA86" t="n">
         <v>7</v>
       </c>
+      <c r="IB86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62035,6 +62293,9 @@
       <c r="IA87" t="n">
         <v>5</v>
       </c>
+      <c r="IB87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62744,6 +63005,9 @@
       <c r="IA88" t="n">
         <v>5</v>
       </c>
+      <c r="IB88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63453,6 +63717,9 @@
       <c r="IA89" t="n">
         <v>5</v>
       </c>
+      <c r="IB89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64162,6 +64429,9 @@
       <c r="IA90" t="n">
         <v>139</v>
       </c>
+      <c r="IB90" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64871,6 +65141,9 @@
       <c r="IA91" t="n">
         <v>275</v>
       </c>
+      <c r="IB91" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65580,6 +65853,9 @@
       <c r="IA92" t="n">
         <v>329</v>
       </c>
+      <c r="IB92" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66289,6 +66565,9 @@
       <c r="IA93" t="n">
         <v>81</v>
       </c>
+      <c r="IB93" t="n">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66998,6 +67277,9 @@
       <c r="IA94" t="n">
         <v>51</v>
       </c>
+      <c r="IB94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67707,6 +67989,9 @@
       <c r="IA95" t="n">
         <v>15</v>
       </c>
+      <c r="IB95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68416,6 +68701,9 @@
       <c r="IA96" t="n">
         <v>17</v>
       </c>
+      <c r="IB96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69125,6 +69413,9 @@
       <c r="IA97" t="n">
         <v>41</v>
       </c>
+      <c r="IB97" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69834,6 +70125,9 @@
       <c r="IA98" t="n">
         <v>31</v>
       </c>
+      <c r="IB98" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70543,6 +70837,9 @@
       <c r="IA99" t="n">
         <v>51</v>
       </c>
+      <c r="IB99" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71252,6 +71549,9 @@
       <c r="IA100" t="n">
         <v>7</v>
       </c>
+      <c r="IB100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71961,6 +72261,9 @@
       <c r="IA101" t="n">
         <v>12</v>
       </c>
+      <c r="IB101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72670,6 +72973,9 @@
       <c r="IA102" t="n">
         <v>85.7</v>
       </c>
+      <c r="IB102" t="n">
+        <v>90.90000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IB102"/>
+  <dimension ref="A1:IC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,6 +1064,9 @@
       <c r="IB1" t="n">
         <v>10350</v>
       </c>
+      <c r="IC1" t="n">
+        <v>10357</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1776,6 +1779,9 @@
       <c r="IB2" t="n">
         <v>2021</v>
       </c>
+      <c r="IC2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2488,6 +2494,9 @@
       <c r="IB3" t="n">
         <v>3</v>
       </c>
+      <c r="IC3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3200,6 +3209,9 @@
       <c r="IB4" t="n">
         <v>0</v>
       </c>
+      <c r="IC4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3912,6 +3924,9 @@
       <c r="IB5" t="n">
         <v>0</v>
       </c>
+      <c r="IC5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4624,6 +4639,9 @@
       <c r="IB6" t="n">
         <v>108</v>
       </c>
+      <c r="IC6" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5336,6 +5354,9 @@
       <c r="IB7" t="n">
         <v>71</v>
       </c>
+      <c r="IC7" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6048,6 +6069,9 @@
       <c r="IB8" t="n">
         <v>37</v>
       </c>
+      <c r="IC8" t="n">
+        <v>-20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6760,6 +6784,9 @@
       <c r="IB9" t="n">
         <v>1</v>
       </c>
+      <c r="IC9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7472,6 +7499,9 @@
       <c r="IB10" t="n">
         <v>13</v>
       </c>
+      <c r="IC10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8184,6 +8214,9 @@
       <c r="IB11" t="n">
         <v>272</v>
       </c>
+      <c r="IC11" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8896,6 +8929,9 @@
       <c r="IB12" t="n">
         <v>140</v>
       </c>
+      <c r="IC12" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9608,6 +9644,9 @@
       <c r="IB13" t="n">
         <v>412</v>
       </c>
+      <c r="IC13" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10320,6 +10359,9 @@
       <c r="IB14" t="n">
         <v>1.94</v>
       </c>
+      <c r="IC14" t="n">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11032,6 +11074,9 @@
       <c r="IB15" t="n">
         <v>141</v>
       </c>
+      <c r="IC15" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11744,6 +11789,9 @@
       <c r="IB16" t="n">
         <v>46</v>
       </c>
+      <c r="IC16" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12456,6 +12504,9 @@
       <c r="IB17" t="n">
         <v>32</v>
       </c>
+      <c r="IC17" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13168,6 +13219,9 @@
       <c r="IB18" t="n">
         <v>21</v>
       </c>
+      <c r="IC18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13880,6 +13934,9 @@
       <c r="IB19" t="n">
         <v>16</v>
       </c>
+      <c r="IC19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14592,6 +14649,9 @@
       <c r="IB20" t="n">
         <v>16</v>
       </c>
+      <c r="IC20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15304,6 +15364,9 @@
       <c r="IB21" t="n">
         <v>12</v>
       </c>
+      <c r="IC21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16016,6 +16079,9 @@
       <c r="IB22" t="n">
         <v>11</v>
       </c>
+      <c r="IC22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16728,6 +16794,9 @@
       <c r="IB23" t="n">
         <v>1</v>
       </c>
+      <c r="IC23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17440,6 +17509,9 @@
       <c r="IB24" t="n">
         <v>28</v>
       </c>
+      <c r="IC24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18152,6 +18224,9 @@
       <c r="IB25" t="n">
         <v>57.1</v>
       </c>
+      <c r="IC25" t="n">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18864,6 +18939,9 @@
       <c r="IB26" t="n">
         <v>25.75</v>
       </c>
+      <c r="IC26" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19576,6 +19654,9 @@
       <c r="IB27" t="n">
         <v>14.71</v>
       </c>
+      <c r="IC27" t="n">
+        <v>19.12</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20288,6 +20369,9 @@
       <c r="IB28" t="n">
         <v>41</v>
       </c>
+      <c r="IC28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21000,6 +21084,9 @@
       <c r="IB29" t="n">
         <v>49</v>
       </c>
+      <c r="IC29" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21712,6 +21799,9 @@
       <c r="IB30" t="n">
         <v>29</v>
       </c>
+      <c r="IC30" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22424,6 +22514,9 @@
       <c r="IB31" t="n">
         <v>57</v>
       </c>
+      <c r="IC31" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23136,6 +23229,9 @@
       <c r="IB32" t="n">
         <v>2.04</v>
       </c>
+      <c r="IC32" t="n">
+        <v>2.12</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23848,6 +23944,9 @@
       <c r="IB33" t="n">
         <v>3.56</v>
       </c>
+      <c r="IC33" t="n">
+        <v>2.77</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24560,6 +24659,9 @@
       <c r="IB34" t="n">
         <v>47.4</v>
       </c>
+      <c r="IC34" t="n">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25272,6 +25374,9 @@
       <c r="IB35" t="n">
         <v>28.1</v>
       </c>
+      <c r="IC35" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25984,6 +26089,9 @@
       <c r="IB36" t="n">
         <v>187.7</v>
       </c>
+      <c r="IC36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26696,6 +26804,9 @@
       <c r="IB37" t="n">
         <v>87.90000000000001</v>
       </c>
+      <c r="IC37" t="n">
+        <v>87.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27408,6 +27519,9 @@
       <c r="IB38" t="n">
         <v>26.8</v>
       </c>
+      <c r="IC38" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28120,6 +28234,9 @@
       <c r="IB39" t="n">
         <v>124</v>
       </c>
+      <c r="IC39" t="n">
+        <v>115.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28832,6 +28949,9 @@
       <c r="IB40" t="n">
         <v>6</v>
       </c>
+      <c r="IC40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29544,6 +29664,9 @@
       <c r="IB41" t="n">
         <v>5</v>
       </c>
+      <c r="IC41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30256,6 +30379,9 @@
       <c r="IB42" t="n">
         <v>3</v>
       </c>
+      <c r="IC42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30968,6 +31094,9 @@
       <c r="IB43" t="n">
         <v>9</v>
       </c>
+      <c r="IC43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31680,6 +31809,9 @@
       <c r="IB44" t="n">
         <v>152</v>
       </c>
+      <c r="IC44" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32392,6 +32524,9 @@
       <c r="IB45" t="n">
         <v>270</v>
       </c>
+      <c r="IC45" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33104,6 +33239,9 @@
       <c r="IB46" t="n">
         <v>329</v>
       </c>
+      <c r="IC46" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33816,6 +33954,9 @@
       <c r="IB47" t="n">
         <v>79.90000000000001</v>
       </c>
+      <c r="IC47" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34528,6 +34669,9 @@
       <c r="IB48" t="n">
         <v>49</v>
       </c>
+      <c r="IC48" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35240,6 +35384,9 @@
       <c r="IB49" t="n">
         <v>21</v>
       </c>
+      <c r="IC49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35952,6 +36099,9 @@
       <c r="IB50" t="n">
         <v>15</v>
       </c>
+      <c r="IC50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36664,6 +36814,9 @@
       <c r="IB51" t="n">
         <v>41</v>
       </c>
+      <c r="IC51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37376,6 +37529,9 @@
       <c r="IB52" t="n">
         <v>29</v>
       </c>
+      <c r="IC52" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38088,6 +38244,9 @@
       <c r="IB53" t="n">
         <v>56</v>
       </c>
+      <c r="IC53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38800,6 +38959,9 @@
       <c r="IB54" t="n">
         <v>0</v>
       </c>
+      <c r="IC54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39512,6 +39674,9 @@
       <c r="IB55" t="n">
         <v>12</v>
       </c>
+      <c r="IC55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40224,6 +40389,9 @@
       <c r="IB56" t="n">
         <v>75</v>
       </c>
+      <c r="IC56" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40936,6 +41104,9 @@
       <c r="IB57" t="n">
         <v>198</v>
       </c>
+      <c r="IC57" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41648,6 +41819,9 @@
       <c r="IB58" t="n">
         <v>153</v>
       </c>
+      <c r="IC58" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42360,6 +42534,9 @@
       <c r="IB59" t="n">
         <v>351</v>
       </c>
+      <c r="IC59" t="n">
+        <v>404</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43072,6 +43249,9 @@
       <c r="IB60" t="n">
         <v>1.29</v>
       </c>
+      <c r="IC60" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43784,6 +43964,9 @@
       <c r="IB61" t="n">
         <v>87</v>
       </c>
+      <c r="IC61" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44496,6 +44679,9 @@
       <c r="IB62" t="n">
         <v>52</v>
       </c>
+      <c r="IC62" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45208,6 +45394,9 @@
       <c r="IB63" t="n">
         <v>30</v>
       </c>
+      <c r="IC63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45920,6 +46109,9 @@
       <c r="IB64" t="n">
         <v>16</v>
       </c>
+      <c r="IC64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46632,6 +46824,9 @@
       <c r="IB65" t="n">
         <v>21</v>
       </c>
+      <c r="IC65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47344,6 +47539,9 @@
       <c r="IB66" t="n">
         <v>11</v>
       </c>
+      <c r="IC66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48056,6 +48254,9 @@
       <c r="IB67" t="n">
         <v>10</v>
       </c>
+      <c r="IC67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48768,6 +48969,9 @@
       <c r="IB68" t="n">
         <v>4</v>
       </c>
+      <c r="IC68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49480,6 +49684,9 @@
       <c r="IB69" t="n">
         <v>1</v>
       </c>
+      <c r="IC69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50192,6 +50399,9 @@
       <c r="IB70" t="n">
         <v>16</v>
       </c>
+      <c r="IC70" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50904,6 +51114,9 @@
       <c r="IB71" t="n">
         <v>68.8</v>
       </c>
+      <c r="IC71" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51616,6 +51829,9 @@
       <c r="IB72" t="n">
         <v>31.91</v>
       </c>
+      <c r="IC72" t="n">
+        <v>26.93</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52328,6 +52544,9 @@
       <c r="IB73" t="n">
         <v>21.94</v>
       </c>
+      <c r="IC73" t="n">
+        <v>14.96</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53040,6 +53259,9 @@
       <c r="IB74" t="n">
         <v>27</v>
       </c>
+      <c r="IC74" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53752,6 +53974,9 @@
       <c r="IB75" t="n">
         <v>59</v>
       </c>
+      <c r="IC75" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54464,6 +54689,9 @@
       <c r="IB76" t="n">
         <v>41</v>
       </c>
+      <c r="IC76" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55176,6 +55404,9 @@
       <c r="IB77" t="n">
         <v>40</v>
       </c>
+      <c r="IC77" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55888,6 +56119,9 @@
       <c r="IB78" t="n">
         <v>2.5</v>
       </c>
+      <c r="IC78" t="n">
+        <v>1.96</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56600,6 +56834,9 @@
       <c r="IB79" t="n">
         <v>3.64</v>
       </c>
+      <c r="IC79" t="n">
+        <v>3.53</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57312,6 +57549,9 @@
       <c r="IB80" t="n">
         <v>37.5</v>
       </c>
+      <c r="IC80" t="n">
+        <v>49.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58024,6 +58264,9 @@
       <c r="IB81" t="n">
         <v>27.5</v>
       </c>
+      <c r="IC81" t="n">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58736,6 +58979,9 @@
       <c r="IB82" t="n">
         <v>188.5</v>
       </c>
+      <c r="IC82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59448,6 +59694,9 @@
       <c r="IB83" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="IC83" t="n">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60160,6 +60409,9 @@
       <c r="IB84" t="n">
         <v>25.91</v>
       </c>
+      <c r="IC84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60872,6 +61124,9 @@
       <c r="IB85" t="n">
         <v>103.4</v>
       </c>
+      <c r="IC85" t="n">
+        <v>81.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61584,6 +61839,9 @@
       <c r="IB86" t="n">
         <v>7</v>
       </c>
+      <c r="IC86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62296,6 +62554,9 @@
       <c r="IB87" t="n">
         <v>5</v>
       </c>
+      <c r="IC87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63008,6 +63269,9 @@
       <c r="IB88" t="n">
         <v>3</v>
       </c>
+      <c r="IC88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63720,6 +63984,9 @@
       <c r="IB89" t="n">
         <v>7</v>
       </c>
+      <c r="IC89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64432,6 +64699,9 @@
       <c r="IB90" t="n">
         <v>135</v>
       </c>
+      <c r="IC90" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65144,6 +65414,9 @@
       <c r="IB91" t="n">
         <v>211</v>
       </c>
+      <c r="IC91" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65856,6 +66129,9 @@
       <c r="IB92" t="n">
         <v>264</v>
       </c>
+      <c r="IC92" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66568,6 +66844,9 @@
       <c r="IB93" t="n">
         <v>75.2</v>
       </c>
+      <c r="IC93" t="n">
+        <v>72.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67280,6 +67559,9 @@
       <c r="IB94" t="n">
         <v>59</v>
       </c>
+      <c r="IC94" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67992,6 +68274,9 @@
       <c r="IB95" t="n">
         <v>13</v>
       </c>
+      <c r="IC95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68704,6 +68989,9 @@
       <c r="IB96" t="n">
         <v>9</v>
       </c>
+      <c r="IC96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69416,6 +69704,9 @@
       <c r="IB97" t="n">
         <v>27</v>
       </c>
+      <c r="IC97" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70128,6 +70419,9 @@
       <c r="IB98" t="n">
         <v>41</v>
       </c>
+      <c r="IC98" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70840,6 +71134,9 @@
       <c r="IB99" t="n">
         <v>54</v>
       </c>
+      <c r="IC99" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71552,6 +71849,9 @@
       <c r="IB100" t="n">
         <v>4</v>
       </c>
+      <c r="IC100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72264,6 +72564,9 @@
       <c r="IB101" t="n">
         <v>10</v>
       </c>
+      <c r="IC101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72976,6 +73279,9 @@
       <c r="IB102" t="n">
         <v>90.90000000000001</v>
       </c>
+      <c r="IC102" t="n">
+        <v>73.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IC102"/>
+  <dimension ref="A1:ID102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,6 +1067,9 @@
       <c r="IC1" t="n">
         <v>10357</v>
       </c>
+      <c r="ID1" t="n">
+        <v>10364</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1782,6 +1785,9 @@
       <c r="IC2" t="n">
         <v>2021</v>
       </c>
+      <c r="ID2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2497,6 +2503,9 @@
       <c r="IC3" t="n">
         <v>4</v>
       </c>
+      <c r="ID3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3212,6 +3221,9 @@
       <c r="IC4" t="n">
         <v>1</v>
       </c>
+      <c r="ID4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3927,6 +3939,9 @@
       <c r="IC5" t="n">
         <v>0</v>
       </c>
+      <c r="ID5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4642,6 +4657,9 @@
       <c r="IC6" t="n">
         <v>82</v>
       </c>
+      <c r="ID6" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5357,6 +5375,9 @@
       <c r="IC7" t="n">
         <v>102</v>
       </c>
+      <c r="ID7" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6072,6 +6093,9 @@
       <c r="IC8" t="n">
         <v>-20</v>
       </c>
+      <c r="ID8" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6787,6 +6811,9 @@
       <c r="IC9" t="n">
         <v>0</v>
       </c>
+      <c r="ID9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7502,6 +7529,9 @@
       <c r="IC10" t="n">
         <v>15</v>
       </c>
+      <c r="ID10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8217,6 +8247,9 @@
       <c r="IC11" t="n">
         <v>208</v>
       </c>
+      <c r="ID11" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8932,6 +8965,9 @@
       <c r="IC12" t="n">
         <v>117</v>
       </c>
+      <c r="ID12" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9647,6 +9683,9 @@
       <c r="IC13" t="n">
         <v>325</v>
       </c>
+      <c r="ID13" t="n">
+        <v>414</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10362,6 +10401,9 @@
       <c r="IC14" t="n">
         <v>1.78</v>
       </c>
+      <c r="ID14" t="n">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11077,6 +11119,9 @@
       <c r="IC15" t="n">
         <v>103</v>
       </c>
+      <c r="ID15" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11792,6 +11837,9 @@
       <c r="IC16" t="n">
         <v>53</v>
       </c>
+      <c r="ID16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12507,6 +12555,9 @@
       <c r="IC17" t="n">
         <v>45</v>
       </c>
+      <c r="ID17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13222,6 +13273,9 @@
       <c r="IC18" t="n">
         <v>23</v>
       </c>
+      <c r="ID18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13937,6 +13991,9 @@
       <c r="IC19" t="n">
         <v>21</v>
       </c>
+      <c r="ID19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14652,6 +14709,9 @@
       <c r="IC20" t="n">
         <v>13</v>
       </c>
+      <c r="ID20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15367,6 +15427,9 @@
       <c r="IC21" t="n">
         <v>6</v>
       </c>
+      <c r="ID21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16082,6 +16145,9 @@
       <c r="IC22" t="n">
         <v>2</v>
       </c>
+      <c r="ID22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16797,6 +16863,9 @@
       <c r="IC23" t="n">
         <v>2</v>
       </c>
+      <c r="ID23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17512,6 +17581,9 @@
       <c r="IC24" t="n">
         <v>17</v>
       </c>
+      <c r="ID24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18227,6 +18299,9 @@
       <c r="IC25" t="n">
         <v>76.5</v>
       </c>
+      <c r="ID25" t="n">
+        <v>69.59999999999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18942,6 +19017,9 @@
       <c r="IC26" t="n">
         <v>25</v>
       </c>
+      <c r="ID26" t="n">
+        <v>25.88</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19657,6 +19735,9 @@
       <c r="IC27" t="n">
         <v>19.12</v>
       </c>
+      <c r="ID27" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20372,6 +20453,9 @@
       <c r="IC28" t="n">
         <v>30</v>
       </c>
+      <c r="ID28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21087,6 +21171,9 @@
       <c r="IC29" t="n">
         <v>68</v>
       </c>
+      <c r="ID29" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21802,6 +21889,9 @@
       <c r="IC30" t="n">
         <v>37</v>
       </c>
+      <c r="ID30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22517,6 +22607,9 @@
       <c r="IC31" t="n">
         <v>36</v>
       </c>
+      <c r="ID31" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23232,6 +23325,9 @@
       <c r="IC32" t="n">
         <v>2.12</v>
       </c>
+      <c r="ID32" t="n">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23947,6 +24043,9 @@
       <c r="IC33" t="n">
         <v>2.77</v>
       </c>
+      <c r="ID33" t="n">
+        <v>2.56</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24662,6 +24761,9 @@
       <c r="IC34" t="n">
         <v>41.7</v>
       </c>
+      <c r="ID34" t="n">
+        <v>53.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25377,6 +25479,9 @@
       <c r="IC35" t="n">
         <v>36.1</v>
       </c>
+      <c r="ID35" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26092,6 +26197,9 @@
       <c r="IC36" t="n">
         <v>188.2</v>
       </c>
+      <c r="ID36" t="n">
+        <v>189.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26807,6 +26915,9 @@
       <c r="IC37" t="n">
         <v>87.90000000000001</v>
       </c>
+      <c r="ID37" t="n">
+        <v>89.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27522,6 +27633,9 @@
       <c r="IC38" t="n">
         <v>26.24</v>
       </c>
+      <c r="ID38" t="n">
+        <v>26.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28237,6 +28351,9 @@
       <c r="IC39" t="n">
         <v>115.9</v>
       </c>
+      <c r="ID39" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28952,6 +29069,9 @@
       <c r="IC40" t="n">
         <v>7</v>
       </c>
+      <c r="ID40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29667,6 +29787,9 @@
       <c r="IC41" t="n">
         <v>5</v>
       </c>
+      <c r="ID41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30382,6 +30505,9 @@
       <c r="IC42" t="n">
         <v>3</v>
       </c>
+      <c r="ID42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31097,6 +31223,9 @@
       <c r="IC43" t="n">
         <v>8</v>
       </c>
+      <c r="ID43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31812,6 +31941,9 @@
       <c r="IC44" t="n">
         <v>129</v>
       </c>
+      <c r="ID44" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32527,6 +32659,9 @@
       <c r="IC45" t="n">
         <v>187</v>
       </c>
+      <c r="ID45" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33242,6 +33377,9 @@
       <c r="IC46" t="n">
         <v>232</v>
       </c>
+      <c r="ID46" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33957,6 +34095,9 @@
       <c r="IC47" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="ID47" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34672,6 +34813,9 @@
       <c r="IC48" t="n">
         <v>68</v>
       </c>
+      <c r="ID48" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35387,6 +35531,9 @@
       <c r="IC49" t="n">
         <v>16</v>
       </c>
+      <c r="ID49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36102,6 +36249,9 @@
       <c r="IC50" t="n">
         <v>9</v>
       </c>
+      <c r="ID50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36817,6 +36967,9 @@
       <c r="IC51" t="n">
         <v>30</v>
       </c>
+      <c r="ID51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37532,6 +37685,9 @@
       <c r="IC52" t="n">
         <v>37</v>
       </c>
+      <c r="ID52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38247,6 +38403,9 @@
       <c r="IC53" t="n">
         <v>47</v>
       </c>
+      <c r="ID53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38962,6 +39121,9 @@
       <c r="IC54" t="n">
         <v>2</v>
       </c>
+      <c r="ID54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39677,6 +39839,9 @@
       <c r="IC55" t="n">
         <v>6</v>
       </c>
+      <c r="ID55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40392,6 +40557,9 @@
       <c r="IC56" t="n">
         <v>46.2</v>
       </c>
+      <c r="ID56" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41107,6 +41275,9 @@
       <c r="IC57" t="n">
         <v>254</v>
       </c>
+      <c r="ID57" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41822,6 +41993,9 @@
       <c r="IC58" t="n">
         <v>150</v>
       </c>
+      <c r="ID58" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42537,6 +42711,9 @@
       <c r="IC59" t="n">
         <v>404</v>
       </c>
+      <c r="ID59" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43252,6 +43429,9 @@
       <c r="IC60" t="n">
         <v>1.69</v>
       </c>
+      <c r="ID60" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43967,6 +44147,9 @@
       <c r="IC61" t="n">
         <v>115</v>
       </c>
+      <c r="ID61" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44682,6 +44865,9 @@
       <c r="IC62" t="n">
         <v>69</v>
       </c>
+      <c r="ID62" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45397,6 +45583,9 @@
       <c r="IC63" t="n">
         <v>32</v>
       </c>
+      <c r="ID63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46112,6 +46301,9 @@
       <c r="IC64" t="n">
         <v>21</v>
       </c>
+      <c r="ID64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46827,6 +47019,9 @@
       <c r="IC65" t="n">
         <v>23</v>
       </c>
+      <c r="ID65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47542,6 +47737,9 @@
       <c r="IC66" t="n">
         <v>15</v>
       </c>
+      <c r="ID66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48257,6 +48455,9 @@
       <c r="IC67" t="n">
         <v>11</v>
       </c>
+      <c r="ID67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48972,6 +49173,9 @@
       <c r="IC68" t="n">
         <v>11</v>
       </c>
+      <c r="ID68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49687,6 +49891,9 @@
       <c r="IC69" t="n">
         <v>1</v>
       </c>
+      <c r="ID69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50402,6 +50609,9 @@
       <c r="IC70" t="n">
         <v>27</v>
       </c>
+      <c r="ID70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51117,6 +51327,9 @@
       <c r="IC71" t="n">
         <v>55.6</v>
       </c>
+      <c r="ID71" t="n">
+        <v>52.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51832,6 +52045,9 @@
       <c r="IC72" t="n">
         <v>26.93</v>
       </c>
+      <c r="ID72" t="n">
+        <v>30.82</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52547,6 +52763,9 @@
       <c r="IC73" t="n">
         <v>14.96</v>
       </c>
+      <c r="ID73" t="n">
+        <v>16.14</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53262,6 +53481,9 @@
       <c r="IC74" t="n">
         <v>45</v>
       </c>
+      <c r="ID74" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53977,6 +54199,9 @@
       <c r="IC75" t="n">
         <v>69</v>
       </c>
+      <c r="ID75" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54692,6 +54917,9 @@
       <c r="IC76" t="n">
         <v>22</v>
       </c>
+      <c r="ID76" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55407,6 +55635,9 @@
       <c r="IC77" t="n">
         <v>53</v>
       </c>
+      <c r="ID77" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56122,6 +56353,9 @@
       <c r="IC78" t="n">
         <v>1.96</v>
       </c>
+      <c r="ID78" t="n">
+        <v>2.38</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56837,6 +57071,9 @@
       <c r="IC79" t="n">
         <v>3.53</v>
       </c>
+      <c r="ID79" t="n">
+        <v>4.55</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57552,6 +57789,9 @@
       <c r="IC80" t="n">
         <v>49.1</v>
       </c>
+      <c r="ID80" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58267,6 +58507,9 @@
       <c r="IC81" t="n">
         <v>28.3</v>
       </c>
+      <c r="ID81" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58982,6 +59225,9 @@
       <c r="IC82" t="n">
         <v>188</v>
       </c>
+      <c r="ID82" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59697,6 +59943,9 @@
       <c r="IC83" t="n">
         <v>85.5</v>
       </c>
+      <c r="ID83" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60412,6 +60661,9 @@
       <c r="IC84" t="n">
         <v>25</v>
       </c>
+      <c r="ID84" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61127,6 +61379,9 @@
       <c r="IC85" t="n">
         <v>81.3</v>
       </c>
+      <c r="ID85" t="n">
+        <v>102.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61842,6 +62097,9 @@
       <c r="IC86" t="n">
         <v>6</v>
       </c>
+      <c r="ID86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62557,6 +62815,9 @@
       <c r="IC87" t="n">
         <v>8</v>
       </c>
+      <c r="ID87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63272,6 +63533,9 @@
       <c r="IC88" t="n">
         <v>7</v>
       </c>
+      <c r="ID88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63987,6 +64251,9 @@
       <c r="IC89" t="n">
         <v>1</v>
       </c>
+      <c r="ID89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64702,6 +64969,9 @@
       <c r="IC90" t="n">
         <v>152</v>
       </c>
+      <c r="ID90" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65417,6 +65687,9 @@
       <c r="IC91" t="n">
         <v>249</v>
       </c>
+      <c r="ID91" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66132,6 +66405,9 @@
       <c r="IC92" t="n">
         <v>293</v>
       </c>
+      <c r="ID92" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66847,6 +67123,9 @@
       <c r="IC93" t="n">
         <v>72.5</v>
       </c>
+      <c r="ID93" t="n">
+        <v>73.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67562,6 +67841,9 @@
       <c r="IC94" t="n">
         <v>69</v>
       </c>
+      <c r="ID94" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68277,6 +68559,9 @@
       <c r="IC95" t="n">
         <v>7</v>
       </c>
+      <c r="ID95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68992,6 +69277,9 @@
       <c r="IC96" t="n">
         <v>11</v>
       </c>
+      <c r="ID96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69707,6 +69995,9 @@
       <c r="IC97" t="n">
         <v>45</v>
       </c>
+      <c r="ID97" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70422,6 +70713,9 @@
       <c r="IC98" t="n">
         <v>22</v>
       </c>
+      <c r="ID98" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71137,6 +71431,9 @@
       <c r="IC99" t="n">
         <v>52</v>
       </c>
+      <c r="ID99" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71852,6 +72149,9 @@
       <c r="IC100" t="n">
         <v>5</v>
       </c>
+      <c r="ID100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72567,6 +72867,9 @@
       <c r="IC101" t="n">
         <v>11</v>
       </c>
+      <c r="ID101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73282,6 +73585,9 @@
       <c r="IC102" t="n">
         <v>73.3</v>
       </c>
+      <c r="ID102" t="n">
+        <v>81.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ID102"/>
+  <dimension ref="A1:IE102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1070,6 +1138,9 @@
       <c r="ID1" t="n">
         <v>10364</v>
       </c>
+      <c r="IE1" t="n">
+        <v>10373</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1788,6 +1859,9 @@
       <c r="ID2" t="n">
         <v>2021</v>
       </c>
+      <c r="IE2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2506,6 +2580,9 @@
       <c r="ID3" t="n">
         <v>5</v>
       </c>
+      <c r="IE3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3224,6 +3301,9 @@
       <c r="ID4" t="n">
         <v>0</v>
       </c>
+      <c r="IE4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3942,6 +4022,9 @@
       <c r="ID5" t="n">
         <v>0</v>
       </c>
+      <c r="IE5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4660,6 +4743,9 @@
       <c r="ID6" t="n">
         <v>103</v>
       </c>
+      <c r="IE6" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5378,6 +5464,9 @@
       <c r="ID7" t="n">
         <v>76</v>
       </c>
+      <c r="IE7" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6096,6 +6185,9 @@
       <c r="ID8" t="n">
         <v>27</v>
       </c>
+      <c r="IE8" t="n">
+        <v>-97</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6814,6 +6906,9 @@
       <c r="ID9" t="n">
         <v>1</v>
       </c>
+      <c r="IE9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7532,6 +7627,9 @@
       <c r="ID10" t="n">
         <v>4</v>
       </c>
+      <c r="IE10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8250,6 +8348,9 @@
       <c r="ID11" t="n">
         <v>268</v>
       </c>
+      <c r="IE11" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8968,6 +9069,9 @@
       <c r="ID12" t="n">
         <v>146</v>
       </c>
+      <c r="IE12" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9686,6 +9790,9 @@
       <c r="ID13" t="n">
         <v>414</v>
       </c>
+      <c r="IE13" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10404,6 +10511,9 @@
       <c r="ID14" t="n">
         <v>1.84</v>
       </c>
+      <c r="IE14" t="n">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11122,6 +11232,9 @@
       <c r="ID15" t="n">
         <v>136</v>
       </c>
+      <c r="IE15" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11840,6 +11953,9 @@
       <c r="ID16" t="n">
         <v>51</v>
       </c>
+      <c r="IE16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12558,6 +12674,9 @@
       <c r="ID17" t="n">
         <v>28</v>
       </c>
+      <c r="IE17" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13276,6 +13395,9 @@
       <c r="ID18" t="n">
         <v>19</v>
       </c>
+      <c r="IE18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13994,6 +14116,9 @@
       <c r="ID19" t="n">
         <v>18</v>
       </c>
+      <c r="IE19" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14712,6 +14837,9 @@
       <c r="ID20" t="n">
         <v>16</v>
       </c>
+      <c r="IE20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15430,6 +15558,9 @@
       <c r="ID21" t="n">
         <v>10</v>
       </c>
+      <c r="IE21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16148,6 +16279,9 @@
       <c r="ID22" t="n">
         <v>6</v>
       </c>
+      <c r="IE22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16866,6 +17000,9 @@
       <c r="ID23" t="n">
         <v>1</v>
       </c>
+      <c r="IE23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17584,6 +17721,9 @@
       <c r="ID24" t="n">
         <v>23</v>
       </c>
+      <c r="IE24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18302,6 +18442,9 @@
       <c r="ID25" t="n">
         <v>69.59999999999999</v>
       </c>
+      <c r="IE25" t="n">
+        <v>35.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19020,6 +19163,9 @@
       <c r="ID26" t="n">
         <v>25.88</v>
       </c>
+      <c r="IE26" t="n">
+        <v>52.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19738,6 +19884,9 @@
       <c r="ID27" t="n">
         <v>18</v>
       </c>
+      <c r="IE27" t="n">
+        <v>18.64</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20456,6 +20605,9 @@
       <c r="ID28" t="n">
         <v>39</v>
       </c>
+      <c r="IE28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21174,6 +21326,9 @@
       <c r="ID29" t="n">
         <v>49</v>
       </c>
+      <c r="IE29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21892,6 +22047,9 @@
       <c r="ID30" t="n">
         <v>39</v>
       </c>
+      <c r="IE30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22610,6 +22768,9 @@
       <c r="ID31" t="n">
         <v>41</v>
       </c>
+      <c r="IE31" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23328,6 +23489,9 @@
       <c r="ID32" t="n">
         <v>1.78</v>
       </c>
+      <c r="IE32" t="n">
+        <v>2.71</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24046,6 +24210,9 @@
       <c r="ID33" t="n">
         <v>2.56</v>
       </c>
+      <c r="IE33" t="n">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24764,6 +24931,9 @@
       <c r="ID34" t="n">
         <v>53.7</v>
       </c>
+      <c r="IE34" t="n">
+        <v>31.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25482,6 +25652,9 @@
       <c r="ID35" t="n">
         <v>39</v>
       </c>
+      <c r="IE35" t="n">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26200,6 +26373,9 @@
       <c r="ID36" t="n">
         <v>189.5</v>
       </c>
+      <c r="IE36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26918,6 +27094,9 @@
       <c r="ID37" t="n">
         <v>89.09999999999999</v>
       </c>
+      <c r="IE37" t="n">
+        <v>87.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27636,6 +27815,9 @@
       <c r="ID38" t="n">
         <v>26.41</v>
       </c>
+      <c r="IE38" t="n">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28354,6 +28536,9 @@
       <c r="ID39" t="n">
         <v>112</v>
       </c>
+      <c r="IE39" t="n">
+        <v>97.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29072,6 +29257,9 @@
       <c r="ID40" t="n">
         <v>6</v>
       </c>
+      <c r="IE40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29790,6 +29978,9 @@
       <c r="ID41" t="n">
         <v>6</v>
       </c>
+      <c r="IE41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30508,6 +30699,9 @@
       <c r="ID42" t="n">
         <v>3</v>
       </c>
+      <c r="IE42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31226,6 +31420,9 @@
       <c r="ID43" t="n">
         <v>7</v>
       </c>
+      <c r="IE43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31944,6 +32141,9 @@
       <c r="ID44" t="n">
         <v>138</v>
       </c>
+      <c r="IE44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32662,6 +32862,9 @@
       <c r="ID45" t="n">
         <v>274</v>
       </c>
+      <c r="IE45" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33380,6 +33583,9 @@
       <c r="ID46" t="n">
         <v>331</v>
       </c>
+      <c r="IE46" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34098,6 +34304,9 @@
       <c r="ID47" t="n">
         <v>80</v>
       </c>
+      <c r="IE47" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34816,6 +35025,9 @@
       <c r="ID48" t="n">
         <v>49</v>
       </c>
+      <c r="IE48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35534,6 +35746,9 @@
       <c r="ID49" t="n">
         <v>13</v>
       </c>
+      <c r="IE49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36252,6 +36467,9 @@
       <c r="ID50" t="n">
         <v>11</v>
       </c>
+      <c r="IE50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36970,6 +37188,9 @@
       <c r="ID51" t="n">
         <v>39</v>
       </c>
+      <c r="IE51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37688,6 +37909,9 @@
       <c r="ID52" t="n">
         <v>39</v>
       </c>
+      <c r="IE52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38406,6 +38630,9 @@
       <c r="ID53" t="n">
         <v>51</v>
       </c>
+      <c r="IE53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39124,6 +39351,9 @@
       <c r="ID54" t="n">
         <v>6</v>
       </c>
+      <c r="IE54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39842,6 +40072,9 @@
       <c r="ID55" t="n">
         <v>10</v>
       </c>
+      <c r="IE55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40560,6 +40793,9 @@
       <c r="ID56" t="n">
         <v>62.5</v>
       </c>
+      <c r="IE56" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41278,6 +41514,9 @@
       <c r="ID57" t="n">
         <v>194</v>
       </c>
+      <c r="IE57" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41996,6 +42235,9 @@
       <c r="ID58" t="n">
         <v>145</v>
       </c>
+      <c r="IE58" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42714,6 +42956,9 @@
       <c r="ID59" t="n">
         <v>339</v>
       </c>
+      <c r="IE59" t="n">
+        <v>397</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43432,6 +43677,9 @@
       <c r="ID60" t="n">
         <v>1.34</v>
       </c>
+      <c r="IE60" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44150,6 +44398,9 @@
       <c r="ID61" t="n">
         <v>81</v>
       </c>
+      <c r="IE61" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44868,6 +45119,9 @@
       <c r="ID62" t="n">
         <v>36</v>
       </c>
+      <c r="IE62" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45586,6 +45840,9 @@
       <c r="ID63" t="n">
         <v>29</v>
       </c>
+      <c r="IE63" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46304,6 +46561,9 @@
       <c r="ID64" t="n">
         <v>18</v>
       </c>
+      <c r="IE64" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47022,6 +47282,9 @@
       <c r="ID65" t="n">
         <v>19</v>
       </c>
+      <c r="IE65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47740,6 +48003,9 @@
       <c r="ID66" t="n">
         <v>11</v>
       </c>
+      <c r="IE66" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48458,6 +48724,9 @@
       <c r="ID67" t="n">
         <v>9</v>
       </c>
+      <c r="IE67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49176,6 +49445,9 @@
       <c r="ID68" t="n">
         <v>8</v>
       </c>
+      <c r="IE68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49894,6 +50166,9 @@
       <c r="ID69" t="n">
         <v>2</v>
       </c>
+      <c r="IE69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50612,6 +50887,9 @@
       <c r="ID70" t="n">
         <v>21</v>
       </c>
+      <c r="IE70" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51330,6 +51608,9 @@
       <c r="ID71" t="n">
         <v>52.4</v>
       </c>
+      <c r="IE71" t="n">
+        <v>67.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52048,6 +52329,9 @@
       <c r="ID72" t="n">
         <v>30.82</v>
       </c>
+      <c r="IE72" t="n">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52766,6 +53050,9 @@
       <c r="ID73" t="n">
         <v>16.14</v>
       </c>
+      <c r="IE73" t="n">
+        <v>12.81</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53484,6 +53771,9 @@
       <c r="ID74" t="n">
         <v>31</v>
       </c>
+      <c r="IE74" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54202,6 +54492,9 @@
       <c r="ID75" t="n">
         <v>48</v>
       </c>
+      <c r="IE75" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54920,6 +55213,9 @@
       <c r="ID76" t="n">
         <v>25</v>
       </c>
+      <c r="IE76" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55638,6 +55934,9 @@
       <c r="ID77" t="n">
         <v>50</v>
       </c>
+      <c r="IE77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56356,6 +56655,9 @@
       <c r="ID78" t="n">
         <v>2.38</v>
       </c>
+      <c r="IE78" t="n">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57074,6 +57376,9 @@
       <c r="ID79" t="n">
         <v>4.55</v>
       </c>
+      <c r="IE79" t="n">
+        <v>2.62</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57792,6 +58097,9 @@
       <c r="ID80" t="n">
         <v>38</v>
       </c>
+      <c r="IE80" t="n">
+        <v>52.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58510,6 +58818,9 @@
       <c r="ID81" t="n">
         <v>22</v>
       </c>
+      <c r="IE81" t="n">
+        <v>38.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59228,6 +59539,9 @@
       <c r="ID82" t="n">
         <v>189</v>
       </c>
+      <c r="IE82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59946,6 +60260,9 @@
       <c r="ID83" t="n">
         <v>88.09999999999999</v>
       </c>
+      <c r="IE83" t="n">
+        <v>88.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60664,6 +60981,9 @@
       <c r="ID84" t="n">
         <v>26.24</v>
       </c>
+      <c r="IE84" t="n">
+        <v>27.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61382,6 +61702,9 @@
       <c r="ID85" t="n">
         <v>102.2</v>
       </c>
+      <c r="IE85" t="n">
+        <v>140.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62100,6 +62423,9 @@
       <c r="ID86" t="n">
         <v>9</v>
       </c>
+      <c r="IE86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62818,6 +63144,9 @@
       <c r="ID87" t="n">
         <v>3</v>
       </c>
+      <c r="IE87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63536,6 +63865,9 @@
       <c r="ID88" t="n">
         <v>3</v>
       </c>
+      <c r="IE88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64254,6 +64586,9 @@
       <c r="ID89" t="n">
         <v>8</v>
       </c>
+      <c r="IE89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64972,6 +65307,9 @@
       <c r="ID90" t="n">
         <v>143</v>
       </c>
+      <c r="IE90" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65690,6 +66028,9 @@
       <c r="ID91" t="n">
         <v>204</v>
       </c>
+      <c r="IE91" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66408,6 +66749,9 @@
       <c r="ID92" t="n">
         <v>248</v>
       </c>
+      <c r="IE92" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67126,6 +67470,9 @@
       <c r="ID93" t="n">
         <v>73.2</v>
       </c>
+      <c r="IE93" t="n">
+        <v>75.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67844,6 +68191,9 @@
       <c r="ID94" t="n">
         <v>48</v>
       </c>
+      <c r="IE94" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68562,6 +68912,9 @@
       <c r="ID95" t="n">
         <v>8</v>
       </c>
+      <c r="IE95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69280,6 +69633,9 @@
       <c r="ID96" t="n">
         <v>11</v>
       </c>
+      <c r="IE96" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69998,6 +70354,9 @@
       <c r="ID97" t="n">
         <v>31</v>
       </c>
+      <c r="IE97" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70716,6 +71075,9 @@
       <c r="ID98" t="n">
         <v>25</v>
       </c>
+      <c r="IE98" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71434,6 +71796,9 @@
       <c r="ID99" t="n">
         <v>45</v>
       </c>
+      <c r="IE99" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72152,6 +72517,9 @@
       <c r="ID100" t="n">
         <v>1</v>
       </c>
+      <c r="IE100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72870,6 +73238,9 @@
       <c r="ID101" t="n">
         <v>9</v>
       </c>
+      <c r="IE101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73588,6 +73959,9 @@
       <c r="ID102" t="n">
         <v>81.8</v>
       </c>
+      <c r="IE102" t="n">
+        <v>47.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IE102"/>
+  <dimension ref="A1:IF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,6 +1073,9 @@
       <c r="IE1" t="n">
         <v>10373</v>
       </c>
+      <c r="IF1" t="n">
+        <v>10389</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1862,6 +1797,9 @@
       <c r="IE2" t="n">
         <v>2021</v>
       </c>
+      <c r="IF2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2583,6 +2521,9 @@
       <c r="IE3" t="n">
         <v>6</v>
       </c>
+      <c r="IF3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3304,6 +3245,9 @@
       <c r="IE4" t="n">
         <v>1</v>
       </c>
+      <c r="IF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4025,6 +3969,9 @@
       <c r="IE5" t="n">
         <v>0</v>
       </c>
+      <c r="IF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4746,6 +4693,9 @@
       <c r="IE6" t="n">
         <v>39</v>
       </c>
+      <c r="IF6" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5467,6 +5417,9 @@
       <c r="IE7" t="n">
         <v>136</v>
       </c>
+      <c r="IF7" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6188,6 +6141,9 @@
       <c r="IE8" t="n">
         <v>-97</v>
       </c>
+      <c r="IF8" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6909,6 +6865,9 @@
       <c r="IE9" t="n">
         <v>0</v>
       </c>
+      <c r="IF9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7630,6 +7589,9 @@
       <c r="IE10" t="n">
         <v>7</v>
       </c>
+      <c r="IF10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8351,6 +8313,9 @@
       <c r="IE11" t="n">
         <v>169</v>
       </c>
+      <c r="IF11" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9072,6 +9037,9 @@
       <c r="IE12" t="n">
         <v>92</v>
       </c>
+      <c r="IF12" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9793,6 +9761,9 @@
       <c r="IE13" t="n">
         <v>261</v>
       </c>
+      <c r="IF13" t="n">
+        <v>409</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10514,6 +10485,9 @@
       <c r="IE14" t="n">
         <v>1.84</v>
       </c>
+      <c r="IF14" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11235,6 +11209,9 @@
       <c r="IE15" t="n">
         <v>64</v>
       </c>
+      <c r="IF15" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11956,6 +11933,9 @@
       <c r="IE16" t="n">
         <v>51</v>
       </c>
+      <c r="IF16" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12677,6 +12657,9 @@
       <c r="IE17" t="n">
         <v>45</v>
       </c>
+      <c r="IF17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13398,6 +13381,9 @@
       <c r="IE18" t="n">
         <v>15</v>
       </c>
+      <c r="IF18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14119,6 +14105,9 @@
       <c r="IE19" t="n">
         <v>29</v>
       </c>
+      <c r="IF19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14840,6 +14829,9 @@
       <c r="IE20" t="n">
         <v>5</v>
       </c>
+      <c r="IF20" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15561,6 +15553,9 @@
       <c r="IE21" t="n">
         <v>3</v>
       </c>
+      <c r="IF21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16282,6 +16277,9 @@
       <c r="IE22" t="n">
         <v>7</v>
       </c>
+      <c r="IF22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17003,6 +17001,9 @@
       <c r="IE23" t="n">
         <v>2</v>
       </c>
+      <c r="IF23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17724,6 +17725,9 @@
       <c r="IE24" t="n">
         <v>14</v>
       </c>
+      <c r="IF24" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18445,6 +18449,9 @@
       <c r="IE25" t="n">
         <v>35.7</v>
       </c>
+      <c r="IF25" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19166,6 +19173,9 @@
       <c r="IE26" t="n">
         <v>52.2</v>
       </c>
+      <c r="IF26" t="n">
+        <v>20.45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19887,6 +19897,9 @@
       <c r="IE27" t="n">
         <v>18.64</v>
       </c>
+      <c r="IF27" t="n">
+        <v>12.78</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20608,6 +20621,9 @@
       <c r="IE28" t="n">
         <v>35</v>
       </c>
+      <c r="IF28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21329,6 +21345,9 @@
       <c r="IE29" t="n">
         <v>56</v>
       </c>
+      <c r="IF29" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22050,6 +22069,9 @@
       <c r="IE30" t="n">
         <v>33</v>
       </c>
+      <c r="IF30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22771,6 +22793,9 @@
       <c r="IE31" t="n">
         <v>38</v>
       </c>
+      <c r="IF31" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23492,6 +23517,9 @@
       <c r="IE32" t="n">
         <v>2.71</v>
       </c>
+      <c r="IF32" t="n">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24213,6 +24241,9 @@
       <c r="IE33" t="n">
         <v>7.6</v>
       </c>
+      <c r="IF33" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24934,6 +24965,9 @@
       <c r="IE34" t="n">
         <v>31.6</v>
       </c>
+      <c r="IF34" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25655,6 +25689,9 @@
       <c r="IE35" t="n">
         <v>13.2</v>
       </c>
+      <c r="IF35" t="n">
+        <v>34.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26376,6 +26413,9 @@
       <c r="IE36" t="n">
         <v>188.5</v>
       </c>
+      <c r="IF36" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27097,6 +27137,9 @@
       <c r="IE37" t="n">
         <v>87.8</v>
       </c>
+      <c r="IF37" t="n">
+        <v>87.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27818,6 +27861,9 @@
       <c r="IE38" t="n">
         <v>25.74</v>
       </c>
+      <c r="IF38" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28539,6 +28585,9 @@
       <c r="IE39" t="n">
         <v>97.7</v>
       </c>
+      <c r="IF39" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29260,6 +29309,9 @@
       <c r="IE40" t="n">
         <v>8</v>
       </c>
+      <c r="IF40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29981,6 +30033,9 @@
       <c r="IE41" t="n">
         <v>6</v>
       </c>
+      <c r="IF41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30702,6 +30757,9 @@
       <c r="IE42" t="n">
         <v>3</v>
       </c>
+      <c r="IF42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31423,6 +31481,9 @@
       <c r="IE43" t="n">
         <v>6</v>
       </c>
+      <c r="IF43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32144,6 +32205,9 @@
       <c r="IE44" t="n">
         <v>120</v>
       </c>
+      <c r="IF44" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32865,6 +32929,9 @@
       <c r="IE45" t="n">
         <v>142</v>
       </c>
+      <c r="IF45" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33586,6 +33653,9 @@
       <c r="IE46" t="n">
         <v>167</v>
       </c>
+      <c r="IF46" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34307,6 +34377,9 @@
       <c r="IE47" t="n">
         <v>64</v>
       </c>
+      <c r="IF47" t="n">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35028,6 +35101,9 @@
       <c r="IE48" t="n">
         <v>56</v>
       </c>
+      <c r="IF48" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35749,6 +35825,9 @@
       <c r="IE49" t="n">
         <v>9</v>
       </c>
+      <c r="IF49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36470,6 +36549,9 @@
       <c r="IE50" t="n">
         <v>8</v>
       </c>
+      <c r="IF50" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37191,6 +37273,9 @@
       <c r="IE51" t="n">
         <v>35</v>
       </c>
+      <c r="IF51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37912,6 +37997,9 @@
       <c r="IE52" t="n">
         <v>33</v>
       </c>
+      <c r="IF52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38633,6 +38721,9 @@
       <c r="IE53" t="n">
         <v>44</v>
       </c>
+      <c r="IF53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39354,6 +39445,9 @@
       <c r="IE54" t="n">
         <v>2</v>
       </c>
+      <c r="IF54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40075,6 +40169,9 @@
       <c r="IE55" t="n">
         <v>3</v>
       </c>
+      <c r="IF55" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40796,6 +40893,9 @@
       <c r="IE56" t="n">
         <v>60</v>
       </c>
+      <c r="IF56" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41517,6 +41617,9 @@
       <c r="IE57" t="n">
         <v>242</v>
       </c>
+      <c r="IF57" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42238,6 +42341,9 @@
       <c r="IE58" t="n">
         <v>155</v>
       </c>
+      <c r="IF58" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42959,6 +43065,9 @@
       <c r="IE59" t="n">
         <v>397</v>
       </c>
+      <c r="IF59" t="n">
+        <v>376</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43680,6 +43789,9 @@
       <c r="IE60" t="n">
         <v>1.56</v>
       </c>
+      <c r="IF60" t="n">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44401,6 +44513,9 @@
       <c r="IE61" t="n">
         <v>120</v>
       </c>
+      <c r="IF61" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45122,6 +45237,9 @@
       <c r="IE62" t="n">
         <v>57</v>
       </c>
+      <c r="IF62" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45843,6 +45961,9 @@
       <c r="IE63" t="n">
         <v>28</v>
       </c>
+      <c r="IF63" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46564,6 +46685,9 @@
       <c r="IE64" t="n">
         <v>29</v>
       </c>
+      <c r="IF64" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47285,6 +47409,9 @@
       <c r="IE65" t="n">
         <v>15</v>
       </c>
+      <c r="IF65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48006,6 +48133,9 @@
       <c r="IE66" t="n">
         <v>21</v>
       </c>
+      <c r="IF66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48727,6 +48857,9 @@
       <c r="IE67" t="n">
         <v>10</v>
       </c>
+      <c r="IF67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49448,6 +49581,9 @@
       <c r="IE68" t="n">
         <v>8</v>
       </c>
+      <c r="IF68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50169,6 +50305,9 @@
       <c r="IE69" t="n">
         <v>2</v>
       </c>
+      <c r="IF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50890,6 +51029,9 @@
       <c r="IE70" t="n">
         <v>31</v>
       </c>
+      <c r="IF70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51611,6 +51753,9 @@
       <c r="IE71" t="n">
         <v>67.7</v>
       </c>
+      <c r="IF71" t="n">
+        <v>61.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52332,6 +52477,9 @@
       <c r="IE72" t="n">
         <v>18.9</v>
       </c>
+      <c r="IF72" t="n">
+        <v>34.18</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53053,6 +53201,9 @@
       <c r="IE73" t="n">
         <v>12.81</v>
       </c>
+      <c r="IF73" t="n">
+        <v>20.89</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53774,6 +53925,9 @@
       <c r="IE74" t="n">
         <v>43</v>
       </c>
+      <c r="IF74" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54495,6 +54649,9 @@
       <c r="IE75" t="n">
         <v>52</v>
       </c>
+      <c r="IF75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55216,6 +55373,9 @@
       <c r="IE76" t="n">
         <v>32</v>
       </c>
+      <c r="IF76" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55937,6 +56097,9 @@
       <c r="IE77" t="n">
         <v>55</v>
       </c>
+      <c r="IF77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56658,6 +56821,9 @@
       <c r="IE78" t="n">
         <v>1.77</v>
       </c>
+      <c r="IF78" t="n">
+        <v>2.61</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57379,6 +57545,9 @@
       <c r="IE79" t="n">
         <v>2.62</v>
       </c>
+      <c r="IF79" t="n">
+        <v>4.27</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58100,6 +58269,9 @@
       <c r="IE80" t="n">
         <v>52.7</v>
       </c>
+      <c r="IF80" t="n">
+        <v>38.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58821,6 +58993,9 @@
       <c r="IE81" t="n">
         <v>38.2</v>
       </c>
+      <c r="IF81" t="n">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59542,6 +59717,9 @@
       <c r="IE82" t="n">
         <v>188.4</v>
       </c>
+      <c r="IF82" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60263,6 +60441,9 @@
       <c r="IE83" t="n">
         <v>88.2</v>
       </c>
+      <c r="IF83" t="n">
+        <v>87.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60984,6 +61165,9 @@
       <c r="IE84" t="n">
         <v>27.74</v>
       </c>
+      <c r="IF84" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61705,6 +61889,9 @@
       <c r="IE85" t="n">
         <v>140.3</v>
       </c>
+      <c r="IF85" t="n">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62426,6 +62613,9 @@
       <c r="IE86" t="n">
         <v>3</v>
       </c>
+      <c r="IF86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63147,6 +63337,9 @@
       <c r="IE87" t="n">
         <v>6</v>
       </c>
+      <c r="IF87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63868,6 +64061,9 @@
       <c r="IE88" t="n">
         <v>3</v>
       </c>
+      <c r="IF88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64589,6 +64785,9 @@
       <c r="IE89" t="n">
         <v>11</v>
       </c>
+      <c r="IF89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65310,6 +65509,9 @@
       <c r="IE90" t="n">
         <v>146</v>
       </c>
+      <c r="IF90" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66031,6 +66233,9 @@
       <c r="IE91" t="n">
         <v>256</v>
       </c>
+      <c r="IF91" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66752,6 +66957,9 @@
       <c r="IE92" t="n">
         <v>300</v>
       </c>
+      <c r="IF92" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67473,6 +67681,9 @@
       <c r="IE93" t="n">
         <v>75.59999999999999</v>
       </c>
+      <c r="IF93" t="n">
+        <v>77.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68194,6 +68405,9 @@
       <c r="IE94" t="n">
         <v>52</v>
       </c>
+      <c r="IF94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68915,6 +69129,9 @@
       <c r="IE95" t="n">
         <v>15</v>
       </c>
+      <c r="IF95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69636,6 +69853,9 @@
       <c r="IE96" t="n">
         <v>17</v>
       </c>
+      <c r="IF96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70357,6 +70577,9 @@
       <c r="IE97" t="n">
         <v>43</v>
       </c>
+      <c r="IF97" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71078,6 +71301,9 @@
       <c r="IE98" t="n">
         <v>32</v>
       </c>
+      <c r="IF98" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71799,6 +72025,9 @@
       <c r="IE99" t="n">
         <v>50</v>
       </c>
+      <c r="IF99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72520,6 +72749,9 @@
       <c r="IE100" t="n">
         <v>5</v>
       </c>
+      <c r="IF100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73241,6 +73473,9 @@
       <c r="IE101" t="n">
         <v>10</v>
       </c>
+      <c r="IF101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73962,6 +74197,9 @@
       <c r="IE102" t="n">
         <v>47.6</v>
       </c>
+      <c r="IF102" t="n">
+        <v>90.90000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IG102"/>
+  <dimension ref="A1:IH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,6 +1079,9 @@
       <c r="IG1" t="n">
         <v>10392</v>
       </c>
+      <c r="IH1" t="n">
+        <v>10407</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1806,6 +1809,9 @@
       <c r="IG2" t="n">
         <v>2021</v>
       </c>
+      <c r="IH2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2533,6 +2539,9 @@
       <c r="IG3" t="n">
         <v>8</v>
       </c>
+      <c r="IH3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3260,6 +3269,9 @@
       <c r="IG4" t="n">
         <v>1</v>
       </c>
+      <c r="IH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3987,6 +3999,9 @@
       <c r="IG5" t="n">
         <v>1</v>
       </c>
+      <c r="IH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4714,6 +4729,9 @@
       <c r="IG6" t="n">
         <v>98</v>
       </c>
+      <c r="IH6" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5441,6 +5459,9 @@
       <c r="IG7" t="n">
         <v>60</v>
       </c>
+      <c r="IH7" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6168,6 +6189,9 @@
       <c r="IG8" t="n">
         <v>38</v>
       </c>
+      <c r="IH8" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6895,6 +6919,9 @@
       <c r="IG9" t="n">
         <v>1</v>
       </c>
+      <c r="IH9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7622,6 +7649,9 @@
       <c r="IG10" t="n">
         <v>10</v>
       </c>
+      <c r="IH10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8349,6 +8379,9 @@
       <c r="IG11" t="n">
         <v>246</v>
       </c>
+      <c r="IH11" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9076,6 +9109,9 @@
       <c r="IG12" t="n">
         <v>136</v>
       </c>
+      <c r="IH12" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9803,6 +9839,9 @@
       <c r="IG13" t="n">
         <v>382</v>
       </c>
+      <c r="IH13" t="n">
+        <v>389</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10530,6 +10569,9 @@
       <c r="IG14" t="n">
         <v>1.81</v>
       </c>
+      <c r="IH14" t="n">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11257,6 +11299,9 @@
       <c r="IG15" t="n">
         <v>126</v>
       </c>
+      <c r="IH15" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11984,6 +12029,9 @@
       <c r="IG16" t="n">
         <v>49</v>
       </c>
+      <c r="IH16" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12711,6 +12759,9 @@
       <c r="IG17" t="n">
         <v>38</v>
       </c>
+      <c r="IH17" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13438,6 +13489,9 @@
       <c r="IG18" t="n">
         <v>10</v>
       </c>
+      <c r="IH18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14165,6 +14219,9 @@
       <c r="IG19" t="n">
         <v>16</v>
       </c>
+      <c r="IH19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14892,6 +14949,9 @@
       <c r="IG20" t="n">
         <v>14</v>
       </c>
+      <c r="IH20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15619,6 +15679,9 @@
       <c r="IG21" t="n">
         <v>9</v>
       </c>
+      <c r="IH21" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16346,6 +16409,9 @@
       <c r="IG22" t="n">
         <v>7</v>
       </c>
+      <c r="IH22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17073,6 +17139,9 @@
       <c r="IG23" t="n">
         <v>7</v>
       </c>
+      <c r="IH23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17800,6 +17869,9 @@
       <c r="IG24" t="n">
         <v>28</v>
       </c>
+      <c r="IH24" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18527,6 +18599,9 @@
       <c r="IG25" t="n">
         <v>50</v>
       </c>
+      <c r="IH25" t="n">
+        <v>61.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19254,6 +19329,9 @@
       <c r="IG26" t="n">
         <v>27.29</v>
       </c>
+      <c r="IH26" t="n">
+        <v>24.31</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19981,6 +20059,9 @@
       <c r="IG27" t="n">
         <v>13.64</v>
       </c>
+      <c r="IH27" t="n">
+        <v>14.96</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20708,6 +20789,9 @@
       <c r="IG28" t="n">
         <v>37</v>
       </c>
+      <c r="IH28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21435,6 +21519,9 @@
       <c r="IG29" t="n">
         <v>49</v>
       </c>
+      <c r="IH29" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22162,6 +22249,9 @@
       <c r="IG30" t="n">
         <v>26</v>
       </c>
+      <c r="IH30" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22889,6 +22979,9 @@
       <c r="IG31" t="n">
         <v>63</v>
       </c>
+      <c r="IH31" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23616,6 +23709,9 @@
       <c r="IG32" t="n">
         <v>2.25</v>
       </c>
+      <c r="IH32" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24343,6 +24439,9 @@
       <c r="IG33" t="n">
         <v>4.5</v>
       </c>
+      <c r="IH33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25070,6 +25169,9 @@
       <c r="IG34" t="n">
         <v>33.3</v>
       </c>
+      <c r="IH34" t="n">
+        <v>52.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25797,6 +25899,9 @@
       <c r="IG35" t="n">
         <v>22.2</v>
       </c>
+      <c r="IH35" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26524,6 +26629,9 @@
       <c r="IG36" t="n">
         <v>189</v>
       </c>
+      <c r="IH36" t="n">
+        <v>189.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27251,6 +27359,9 @@
       <c r="IG37" t="n">
         <v>87.3</v>
       </c>
+      <c r="IH37" t="n">
+        <v>89.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27978,6 +28089,9 @@
       <c r="IG38" t="n">
         <v>25.58</v>
       </c>
+      <c r="IH38" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28705,6 +28819,9 @@
       <c r="IG39" t="n">
         <v>96</v>
       </c>
+      <c r="IH39" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29432,6 +29549,9 @@
       <c r="IG40" t="n">
         <v>10</v>
       </c>
+      <c r="IH40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30159,6 +30279,9 @@
       <c r="IG41" t="n">
         <v>5</v>
       </c>
+      <c r="IH41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30886,6 +31009,9 @@
       <c r="IG42" t="n">
         <v>1</v>
       </c>
+      <c r="IH42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31613,6 +31739,9 @@
       <c r="IG43" t="n">
         <v>7</v>
       </c>
+      <c r="IH43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32340,6 +32469,9 @@
       <c r="IG44" t="n">
         <v>139</v>
       </c>
+      <c r="IH44" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33067,6 +33199,9 @@
       <c r="IG45" t="n">
         <v>252</v>
       </c>
+      <c r="IH45" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33794,6 +33929,9 @@
       <c r="IG46" t="n">
         <v>291</v>
       </c>
+      <c r="IH46" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34521,6 +34659,9 @@
       <c r="IG47" t="n">
         <v>76.2</v>
       </c>
+      <c r="IH47" t="n">
+        <v>78.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35248,6 +35389,9 @@
       <c r="IG48" t="n">
         <v>49</v>
       </c>
+      <c r="IH48" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35975,6 +36119,9 @@
       <c r="IG49" t="n">
         <v>20</v>
       </c>
+      <c r="IH49" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36702,6 +36849,9 @@
       <c r="IG50" t="n">
         <v>12</v>
       </c>
+      <c r="IH50" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37429,6 +37579,9 @@
       <c r="IG51" t="n">
         <v>37</v>
       </c>
+      <c r="IH51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38156,6 +38309,9 @@
       <c r="IG52" t="n">
         <v>26</v>
       </c>
+      <c r="IH52" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38883,6 +39039,9 @@
       <c r="IG53" t="n">
         <v>56</v>
       </c>
+      <c r="IH53" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39610,6 +39769,9 @@
       <c r="IG54" t="n">
         <v>8</v>
       </c>
+      <c r="IH54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40337,6 +40499,9 @@
       <c r="IG55" t="n">
         <v>9</v>
       </c>
+      <c r="IH55" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41064,6 +41229,9 @@
       <c r="IG56" t="n">
         <v>64.3</v>
       </c>
+      <c r="IH56" t="n">
+        <v>81.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41791,6 +41959,9 @@
       <c r="IG57" t="n">
         <v>207</v>
       </c>
+      <c r="IH57" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42518,6 +42689,9 @@
       <c r="IG58" t="n">
         <v>194</v>
       </c>
+      <c r="IH58" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43245,6 +43419,9 @@
       <c r="IG59" t="n">
         <v>401</v>
       </c>
+      <c r="IH59" t="n">
+        <v>372</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43972,6 +44149,9 @@
       <c r="IG60" t="n">
         <v>1.07</v>
       </c>
+      <c r="IH60" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44699,6 +44879,9 @@
       <c r="IG61" t="n">
         <v>99</v>
       </c>
+      <c r="IH61" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45426,6 +45609,9 @@
       <c r="IG62" t="n">
         <v>63</v>
       </c>
+      <c r="IH62" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46153,6 +46339,9 @@
       <c r="IG63" t="n">
         <v>26</v>
       </c>
+      <c r="IH63" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46880,6 +47069,9 @@
       <c r="IG64" t="n">
         <v>16</v>
       </c>
+      <c r="IH64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47607,6 +47799,9 @@
       <c r="IG65" t="n">
         <v>10</v>
       </c>
+      <c r="IH65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48334,6 +48529,9 @@
       <c r="IG66" t="n">
         <v>8</v>
       </c>
+      <c r="IH66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49061,6 +49259,9 @@
       <c r="IG67" t="n">
         <v>6</v>
       </c>
+      <c r="IH67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49788,6 +49989,9 @@
       <c r="IG68" t="n">
         <v>7</v>
       </c>
+      <c r="IH68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50515,6 +50719,9 @@
       <c r="IG69" t="n">
         <v>5</v>
       </c>
+      <c r="IH69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51242,6 +51449,9 @@
       <c r="IG70" t="n">
         <v>20</v>
       </c>
+      <c r="IH70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51969,6 +52179,9 @@
       <c r="IG71" t="n">
         <v>40</v>
       </c>
+      <c r="IH71" t="n">
+        <v>52.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52696,6 +52909,9 @@
       <c r="IG72" t="n">
         <v>50.12</v>
       </c>
+      <c r="IH72" t="n">
+        <v>33.82</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53423,6 +53639,9 @@
       <c r="IG73" t="n">
         <v>20.05</v>
       </c>
+      <c r="IH73" t="n">
+        <v>17.71</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54150,6 +54369,9 @@
       <c r="IG74" t="n">
         <v>26</v>
       </c>
+      <c r="IH74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54877,6 +55099,9 @@
       <c r="IG75" t="n">
         <v>55</v>
       </c>
+      <c r="IH75" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55604,6 +55829,9 @@
       <c r="IG76" t="n">
         <v>49</v>
       </c>
+      <c r="IH76" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56331,6 +56559,9 @@
       <c r="IG77" t="n">
         <v>35</v>
       </c>
+      <c r="IH77" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57058,6 +57289,9 @@
       <c r="IG78" t="n">
         <v>1.75</v>
       </c>
+      <c r="IH78" t="n">
+        <v>2.67</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57785,6 +58019,9 @@
       <c r="IG79" t="n">
         <v>4.38</v>
       </c>
+      <c r="IH79" t="n">
+        <v>5.09</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58512,6 +58749,9 @@
       <c r="IG80" t="n">
         <v>42.9</v>
       </c>
+      <c r="IH80" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59239,6 +59479,9 @@
       <c r="IG81" t="n">
         <v>22.9</v>
       </c>
+      <c r="IH81" t="n">
+        <v>19.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59966,6 +60209,9 @@
       <c r="IG82" t="n">
         <v>187.8</v>
       </c>
+      <c r="IH82" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60693,6 +60939,9 @@
       <c r="IG83" t="n">
         <v>86</v>
       </c>
+      <c r="IH83" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61420,6 +61669,9 @@
       <c r="IG84" t="n">
         <v>25.16</v>
       </c>
+      <c r="IH84" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62147,6 +62399,9 @@
       <c r="IG85" t="n">
         <v>88.09999999999999</v>
       </c>
+      <c r="IH85" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62874,6 +63129,9 @@
       <c r="IG86" t="n">
         <v>9</v>
       </c>
+      <c r="IH86" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63601,6 +63859,9 @@
       <c r="IG87" t="n">
         <v>5</v>
       </c>
+      <c r="IH87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64328,6 +64589,9 @@
       <c r="IG88" t="n">
         <v>4</v>
       </c>
+      <c r="IH88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65055,6 +65319,9 @@
       <c r="IG89" t="n">
         <v>4</v>
       </c>
+      <c r="IH89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65782,6 +66049,9 @@
       <c r="IG90" t="n">
         <v>122</v>
       </c>
+      <c r="IH90" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66509,6 +66779,9 @@
       <c r="IG91" t="n">
         <v>283</v>
       </c>
+      <c r="IH91" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67236,6 +67509,9 @@
       <c r="IG92" t="n">
         <v>307</v>
       </c>
+      <c r="IH92" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67963,6 +68239,9 @@
       <c r="IG93" t="n">
         <v>76.59999999999999</v>
       </c>
+      <c r="IH93" t="n">
+        <v>73.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68690,6 +68969,9 @@
       <c r="IG94" t="n">
         <v>55</v>
       </c>
+      <c r="IH94" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69417,6 +69699,9 @@
       <c r="IG95" t="n">
         <v>7</v>
       </c>
+      <c r="IH95" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70144,6 +70429,9 @@
       <c r="IG96" t="n">
         <v>10</v>
       </c>
+      <c r="IH96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70871,6 +71159,9 @@
       <c r="IG97" t="n">
         <v>26</v>
       </c>
+      <c r="IH97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71598,6 +71889,9 @@
       <c r="IG98" t="n">
         <v>49</v>
       </c>
+      <c r="IH98" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72325,6 +72619,9 @@
       <c r="IG99" t="n">
         <v>57</v>
       </c>
+      <c r="IH99" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73052,6 +73349,9 @@
       <c r="IG100" t="n">
         <v>4</v>
       </c>
+      <c r="IH100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73779,6 +74079,9 @@
       <c r="IG101" t="n">
         <v>6</v>
       </c>
+      <c r="IH101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74506,6 +74809,9 @@
       <c r="IG102" t="n">
         <v>75</v>
       </c>
+      <c r="IH102" t="n">
+        <v>63.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IH102"/>
+  <dimension ref="A1:II102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,6 +1082,9 @@
       <c r="IH1" t="n">
         <v>10407</v>
       </c>
+      <c r="II1" t="n">
+        <v>10413</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1812,6 +1815,9 @@
       <c r="IH2" t="n">
         <v>2021</v>
       </c>
+      <c r="II2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2542,6 +2548,9 @@
       <c r="IH3" t="n">
         <v>9</v>
       </c>
+      <c r="II3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3272,6 +3281,9 @@
       <c r="IH4" t="n">
         <v>0</v>
       </c>
+      <c r="II4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4002,6 +4014,9 @@
       <c r="IH5" t="n">
         <v>0</v>
       </c>
+      <c r="II5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4732,6 +4747,9 @@
       <c r="IH6" t="n">
         <v>106</v>
       </c>
+      <c r="II6" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5462,6 +5480,9 @@
       <c r="IH7" t="n">
         <v>76</v>
       </c>
+      <c r="II7" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6192,6 +6213,9 @@
       <c r="IH8" t="n">
         <v>30</v>
       </c>
+      <c r="II8" t="n">
+        <v>-16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6922,6 +6946,9 @@
       <c r="IH9" t="n">
         <v>1</v>
       </c>
+      <c r="II9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7652,6 +7679,9 @@
       <c r="IH10" t="n">
         <v>1</v>
       </c>
+      <c r="II10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8382,6 +8412,9 @@
       <c r="IH11" t="n">
         <v>241</v>
       </c>
+      <c r="II11" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9112,6 +9145,9 @@
       <c r="IH12" t="n">
         <v>148</v>
       </c>
+      <c r="II12" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9842,6 +9878,9 @@
       <c r="IH13" t="n">
         <v>389</v>
       </c>
+      <c r="II13" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10572,6 +10611,9 @@
       <c r="IH14" t="n">
         <v>1.63</v>
       </c>
+      <c r="II14" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11302,6 +11344,9 @@
       <c r="IH15" t="n">
         <v>127</v>
       </c>
+      <c r="II15" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12032,6 +12077,9 @@
       <c r="IH16" t="n">
         <v>49</v>
       </c>
+      <c r="II16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12762,6 +12810,9 @@
       <c r="IH17" t="n">
         <v>41</v>
       </c>
+      <c r="II17" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13492,6 +13543,9 @@
       <c r="IH18" t="n">
         <v>17</v>
       </c>
+      <c r="II18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14222,6 +14276,9 @@
       <c r="IH19" t="n">
         <v>18</v>
       </c>
+      <c r="II19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14952,6 +15009,9 @@
       <c r="IH20" t="n">
         <v>16</v>
       </c>
+      <c r="II20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15682,6 +15742,9 @@
       <c r="IH21" t="n">
         <v>13</v>
       </c>
+      <c r="II21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16412,6 +16475,9 @@
       <c r="IH22" t="n">
         <v>9</v>
       </c>
+      <c r="II22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17142,6 +17208,9 @@
       <c r="IH23" t="n">
         <v>1</v>
       </c>
+      <c r="II23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17872,6 +17941,9 @@
       <c r="IH24" t="n">
         <v>26</v>
       </c>
+      <c r="II24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18602,6 +18674,9 @@
       <c r="IH25" t="n">
         <v>61.5</v>
       </c>
+      <c r="II25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19332,6 +19407,9 @@
       <c r="IH26" t="n">
         <v>24.31</v>
       </c>
+      <c r="II26" t="n">
+        <v>27.55</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20062,6 +20140,9 @@
       <c r="IH27" t="n">
         <v>14.96</v>
       </c>
+      <c r="II27" t="n">
+        <v>13.77</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20792,6 +20873,9 @@
       <c r="IH28" t="n">
         <v>32</v>
       </c>
+      <c r="II28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21522,6 +21606,9 @@
       <c r="IH29" t="n">
         <v>45</v>
       </c>
+      <c r="II29" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22252,6 +22339,9 @@
       <c r="IH30" t="n">
         <v>45</v>
       </c>
+      <c r="II30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22982,6 +23072,9 @@
       <c r="IH31" t="n">
         <v>48</v>
       </c>
+      <c r="II31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23712,6 +23805,9 @@
       <c r="IH32" t="n">
         <v>1.85</v>
       </c>
+      <c r="II32" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24442,6 +24538,9 @@
       <c r="IH33" t="n">
         <v>3</v>
       </c>
+      <c r="II33" t="n">
+        <v>4.09</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25172,6 +25271,9 @@
       <c r="IH34" t="n">
         <v>52.1</v>
       </c>
+      <c r="II34" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25902,6 +26004,9 @@
       <c r="IH35" t="n">
         <v>33.3</v>
       </c>
+      <c r="II35" t="n">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26632,6 +26737,9 @@
       <c r="IH36" t="n">
         <v>189.8</v>
       </c>
+      <c r="II36" t="n">
+        <v>189.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27362,6 +27470,9 @@
       <c r="IH37" t="n">
         <v>89.09999999999999</v>
       </c>
+      <c r="II37" t="n">
+        <v>88.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28092,6 +28203,9 @@
       <c r="IH38" t="n">
         <v>26.16</v>
       </c>
+      <c r="II38" t="n">
+        <v>26.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28822,6 +28936,9 @@
       <c r="IH39" t="n">
         <v>110</v>
       </c>
+      <c r="II39" t="n">
+        <v>116.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29552,6 +29669,9 @@
       <c r="IH40" t="n">
         <v>7</v>
       </c>
+      <c r="II40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30282,6 +30402,9 @@
       <c r="IH41" t="n">
         <v>6</v>
       </c>
+      <c r="II41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31012,6 +31135,9 @@
       <c r="IH42" t="n">
         <v>2</v>
       </c>
+      <c r="II42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31742,6 +31868,9 @@
       <c r="IH43" t="n">
         <v>7</v>
       </c>
+      <c r="II43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32472,6 +32601,9 @@
       <c r="IH44" t="n">
         <v>132</v>
       </c>
+      <c r="II44" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33202,6 +33334,9 @@
       <c r="IH45" t="n">
         <v>256</v>
       </c>
+      <c r="II45" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33932,6 +34067,9 @@
       <c r="IH46" t="n">
         <v>306</v>
       </c>
+      <c r="II46" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34662,6 +34800,9 @@
       <c r="IH47" t="n">
         <v>78.7</v>
       </c>
+      <c r="II47" t="n">
+        <v>73.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35392,6 +35533,9 @@
       <c r="IH48" t="n">
         <v>45</v>
       </c>
+      <c r="II48" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36122,6 +36266,9 @@
       <c r="IH49" t="n">
         <v>18</v>
       </c>
+      <c r="II49" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36852,6 +36999,9 @@
       <c r="IH50" t="n">
         <v>18</v>
       </c>
+      <c r="II50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37582,6 +37732,9 @@
       <c r="IH51" t="n">
         <v>32</v>
       </c>
+      <c r="II51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38312,6 +38465,9 @@
       <c r="IH52" t="n">
         <v>45</v>
       </c>
+      <c r="II52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39042,6 +39198,9 @@
       <c r="IH53" t="n">
         <v>40</v>
       </c>
+      <c r="II53" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39772,6 +39931,9 @@
       <c r="IH54" t="n">
         <v>7</v>
       </c>
+      <c r="II54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40502,6 +40664,9 @@
       <c r="IH55" t="n">
         <v>13</v>
       </c>
+      <c r="II55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41232,6 +41397,9 @@
       <c r="IH56" t="n">
         <v>81.2</v>
       </c>
+      <c r="II56" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41962,6 +42130,9 @@
       <c r="IH57" t="n">
         <v>201</v>
       </c>
+      <c r="II57" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42692,6 +42863,9 @@
       <c r="IH58" t="n">
         <v>171</v>
       </c>
+      <c r="II58" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43422,6 +43596,9 @@
       <c r="IH59" t="n">
         <v>372</v>
       </c>
+      <c r="II59" t="n">
+        <v>404</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44152,6 +44329,9 @@
       <c r="IH60" t="n">
         <v>1.18</v>
       </c>
+      <c r="II60" t="n">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44882,6 +45062,9 @@
       <c r="IH61" t="n">
         <v>82</v>
       </c>
+      <c r="II61" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45612,6 +45795,9 @@
       <c r="IH62" t="n">
         <v>47</v>
       </c>
+      <c r="II62" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46342,6 +46528,9 @@
       <c r="IH63" t="n">
         <v>20</v>
       </c>
+      <c r="II63" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47072,6 +47261,9 @@
       <c r="IH64" t="n">
         <v>18</v>
       </c>
+      <c r="II64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47802,6 +47994,9 @@
       <c r="IH65" t="n">
         <v>17</v>
       </c>
+      <c r="II65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48532,6 +48727,9 @@
       <c r="IH66" t="n">
         <v>11</v>
       </c>
+      <c r="II66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49262,6 +49460,9 @@
       <c r="IH67" t="n">
         <v>7</v>
       </c>
+      <c r="II67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49992,6 +50193,9 @@
       <c r="IH68" t="n">
         <v>10</v>
       </c>
+      <c r="II68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50722,6 +50926,9 @@
       <c r="IH69" t="n">
         <v>0</v>
       </c>
+      <c r="II69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51452,6 +51659,9 @@
       <c r="IH70" t="n">
         <v>21</v>
       </c>
+      <c r="II70" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52182,6 +52392,9 @@
       <c r="IH71" t="n">
         <v>52.4</v>
       </c>
+      <c r="II71" t="n">
+        <v>46.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52912,6 +53125,9 @@
       <c r="IH72" t="n">
         <v>33.82</v>
       </c>
+      <c r="II72" t="n">
+        <v>31.08</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53642,6 +53858,9 @@
       <c r="IH73" t="n">
         <v>17.71</v>
       </c>
+      <c r="II73" t="n">
+        <v>14.43</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54372,6 +54591,9 @@
       <c r="IH74" t="n">
         <v>30</v>
       </c>
+      <c r="II74" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55102,6 +55324,9 @@
       <c r="IH75" t="n">
         <v>57</v>
       </c>
+      <c r="II75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55832,6 +56057,9 @@
       <c r="IH76" t="n">
         <v>32</v>
       </c>
+      <c r="II76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56562,6 +56790,9 @@
       <c r="IH77" t="n">
         <v>56</v>
       </c>
+      <c r="II77" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57292,6 +57523,9 @@
       <c r="IH78" t="n">
         <v>2.67</v>
       </c>
+      <c r="II78" t="n">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58022,6 +58256,9 @@
       <c r="IH79" t="n">
         <v>5.09</v>
       </c>
+      <c r="II79" t="n">
+        <v>3.85</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58752,6 +58989,9 @@
       <c r="IH80" t="n">
         <v>37.5</v>
       </c>
+      <c r="II80" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59482,6 +59722,9 @@
       <c r="IH81" t="n">
         <v>19.6</v>
       </c>
+      <c r="II81" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60212,6 +60455,9 @@
       <c r="IH82" t="n">
         <v>187</v>
       </c>
+      <c r="II82" t="n">
+        <v>190.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60942,6 +61188,9 @@
       <c r="IH83" t="n">
         <v>84.3</v>
       </c>
+      <c r="II83" t="n">
+        <v>87.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61672,6 +61921,9 @@
       <c r="IH84" t="n">
         <v>24.33</v>
       </c>
+      <c r="II84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62402,6 +62654,9 @@
       <c r="IH85" t="n">
         <v>68.8</v>
       </c>
+      <c r="II85" t="n">
+        <v>72.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63132,6 +63387,9 @@
       <c r="IH86" t="n">
         <v>14</v>
       </c>
+      <c r="II86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63862,6 +64120,9 @@
       <c r="IH87" t="n">
         <v>2</v>
       </c>
+      <c r="II87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64592,6 +64853,9 @@
       <c r="IH88" t="n">
         <v>1</v>
       </c>
+      <c r="II88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65322,6 +65586,9 @@
       <c r="IH89" t="n">
         <v>5</v>
       </c>
+      <c r="II89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66052,6 +66319,9 @@
       <c r="IH90" t="n">
         <v>143</v>
       </c>
+      <c r="II90" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66782,6 +67052,9 @@
       <c r="IH91" t="n">
         <v>229</v>
       </c>
+      <c r="II91" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67512,6 +67785,9 @@
       <c r="IH92" t="n">
         <v>272</v>
       </c>
+      <c r="II92" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68242,6 +68518,9 @@
       <c r="IH93" t="n">
         <v>73.09999999999999</v>
       </c>
+      <c r="II93" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68972,6 +69251,9 @@
       <c r="IH94" t="n">
         <v>57</v>
       </c>
+      <c r="II94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69702,6 +69984,9 @@
       <c r="IH95" t="n">
         <v>16</v>
       </c>
+      <c r="II95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70432,6 +70717,9 @@
       <c r="IH96" t="n">
         <v>13</v>
       </c>
+      <c r="II96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71162,6 +71450,9 @@
       <c r="IH97" t="n">
         <v>30</v>
       </c>
+      <c r="II97" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71892,6 +72183,9 @@
       <c r="IH98" t="n">
         <v>32</v>
       </c>
+      <c r="II98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72622,6 +72916,9 @@
       <c r="IH99" t="n">
         <v>50</v>
       </c>
+      <c r="II99" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73352,6 +73649,9 @@
       <c r="IH100" t="n">
         <v>1</v>
       </c>
+      <c r="II100" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74082,6 +74382,9 @@
       <c r="IH101" t="n">
         <v>7</v>
       </c>
+      <c r="II101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74812,6 +75115,9 @@
       <c r="IH102" t="n">
         <v>63.6</v>
       </c>
+      <c r="II102" t="n">
+        <v>69.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IJ102"/>
+  <dimension ref="A1:IK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,6 +1088,9 @@
       <c r="IJ1" t="n">
         <v>10425</v>
       </c>
+      <c r="IK1" t="n">
+        <v>10426</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1824,6 +1827,9 @@
       <c r="IJ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IK2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2560,6 +2566,9 @@
       <c r="IJ3" t="n">
         <v>11</v>
       </c>
+      <c r="IK3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3296,6 +3305,9 @@
       <c r="IJ4" t="n">
         <v>0</v>
       </c>
+      <c r="IK4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4032,6 +4044,9 @@
       <c r="IJ5" t="n">
         <v>1</v>
       </c>
+      <c r="IK5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4768,6 +4783,9 @@
       <c r="IJ6" t="n">
         <v>71</v>
       </c>
+      <c r="IK6" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5504,6 +5522,9 @@
       <c r="IJ7" t="n">
         <v>87</v>
       </c>
+      <c r="IK7" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6240,6 +6261,9 @@
       <c r="IJ8" t="n">
         <v>-16</v>
       </c>
+      <c r="IK8" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6976,6 +7000,9 @@
       <c r="IJ9" t="n">
         <v>0</v>
       </c>
+      <c r="IK9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7712,6 +7739,9 @@
       <c r="IJ10" t="n">
         <v>5</v>
       </c>
+      <c r="IK10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8448,6 +8478,9 @@
       <c r="IJ11" t="n">
         <v>218</v>
       </c>
+      <c r="IK11" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9184,6 +9217,9 @@
       <c r="IJ12" t="n">
         <v>146</v>
       </c>
+      <c r="IK12" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9920,6 +9956,9 @@
       <c r="IJ13" t="n">
         <v>364</v>
       </c>
+      <c r="IK13" t="n">
+        <v>358</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10656,6 +10695,9 @@
       <c r="IJ14" t="n">
         <v>1.49</v>
       </c>
+      <c r="IK14" t="n">
+        <v>2.23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11392,6 +11434,9 @@
       <c r="IJ15" t="n">
         <v>78</v>
       </c>
+      <c r="IK15" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12128,6 +12173,9 @@
       <c r="IJ16" t="n">
         <v>46</v>
       </c>
+      <c r="IK16" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12864,6 +12912,9 @@
       <c r="IJ17" t="n">
         <v>52</v>
       </c>
+      <c r="IK17" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13600,6 +13651,9 @@
       <c r="IJ18" t="n">
         <v>16</v>
       </c>
+      <c r="IK18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14336,6 +14390,9 @@
       <c r="IJ19" t="n">
         <v>15</v>
       </c>
+      <c r="IK19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15072,6 +15129,9 @@
       <c r="IJ20" t="n">
         <v>11</v>
       </c>
+      <c r="IK20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15808,6 +15868,9 @@
       <c r="IJ21" t="n">
         <v>8</v>
       </c>
+      <c r="IK21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16544,6 +16607,9 @@
       <c r="IJ22" t="n">
         <v>5</v>
       </c>
+      <c r="IK22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17280,6 +17346,9 @@
       <c r="IJ23" t="n">
         <v>0</v>
       </c>
+      <c r="IK23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18016,6 +18085,9 @@
       <c r="IJ24" t="n">
         <v>16</v>
       </c>
+      <c r="IK24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18752,6 +18824,9 @@
       <c r="IJ25" t="n">
         <v>68.8</v>
       </c>
+      <c r="IK25" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19488,6 +19563,9 @@
       <c r="IJ26" t="n">
         <v>33.09</v>
       </c>
+      <c r="IK26" t="n">
+        <v>25.57</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20224,6 +20302,9 @@
       <c r="IJ27" t="n">
         <v>22.75</v>
       </c>
+      <c r="IK27" t="n">
+        <v>14.32</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20960,6 +21041,9 @@
       <c r="IJ28" t="n">
         <v>37</v>
       </c>
+      <c r="IK28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21696,6 +21780,9 @@
       <c r="IJ29" t="n">
         <v>59</v>
       </c>
+      <c r="IK29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22432,6 +22519,9 @@
       <c r="IJ30" t="n">
         <v>45</v>
       </c>
+      <c r="IK30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23168,6 +23258,9 @@
       <c r="IJ31" t="n">
         <v>45</v>
       </c>
+      <c r="IK31" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23904,6 +23997,9 @@
       <c r="IJ32" t="n">
         <v>2.81</v>
       </c>
+      <c r="IK32" t="n">
+        <v>2.28</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24640,6 +24736,9 @@
       <c r="IJ33" t="n">
         <v>4.09</v>
       </c>
+      <c r="IK33" t="n">
+        <v>4.07</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25376,6 +25475,9 @@
       <c r="IJ34" t="n">
         <v>35.6</v>
       </c>
+      <c r="IK34" t="n">
+        <v>35.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26112,6 +26214,9 @@
       <c r="IJ35" t="n">
         <v>24.4</v>
       </c>
+      <c r="IK35" t="n">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26848,6 +26953,9 @@
       <c r="IJ36" t="n">
         <v>189</v>
       </c>
+      <c r="IK36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27584,6 +27692,9 @@
       <c r="IJ37" t="n">
         <v>88.40000000000001</v>
       </c>
+      <c r="IK37" t="n">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28320,6 +28431,9 @@
       <c r="IJ38" t="n">
         <v>26.49</v>
       </c>
+      <c r="IK38" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29056,6 +29170,9 @@
       <c r="IJ39" t="n">
         <v>120.4</v>
       </c>
+      <c r="IK39" t="n">
+        <v>103.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29792,6 +29909,9 @@
       <c r="IJ40" t="n">
         <v>7</v>
       </c>
+      <c r="IK40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30528,6 +30648,9 @@
       <c r="IJ41" t="n">
         <v>6</v>
       </c>
+      <c r="IK41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31264,6 +31387,9 @@
       <c r="IJ42" t="n">
         <v>1</v>
       </c>
+      <c r="IK42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32000,6 +32126,9 @@
       <c r="IJ43" t="n">
         <v>9</v>
       </c>
+      <c r="IK43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32736,6 +32865,9 @@
       <c r="IJ44" t="n">
         <v>147</v>
       </c>
+      <c r="IK44" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33472,6 +33604,9 @@
       <c r="IJ45" t="n">
         <v>213</v>
       </c>
+      <c r="IK45" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34208,6 +34343,9 @@
       <c r="IJ46" t="n">
         <v>251</v>
       </c>
+      <c r="IK46" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34944,6 +35082,9 @@
       <c r="IJ47" t="n">
         <v>69</v>
       </c>
+      <c r="IK47" t="n">
+        <v>71.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35680,6 +35821,9 @@
       <c r="IJ48" t="n">
         <v>59</v>
       </c>
+      <c r="IK48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36416,6 +36560,9 @@
       <c r="IJ49" t="n">
         <v>9</v>
       </c>
+      <c r="IK49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37152,6 +37299,9 @@
       <c r="IJ50" t="n">
         <v>7</v>
       </c>
+      <c r="IK50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37888,6 +38038,9 @@
       <c r="IJ51" t="n">
         <v>37</v>
       </c>
+      <c r="IK51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38624,6 +38777,9 @@
       <c r="IJ52" t="n">
         <v>45</v>
       </c>
+      <c r="IK52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39360,6 +39516,9 @@
       <c r="IJ53" t="n">
         <v>55</v>
       </c>
+      <c r="IK53" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40096,6 +40255,9 @@
       <c r="IJ54" t="n">
         <v>4</v>
       </c>
+      <c r="IK54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40832,6 +40994,9 @@
       <c r="IJ55" t="n">
         <v>8</v>
       </c>
+      <c r="IK55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41568,6 +41733,9 @@
       <c r="IJ56" t="n">
         <v>72.7</v>
       </c>
+      <c r="IK56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42304,6 +42472,9 @@
       <c r="IJ57" t="n">
         <v>236</v>
       </c>
+      <c r="IK57" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43040,6 +43211,9 @@
       <c r="IJ58" t="n">
         <v>140</v>
       </c>
+      <c r="IK58" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43776,6 +43950,9 @@
       <c r="IJ59" t="n">
         <v>376</v>
       </c>
+      <c r="IK59" t="n">
+        <v>357</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44512,6 +44689,9 @@
       <c r="IJ60" t="n">
         <v>1.69</v>
       </c>
+      <c r="IK60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45248,6 +45428,9 @@
       <c r="IJ61" t="n">
         <v>99</v>
       </c>
+      <c r="IK61" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45984,6 +46167,9 @@
       <c r="IJ62" t="n">
         <v>55</v>
       </c>
+      <c r="IK62" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46720,6 +46906,9 @@
       <c r="IJ63" t="n">
         <v>14</v>
       </c>
+      <c r="IK63" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47456,6 +47645,9 @@
       <c r="IJ64" t="n">
         <v>15</v>
       </c>
+      <c r="IK64" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48192,6 +48384,9 @@
       <c r="IJ65" t="n">
         <v>16</v>
       </c>
+      <c r="IK65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48928,6 +49123,9 @@
       <c r="IJ66" t="n">
         <v>12</v>
       </c>
+      <c r="IK66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49664,6 +49862,9 @@
       <c r="IJ67" t="n">
         <v>9</v>
       </c>
+      <c r="IK67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50400,6 +50601,9 @@
       <c r="IJ68" t="n">
         <v>13</v>
       </c>
+      <c r="IK68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51136,6 +51340,9 @@
       <c r="IJ69" t="n">
         <v>2</v>
       </c>
+      <c r="IK69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51872,6 +52079,9 @@
       <c r="IJ70" t="n">
         <v>27</v>
       </c>
+      <c r="IK70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52608,6 +52818,9 @@
       <c r="IJ71" t="n">
         <v>44.4</v>
       </c>
+      <c r="IK71" t="n">
+        <v>43.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53344,6 +53557,9 @@
       <c r="IJ72" t="n">
         <v>31.33</v>
       </c>
+      <c r="IK72" t="n">
+        <v>35.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54080,6 +54296,9 @@
       <c r="IJ73" t="n">
         <v>13.93</v>
       </c>
+      <c r="IK73" t="n">
+        <v>15.52</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54816,6 +55035,9 @@
       <c r="IJ74" t="n">
         <v>38</v>
       </c>
+      <c r="IK74" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55552,6 +55774,9 @@
       <c r="IJ75" t="n">
         <v>47</v>
       </c>
+      <c r="IK75" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56288,6 +56513,9 @@
       <c r="IJ76" t="n">
         <v>33</v>
       </c>
+      <c r="IK76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57024,6 +57252,9 @@
       <c r="IJ77" t="n">
         <v>57</v>
       </c>
+      <c r="IK77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57760,6 +57991,9 @@
       <c r="IJ78" t="n">
         <v>2.11</v>
       </c>
+      <c r="IK78" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58496,6 +58730,9 @@
       <c r="IJ79" t="n">
         <v>4.75</v>
       </c>
+      <c r="IK79" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59232,6 +59469,9 @@
       <c r="IJ80" t="n">
         <v>43.9</v>
       </c>
+      <c r="IK80" t="n">
+        <v>44.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59968,6 +60208,9 @@
       <c r="IJ81" t="n">
         <v>21.1</v>
       </c>
+      <c r="IK81" t="n">
+        <v>21.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60704,6 +60947,9 @@
       <c r="IJ82" t="n">
         <v>187.5</v>
       </c>
+      <c r="IK82" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61440,6 +61686,9 @@
       <c r="IJ83" t="n">
         <v>85.3</v>
       </c>
+      <c r="IK83" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62176,6 +62425,9 @@
       <c r="IJ84" t="n">
         <v>25.16</v>
       </c>
+      <c r="IK84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62912,6 +63164,9 @@
       <c r="IJ85" t="n">
         <v>78.8</v>
       </c>
+      <c r="IK85" t="n">
+        <v>102.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63648,6 +63903,9 @@
       <c r="IJ86" t="n">
         <v>9</v>
       </c>
+      <c r="IK86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64384,6 +64642,9 @@
       <c r="IJ87" t="n">
         <v>6</v>
       </c>
+      <c r="IK87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65120,6 +65381,9 @@
       <c r="IJ88" t="n">
         <v>3</v>
       </c>
+      <c r="IK88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65856,6 +66120,9 @@
       <c r="IJ89" t="n">
         <v>4</v>
       </c>
+      <c r="IK89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66592,6 +66859,9 @@
       <c r="IJ90" t="n">
         <v>139</v>
       </c>
+      <c r="IK90" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67328,6 +67598,9 @@
       <c r="IJ91" t="n">
         <v>240</v>
       </c>
+      <c r="IK91" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68064,6 +68337,9 @@
       <c r="IJ92" t="n">
         <v>282</v>
       </c>
+      <c r="IK92" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68800,6 +69076,9 @@
       <c r="IJ93" t="n">
         <v>75</v>
       </c>
+      <c r="IK93" t="n">
+        <v>73.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69536,6 +69815,9 @@
       <c r="IJ94" t="n">
         <v>47</v>
       </c>
+      <c r="IK94" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70272,6 +70554,9 @@
       <c r="IJ95" t="n">
         <v>11</v>
       </c>
+      <c r="IK95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71008,6 +71293,9 @@
       <c r="IJ96" t="n">
         <v>13</v>
       </c>
+      <c r="IK96" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71744,6 +72032,9 @@
       <c r="IJ97" t="n">
         <v>38</v>
       </c>
+      <c r="IK97" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72480,6 +72771,9 @@
       <c r="IJ98" t="n">
         <v>33</v>
       </c>
+      <c r="IK98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73216,6 +73510,9 @@
       <c r="IJ99" t="n">
         <v>55</v>
       </c>
+      <c r="IK99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73952,6 +74249,9 @@
       <c r="IJ100" t="n">
         <v>0</v>
       </c>
+      <c r="IK100" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74688,6 +74988,9 @@
       <c r="IJ101" t="n">
         <v>9</v>
       </c>
+      <c r="IK101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75424,6 +75727,9 @@
       <c r="IJ102" t="n">
         <v>75</v>
       </c>
+      <c r="IK102" t="n">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IK102"/>
+  <dimension ref="A1:IL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,6 +1091,9 @@
       <c r="IK1" t="n">
         <v>10426</v>
       </c>
+      <c r="IL1" t="n">
+        <v>10443</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1830,6 +1833,9 @@
       <c r="IK2" t="n">
         <v>2021</v>
       </c>
+      <c r="IL2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2569,6 +2575,9 @@
       <c r="IK3" t="n">
         <v>12</v>
       </c>
+      <c r="IL3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3308,6 +3317,9 @@
       <c r="IK4" t="n">
         <v>1</v>
       </c>
+      <c r="IL4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4047,6 +4059,9 @@
       <c r="IK5" t="n">
         <v>1</v>
       </c>
+      <c r="IL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4786,6 +4801,9 @@
       <c r="IK6" t="n">
         <v>95</v>
       </c>
+      <c r="IL6" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5525,6 +5543,9 @@
       <c r="IK7" t="n">
         <v>73</v>
       </c>
+      <c r="IL7" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6264,6 +6285,9 @@
       <c r="IK8" t="n">
         <v>22</v>
       </c>
+      <c r="IL8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7003,6 +7027,9 @@
       <c r="IK9" t="n">
         <v>1</v>
       </c>
+      <c r="IL9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7742,6 +7769,9 @@
       <c r="IK10" t="n">
         <v>3</v>
       </c>
+      <c r="IL10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8481,6 +8511,9 @@
       <c r="IK11" t="n">
         <v>247</v>
       </c>
+      <c r="IL11" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9220,6 +9253,9 @@
       <c r="IK12" t="n">
         <v>111</v>
       </c>
+      <c r="IL12" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9959,6 +9995,9 @@
       <c r="IK13" t="n">
         <v>358</v>
       </c>
+      <c r="IL13" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10698,6 +10737,9 @@
       <c r="IK14" t="n">
         <v>2.23</v>
       </c>
+      <c r="IL14" t="n">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11437,6 +11479,9 @@
       <c r="IK15" t="n">
         <v>116</v>
       </c>
+      <c r="IL15" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12176,6 +12221,9 @@
       <c r="IK16" t="n">
         <v>49</v>
       </c>
+      <c r="IL16" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12915,6 +12963,9 @@
       <c r="IK17" t="n">
         <v>38</v>
       </c>
+      <c r="IL17" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13654,6 +13705,9 @@
       <c r="IK18" t="n">
         <v>15</v>
       </c>
+      <c r="IL18" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14393,6 +14447,9 @@
       <c r="IK19" t="n">
         <v>13</v>
       </c>
+      <c r="IL19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15132,6 +15189,9 @@
       <c r="IK20" t="n">
         <v>14</v>
       </c>
+      <c r="IL20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15871,6 +15931,9 @@
       <c r="IK21" t="n">
         <v>10</v>
       </c>
+      <c r="IL21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16610,6 +16673,9 @@
       <c r="IK22" t="n">
         <v>6</v>
       </c>
+      <c r="IL22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17349,6 +17415,9 @@
       <c r="IK23" t="n">
         <v>5</v>
       </c>
+      <c r="IL23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18088,6 +18157,9 @@
       <c r="IK24" t="n">
         <v>25</v>
       </c>
+      <c r="IL24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18827,6 +18899,9 @@
       <c r="IK25" t="n">
         <v>56</v>
       </c>
+      <c r="IL25" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19566,6 +19641,9 @@
       <c r="IK26" t="n">
         <v>25.57</v>
       </c>
+      <c r="IL26" t="n">
+        <v>27.15</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20305,6 +20383,9 @@
       <c r="IK27" t="n">
         <v>14.32</v>
       </c>
+      <c r="IL27" t="n">
+        <v>17.65</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21044,6 +21125,9 @@
       <c r="IK28" t="n">
         <v>37</v>
       </c>
+      <c r="IL28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21783,6 +21867,9 @@
       <c r="IK29" t="n">
         <v>56</v>
       </c>
+      <c r="IL29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22522,6 +22609,9 @@
       <c r="IK30" t="n">
         <v>36</v>
       </c>
+      <c r="IL30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23261,6 +23351,9 @@
       <c r="IK31" t="n">
         <v>57</v>
       </c>
+      <c r="IL31" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24000,6 +24093,9 @@
       <c r="IK32" t="n">
         <v>2.28</v>
       </c>
+      <c r="IL32" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24739,6 +24835,9 @@
       <c r="IK33" t="n">
         <v>4.07</v>
       </c>
+      <c r="IL33" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25478,6 +25577,9 @@
       <c r="IK34" t="n">
         <v>35.1</v>
       </c>
+      <c r="IL34" t="n">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26217,6 +26319,9 @@
       <c r="IK35" t="n">
         <v>24.6</v>
       </c>
+      <c r="IL35" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26956,6 +27061,9 @@
       <c r="IK36" t="n">
         <v>188.3</v>
       </c>
+      <c r="IL36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27695,6 +27803,9 @@
       <c r="IK37" t="n">
         <v>86.5</v>
       </c>
+      <c r="IL37" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28434,6 +28545,9 @@
       <c r="IK38" t="n">
         <v>25.49</v>
       </c>
+      <c r="IL38" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29173,6 +29287,9 @@
       <c r="IK39" t="n">
         <v>103.2</v>
       </c>
+      <c r="IL39" t="n">
+        <v>116.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29912,6 +30029,9 @@
       <c r="IK40" t="n">
         <v>10</v>
       </c>
+      <c r="IL40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30651,6 +30771,9 @@
       <c r="IK41" t="n">
         <v>4</v>
       </c>
+      <c r="IL41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31390,6 +31513,9 @@
       <c r="IK42" t="n">
         <v>1</v>
       </c>
+      <c r="IL42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32129,6 +32255,9 @@
       <c r="IK43" t="n">
         <v>8</v>
       </c>
+      <c r="IL43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32868,6 +32997,9 @@
       <c r="IK44" t="n">
         <v>136</v>
       </c>
+      <c r="IL44" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33607,6 +33739,9 @@
       <c r="IK45" t="n">
         <v>217</v>
       </c>
+      <c r="IL45" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34346,6 +34481,9 @@
       <c r="IK46" t="n">
         <v>257</v>
       </c>
+      <c r="IL46" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35085,6 +35223,9 @@
       <c r="IK47" t="n">
         <v>71.8</v>
       </c>
+      <c r="IL47" t="n">
+        <v>75.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35824,6 +35965,9 @@
       <c r="IK48" t="n">
         <v>56</v>
       </c>
+      <c r="IL48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36563,6 +36707,9 @@
       <c r="IK49" t="n">
         <v>16</v>
       </c>
+      <c r="IL49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37302,6 +37449,9 @@
       <c r="IK50" t="n">
         <v>11</v>
       </c>
+      <c r="IL50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38041,6 +38191,9 @@
       <c r="IK51" t="n">
         <v>37</v>
       </c>
+      <c r="IL51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38780,6 +38933,9 @@
       <c r="IK52" t="n">
         <v>36</v>
       </c>
+      <c r="IL52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39519,6 +39675,9 @@
       <c r="IK53" t="n">
         <v>60</v>
       </c>
+      <c r="IL53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40258,6 +40417,9 @@
       <c r="IK54" t="n">
         <v>3</v>
       </c>
+      <c r="IL54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40997,6 +41159,9 @@
       <c r="IK55" t="n">
         <v>10</v>
       </c>
+      <c r="IL55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41736,6 +41901,9 @@
       <c r="IK56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IL56" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42475,6 +42643,9 @@
       <c r="IK57" t="n">
         <v>238</v>
       </c>
+      <c r="IL57" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43214,6 +43385,9 @@
       <c r="IK58" t="n">
         <v>119</v>
       </c>
+      <c r="IL58" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43953,6 +44127,9 @@
       <c r="IK59" t="n">
         <v>357</v>
       </c>
+      <c r="IL59" t="n">
+        <v>384</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44692,6 +44869,9 @@
       <c r="IK60" t="n">
         <v>2</v>
       </c>
+      <c r="IL60" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45431,6 +45611,9 @@
       <c r="IK61" t="n">
         <v>127</v>
       </c>
+      <c r="IL61" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46170,6 +46353,9 @@
       <c r="IK62" t="n">
         <v>43</v>
       </c>
+      <c r="IL62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46909,6 +47095,9 @@
       <c r="IK63" t="n">
         <v>14</v>
       </c>
+      <c r="IL63" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47648,6 +47837,9 @@
       <c r="IK64" t="n">
         <v>13</v>
       </c>
+      <c r="IL64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48387,6 +48579,9 @@
       <c r="IK65" t="n">
         <v>15</v>
       </c>
+      <c r="IL65" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49126,6 +49321,9 @@
       <c r="IK66" t="n">
         <v>10</v>
       </c>
+      <c r="IL66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49865,6 +50063,9 @@
       <c r="IK67" t="n">
         <v>9</v>
       </c>
+      <c r="IL67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50604,6 +50805,9 @@
       <c r="IK68" t="n">
         <v>11</v>
       </c>
+      <c r="IL68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51343,6 +51547,9 @@
       <c r="IK69" t="n">
         <v>2</v>
       </c>
+      <c r="IL69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52082,6 +52289,9 @@
       <c r="IK70" t="n">
         <v>23</v>
       </c>
+      <c r="IL70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52821,6 +53031,9 @@
       <c r="IK71" t="n">
         <v>43.5</v>
       </c>
+      <c r="IL71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53560,6 +53773,9 @@
       <c r="IK72" t="n">
         <v>35.7</v>
       </c>
+      <c r="IL72" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54299,6 +54515,9 @@
       <c r="IK73" t="n">
         <v>15.52</v>
       </c>
+      <c r="IL73" t="n">
+        <v>18.29</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55038,6 +55257,9 @@
       <c r="IK74" t="n">
         <v>24</v>
       </c>
+      <c r="IL74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55777,6 +55999,9 @@
       <c r="IK75" t="n">
         <v>50</v>
       </c>
+      <c r="IL75" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56516,6 +56741,9 @@
       <c r="IK76" t="n">
         <v>42</v>
       </c>
+      <c r="IL76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57255,6 +57483,9 @@
       <c r="IK77" t="n">
         <v>47</v>
       </c>
+      <c r="IL77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57994,6 +58225,9 @@
       <c r="IK78" t="n">
         <v>2.04</v>
       </c>
+      <c r="IL78" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58733,6 +58967,9 @@
       <c r="IK79" t="n">
         <v>4.7</v>
       </c>
+      <c r="IL79" t="n">
+        <v>3.92</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59472,6 +59709,9 @@
       <c r="IK80" t="n">
         <v>44.7</v>
       </c>
+      <c r="IL80" t="n">
+        <v>44.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60211,6 +60451,9 @@
       <c r="IK81" t="n">
         <v>21.3</v>
       </c>
+      <c r="IL81" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60950,6 +61193,9 @@
       <c r="IK82" t="n">
         <v>187.8</v>
       </c>
+      <c r="IL82" t="n">
+        <v>185.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61689,6 +61935,9 @@
       <c r="IK83" t="n">
         <v>86</v>
       </c>
+      <c r="IL83" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62428,6 +62677,9 @@
       <c r="IK84" t="n">
         <v>25.8</v>
       </c>
+      <c r="IL84" t="n">
+        <v>27.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63167,6 +63419,9 @@
       <c r="IK85" t="n">
         <v>102.2</v>
       </c>
+      <c r="IL85" t="n">
+        <v>127.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63906,6 +64161,9 @@
       <c r="IK86" t="n">
         <v>7</v>
       </c>
+      <c r="IL86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64645,6 +64903,9 @@
       <c r="IK87" t="n">
         <v>5</v>
       </c>
+      <c r="IL87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65384,6 +65645,9 @@
       <c r="IK88" t="n">
         <v>6</v>
       </c>
+      <c r="IL88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66123,6 +66387,9 @@
       <c r="IK89" t="n">
         <v>5</v>
       </c>
+      <c r="IL89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66862,6 +67129,9 @@
       <c r="IK90" t="n">
         <v>111</v>
       </c>
+      <c r="IL90" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67601,6 +67871,9 @@
       <c r="IK91" t="n">
         <v>236</v>
       </c>
+      <c r="IL91" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68340,6 +68613,9 @@
       <c r="IK92" t="n">
         <v>262</v>
       </c>
+      <c r="IL92" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69079,6 +69355,9 @@
       <c r="IK93" t="n">
         <v>73.40000000000001</v>
       </c>
+      <c r="IL93" t="n">
+        <v>74.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69818,6 +70097,9 @@
       <c r="IK94" t="n">
         <v>50</v>
       </c>
+      <c r="IL94" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70557,6 +70839,9 @@
       <c r="IK95" t="n">
         <v>14</v>
       </c>
+      <c r="IL95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71296,6 +71581,9 @@
       <c r="IK96" t="n">
         <v>16</v>
       </c>
+      <c r="IL96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72035,6 +72323,9 @@
       <c r="IK97" t="n">
         <v>24</v>
       </c>
+      <c r="IL97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72774,6 +73065,9 @@
       <c r="IK98" t="n">
         <v>42</v>
       </c>
+      <c r="IL98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73513,6 +73807,9 @@
       <c r="IK99" t="n">
         <v>42</v>
       </c>
+      <c r="IL99" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74252,6 +74549,9 @@
       <c r="IK100" t="n">
         <v>13</v>
       </c>
+      <c r="IL100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74991,6 +75291,9 @@
       <c r="IK101" t="n">
         <v>9</v>
       </c>
+      <c r="IL101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75730,6 +76033,9 @@
       <c r="IK102" t="n">
         <v>90</v>
       </c>
+      <c r="IL102" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IL102"/>
+  <dimension ref="A1:IM102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1094,6 +1094,9 @@
       <c r="IL1" t="n">
         <v>10443</v>
       </c>
+      <c r="IM1" t="n">
+        <v>10452</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1836,6 +1839,9 @@
       <c r="IL2" t="n">
         <v>2021</v>
       </c>
+      <c r="IM2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2578,6 +2584,9 @@
       <c r="IL3" t="n">
         <v>13</v>
       </c>
+      <c r="IM3" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3320,6 +3329,9 @@
       <c r="IL4" t="n">
         <v>0</v>
       </c>
+      <c r="IM4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4062,6 +4074,9 @@
       <c r="IL5" t="n">
         <v>0</v>
       </c>
+      <c r="IM5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4804,6 +4819,9 @@
       <c r="IL6" t="n">
         <v>85</v>
       </c>
+      <c r="IM6" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5546,6 +5564,9 @@
       <c r="IL7" t="n">
         <v>81</v>
       </c>
+      <c r="IM7" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6288,6 +6309,9 @@
       <c r="IL8" t="n">
         <v>4</v>
       </c>
+      <c r="IM8" t="n">
+        <v>-55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7030,6 +7054,9 @@
       <c r="IL9" t="n">
         <v>1</v>
       </c>
+      <c r="IM9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7772,6 +7799,9 @@
       <c r="IL10" t="n">
         <v>14</v>
       </c>
+      <c r="IM10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8514,6 +8544,9 @@
       <c r="IL11" t="n">
         <v>223</v>
       </c>
+      <c r="IM11" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9256,6 +9289,9 @@
       <c r="IL12" t="n">
         <v>130</v>
       </c>
+      <c r="IM12" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9998,6 +10034,9 @@
       <c r="IL13" t="n">
         <v>353</v>
       </c>
+      <c r="IM13" t="n">
+        <v>345</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10740,6 +10779,9 @@
       <c r="IL14" t="n">
         <v>1.72</v>
       </c>
+      <c r="IM14" t="n">
+        <v>2.22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11482,6 +11524,9 @@
       <c r="IL15" t="n">
         <v>112</v>
       </c>
+      <c r="IM15" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12224,6 +12269,9 @@
       <c r="IL16" t="n">
         <v>41</v>
       </c>
+      <c r="IM16" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12966,6 +13014,9 @@
       <c r="IL17" t="n">
         <v>39</v>
       </c>
+      <c r="IM17" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13708,6 +13759,9 @@
       <c r="IL18" t="n">
         <v>25</v>
       </c>
+      <c r="IM18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14450,6 +14504,9 @@
       <c r="IL19" t="n">
         <v>15</v>
       </c>
+      <c r="IM19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15192,6 +15249,9 @@
       <c r="IL20" t="n">
         <v>13</v>
       </c>
+      <c r="IM20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15934,6 +15994,9 @@
       <c r="IL21" t="n">
         <v>10</v>
       </c>
+      <c r="IM21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16676,6 +16739,9 @@
       <c r="IL22" t="n">
         <v>4</v>
       </c>
+      <c r="IM22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17418,6 +17484,9 @@
       <c r="IL23" t="n">
         <v>3</v>
       </c>
+      <c r="IM23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18160,6 +18229,9 @@
       <c r="IL24" t="n">
         <v>20</v>
       </c>
+      <c r="IM24" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18902,6 +18974,9 @@
       <c r="IL25" t="n">
         <v>65</v>
       </c>
+      <c r="IM25" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19644,6 +19719,9 @@
       <c r="IL26" t="n">
         <v>27.15</v>
       </c>
+      <c r="IM26" t="n">
+        <v>57.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20386,6 +20464,9 @@
       <c r="IL27" t="n">
         <v>17.65</v>
       </c>
+      <c r="IM27" t="n">
+        <v>26.54</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21128,6 +21209,9 @@
       <c r="IL28" t="n">
         <v>36</v>
       </c>
+      <c r="IM28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21870,6 +21954,9 @@
       <c r="IL29" t="n">
         <v>51</v>
       </c>
+      <c r="IM29" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22612,6 +22699,9 @@
       <c r="IL30" t="n">
         <v>33</v>
       </c>
+      <c r="IM30" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23354,6 +23444,9 @@
       <c r="IL31" t="n">
         <v>52</v>
       </c>
+      <c r="IM31" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24096,6 +24189,9 @@
       <c r="IL32" t="n">
         <v>2.6</v>
       </c>
+      <c r="IM32" t="n">
+        <v>2.92</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24838,6 +24934,9 @@
       <c r="IL33" t="n">
         <v>4</v>
       </c>
+      <c r="IM33" t="n">
+        <v>6.33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25580,6 +25679,9 @@
       <c r="IL34" t="n">
         <v>32.7</v>
       </c>
+      <c r="IM34" t="n">
+        <v>31.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26322,6 +26424,9 @@
       <c r="IL35" t="n">
         <v>25</v>
       </c>
+      <c r="IM35" t="n">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27064,6 +27169,9 @@
       <c r="IL36" t="n">
         <v>188.5</v>
       </c>
+      <c r="IM36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27806,6 +27914,9 @@
       <c r="IL37" t="n">
         <v>87.3</v>
       </c>
+      <c r="IM37" t="n">
+        <v>88.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28548,6 +28659,9 @@
       <c r="IL38" t="n">
         <v>26.8</v>
       </c>
+      <c r="IM38" t="n">
+        <v>27.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29290,6 +29404,9 @@
       <c r="IL39" t="n">
         <v>116.3</v>
       </c>
+      <c r="IM39" t="n">
+        <v>141.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30032,6 +30149,9 @@
       <c r="IL40" t="n">
         <v>7</v>
       </c>
+      <c r="IM40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30774,6 +30894,9 @@
       <c r="IL41" t="n">
         <v>5</v>
       </c>
+      <c r="IM41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31516,6 +31639,9 @@
       <c r="IL42" t="n">
         <v>2</v>
       </c>
+      <c r="IM42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32258,6 +32384,9 @@
       <c r="IL43" t="n">
         <v>8</v>
       </c>
+      <c r="IM43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33000,6 +33129,9 @@
       <c r="IL44" t="n">
         <v>137</v>
       </c>
+      <c r="IM44" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33742,6 +33874,9 @@
       <c r="IL45" t="n">
         <v>216</v>
       </c>
+      <c r="IM45" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34484,6 +34619,9 @@
       <c r="IL46" t="n">
         <v>265</v>
       </c>
+      <c r="IM46" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35226,6 +35364,9 @@
       <c r="IL47" t="n">
         <v>75.09999999999999</v>
       </c>
+      <c r="IM47" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35968,6 +36109,9 @@
       <c r="IL48" t="n">
         <v>51</v>
       </c>
+      <c r="IM48" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36710,6 +36854,9 @@
       <c r="IL49" t="n">
         <v>11</v>
       </c>
+      <c r="IM49" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37452,6 +37599,9 @@
       <c r="IL50" t="n">
         <v>15</v>
       </c>
+      <c r="IM50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38194,6 +38344,9 @@
       <c r="IL51" t="n">
         <v>36</v>
       </c>
+      <c r="IM51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38936,6 +39089,9 @@
       <c r="IL52" t="n">
         <v>33</v>
       </c>
+      <c r="IM52" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39678,6 +39834,9 @@
       <c r="IL53" t="n">
         <v>44</v>
       </c>
+      <c r="IM53" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40420,6 +40579,9 @@
       <c r="IL54" t="n">
         <v>4</v>
       </c>
+      <c r="IM54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41162,6 +41324,9 @@
       <c r="IL55" t="n">
         <v>10</v>
       </c>
+      <c r="IM55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41904,6 +42069,9 @@
       <c r="IL56" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="IM56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42646,6 +42814,9 @@
       <c r="IL57" t="n">
         <v>233</v>
       </c>
+      <c r="IM57" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43388,6 +43559,9 @@
       <c r="IL58" t="n">
         <v>151</v>
       </c>
+      <c r="IM58" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44130,6 +44304,9 @@
       <c r="IL59" t="n">
         <v>384</v>
       </c>
+      <c r="IM59" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44872,6 +45049,9 @@
       <c r="IL60" t="n">
         <v>1.54</v>
       </c>
+      <c r="IM60" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45614,6 +45794,9 @@
       <c r="IL61" t="n">
         <v>113</v>
       </c>
+      <c r="IM61" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46356,6 +46539,9 @@
       <c r="IL62" t="n">
         <v>53</v>
       </c>
+      <c r="IM62" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47098,6 +47284,9 @@
       <c r="IL63" t="n">
         <v>18</v>
       </c>
+      <c r="IM63" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47840,6 +48029,9 @@
       <c r="IL64" t="n">
         <v>15</v>
       </c>
+      <c r="IM64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48582,6 +48774,9 @@
       <c r="IL65" t="n">
         <v>25</v>
       </c>
+      <c r="IM65" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49324,6 +49519,9 @@
       <c r="IL66" t="n">
         <v>12</v>
       </c>
+      <c r="IM66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50066,6 +50264,9 @@
       <c r="IL67" t="n">
         <v>9</v>
       </c>
+      <c r="IM67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50808,6 +51009,9 @@
       <c r="IL68" t="n">
         <v>9</v>
       </c>
+      <c r="IM68" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51550,6 +51754,9 @@
       <c r="IL69" t="n">
         <v>0</v>
       </c>
+      <c r="IM69" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52292,6 +52499,9 @@
       <c r="IL70" t="n">
         <v>21</v>
       </c>
+      <c r="IM70" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53034,6 +53244,9 @@
       <c r="IL71" t="n">
         <v>57.1</v>
       </c>
+      <c r="IM71" t="n">
+        <v>39.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53776,6 +53989,9 @@
       <c r="IL72" t="n">
         <v>32</v>
       </c>
+      <c r="IM72" t="n">
+        <v>27.85</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54518,6 +54734,9 @@
       <c r="IL73" t="n">
         <v>18.29</v>
       </c>
+      <c r="IM73" t="n">
+        <v>10.97</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55260,6 +55479,9 @@
       <c r="IL74" t="n">
         <v>29</v>
       </c>
+      <c r="IM74" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56002,6 +56224,9 @@
       <c r="IL75" t="n">
         <v>70</v>
       </c>
+      <c r="IM75" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56744,6 +56969,9 @@
       <c r="IL76" t="n">
         <v>38</v>
       </c>
+      <c r="IM76" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57486,6 +57714,9 @@
       <c r="IL77" t="n">
         <v>47</v>
       </c>
+      <c r="IM77" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58228,6 +58459,9 @@
       <c r="IL78" t="n">
         <v>2.24</v>
       </c>
+      <c r="IM78" t="n">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58970,6 +59204,9 @@
       <c r="IL79" t="n">
         <v>3.92</v>
       </c>
+      <c r="IM79" t="n">
+        <v>4.62</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59712,6 +59949,9 @@
       <c r="IL80" t="n">
         <v>44.7</v>
       </c>
+      <c r="IM80" t="n">
+        <v>46.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60454,6 +60694,9 @@
       <c r="IL81" t="n">
         <v>25.5</v>
       </c>
+      <c r="IM81" t="n">
+        <v>21.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61196,6 +61439,9 @@
       <c r="IL82" t="n">
         <v>185.3</v>
       </c>
+      <c r="IM82" t="n">
+        <v>186.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61938,6 +62184,9 @@
       <c r="IL83" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="IM83" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62680,6 +62929,9 @@
       <c r="IL84" t="n">
         <v>27.16</v>
       </c>
+      <c r="IM84" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63422,6 +63674,9 @@
       <c r="IL85" t="n">
         <v>127.1</v>
       </c>
+      <c r="IM85" t="n">
+        <v>91.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64164,6 +64419,9 @@
       <c r="IL86" t="n">
         <v>5</v>
       </c>
+      <c r="IM86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64906,6 +65164,9 @@
       <c r="IL87" t="n">
         <v>4</v>
       </c>
+      <c r="IM87" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65648,6 +65909,9 @@
       <c r="IL88" t="n">
         <v>5</v>
       </c>
+      <c r="IM88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66390,6 +66654,9 @@
       <c r="IL89" t="n">
         <v>8</v>
       </c>
+      <c r="IM89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67132,6 +67399,9 @@
       <c r="IL90" t="n">
         <v>137</v>
       </c>
+      <c r="IM90" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67874,6 +68144,9 @@
       <c r="IL91" t="n">
         <v>250</v>
       </c>
+      <c r="IM91" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68616,6 +68889,9 @@
       <c r="IL92" t="n">
         <v>287</v>
       </c>
+      <c r="IM92" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69358,6 +69634,9 @@
       <c r="IL93" t="n">
         <v>74.7</v>
       </c>
+      <c r="IM93" t="n">
+        <v>72.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70100,6 +70379,9 @@
       <c r="IL94" t="n">
         <v>70</v>
       </c>
+      <c r="IM94" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70842,6 +71124,9 @@
       <c r="IL95" t="n">
         <v>11</v>
       </c>
+      <c r="IM95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71584,6 +71869,9 @@
       <c r="IL96" t="n">
         <v>6</v>
       </c>
+      <c r="IM96" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72326,6 +72614,9 @@
       <c r="IL97" t="n">
         <v>29</v>
       </c>
+      <c r="IM97" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73068,6 +73359,9 @@
       <c r="IL98" t="n">
         <v>38</v>
       </c>
+      <c r="IM98" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73810,6 +74104,9 @@
       <c r="IL99" t="n">
         <v>48</v>
       </c>
+      <c r="IM99" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74552,6 +74849,9 @@
       <c r="IL100" t="n">
         <v>6</v>
       </c>
+      <c r="IM100" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75294,6 +75594,9 @@
       <c r="IL101" t="n">
         <v>9</v>
       </c>
+      <c r="IM101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76036,8 +76339,11 @@
       <c r="IL102" t="n">
         <v>75</v>
       </c>
+      <c r="IM102" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IN102"/>
+  <dimension ref="A1:IO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1100,6 +1100,9 @@
       <c r="IN1" t="n">
         <v>10458</v>
       </c>
+      <c r="IO1" t="n">
+        <v>10470</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1848,6 +1851,9 @@
       <c r="IN2" t="n">
         <v>2021</v>
       </c>
+      <c r="IO2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2596,6 +2602,9 @@
       <c r="IN3" t="n">
         <v>16</v>
       </c>
+      <c r="IO3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3344,6 +3353,9 @@
       <c r="IN4" t="n">
         <v>1</v>
       </c>
+      <c r="IO4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4092,6 +4104,9 @@
       <c r="IN5" t="n">
         <v>0</v>
       </c>
+      <c r="IO5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4840,6 +4855,9 @@
       <c r="IN6" t="n">
         <v>26</v>
       </c>
+      <c r="IO6" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5588,6 +5606,9 @@
       <c r="IN7" t="n">
         <v>118</v>
       </c>
+      <c r="IO7" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6336,6 +6357,9 @@
       <c r="IN8" t="n">
         <v>-92</v>
       </c>
+      <c r="IO8" t="n">
+        <v>-10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7084,6 +7108,9 @@
       <c r="IN9" t="n">
         <v>0</v>
       </c>
+      <c r="IO9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7832,6 +7859,9 @@
       <c r="IN10" t="n">
         <v>16</v>
       </c>
+      <c r="IO10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8580,6 +8610,9 @@
       <c r="IN11" t="n">
         <v>200</v>
       </c>
+      <c r="IO11" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9328,6 +9361,9 @@
       <c r="IN12" t="n">
         <v>153</v>
       </c>
+      <c r="IO12" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10076,6 +10112,9 @@
       <c r="IN13" t="n">
         <v>353</v>
       </c>
+      <c r="IO13" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10824,6 +10863,9 @@
       <c r="IN14" t="n">
         <v>1.31</v>
       </c>
+      <c r="IO14" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11572,6 +11614,9 @@
       <c r="IN15" t="n">
         <v>83</v>
       </c>
+      <c r="IO15" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12320,6 +12365,9 @@
       <c r="IN16" t="n">
         <v>59</v>
       </c>
+      <c r="IO16" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13068,6 +13116,9 @@
       <c r="IN17" t="n">
         <v>39</v>
       </c>
+      <c r="IO17" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13816,6 +13867,9 @@
       <c r="IN18" t="n">
         <v>18</v>
       </c>
+      <c r="IO18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14564,6 +14618,9 @@
       <c r="IN19" t="n">
         <v>18</v>
       </c>
+      <c r="IO19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15312,6 +15369,9 @@
       <c r="IN20" t="n">
         <v>3</v>
       </c>
+      <c r="IO20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16060,6 +16120,9 @@
       <c r="IN21" t="n">
         <v>2</v>
       </c>
+      <c r="IO21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16808,6 +16871,9 @@
       <c r="IN22" t="n">
         <v>7</v>
       </c>
+      <c r="IO22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17556,6 +17622,9 @@
       <c r="IN23" t="n">
         <v>1</v>
       </c>
+      <c r="IO23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18304,6 +18373,9 @@
       <c r="IN24" t="n">
         <v>11</v>
       </c>
+      <c r="IO24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19052,6 +19124,9 @@
       <c r="IN25" t="n">
         <v>27.3</v>
       </c>
+      <c r="IO25" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19800,6 +19875,9 @@
       <c r="IN26" t="n">
         <v>117.67</v>
       </c>
+      <c r="IO26" t="n">
+        <v>42.38</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20548,6 +20626,9 @@
       <c r="IN27" t="n">
         <v>32.09</v>
       </c>
+      <c r="IO27" t="n">
+        <v>16.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21296,6 +21377,9 @@
       <c r="IN28" t="n">
         <v>29</v>
       </c>
+      <c r="IO28" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22044,6 +22128,9 @@
       <c r="IN29" t="n">
         <v>61</v>
       </c>
+      <c r="IO29" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22792,6 +22879,9 @@
       <c r="IN30" t="n">
         <v>40</v>
       </c>
+      <c r="IO30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23540,6 +23630,9 @@
       <c r="IN31" t="n">
         <v>40</v>
       </c>
+      <c r="IO31" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24288,6 +24381,9 @@
       <c r="IN32" t="n">
         <v>3.64</v>
       </c>
+      <c r="IO32" t="n">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25036,6 +25132,9 @@
       <c r="IN33" t="n">
         <v>13.33</v>
       </c>
+      <c r="IO33" t="n">
+        <v>6.62</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25784,6 +25883,9 @@
       <c r="IN34" t="n">
         <v>25</v>
       </c>
+      <c r="IO34" t="n">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26532,6 +26634,9 @@
       <c r="IN35" t="n">
         <v>7.5</v>
       </c>
+      <c r="IO35" t="n">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27280,6 +27385,9 @@
       <c r="IN36" t="n">
         <v>188.5</v>
       </c>
+      <c r="IO36" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28028,6 +28136,9 @@
       <c r="IN37" t="n">
         <v>88.3</v>
       </c>
+      <c r="IO37" t="n">
+        <v>88.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28776,6 +28887,9 @@
       <c r="IN38" t="n">
         <v>27</v>
       </c>
+      <c r="IO38" t="n">
+        <v>27.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29524,6 +29638,9 @@
       <c r="IN39" t="n">
         <v>128.9</v>
       </c>
+      <c r="IO39" t="n">
+        <v>138.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30272,6 +30389,9 @@
       <c r="IN40" t="n">
         <v>5</v>
       </c>
+      <c r="IO40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31020,6 +31140,9 @@
       <c r="IN41" t="n">
         <v>6</v>
       </c>
+      <c r="IO41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31768,6 +31891,9 @@
       <c r="IN42" t="n">
         <v>3</v>
       </c>
+      <c r="IO42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32516,6 +32642,9 @@
       <c r="IN43" t="n">
         <v>9</v>
       </c>
+      <c r="IO43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33264,6 +33393,9 @@
       <c r="IN44" t="n">
         <v>146</v>
       </c>
+      <c r="IO44" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34012,6 +34144,9 @@
       <c r="IN45" t="n">
         <v>210</v>
       </c>
+      <c r="IO45" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34760,6 +34895,9 @@
       <c r="IN46" t="n">
         <v>244</v>
       </c>
+      <c r="IO46" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35508,6 +35646,9 @@
       <c r="IN47" t="n">
         <v>69.09999999999999</v>
       </c>
+      <c r="IO47" t="n">
+        <v>69.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36256,6 +36397,9 @@
       <c r="IN48" t="n">
         <v>61</v>
       </c>
+      <c r="IO48" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37004,6 +37148,9 @@
       <c r="IN49" t="n">
         <v>12</v>
       </c>
+      <c r="IO49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37752,6 +37899,9 @@
       <c r="IN50" t="n">
         <v>7</v>
       </c>
+      <c r="IO50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38500,6 +38650,9 @@
       <c r="IN51" t="n">
         <v>29</v>
       </c>
+      <c r="IO51" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39248,6 +39401,9 @@
       <c r="IN52" t="n">
         <v>40</v>
       </c>
+      <c r="IO52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39996,6 +40152,9 @@
       <c r="IN53" t="n">
         <v>42</v>
       </c>
+      <c r="IO53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40744,6 +40903,9 @@
       <c r="IN54" t="n">
         <v>4</v>
       </c>
+      <c r="IO54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41492,6 +41654,9 @@
       <c r="IN55" t="n">
         <v>2</v>
       </c>
+      <c r="IO55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42240,6 +42405,9 @@
       <c r="IN56" t="n">
         <v>66.7</v>
       </c>
+      <c r="IO56" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42988,6 +43156,9 @@
       <c r="IN57" t="n">
         <v>236</v>
       </c>
+      <c r="IO57" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43736,6 +43907,9 @@
       <c r="IN58" t="n">
         <v>200</v>
       </c>
+      <c r="IO58" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44484,6 +44658,9 @@
       <c r="IN59" t="n">
         <v>436</v>
       </c>
+      <c r="IO59" t="n">
+        <v>366</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45232,6 +45409,9 @@
       <c r="IN60" t="n">
         <v>1.18</v>
       </c>
+      <c r="IO60" t="n">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45980,6 +46160,9 @@
       <c r="IN61" t="n">
         <v>88</v>
       </c>
+      <c r="IO61" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46728,6 +46911,9 @@
       <c r="IN62" t="n">
         <v>63</v>
       </c>
+      <c r="IO62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47476,6 +47662,9 @@
       <c r="IN63" t="n">
         <v>25</v>
       </c>
+      <c r="IO63" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48224,6 +48413,9 @@
       <c r="IN64" t="n">
         <v>18</v>
       </c>
+      <c r="IO64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48972,6 +49164,9 @@
       <c r="IN65" t="n">
         <v>18</v>
       </c>
+      <c r="IO65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49720,6 +49915,9 @@
       <c r="IN66" t="n">
         <v>18</v>
       </c>
+      <c r="IO66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50468,6 +50666,9 @@
       <c r="IN67" t="n">
         <v>10</v>
       </c>
+      <c r="IO67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51216,6 +51417,9 @@
       <c r="IN68" t="n">
         <v>10</v>
       </c>
+      <c r="IO68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51964,6 +52168,9 @@
       <c r="IN69" t="n">
         <v>0</v>
       </c>
+      <c r="IO69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52712,6 +52919,9 @@
       <c r="IN70" t="n">
         <v>28</v>
       </c>
+      <c r="IO70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53460,6 +53670,9 @@
       <c r="IN71" t="n">
         <v>64.3</v>
       </c>
+      <c r="IO71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54208,6 +54421,9 @@
       <c r="IN72" t="n">
         <v>24.22</v>
       </c>
+      <c r="IO72" t="n">
+        <v>36.6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54956,6 +55172,9 @@
       <c r="IN73" t="n">
         <v>15.57</v>
       </c>
+      <c r="IO73" t="n">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55704,6 +55923,9 @@
       <c r="IN74" t="n">
         <v>40</v>
       </c>
+      <c r="IO74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56452,6 +56674,9 @@
       <c r="IN75" t="n">
         <v>52</v>
       </c>
+      <c r="IO75" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57200,6 +57425,9 @@
       <c r="IN76" t="n">
         <v>36</v>
       </c>
+      <c r="IO76" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57948,6 +58176,9 @@
       <c r="IN77" t="n">
         <v>60</v>
       </c>
+      <c r="IO77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58696,6 +58927,9 @@
       <c r="IN78" t="n">
         <v>2.14</v>
       </c>
+      <c r="IO78" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59444,6 +59678,9 @@
       <c r="IN79" t="n">
         <v>3.33</v>
       </c>
+      <c r="IO79" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60192,6 +60429,9 @@
       <c r="IN80" t="n">
         <v>46.7</v>
       </c>
+      <c r="IO80" t="n">
+        <v>42.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60940,6 +61180,9 @@
       <c r="IN81" t="n">
         <v>30</v>
       </c>
+      <c r="IO81" t="n">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61688,6 +61931,9 @@
       <c r="IN82" t="n">
         <v>187.4</v>
       </c>
+      <c r="IO82" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62436,6 +62682,9 @@
       <c r="IN83" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="IO83" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63184,6 +63433,9 @@
       <c r="IN84" t="n">
         <v>25.41</v>
       </c>
+      <c r="IO84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63932,6 +64184,9 @@
       <c r="IN85" t="n">
         <v>105.6</v>
       </c>
+      <c r="IO85" t="n">
+        <v>99.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64680,6 +64935,9 @@
       <c r="IN86" t="n">
         <v>7</v>
       </c>
+      <c r="IO86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65428,6 +65686,9 @@
       <c r="IN87" t="n">
         <v>4</v>
       </c>
+      <c r="IO87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66176,6 +66437,9 @@
       <c r="IN88" t="n">
         <v>6</v>
       </c>
+      <c r="IO88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66924,6 +67188,9 @@
       <c r="IN89" t="n">
         <v>5</v>
       </c>
+      <c r="IO89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67672,6 +67939,9 @@
       <c r="IN90" t="n">
         <v>151</v>
       </c>
+      <c r="IO90" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68420,6 +68690,9 @@
       <c r="IN91" t="n">
         <v>288</v>
       </c>
+      <c r="IO91" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69168,6 +69441,9 @@
       <c r="IN92" t="n">
         <v>335</v>
       </c>
+      <c r="IO92" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69916,6 +70192,9 @@
       <c r="IN93" t="n">
         <v>76.8</v>
       </c>
+      <c r="IO93" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70664,6 +70943,9 @@
       <c r="IN94" t="n">
         <v>52</v>
       </c>
+      <c r="IO94" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71412,6 +71694,9 @@
       <c r="IN95" t="n">
         <v>12</v>
       </c>
+      <c r="IO95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -72160,6 +72445,9 @@
       <c r="IN96" t="n">
         <v>10</v>
       </c>
+      <c r="IO96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72908,6 +73196,9 @@
       <c r="IN97" t="n">
         <v>40</v>
       </c>
+      <c r="IO97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73656,6 +73947,9 @@
       <c r="IN98" t="n">
         <v>36</v>
       </c>
+      <c r="IO98" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74404,6 +74698,9 @@
       <c r="IN99" t="n">
         <v>62</v>
       </c>
+      <c r="IO99" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -75152,6 +75449,9 @@
       <c r="IN100" t="n">
         <v>5</v>
       </c>
+      <c r="IO100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75900,6 +76200,9 @@
       <c r="IN101" t="n">
         <v>10</v>
       </c>
+      <c r="IO101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76648,6 +76951,9 @@
       <c r="IN102" t="n">
         <v>55.6</v>
       </c>
+      <c r="IO102" t="n">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IO102"/>
+  <dimension ref="A1:IP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,6 +1103,9 @@
       <c r="IO1" t="n">
         <v>10470</v>
       </c>
+      <c r="IP1" t="n">
+        <v>10478</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1854,6 +1857,9 @@
       <c r="IO2" t="n">
         <v>2021</v>
       </c>
+      <c r="IP2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2605,6 +2611,9 @@
       <c r="IO3" t="n">
         <v>17</v>
       </c>
+      <c r="IP3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3356,6 +3365,9 @@
       <c r="IO4" t="n">
         <v>0</v>
       </c>
+      <c r="IP4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4107,6 +4119,9 @@
       <c r="IO5" t="n">
         <v>1</v>
       </c>
+      <c r="IP5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4858,6 +4873,9 @@
       <c r="IO6" t="n">
         <v>60</v>
       </c>
+      <c r="IP6" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5609,6 +5627,9 @@
       <c r="IO7" t="n">
         <v>70</v>
       </c>
+      <c r="IP7" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6360,6 +6381,9 @@
       <c r="IO8" t="n">
         <v>-10</v>
       </c>
+      <c r="IP8" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7111,6 +7135,9 @@
       <c r="IO9" t="n">
         <v>0</v>
       </c>
+      <c r="IP9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7862,6 +7889,9 @@
       <c r="IO10" t="n">
         <v>12</v>
       </c>
+      <c r="IP10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8613,6 +8643,9 @@
       <c r="IO11" t="n">
         <v>218</v>
       </c>
+      <c r="IP11" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9364,6 +9397,9 @@
       <c r="IO12" t="n">
         <v>121</v>
       </c>
+      <c r="IP12" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10115,6 +10151,9 @@
       <c r="IO13" t="n">
         <v>339</v>
       </c>
+      <c r="IP13" t="n">
+        <v>376</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10866,6 +10905,9 @@
       <c r="IO14" t="n">
         <v>1.8</v>
       </c>
+      <c r="IP14" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11617,6 +11659,9 @@
       <c r="IO15" t="n">
         <v>102</v>
       </c>
+      <c r="IP15" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12368,6 +12413,9 @@
       <c r="IO16" t="n">
         <v>48</v>
       </c>
+      <c r="IP16" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13119,6 +13167,9 @@
       <c r="IO17" t="n">
         <v>40</v>
       </c>
+      <c r="IP17" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13870,6 +13921,9 @@
       <c r="IO18" t="n">
         <v>17</v>
       </c>
+      <c r="IP18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14621,6 +14675,9 @@
       <c r="IO19" t="n">
         <v>23</v>
       </c>
+      <c r="IP19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15372,6 +15429,9 @@
       <c r="IO20" t="n">
         <v>8</v>
       </c>
+      <c r="IP20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16123,6 +16183,9 @@
       <c r="IO21" t="n">
         <v>3</v>
       </c>
+      <c r="IP21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16874,6 +16937,9 @@
       <c r="IO22" t="n">
         <v>7</v>
       </c>
+      <c r="IP22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17625,6 +17691,9 @@
       <c r="IO23" t="n">
         <v>5</v>
       </c>
+      <c r="IP23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18376,6 +18445,9 @@
       <c r="IO24" t="n">
         <v>20</v>
       </c>
+      <c r="IP24" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19127,6 +19199,9 @@
       <c r="IO25" t="n">
         <v>40</v>
       </c>
+      <c r="IP25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19878,6 +19953,9 @@
       <c r="IO26" t="n">
         <v>42.38</v>
       </c>
+      <c r="IP26" t="n">
+        <v>26.86</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20629,6 +20707,9 @@
       <c r="IO27" t="n">
         <v>16.95</v>
       </c>
+      <c r="IP27" t="n">
+        <v>13.43</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21380,6 +21461,9 @@
       <c r="IO28" t="n">
         <v>44</v>
       </c>
+      <c r="IP28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22131,6 +22215,9 @@
       <c r="IO29" t="n">
         <v>67</v>
       </c>
+      <c r="IP29" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22882,6 +22969,9 @@
       <c r="IO30" t="n">
         <v>34</v>
       </c>
+      <c r="IP30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23633,6 +23723,9 @@
       <c r="IO31" t="n">
         <v>53</v>
       </c>
+      <c r="IP31" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24384,6 +24477,9 @@
       <c r="IO32" t="n">
         <v>2.65</v>
       </c>
+      <c r="IP32" t="n">
+        <v>2.14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25135,6 +25231,9 @@
       <c r="IO33" t="n">
         <v>6.62</v>
       </c>
+      <c r="IP33" t="n">
+        <v>4.29</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25886,6 +25985,9 @@
       <c r="IO34" t="n">
         <v>28.3</v>
       </c>
+      <c r="IP34" t="n">
+        <v>43.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26637,6 +26739,9 @@
       <c r="IO35" t="n">
         <v>15.1</v>
       </c>
+      <c r="IP35" t="n">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27388,6 +27493,9 @@
       <c r="IO36" t="n">
         <v>187.8</v>
       </c>
+      <c r="IP36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28139,6 +28247,9 @@
       <c r="IO37" t="n">
         <v>88.2</v>
       </c>
+      <c r="IP37" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28890,6 +29001,9 @@
       <c r="IO38" t="n">
         <v>27.41</v>
       </c>
+      <c r="IP38" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29641,6 +29755,9 @@
       <c r="IO39" t="n">
         <v>138.1</v>
       </c>
+      <c r="IP39" t="n">
+        <v>115.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30392,6 +30509,9 @@
       <c r="IO40" t="n">
         <v>3</v>
       </c>
+      <c r="IP40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31143,6 +31263,9 @@
       <c r="IO41" t="n">
         <v>7</v>
       </c>
+      <c r="IP41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31894,6 +32017,9 @@
       <c r="IO42" t="n">
         <v>3</v>
       </c>
+      <c r="IP42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32645,6 +32771,9 @@
       <c r="IO43" t="n">
         <v>9</v>
       </c>
+      <c r="IP43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33396,6 +33525,9 @@
       <c r="IO44" t="n">
         <v>123</v>
       </c>
+      <c r="IP44" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34147,6 +34279,9 @@
       <c r="IO45" t="n">
         <v>214</v>
       </c>
+      <c r="IP45" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34898,6 +35033,9 @@
       <c r="IO46" t="n">
         <v>235</v>
       </c>
+      <c r="IP46" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35649,6 +35787,9 @@
       <c r="IO47" t="n">
         <v>69.3</v>
       </c>
+      <c r="IP47" t="n">
+        <v>77.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36400,6 +36541,9 @@
       <c r="IO48" t="n">
         <v>67</v>
       </c>
+      <c r="IP48" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37151,6 +37295,9 @@
       <c r="IO49" t="n">
         <v>13</v>
       </c>
+      <c r="IP49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37902,6 +38049,9 @@
       <c r="IO50" t="n">
         <v>11</v>
       </c>
+      <c r="IP50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38653,6 +38803,9 @@
       <c r="IO51" t="n">
         <v>44</v>
       </c>
+      <c r="IP51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39404,6 +39557,9 @@
       <c r="IO52" t="n">
         <v>34</v>
       </c>
+      <c r="IP52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40155,6 +40311,9 @@
       <c r="IO53" t="n">
         <v>51</v>
       </c>
+      <c r="IP53" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40906,6 +41065,9 @@
       <c r="IO54" t="n">
         <v>3</v>
       </c>
+      <c r="IP54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41657,6 +41819,9 @@
       <c r="IO55" t="n">
         <v>3</v>
       </c>
+      <c r="IP55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42408,6 +42573,9 @@
       <c r="IO56" t="n">
         <v>37.5</v>
       </c>
+      <c r="IP56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43159,6 +43327,9 @@
       <c r="IO57" t="n">
         <v>237</v>
       </c>
+      <c r="IP57" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43910,6 +44081,9 @@
       <c r="IO58" t="n">
         <v>129</v>
       </c>
+      <c r="IP58" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44661,6 +44835,9 @@
       <c r="IO59" t="n">
         <v>366</v>
       </c>
+      <c r="IP59" t="n">
+        <v>393</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45412,6 +45589,9 @@
       <c r="IO60" t="n">
         <v>1.84</v>
       </c>
+      <c r="IP60" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46163,6 +46343,9 @@
       <c r="IO61" t="n">
         <v>105</v>
       </c>
+      <c r="IP61" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46914,6 +47097,9 @@
       <c r="IO62" t="n">
         <v>54</v>
       </c>
+      <c r="IP62" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47665,6 +47851,9 @@
       <c r="IO63" t="n">
         <v>33</v>
       </c>
+      <c r="IP63" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48416,6 +48605,9 @@
       <c r="IO64" t="n">
         <v>23</v>
       </c>
+      <c r="IP64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49167,6 +49359,9 @@
       <c r="IO65" t="n">
         <v>17</v>
       </c>
+      <c r="IP65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49918,6 +50113,9 @@
       <c r="IO66" t="n">
         <v>10</v>
       </c>
+      <c r="IP66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50669,6 +50867,9 @@
       <c r="IO67" t="n">
         <v>7</v>
       </c>
+      <c r="IP67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51420,6 +51621,9 @@
       <c r="IO68" t="n">
         <v>9</v>
       </c>
+      <c r="IP68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52171,6 +52375,9 @@
       <c r="IO69" t="n">
         <v>1</v>
       </c>
+      <c r="IP69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52922,6 +53129,9 @@
       <c r="IO70" t="n">
         <v>20</v>
       </c>
+      <c r="IP70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53673,6 +53883,9 @@
       <c r="IO71" t="n">
         <v>50</v>
       </c>
+      <c r="IP71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54424,6 +54637,9 @@
       <c r="IO72" t="n">
         <v>36.6</v>
       </c>
+      <c r="IP72" t="n">
+        <v>49.12</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55175,6 +55391,9 @@
       <c r="IO73" t="n">
         <v>18.3</v>
       </c>
+      <c r="IP73" t="n">
+        <v>24.56</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55926,6 +56145,9 @@
       <c r="IO74" t="n">
         <v>35</v>
       </c>
+      <c r="IP74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56677,6 +56899,9 @@
       <c r="IO75" t="n">
         <v>69</v>
       </c>
+      <c r="IP75" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57428,6 +57653,9 @@
       <c r="IO76" t="n">
         <v>45</v>
       </c>
+      <c r="IP76" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58179,6 +58407,9 @@
       <c r="IO77" t="n">
         <v>45</v>
       </c>
+      <c r="IP77" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58930,6 +59161,9 @@
       <c r="IO78" t="n">
         <v>2.25</v>
       </c>
+      <c r="IP78" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59681,6 +59915,9 @@
       <c r="IO79" t="n">
         <v>4.5</v>
       </c>
+      <c r="IP79" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60432,6 +60669,9 @@
       <c r="IO80" t="n">
         <v>42.2</v>
       </c>
+      <c r="IP80" t="n">
+        <v>31.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61183,6 +61423,9 @@
       <c r="IO81" t="n">
         <v>22.2</v>
       </c>
+      <c r="IP81" t="n">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61934,6 +62177,9 @@
       <c r="IO82" t="n">
         <v>189.1</v>
       </c>
+      <c r="IP82" t="n">
+        <v>186.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62685,6 +62931,9 @@
       <c r="IO83" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="IP83" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63436,6 +63685,9 @@
       <c r="IO84" t="n">
         <v>25.16</v>
       </c>
+      <c r="IP84" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64187,6 +64439,9 @@
       <c r="IO85" t="n">
         <v>99.3</v>
       </c>
+      <c r="IP85" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64938,6 +65193,9 @@
       <c r="IO86" t="n">
         <v>9</v>
       </c>
+      <c r="IP86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65689,6 +65947,9 @@
       <c r="IO87" t="n">
         <v>4</v>
       </c>
+      <c r="IP87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66440,6 +66701,9 @@
       <c r="IO88" t="n">
         <v>4</v>
       </c>
+      <c r="IP88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67191,6 +67455,9 @@
       <c r="IO89" t="n">
         <v>5</v>
       </c>
+      <c r="IP89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67942,6 +68209,9 @@
       <c r="IO90" t="n">
         <v>133</v>
       </c>
+      <c r="IP90" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68693,6 +68963,9 @@
       <c r="IO91" t="n">
         <v>231</v>
       </c>
+      <c r="IP91" t="n">
+        <v>271</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69444,6 +69717,9 @@
       <c r="IO92" t="n">
         <v>260</v>
       </c>
+      <c r="IP92" t="n">
+        <v>307</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -70195,6 +70471,9 @@
       <c r="IO93" t="n">
         <v>71</v>
       </c>
+      <c r="IP93" t="n">
+        <v>78.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70946,6 +71225,9 @@
       <c r="IO94" t="n">
         <v>69</v>
       </c>
+      <c r="IP94" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71697,6 +71979,9 @@
       <c r="IO95" t="n">
         <v>14</v>
       </c>
+      <c r="IP95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -72448,6 +72733,9 @@
       <c r="IO96" t="n">
         <v>10</v>
       </c>
+      <c r="IP96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -73199,6 +73487,9 @@
       <c r="IO97" t="n">
         <v>35</v>
       </c>
+      <c r="IP97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73950,6 +74241,9 @@
       <c r="IO98" t="n">
         <v>45</v>
       </c>
+      <c r="IP98" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74701,6 +74995,9 @@
       <c r="IO99" t="n">
         <v>49</v>
       </c>
+      <c r="IP99" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -75452,6 +75749,9 @@
       <c r="IO100" t="n">
         <v>0</v>
       </c>
+      <c r="IP100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -76203,6 +76503,9 @@
       <c r="IO101" t="n">
         <v>7</v>
       </c>
+      <c r="IP101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76954,6 +77257,9 @@
       <c r="IO102" t="n">
         <v>70</v>
       </c>
+      <c r="IP102" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IP102"/>
+  <dimension ref="A1:IQ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,6 +1106,9 @@
       <c r="IP1" t="n">
         <v>10478</v>
       </c>
+      <c r="IQ1" t="n">
+        <v>10488</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1860,6 +1863,9 @@
       <c r="IP2" t="n">
         <v>2021</v>
       </c>
+      <c r="IQ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2614,6 +2620,9 @@
       <c r="IP3" t="n">
         <v>18</v>
       </c>
+      <c r="IQ3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3368,6 +3377,9 @@
       <c r="IP4" t="n">
         <v>1</v>
       </c>
+      <c r="IQ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4122,6 +4134,9 @@
       <c r="IP5" t="n">
         <v>1</v>
       </c>
+      <c r="IQ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4876,6 +4891,9 @@
       <c r="IP6" t="n">
         <v>98</v>
       </c>
+      <c r="IQ6" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5630,6 +5648,9 @@
       <c r="IP7" t="n">
         <v>56</v>
       </c>
+      <c r="IQ7" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6384,6 +6405,9 @@
       <c r="IP8" t="n">
         <v>42</v>
       </c>
+      <c r="IQ8" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7138,6 +7162,9 @@
       <c r="IP9" t="n">
         <v>1</v>
       </c>
+      <c r="IQ9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7892,6 +7919,9 @@
       <c r="IP10" t="n">
         <v>1</v>
       </c>
+      <c r="IQ10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8646,6 +8676,9 @@
       <c r="IP11" t="n">
         <v>245</v>
       </c>
+      <c r="IQ11" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9400,6 +9433,9 @@
       <c r="IP12" t="n">
         <v>131</v>
       </c>
+      <c r="IQ12" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10154,6 +10190,9 @@
       <c r="IP13" t="n">
         <v>376</v>
       </c>
+      <c r="IQ13" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10908,6 +10947,9 @@
       <c r="IP14" t="n">
         <v>1.87</v>
       </c>
+      <c r="IQ14" t="n">
+        <v>2.02</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11662,6 +11704,9 @@
       <c r="IP15" t="n">
         <v>118</v>
       </c>
+      <c r="IQ15" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12416,6 +12461,9 @@
       <c r="IP16" t="n">
         <v>58</v>
       </c>
+      <c r="IQ16" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13170,6 +13218,9 @@
       <c r="IP17" t="n">
         <v>39</v>
       </c>
+      <c r="IQ17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13924,6 +13975,9 @@
       <c r="IP18" t="n">
         <v>18</v>
       </c>
+      <c r="IQ18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14678,6 +14732,9 @@
       <c r="IP19" t="n">
         <v>23</v>
       </c>
+      <c r="IQ19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15432,6 +15489,9 @@
       <c r="IP20" t="n">
         <v>14</v>
       </c>
+      <c r="IQ20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16186,6 +16246,9 @@
       <c r="IP21" t="n">
         <v>10</v>
       </c>
+      <c r="IQ21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16940,6 +17003,9 @@
       <c r="IP22" t="n">
         <v>12</v>
       </c>
+      <c r="IQ22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17694,6 +17760,9 @@
       <c r="IP23" t="n">
         <v>2</v>
       </c>
+      <c r="IQ23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18448,6 +18517,9 @@
       <c r="IP24" t="n">
         <v>28</v>
       </c>
+      <c r="IQ24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19202,6 +19274,9 @@
       <c r="IP25" t="n">
         <v>50</v>
       </c>
+      <c r="IQ25" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19956,6 +20031,9 @@
       <c r="IP26" t="n">
         <v>26.86</v>
       </c>
+      <c r="IQ26" t="n">
+        <v>24.36</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20710,6 +20788,9 @@
       <c r="IP27" t="n">
         <v>13.43</v>
       </c>
+      <c r="IQ27" t="n">
+        <v>14.21</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21464,6 +21545,9 @@
       <c r="IP28" t="n">
         <v>35</v>
       </c>
+      <c r="IQ28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22218,6 +22302,9 @@
       <c r="IP29" t="n">
         <v>41</v>
       </c>
+      <c r="IQ29" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22972,6 +23059,9 @@
       <c r="IP30" t="n">
         <v>35</v>
       </c>
+      <c r="IQ30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23726,6 +23816,9 @@
       <c r="IP31" t="n">
         <v>60</v>
       </c>
+      <c r="IQ31" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24480,6 +24573,9 @@
       <c r="IP32" t="n">
         <v>2.14</v>
       </c>
+      <c r="IQ32" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25234,6 +25330,9 @@
       <c r="IP33" t="n">
         <v>4.29</v>
       </c>
+      <c r="IQ33" t="n">
+        <v>3.86</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25988,6 +26087,9 @@
       <c r="IP34" t="n">
         <v>43.3</v>
       </c>
+      <c r="IQ34" t="n">
+        <v>42.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26742,6 +26844,9 @@
       <c r="IP35" t="n">
         <v>23.3</v>
       </c>
+      <c r="IQ35" t="n">
+        <v>25.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27496,6 +27601,9 @@
       <c r="IP36" t="n">
         <v>187.9</v>
       </c>
+      <c r="IQ36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28250,6 +28358,9 @@
       <c r="IP37" t="n">
         <v>87</v>
       </c>
+      <c r="IQ37" t="n">
+        <v>87.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29004,6 +29115,9 @@
       <c r="IP38" t="n">
         <v>25.24</v>
       </c>
+      <c r="IQ38" t="n">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29758,6 +29872,9 @@
       <c r="IP39" t="n">
         <v>115.3</v>
       </c>
+      <c r="IQ39" t="n">
+        <v>121.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30512,6 +30629,9 @@
       <c r="IP40" t="n">
         <v>7</v>
       </c>
+      <c r="IQ40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31266,6 +31386,9 @@
       <c r="IP41" t="n">
         <v>5</v>
       </c>
+      <c r="IQ41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32020,6 +32143,9 @@
       <c r="IP42" t="n">
         <v>3</v>
       </c>
+      <c r="IQ42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32774,6 +32900,9 @@
       <c r="IP43" t="n">
         <v>8</v>
       </c>
+      <c r="IQ43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33528,6 +33657,9 @@
       <c r="IP44" t="n">
         <v>130</v>
       </c>
+      <c r="IQ44" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34282,6 +34414,9 @@
       <c r="IP45" t="n">
         <v>238</v>
       </c>
+      <c r="IQ45" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35036,6 +35171,9 @@
       <c r="IP46" t="n">
         <v>291</v>
       </c>
+      <c r="IQ46" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35790,6 +35928,9 @@
       <c r="IP47" t="n">
         <v>77.40000000000001</v>
       </c>
+      <c r="IQ47" t="n">
+        <v>77.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36544,6 +36685,9 @@
       <c r="IP48" t="n">
         <v>41</v>
       </c>
+      <c r="IQ48" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37298,6 +37442,9 @@
       <c r="IP49" t="n">
         <v>13</v>
       </c>
+      <c r="IQ49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38052,6 +38199,9 @@
       <c r="IP50" t="n">
         <v>11</v>
       </c>
+      <c r="IQ50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38806,6 +38956,9 @@
       <c r="IP51" t="n">
         <v>35</v>
       </c>
+      <c r="IQ51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39560,6 +39713,9 @@
       <c r="IP52" t="n">
         <v>35</v>
       </c>
+      <c r="IQ52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40314,6 +40470,9 @@
       <c r="IP53" t="n">
         <v>53</v>
       </c>
+      <c r="IQ53" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41068,6 +41227,9 @@
       <c r="IP54" t="n">
         <v>8</v>
       </c>
+      <c r="IQ54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41822,6 +41984,9 @@
       <c r="IP55" t="n">
         <v>10</v>
       </c>
+      <c r="IQ55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42576,6 +42741,9 @@
       <c r="IP56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IQ56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43330,6 +43498,9 @@
       <c r="IP57" t="n">
         <v>228</v>
       </c>
+      <c r="IQ57" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44084,6 +44255,9 @@
       <c r="IP58" t="n">
         <v>165</v>
       </c>
+      <c r="IQ58" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44838,6 +45012,9 @@
       <c r="IP59" t="n">
         <v>393</v>
       </c>
+      <c r="IQ59" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45592,6 +45769,9 @@
       <c r="IP60" t="n">
         <v>1.38</v>
       </c>
+      <c r="IQ60" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46346,6 +46526,9 @@
       <c r="IP61" t="n">
         <v>105</v>
       </c>
+      <c r="IQ61" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47100,6 +47283,9 @@
       <c r="IP62" t="n">
         <v>57</v>
       </c>
+      <c r="IQ62" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47854,6 +48040,9 @@
       <c r="IP63" t="n">
         <v>28</v>
       </c>
+      <c r="IQ63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48608,6 +48797,9 @@
       <c r="IP64" t="n">
         <v>23</v>
       </c>
+      <c r="IQ64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49362,6 +49554,9 @@
       <c r="IP65" t="n">
         <v>18</v>
       </c>
+      <c r="IQ65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50116,6 +50311,9 @@
       <c r="IP66" t="n">
         <v>8</v>
       </c>
+      <c r="IQ66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50870,6 +51068,9 @@
       <c r="IP67" t="n">
         <v>6</v>
       </c>
+      <c r="IQ67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51624,6 +51825,9 @@
       <c r="IP68" t="n">
         <v>6</v>
       </c>
+      <c r="IQ68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52378,6 +52582,9 @@
       <c r="IP69" t="n">
         <v>2</v>
       </c>
+      <c r="IQ69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -53132,6 +53339,9 @@
       <c r="IP70" t="n">
         <v>16</v>
       </c>
+      <c r="IQ70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53886,6 +54096,9 @@
       <c r="IP71" t="n">
         <v>50</v>
       </c>
+      <c r="IQ71" t="n">
+        <v>61.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54640,6 +54853,9 @@
       <c r="IP72" t="n">
         <v>49.12</v>
       </c>
+      <c r="IQ72" t="n">
+        <v>26.92</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55394,6 +55610,9 @@
       <c r="IP73" t="n">
         <v>24.56</v>
       </c>
+      <c r="IQ73" t="n">
+        <v>16.67</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -56148,6 +56367,9 @@
       <c r="IP74" t="n">
         <v>32</v>
       </c>
+      <c r="IQ74" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56902,6 +57124,9 @@
       <c r="IP75" t="n">
         <v>42</v>
       </c>
+      <c r="IQ75" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57656,6 +57881,9 @@
       <c r="IP76" t="n">
         <v>45</v>
       </c>
+      <c r="IQ76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58410,6 +58638,9 @@
       <c r="IP77" t="n">
         <v>44</v>
       </c>
+      <c r="IQ77" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -59164,6 +59395,9 @@
       <c r="IP78" t="n">
         <v>2.75</v>
       </c>
+      <c r="IQ78" t="n">
+        <v>2.43</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59918,6 +60152,9 @@
       <c r="IP79" t="n">
         <v>5.5</v>
       </c>
+      <c r="IQ79" t="n">
+        <v>3.92</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60672,6 +60909,9 @@
       <c r="IP80" t="n">
         <v>31.8</v>
       </c>
+      <c r="IQ80" t="n">
+        <v>39.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61426,6 +61666,9 @@
       <c r="IP81" t="n">
         <v>18.2</v>
       </c>
+      <c r="IQ81" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -62180,6 +62423,9 @@
       <c r="IP82" t="n">
         <v>186.5</v>
       </c>
+      <c r="IQ82" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62934,6 +63180,9 @@
       <c r="IP83" t="n">
         <v>84</v>
       </c>
+      <c r="IQ83" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63688,6 +63937,9 @@
       <c r="IP84" t="n">
         <v>24.66</v>
       </c>
+      <c r="IQ84" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64442,6 +64694,9 @@
       <c r="IP85" t="n">
         <v>82</v>
       </c>
+      <c r="IQ85" t="n">
+        <v>92.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -65196,6 +65451,9 @@
       <c r="IP86" t="n">
         <v>12</v>
       </c>
+      <c r="IQ86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65950,6 +66208,9 @@
       <c r="IP87" t="n">
         <v>3</v>
       </c>
+      <c r="IQ87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66704,6 +66965,9 @@
       <c r="IP88" t="n">
         <v>2</v>
       </c>
+      <c r="IQ88" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67458,6 +67722,9 @@
       <c r="IP89" t="n">
         <v>6</v>
       </c>
+      <c r="IQ89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -68212,6 +68479,9 @@
       <c r="IP90" t="n">
         <v>118</v>
       </c>
+      <c r="IQ90" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68966,6 +69236,9 @@
       <c r="IP91" t="n">
         <v>271</v>
       </c>
+      <c r="IQ91" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69720,6 +69993,9 @@
       <c r="IP92" t="n">
         <v>307</v>
       </c>
+      <c r="IQ92" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -70474,6 +70750,9 @@
       <c r="IP93" t="n">
         <v>78.09999999999999</v>
       </c>
+      <c r="IQ93" t="n">
+        <v>74.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -71228,6 +71507,9 @@
       <c r="IP94" t="n">
         <v>42</v>
       </c>
+      <c r="IQ94" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71982,6 +72264,9 @@
       <c r="IP95" t="n">
         <v>5</v>
       </c>
+      <c r="IQ95" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -72736,6 +73021,9 @@
       <c r="IP96" t="n">
         <v>8</v>
       </c>
+      <c r="IQ96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -73490,6 +73778,9 @@
       <c r="IP97" t="n">
         <v>32</v>
       </c>
+      <c r="IQ97" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -74244,6 +74535,9 @@
       <c r="IP98" t="n">
         <v>45</v>
       </c>
+      <c r="IQ98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74998,6 +75292,9 @@
       <c r="IP99" t="n">
         <v>59</v>
       </c>
+      <c r="IQ99" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -75752,6 +76049,9 @@
       <c r="IP100" t="n">
         <v>4</v>
       </c>
+      <c r="IQ100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -76506,6 +76806,9 @@
       <c r="IP101" t="n">
         <v>6</v>
       </c>
+      <c r="IQ101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -77260,6 +77563,9 @@
       <c r="IP102" t="n">
         <v>75</v>
       </c>
+      <c r="IQ102" t="n">
+        <v>69.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ102"/>
+  <dimension ref="A1:IR102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,6 +1109,9 @@
       <c r="IQ1" t="n">
         <v>10488</v>
       </c>
+      <c r="IR1" t="n">
+        <v>10534</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1866,6 +1869,9 @@
       <c r="IQ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IR2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2623,6 +2629,9 @@
       <c r="IQ3" t="n">
         <v>19</v>
       </c>
+      <c r="IR3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3380,6 +3389,9 @@
       <c r="IQ4" t="n">
         <v>0</v>
       </c>
+      <c r="IR4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4137,6 +4149,9 @@
       <c r="IQ5" t="n">
         <v>0</v>
       </c>
+      <c r="IR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4894,6 +4909,9 @@
       <c r="IQ6" t="n">
         <v>94</v>
       </c>
+      <c r="IR6" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5651,6 +5669,9 @@
       <c r="IQ7" t="n">
         <v>86</v>
       </c>
+      <c r="IR7" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6408,6 +6429,9 @@
       <c r="IQ8" t="n">
         <v>8</v>
       </c>
+      <c r="IR8" t="n">
+        <v>-45</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7165,6 +7189,9 @@
       <c r="IQ9" t="n">
         <v>1</v>
       </c>
+      <c r="IR9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7922,6 +7949,9 @@
       <c r="IQ10" t="n">
         <v>15</v>
       </c>
+      <c r="IR10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8679,6 +8709,9 @@
       <c r="IQ11" t="n">
         <v>228</v>
       </c>
+      <c r="IR11" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9436,6 +9469,9 @@
       <c r="IQ12" t="n">
         <v>113</v>
       </c>
+      <c r="IR12" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10193,6 +10229,9 @@
       <c r="IQ13" t="n">
         <v>341</v>
       </c>
+      <c r="IR13" t="n">
+        <v>354</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10950,6 +10989,9 @@
       <c r="IQ14" t="n">
         <v>2.02</v>
       </c>
+      <c r="IR14" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11707,6 +11749,9 @@
       <c r="IQ15" t="n">
         <v>122</v>
       </c>
+      <c r="IR15" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12464,6 +12509,9 @@
       <c r="IQ16" t="n">
         <v>40</v>
       </c>
+      <c r="IR16" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13221,6 +13269,9 @@
       <c r="IQ17" t="n">
         <v>34</v>
       </c>
+      <c r="IR17" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13978,6 +14029,9 @@
       <c r="IQ18" t="n">
         <v>18</v>
       </c>
+      <c r="IR18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14735,6 +14789,9 @@
       <c r="IQ19" t="n">
         <v>15</v>
       </c>
+      <c r="IR19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15492,6 +15549,9 @@
       <c r="IQ20" t="n">
         <v>14</v>
       </c>
+      <c r="IR20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16249,6 +16309,9 @@
       <c r="IQ21" t="n">
         <v>10</v>
       </c>
+      <c r="IR21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17006,6 +17069,9 @@
       <c r="IQ22" t="n">
         <v>9</v>
       </c>
+      <c r="IR22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17763,6 +17829,9 @@
       <c r="IQ23" t="n">
         <v>1</v>
       </c>
+      <c r="IR23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18520,6 +18589,9 @@
       <c r="IQ24" t="n">
         <v>24</v>
       </c>
+      <c r="IR24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19277,6 +19349,9 @@
       <c r="IQ25" t="n">
         <v>58.3</v>
       </c>
+      <c r="IR25" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20034,6 +20109,9 @@
       <c r="IQ26" t="n">
         <v>24.36</v>
       </c>
+      <c r="IR26" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20791,6 +20869,9 @@
       <c r="IQ27" t="n">
         <v>14.21</v>
       </c>
+      <c r="IR27" t="n">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21548,6 +21629,9 @@
       <c r="IQ28" t="n">
         <v>40</v>
       </c>
+      <c r="IR28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22305,6 +22389,9 @@
       <c r="IQ29" t="n">
         <v>39</v>
       </c>
+      <c r="IR29" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23062,6 +23149,9 @@
       <c r="IQ30" t="n">
         <v>38</v>
       </c>
+      <c r="IR30" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23819,6 +23909,9 @@
       <c r="IQ31" t="n">
         <v>54</v>
       </c>
+      <c r="IR31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24576,6 +24669,9 @@
       <c r="IQ32" t="n">
         <v>2.25</v>
       </c>
+      <c r="IR32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25333,6 +25429,9 @@
       <c r="IQ33" t="n">
         <v>3.86</v>
       </c>
+      <c r="IR33" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26090,6 +26189,9 @@
       <c r="IQ34" t="n">
         <v>42.6</v>
       </c>
+      <c r="IR34" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26847,6 +26949,9 @@
       <c r="IQ35" t="n">
         <v>25.9</v>
       </c>
+      <c r="IR35" t="n">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27604,6 +27709,9 @@
       <c r="IQ36" t="n">
         <v>188.2</v>
       </c>
+      <c r="IR36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28361,6 +28469,9 @@
       <c r="IQ37" t="n">
         <v>87.7</v>
       </c>
+      <c r="IR37" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29118,6 +29229,9 @@
       <c r="IQ38" t="n">
         <v>25.74</v>
       </c>
+      <c r="IR38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29875,6 +29989,9 @@
       <c r="IQ39" t="n">
         <v>121.1</v>
       </c>
+      <c r="IR39" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30632,6 +30749,9 @@
       <c r="IQ40" t="n">
         <v>6</v>
       </c>
+      <c r="IR40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31389,6 +31509,9 @@
       <c r="IQ41" t="n">
         <v>5</v>
       </c>
+      <c r="IR41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32146,6 +32269,9 @@
       <c r="IQ42" t="n">
         <v>3</v>
       </c>
+      <c r="IR42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32903,6 +33029,9 @@
       <c r="IQ43" t="n">
         <v>9</v>
       </c>
+      <c r="IR43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33660,6 +33789,9 @@
       <c r="IQ44" t="n">
         <v>132</v>
       </c>
+      <c r="IR44" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34417,6 +34549,9 @@
       <c r="IQ45" t="n">
         <v>221</v>
       </c>
+      <c r="IR45" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35174,6 +35309,9 @@
       <c r="IQ46" t="n">
         <v>263</v>
       </c>
+      <c r="IR46" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35931,6 +36069,9 @@
       <c r="IQ47" t="n">
         <v>77.09999999999999</v>
       </c>
+      <c r="IR47" t="n">
+        <v>77.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36688,6 +36829,9 @@
       <c r="IQ48" t="n">
         <v>39</v>
       </c>
+      <c r="IR48" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37445,6 +37589,9 @@
       <c r="IQ49" t="n">
         <v>12</v>
       </c>
+      <c r="IR49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38202,6 +38349,9 @@
       <c r="IQ50" t="n">
         <v>15</v>
       </c>
+      <c r="IR50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38959,6 +39109,9 @@
       <c r="IQ51" t="n">
         <v>40</v>
       </c>
+      <c r="IR51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39716,6 +39869,9 @@
       <c r="IQ52" t="n">
         <v>38</v>
       </c>
+      <c r="IR52" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40473,6 +40629,9 @@
       <c r="IQ53" t="n">
         <v>48</v>
       </c>
+      <c r="IR53" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41230,6 +41389,9 @@
       <c r="IQ54" t="n">
         <v>6</v>
       </c>
+      <c r="IR54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41987,6 +42149,9 @@
       <c r="IQ55" t="n">
         <v>10</v>
       </c>
+      <c r="IR55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42744,6 +42909,9 @@
       <c r="IQ56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IR56" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43501,6 +43669,9 @@
       <c r="IQ57" t="n">
         <v>201</v>
       </c>
+      <c r="IR57" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44258,6 +44429,9 @@
       <c r="IQ58" t="n">
         <v>149</v>
       </c>
+      <c r="IR58" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45015,6 +45189,9 @@
       <c r="IQ59" t="n">
         <v>350</v>
       </c>
+      <c r="IR59" t="n">
+        <v>462</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45772,6 +45949,9 @@
       <c r="IQ60" t="n">
         <v>1.35</v>
       </c>
+      <c r="IR60" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46529,6 +46709,9 @@
       <c r="IQ61" t="n">
         <v>91</v>
       </c>
+      <c r="IR61" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47286,6 +47469,9 @@
       <c r="IQ62" t="n">
         <v>55</v>
       </c>
+      <c r="IR62" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48043,6 +48229,9 @@
       <c r="IQ63" t="n">
         <v>37</v>
       </c>
+      <c r="IR63" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48800,6 +48989,9 @@
       <c r="IQ64" t="n">
         <v>15</v>
       </c>
+      <c r="IR64" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49557,6 +49749,9 @@
       <c r="IQ65" t="n">
         <v>18</v>
       </c>
+      <c r="IR65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50314,6 +50509,9 @@
       <c r="IQ66" t="n">
         <v>13</v>
       </c>
+      <c r="IR66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -51071,6 +51269,9 @@
       <c r="IQ67" t="n">
         <v>9</v>
       </c>
+      <c r="IR67" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51828,6 +52029,9 @@
       <c r="IQ68" t="n">
         <v>7</v>
       </c>
+      <c r="IR68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52585,6 +52789,9 @@
       <c r="IQ69" t="n">
         <v>1</v>
       </c>
+      <c r="IR69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -53342,6 +53549,9 @@
       <c r="IQ70" t="n">
         <v>21</v>
       </c>
+      <c r="IR70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -54099,6 +54309,9 @@
       <c r="IQ71" t="n">
         <v>61.9</v>
       </c>
+      <c r="IR71" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54856,6 +55069,9 @@
       <c r="IQ72" t="n">
         <v>26.92</v>
       </c>
+      <c r="IR72" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55613,6 +55829,9 @@
       <c r="IQ73" t="n">
         <v>16.67</v>
       </c>
+      <c r="IR73" t="n">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -56370,6 +56589,9 @@
       <c r="IQ74" t="n">
         <v>31</v>
       </c>
+      <c r="IR74" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -57127,6 +57349,9 @@
       <c r="IQ75" t="n">
         <v>43</v>
       </c>
+      <c r="IR75" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57884,6 +58109,9 @@
       <c r="IQ76" t="n">
         <v>38</v>
       </c>
+      <c r="IR76" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58641,6 +58869,9 @@
       <c r="IQ77" t="n">
         <v>51</v>
       </c>
+      <c r="IR77" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -59398,6 +59629,9 @@
       <c r="IQ78" t="n">
         <v>2.43</v>
       </c>
+      <c r="IR78" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -60155,6 +60389,9 @@
       <c r="IQ79" t="n">
         <v>3.92</v>
       </c>
+      <c r="IR79" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60912,6 +61149,9 @@
       <c r="IQ80" t="n">
         <v>39.2</v>
       </c>
+      <c r="IR80" t="n">
+        <v>45.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61669,6 +61909,9 @@
       <c r="IQ81" t="n">
         <v>25.5</v>
       </c>
+      <c r="IR81" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -62426,6 +62669,9 @@
       <c r="IQ82" t="n">
         <v>187.9</v>
       </c>
+      <c r="IR82" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -63183,6 +63429,9 @@
       <c r="IQ83" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="IR83" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63940,6 +64189,9 @@
       <c r="IQ84" t="n">
         <v>25.66</v>
       </c>
+      <c r="IR84" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64697,6 +64949,9 @@
       <c r="IQ85" t="n">
         <v>92.90000000000001</v>
       </c>
+      <c r="IR85" t="n">
+        <v>104.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -65454,6 +65709,9 @@
       <c r="IQ86" t="n">
         <v>6</v>
       </c>
+      <c r="IR86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -66211,6 +66469,9 @@
       <c r="IQ87" t="n">
         <v>5</v>
       </c>
+      <c r="IR87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66968,6 +67229,9 @@
       <c r="IQ88" t="n">
         <v>8</v>
       </c>
+      <c r="IR88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67725,6 +67989,9 @@
       <c r="IQ89" t="n">
         <v>3</v>
       </c>
+      <c r="IR89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -68482,6 +68749,9 @@
       <c r="IQ90" t="n">
         <v>128</v>
       </c>
+      <c r="IR90" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -69239,6 +69509,9 @@
       <c r="IQ91" t="n">
         <v>219</v>
       </c>
+      <c r="IR91" t="n">
+        <v>352</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69996,6 +70269,9 @@
       <c r="IQ92" t="n">
         <v>262</v>
       </c>
+      <c r="IR92" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -70753,6 +71029,9 @@
       <c r="IQ93" t="n">
         <v>74.90000000000001</v>
       </c>
+      <c r="IR93" t="n">
+        <v>82.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -71510,6 +71789,9 @@
       <c r="IQ94" t="n">
         <v>43</v>
       </c>
+      <c r="IR94" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -72267,6 +72549,9 @@
       <c r="IQ95" t="n">
         <v>18</v>
       </c>
+      <c r="IR95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -73024,6 +73309,9 @@
       <c r="IQ96" t="n">
         <v>11</v>
       </c>
+      <c r="IR96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -73781,6 +74069,9 @@
       <c r="IQ97" t="n">
         <v>31</v>
       </c>
+      <c r="IR97" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -74538,6 +74829,9 @@
       <c r="IQ98" t="n">
         <v>38</v>
       </c>
+      <c r="IR98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -75295,6 +75589,9 @@
       <c r="IQ99" t="n">
         <v>46</v>
       </c>
+      <c r="IR99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -76052,6 +76349,9 @@
       <c r="IQ100" t="n">
         <v>9</v>
       </c>
+      <c r="IR100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -76809,6 +77109,9 @@
       <c r="IQ101" t="n">
         <v>9</v>
       </c>
+      <c r="IR101" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -77566,6 +77869,9 @@
       <c r="IQ102" t="n">
         <v>69.2</v>
       </c>
+      <c r="IR102" t="n">
+        <v>85.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IR102"/>
+  <dimension ref="A1:IS102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,6 +1112,9 @@
       <c r="IR1" t="n">
         <v>10534</v>
       </c>
+      <c r="IS1" t="n">
+        <v>10506</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1872,6 +1875,9 @@
       <c r="IR2" t="n">
         <v>2021</v>
       </c>
+      <c r="IS2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2632,6 +2638,9 @@
       <c r="IR3" t="n">
         <v>20</v>
       </c>
+      <c r="IS3" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3392,6 +3401,9 @@
       <c r="IR4" t="n">
         <v>1</v>
       </c>
+      <c r="IS4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4152,6 +4164,9 @@
       <c r="IR5" t="n">
         <v>0</v>
       </c>
+      <c r="IS5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4912,6 +4927,9 @@
       <c r="IR6" t="n">
         <v>45</v>
       </c>
+      <c r="IS6" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5672,6 +5690,9 @@
       <c r="IR7" t="n">
         <v>90</v>
       </c>
+      <c r="IS7" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6432,6 +6453,9 @@
       <c r="IR8" t="n">
         <v>-45</v>
       </c>
+      <c r="IS8" t="n">
+        <v>-9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7192,6 +7216,9 @@
       <c r="IR9" t="n">
         <v>0</v>
       </c>
+      <c r="IS9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7952,6 +7979,9 @@
       <c r="IR10" t="n">
         <v>4</v>
       </c>
+      <c r="IS10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8712,6 +8742,9 @@
       <c r="IR11" t="n">
         <v>197</v>
       </c>
+      <c r="IS11" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9472,6 +9505,9 @@
       <c r="IR12" t="n">
         <v>157</v>
       </c>
+      <c r="IS12" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10232,6 +10268,9 @@
       <c r="IR13" t="n">
         <v>354</v>
       </c>
+      <c r="IS13" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10992,6 +11031,9 @@
       <c r="IR14" t="n">
         <v>1.25</v>
       </c>
+      <c r="IS14" t="n">
+        <v>1.71</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11752,6 +11794,9 @@
       <c r="IR15" t="n">
         <v>101</v>
       </c>
+      <c r="IS15" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12512,6 +12557,9 @@
       <c r="IR16" t="n">
         <v>32</v>
       </c>
+      <c r="IS16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13272,6 +13320,9 @@
       <c r="IR17" t="n">
         <v>27</v>
       </c>
+      <c r="IS17" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14032,6 +14083,9 @@
       <c r="IR18" t="n">
         <v>16</v>
       </c>
+      <c r="IS18" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14792,6 +14846,9 @@
       <c r="IR19" t="n">
         <v>13</v>
       </c>
+      <c r="IS19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15552,6 +15609,9 @@
       <c r="IR20" t="n">
         <v>6</v>
       </c>
+      <c r="IS20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16312,6 +16372,9 @@
       <c r="IR21" t="n">
         <v>5</v>
       </c>
+      <c r="IS21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17072,6 +17135,9 @@
       <c r="IR22" t="n">
         <v>9</v>
       </c>
+      <c r="IS22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17832,6 +17898,9 @@
       <c r="IR23" t="n">
         <v>0</v>
       </c>
+      <c r="IS23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18592,6 +18661,9 @@
       <c r="IR24" t="n">
         <v>15</v>
       </c>
+      <c r="IS24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19352,6 +19424,9 @@
       <c r="IR25" t="n">
         <v>40</v>
       </c>
+      <c r="IS25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20112,6 +20187,9 @@
       <c r="IR26" t="n">
         <v>59</v>
       </c>
+      <c r="IS26" t="n">
+        <v>37.67</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20872,6 +20950,9 @@
       <c r="IR27" t="n">
         <v>23.6</v>
       </c>
+      <c r="IS27" t="n">
+        <v>18.83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21632,6 +21713,9 @@
       <c r="IR28" t="n">
         <v>33</v>
       </c>
+      <c r="IS28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22392,6 +22476,9 @@
       <c r="IR29" t="n">
         <v>45</v>
       </c>
+      <c r="IS29" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23152,6 +23239,9 @@
       <c r="IR30" t="n">
         <v>27</v>
       </c>
+      <c r="IS30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23912,6 +24002,9 @@
       <c r="IR31" t="n">
         <v>45</v>
       </c>
+      <c r="IS31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24672,6 +24765,9 @@
       <c r="IR32" t="n">
         <v>3</v>
       </c>
+      <c r="IS32" t="n">
+        <v>2.78</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25432,6 +25528,9 @@
       <c r="IR33" t="n">
         <v>7.5</v>
       </c>
+      <c r="IS33" t="n">
+        <v>5.56</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26192,6 +26291,9 @@
       <c r="IR34" t="n">
         <v>33.3</v>
       </c>
+      <c r="IS34" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26952,6 +27054,9 @@
       <c r="IR35" t="n">
         <v>13.3</v>
       </c>
+      <c r="IS35" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27712,6 +27817,9 @@
       <c r="IR36" t="n">
         <v>188.5</v>
       </c>
+      <c r="IS36" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28472,6 +28580,9 @@
       <c r="IR37" t="n">
         <v>88</v>
       </c>
+      <c r="IS37" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29232,6 +29343,9 @@
       <c r="IR38" t="n">
         <v>25.8</v>
       </c>
+      <c r="IS38" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29992,6 +30106,9 @@
       <c r="IR39" t="n">
         <v>131</v>
       </c>
+      <c r="IS39" t="n">
+        <v>132.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30752,6 +30869,9 @@
       <c r="IR40" t="n">
         <v>6</v>
       </c>
+      <c r="IS40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31512,6 +31632,9 @@
       <c r="IR41" t="n">
         <v>4</v>
       </c>
+      <c r="IS41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32272,6 +32395,9 @@
       <c r="IR42" t="n">
         <v>2</v>
       </c>
+      <c r="IS42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33032,6 +33158,9 @@
       <c r="IR43" t="n">
         <v>10</v>
       </c>
+      <c r="IS43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33792,6 +33921,9 @@
       <c r="IR44" t="n">
         <v>103</v>
       </c>
+      <c r="IS44" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34552,6 +34684,9 @@
       <c r="IR45" t="n">
         <v>250</v>
       </c>
+      <c r="IS45" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35312,6 +35447,9 @@
       <c r="IR46" t="n">
         <v>275</v>
       </c>
+      <c r="IS46" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36072,6 +36210,9 @@
       <c r="IR47" t="n">
         <v>77.7</v>
       </c>
+      <c r="IS47" t="n">
+        <v>66.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36832,6 +36973,9 @@
       <c r="IR48" t="n">
         <v>45</v>
       </c>
+      <c r="IS48" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37592,6 +37736,9 @@
       <c r="IR49" t="n">
         <v>8</v>
       </c>
+      <c r="IS49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38352,6 +38499,9 @@
       <c r="IR50" t="n">
         <v>10</v>
       </c>
+      <c r="IS50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39112,6 +39262,9 @@
       <c r="IR51" t="n">
         <v>33</v>
       </c>
+      <c r="IS51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39872,6 +40025,9 @@
       <c r="IR52" t="n">
         <v>27</v>
       </c>
+      <c r="IS52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40632,6 +40788,9 @@
       <c r="IR53" t="n">
         <v>34</v>
       </c>
+      <c r="IS53" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41392,6 +41551,9 @@
       <c r="IR54" t="n">
         <v>1</v>
       </c>
+      <c r="IS54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -42152,6 +42314,9 @@
       <c r="IR55" t="n">
         <v>5</v>
       </c>
+      <c r="IS55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42912,6 +43077,9 @@
       <c r="IR56" t="n">
         <v>83.3</v>
       </c>
+      <c r="IS56" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43672,6 +43840,9 @@
       <c r="IR57" t="n">
         <v>280</v>
       </c>
+      <c r="IS57" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44432,6 +44603,9 @@
       <c r="IR58" t="n">
         <v>182</v>
       </c>
+      <c r="IS58" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45192,6 +45366,9 @@
       <c r="IR59" t="n">
         <v>462</v>
       </c>
+      <c r="IS59" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45952,6 +46129,9 @@
       <c r="IR60" t="n">
         <v>1.54</v>
       </c>
+      <c r="IS60" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46712,6 +46892,9 @@
       <c r="IR61" t="n">
         <v>167</v>
       </c>
+      <c r="IS61" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47472,6 +47655,9 @@
       <c r="IR62" t="n">
         <v>39</v>
       </c>
+      <c r="IS62" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48232,6 +48418,9 @@
       <c r="IR63" t="n">
         <v>23</v>
       </c>
+      <c r="IS63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48992,6 +49181,9 @@
       <c r="IR64" t="n">
         <v>13</v>
       </c>
+      <c r="IS64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49752,6 +49944,9 @@
       <c r="IR65" t="n">
         <v>16</v>
       </c>
+      <c r="IS65" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50512,6 +50707,9 @@
       <c r="IR66" t="n">
         <v>14</v>
       </c>
+      <c r="IS66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -51272,6 +51470,9 @@
       <c r="IR67" t="n">
         <v>12</v>
       </c>
+      <c r="IS67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -52032,6 +52233,9 @@
       <c r="IR68" t="n">
         <v>5</v>
       </c>
+      <c r="IS68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52792,6 +52996,9 @@
       <c r="IR69" t="n">
         <v>1</v>
       </c>
+      <c r="IS69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -53552,6 +53759,9 @@
       <c r="IR70" t="n">
         <v>20</v>
       </c>
+      <c r="IS70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -54312,6 +54522,9 @@
       <c r="IR71" t="n">
         <v>70</v>
       </c>
+      <c r="IS71" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -55072,6 +55285,9 @@
       <c r="IR72" t="n">
         <v>33</v>
       </c>
+      <c r="IS72" t="n">
+        <v>34.9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55832,6 +56048,9 @@
       <c r="IR73" t="n">
         <v>23.1</v>
       </c>
+      <c r="IS73" t="n">
+        <v>15.86</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -56592,6 +56811,9 @@
       <c r="IR74" t="n">
         <v>27</v>
       </c>
+      <c r="IS74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -57352,6 +57574,9 @@
       <c r="IR75" t="n">
         <v>44</v>
       </c>
+      <c r="IS75" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -58112,6 +58337,9 @@
       <c r="IR76" t="n">
         <v>39</v>
       </c>
+      <c r="IS76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58872,6 +59100,9 @@
       <c r="IR77" t="n">
         <v>42</v>
       </c>
+      <c r="IS77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -59632,6 +59863,9 @@
       <c r="IR78" t="n">
         <v>2.1</v>
       </c>
+      <c r="IS78" t="n">
+        <v>2.18</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -60392,6 +60626,9 @@
       <c r="IR79" t="n">
         <v>3</v>
       </c>
+      <c r="IS79" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -61152,6 +61389,9 @@
       <c r="IR80" t="n">
         <v>45.2</v>
       </c>
+      <c r="IS80" t="n">
+        <v>39.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61912,6 +62152,9 @@
       <c r="IR81" t="n">
         <v>33.3</v>
       </c>
+      <c r="IS81" t="n">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -62672,6 +62915,9 @@
       <c r="IR82" t="n">
         <v>187.6</v>
       </c>
+      <c r="IS82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -63432,6 +63678,9 @@
       <c r="IR83" t="n">
         <v>86</v>
       </c>
+      <c r="IS83" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -64192,6 +64441,9 @@
       <c r="IR84" t="n">
         <v>25.91</v>
       </c>
+      <c r="IS84" t="n">
+        <v>24.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64952,6 +65204,9 @@
       <c r="IR85" t="n">
         <v>104.8</v>
       </c>
+      <c r="IS85" t="n">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -65712,6 +65967,9 @@
       <c r="IR86" t="n">
         <v>9</v>
       </c>
+      <c r="IS86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -66472,6 +66730,9 @@
       <c r="IR87" t="n">
         <v>1</v>
       </c>
+      <c r="IS87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -67232,6 +67493,9 @@
       <c r="IR88" t="n">
         <v>4</v>
       </c>
+      <c r="IS88" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67992,6 +68256,9 @@
       <c r="IR89" t="n">
         <v>8</v>
       </c>
+      <c r="IS89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -68752,6 +69019,9 @@
       <c r="IR90" t="n">
         <v>105</v>
       </c>
+      <c r="IS90" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -69512,6 +69782,9 @@
       <c r="IR91" t="n">
         <v>352</v>
       </c>
+      <c r="IS91" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -70272,6 +70545,9 @@
       <c r="IR92" t="n">
         <v>380</v>
       </c>
+      <c r="IS92" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -71032,6 +71308,9 @@
       <c r="IR93" t="n">
         <v>82.3</v>
       </c>
+      <c r="IS93" t="n">
+        <v>69.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -71792,6 +72071,9 @@
       <c r="IR94" t="n">
         <v>44</v>
       </c>
+      <c r="IS94" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -72552,6 +72834,9 @@
       <c r="IR95" t="n">
         <v>11</v>
       </c>
+      <c r="IS95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -73312,6 +73597,9 @@
       <c r="IR96" t="n">
         <v>18</v>
       </c>
+      <c r="IS96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -74072,6 +74360,9 @@
       <c r="IR97" t="n">
         <v>27</v>
       </c>
+      <c r="IS97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -74832,6 +75123,9 @@
       <c r="IR98" t="n">
         <v>39</v>
       </c>
+      <c r="IS98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -75592,6 +75886,9 @@
       <c r="IR99" t="n">
         <v>42</v>
       </c>
+      <c r="IS99" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -76352,6 +76649,9 @@
       <c r="IR100" t="n">
         <v>5</v>
       </c>
+      <c r="IS100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -77112,6 +77412,9 @@
       <c r="IR101" t="n">
         <v>12</v>
       </c>
+      <c r="IS101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -77872,6 +78175,9 @@
       <c r="IR102" t="n">
         <v>85.7</v>
       </c>
+      <c r="IS102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IT102"/>
+  <dimension ref="A1:IU102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1186,6 +1186,9 @@
       <c r="IT1" t="n">
         <v>10515</v>
       </c>
+      <c r="IU1" t="n">
+        <v>10516</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1952,6 +1955,9 @@
       <c r="IT2" t="n">
         <v>2021</v>
       </c>
+      <c r="IU2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2718,6 +2724,9 @@
       <c r="IT3" t="n">
         <v>22</v>
       </c>
+      <c r="IU3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3484,6 +3493,9 @@
       <c r="IT4" t="n">
         <v>1</v>
       </c>
+      <c r="IU4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4250,6 +4262,9 @@
       <c r="IT5" t="n">
         <v>0</v>
       </c>
+      <c r="IU5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5016,6 +5031,9 @@
       <c r="IT6" t="n">
         <v>64</v>
       </c>
+      <c r="IU6" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5782,6 +5800,9 @@
       <c r="IT7" t="n">
         <v>79</v>
       </c>
+      <c r="IU7" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6548,6 +6569,9 @@
       <c r="IT8" t="n">
         <v>-15</v>
       </c>
+      <c r="IU8" t="n">
+        <v>-38</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7314,6 +7338,9 @@
       <c r="IT9" t="n">
         <v>0</v>
       </c>
+      <c r="IU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8080,6 +8107,9 @@
       <c r="IT10" t="n">
         <v>6</v>
       </c>
+      <c r="IU10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8846,6 +8876,9 @@
       <c r="IT11" t="n">
         <v>221</v>
       </c>
+      <c r="IU11" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9612,6 +9645,9 @@
       <c r="IT12" t="n">
         <v>121</v>
       </c>
+      <c r="IU12" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10378,6 +10414,9 @@
       <c r="IT13" t="n">
         <v>342</v>
       </c>
+      <c r="IU13" t="n">
+        <v>323</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11144,6 +11183,9 @@
       <c r="IT14" t="n">
         <v>1.83</v>
       </c>
+      <c r="IU14" t="n">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11910,6 +11952,9 @@
       <c r="IT15" t="n">
         <v>111</v>
       </c>
+      <c r="IU15" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12676,6 +12721,9 @@
       <c r="IT16" t="n">
         <v>71</v>
       </c>
+      <c r="IU16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13442,6 +13490,9 @@
       <c r="IT17" t="n">
         <v>48</v>
       </c>
+      <c r="IU17" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14208,6 +14259,9 @@
       <c r="IT18" t="n">
         <v>15</v>
       </c>
+      <c r="IU18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14974,6 +15028,9 @@
       <c r="IT19" t="n">
         <v>12</v>
       </c>
+      <c r="IU19" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15740,6 +15797,9 @@
       <c r="IT20" t="n">
         <v>9</v>
       </c>
+      <c r="IU20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16506,6 +16566,9 @@
       <c r="IT21" t="n">
         <v>5</v>
       </c>
+      <c r="IU21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17272,6 +17335,9 @@
       <c r="IT22" t="n">
         <v>10</v>
       </c>
+      <c r="IU22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18038,6 +18104,9 @@
       <c r="IT23" t="n">
         <v>0</v>
       </c>
+      <c r="IU23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18804,6 +18873,9 @@
       <c r="IT24" t="n">
         <v>19</v>
       </c>
+      <c r="IU24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19570,6 +19642,9 @@
       <c r="IT25" t="n">
         <v>47.4</v>
       </c>
+      <c r="IU25" t="n">
+        <v>59.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20336,6 +20411,9 @@
       <c r="IT26" t="n">
         <v>38</v>
       </c>
+      <c r="IU26" t="n">
+        <v>24.85</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21102,6 +21180,9 @@
       <c r="IT27" t="n">
         <v>18</v>
       </c>
+      <c r="IU27" t="n">
+        <v>14.68</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21868,6 +21949,9 @@
       <c r="IT28" t="n">
         <v>39</v>
       </c>
+      <c r="IU28" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22634,6 +22718,9 @@
       <c r="IT29" t="n">
         <v>42</v>
       </c>
+      <c r="IU29" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23400,6 +23487,9 @@
       <c r="IT30" t="n">
         <v>28</v>
       </c>
+      <c r="IU30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24166,6 +24256,9 @@
       <c r="IT31" t="n">
         <v>55</v>
       </c>
+      <c r="IU31" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24932,6 +25025,9 @@
       <c r="IT32" t="n">
         <v>2.89</v>
       </c>
+      <c r="IU32" t="n">
+        <v>2.59</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25698,6 +25794,9 @@
       <c r="IT33" t="n">
         <v>6.11</v>
       </c>
+      <c r="IU33" t="n">
+        <v>4.38</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26464,6 +26563,9 @@
       <c r="IT34" t="n">
         <v>34.5</v>
       </c>
+      <c r="IU34" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27230,6 +27332,9 @@
       <c r="IT35" t="n">
         <v>16.4</v>
       </c>
+      <c r="IU35" t="n">
+        <v>22.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27996,6 +28101,9 @@
       <c r="IT36" t="n">
         <v>188.4</v>
       </c>
+      <c r="IU36" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28762,6 +28870,9 @@
       <c r="IT37" t="n">
         <v>87.59999999999999</v>
       </c>
+      <c r="IU37" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29528,6 +29639,9 @@
       <c r="IT38" t="n">
         <v>27</v>
       </c>
+      <c r="IU38" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30294,6 +30408,9 @@
       <c r="IT39" t="n">
         <v>131.2</v>
       </c>
+      <c r="IU39" t="n">
+        <v>98.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31060,6 +31177,9 @@
       <c r="IT40" t="n">
         <v>4</v>
       </c>
+      <c r="IU40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31826,6 +31946,9 @@
       <c r="IT41" t="n">
         <v>8</v>
       </c>
+      <c r="IU41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32592,6 +32715,9 @@
       <c r="IT42" t="n">
         <v>1</v>
       </c>
+      <c r="IU42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33358,6 +33484,9 @@
       <c r="IT43" t="n">
         <v>10</v>
       </c>
+      <c r="IU43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34124,6 +34253,9 @@
       <c r="IT44" t="n">
         <v>128</v>
       </c>
+      <c r="IU44" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34890,6 +35022,9 @@
       <c r="IT45" t="n">
         <v>216</v>
       </c>
+      <c r="IU45" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35656,6 +35791,9 @@
       <c r="IT46" t="n">
         <v>249</v>
       </c>
+      <c r="IU46" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36422,6 +36560,9 @@
       <c r="IT47" t="n">
         <v>72.8</v>
       </c>
+      <c r="IU47" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37188,6 +37329,9 @@
       <c r="IT48" t="n">
         <v>42</v>
       </c>
+      <c r="IU48" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37954,6 +38098,9 @@
       <c r="IT49" t="n">
         <v>15</v>
       </c>
+      <c r="IU49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38720,6 +38867,9 @@
       <c r="IT50" t="n">
         <v>12</v>
       </c>
+      <c r="IU50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39486,6 +39636,9 @@
       <c r="IT51" t="n">
         <v>39</v>
       </c>
+      <c r="IU51" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40252,6 +40405,9 @@
       <c r="IT52" t="n">
         <v>28</v>
       </c>
+      <c r="IU52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41018,6 +41174,9 @@
       <c r="IT53" t="n">
         <v>42</v>
       </c>
+      <c r="IU53" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41784,6 +41943,9 @@
       <c r="IT54" t="n">
         <v>3</v>
       </c>
+      <c r="IU54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -42550,6 +42712,9 @@
       <c r="IT55" t="n">
         <v>5</v>
       </c>
+      <c r="IU55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43316,6 +43481,9 @@
       <c r="IT56" t="n">
         <v>55.6</v>
       </c>
+      <c r="IU56" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44082,6 +44250,9 @@
       <c r="IT57" t="n">
         <v>203</v>
       </c>
+      <c r="IU57" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44848,6 +45019,9 @@
       <c r="IT58" t="n">
         <v>135</v>
       </c>
+      <c r="IU58" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45614,6 +45788,9 @@
       <c r="IT59" t="n">
         <v>338</v>
       </c>
+      <c r="IU59" t="n">
+        <v>340</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -46380,6 +46557,9 @@
       <c r="IT60" t="n">
         <v>1.5</v>
       </c>
+      <c r="IU60" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -47146,6 +47326,9 @@
       <c r="IT61" t="n">
         <v>95</v>
       </c>
+      <c r="IU61" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47912,6 +48095,9 @@
       <c r="IT62" t="n">
         <v>62</v>
       </c>
+      <c r="IU62" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48678,6 +48864,9 @@
       <c r="IT63" t="n">
         <v>37</v>
       </c>
+      <c r="IU63" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -49444,6 +49633,9 @@
       <c r="IT64" t="n">
         <v>12</v>
       </c>
+      <c r="IU64" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -50210,6 +50402,9 @@
       <c r="IT65" t="n">
         <v>15</v>
       </c>
+      <c r="IU65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50976,6 +51171,9 @@
       <c r="IT66" t="n">
         <v>12</v>
       </c>
+      <c r="IU66" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -51742,6 +51940,9 @@
       <c r="IT67" t="n">
         <v>8</v>
       </c>
+      <c r="IU67" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -52508,6 +52709,9 @@
       <c r="IT68" t="n">
         <v>7</v>
       </c>
+      <c r="IU68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -53274,6 +53478,9 @@
       <c r="IT69" t="n">
         <v>0</v>
       </c>
+      <c r="IU69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -54040,6 +54247,9 @@
       <c r="IT70" t="n">
         <v>19</v>
       </c>
+      <c r="IU70" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -54806,6 +55016,9 @@
       <c r="IT71" t="n">
         <v>63.2</v>
       </c>
+      <c r="IU71" t="n">
+        <v>63.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -55572,6 +55785,9 @@
       <c r="IT72" t="n">
         <v>28.17</v>
       </c>
+      <c r="IU72" t="n">
+        <v>17.89</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -56338,6 +56554,9 @@
       <c r="IT73" t="n">
         <v>17.79</v>
       </c>
+      <c r="IU73" t="n">
+        <v>11.33</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -57104,6 +57323,9 @@
       <c r="IT74" t="n">
         <v>41</v>
       </c>
+      <c r="IU74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -57870,6 +58092,9 @@
       <c r="IT75" t="n">
         <v>40</v>
       </c>
+      <c r="IU75" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -58636,6 +58861,9 @@
       <c r="IT76" t="n">
         <v>44</v>
       </c>
+      <c r="IU76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -59402,6 +59630,9 @@
       <c r="IT77" t="n">
         <v>40</v>
       </c>
+      <c r="IU77" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -60168,6 +60399,9 @@
       <c r="IT78" t="n">
         <v>2.11</v>
       </c>
+      <c r="IU78" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -60934,6 +61168,9 @@
       <c r="IT79" t="n">
         <v>3.33</v>
       </c>
+      <c r="IU79" t="n">
+        <v>3.21</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -61700,6 +61937,9 @@
       <c r="IT80" t="n">
         <v>47.5</v>
       </c>
+      <c r="IU80" t="n">
+        <v>45.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -62466,6 +62706,9 @@
       <c r="IT81" t="n">
         <v>30</v>
       </c>
+      <c r="IU81" t="n">
+        <v>31.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -63232,6 +63475,9 @@
       <c r="IT82" t="n">
         <v>187.6</v>
       </c>
+      <c r="IU82" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -63998,6 +64244,9 @@
       <c r="IT83" t="n">
         <v>88</v>
       </c>
+      <c r="IU83" t="n">
+        <v>87.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -64764,6 +65013,9 @@
       <c r="IT84" t="n">
         <v>24.16</v>
       </c>
+      <c r="IU84" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -65530,6 +65782,9 @@
       <c r="IT85" t="n">
         <v>64.3</v>
       </c>
+      <c r="IU85" t="n">
+        <v>112.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -66296,6 +66551,9 @@
       <c r="IT86" t="n">
         <v>13</v>
       </c>
+      <c r="IU86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -67062,6 +67320,9 @@
       <c r="IT87" t="n">
         <v>6</v>
       </c>
+      <c r="IU87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -67828,6 +68089,9 @@
       <c r="IT88" t="n">
         <v>3</v>
       </c>
+      <c r="IU88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -68594,6 +68858,9 @@
       <c r="IT89" t="n">
         <v>1</v>
       </c>
+      <c r="IU89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -69360,6 +69627,9 @@
       <c r="IT90" t="n">
         <v>125</v>
       </c>
+      <c r="IU90" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -70126,6 +70396,9 @@
       <c r="IT91" t="n">
         <v>207</v>
       </c>
+      <c r="IU91" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -70892,6 +71165,9 @@
       <c r="IT92" t="n">
         <v>252</v>
       </c>
+      <c r="IU92" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -71658,6 +71934,9 @@
       <c r="IT93" t="n">
         <v>74.59999999999999</v>
       </c>
+      <c r="IU93" t="n">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -72424,6 +72703,9 @@
       <c r="IT94" t="n">
         <v>40</v>
       </c>
+      <c r="IU94" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -73190,6 +73472,9 @@
       <c r="IT95" t="n">
         <v>12</v>
       </c>
+      <c r="IU95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -73956,6 +74241,9 @@
       <c r="IT96" t="n">
         <v>10</v>
       </c>
+      <c r="IU96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -74722,6 +75010,9 @@
       <c r="IT97" t="n">
         <v>41</v>
       </c>
+      <c r="IU97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -75488,6 +75779,9 @@
       <c r="IT98" t="n">
         <v>44</v>
       </c>
+      <c r="IU98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -76254,6 +76548,9 @@
       <c r="IT99" t="n">
         <v>38</v>
       </c>
+      <c r="IU99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -77020,6 +77317,9 @@
       <c r="IT100" t="n">
         <v>4</v>
       </c>
+      <c r="IU100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -77786,6 +78086,9 @@
       <c r="IT101" t="n">
         <v>8</v>
       </c>
+      <c r="IU101" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -78552,6 +78855,9 @@
       <c r="IT102" t="n">
         <v>66.7</v>
       </c>
+      <c r="IU102" t="n">
+        <v>78.90000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IV102"/>
+  <dimension ref="A1:IW102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1192,6 +1192,9 @@
       <c r="IV1" t="n">
         <v>10552</v>
       </c>
+      <c r="IW1" t="n">
+        <v>10559</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1964,6 +1967,9 @@
       <c r="IV2" t="n">
         <v>2022</v>
       </c>
+      <c r="IW2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2736,6 +2742,9 @@
       <c r="IV3" t="n">
         <v>1</v>
       </c>
+      <c r="IW3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3508,6 +3517,9 @@
       <c r="IV4" t="n">
         <v>0</v>
       </c>
+      <c r="IW4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4280,6 +4292,9 @@
       <c r="IV5" t="n">
         <v>1</v>
       </c>
+      <c r="IW5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5052,6 +5067,9 @@
       <c r="IV6" t="n">
         <v>80</v>
       </c>
+      <c r="IW6" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5824,6 +5842,9 @@
       <c r="IV7" t="n">
         <v>107</v>
       </c>
+      <c r="IW7" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6596,6 +6617,9 @@
       <c r="IV8" t="n">
         <v>-27</v>
       </c>
+      <c r="IW8" t="n">
+        <v>-15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7368,6 +7392,9 @@
       <c r="IV9" t="n">
         <v>0</v>
       </c>
+      <c r="IW9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8140,6 +8167,9 @@
       <c r="IV10" t="n">
         <v>8</v>
       </c>
+      <c r="IW10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8912,6 +8942,9 @@
       <c r="IV11" t="n">
         <v>216</v>
       </c>
+      <c r="IW11" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9684,6 +9717,9 @@
       <c r="IV12" t="n">
         <v>123</v>
       </c>
+      <c r="IW12" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10456,6 +10492,9 @@
       <c r="IV13" t="n">
         <v>339</v>
       </c>
+      <c r="IW13" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11228,6 +11267,9 @@
       <c r="IV14" t="n">
         <v>1.76</v>
       </c>
+      <c r="IW14" t="n">
+        <v>2.06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12000,6 +12042,9 @@
       <c r="IV15" t="n">
         <v>91</v>
       </c>
+      <c r="IW15" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12772,6 +12817,9 @@
       <c r="IV16" t="n">
         <v>38</v>
       </c>
+      <c r="IW16" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13544,6 +13592,9 @@
       <c r="IV17" t="n">
         <v>39</v>
       </c>
+      <c r="IW17" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14316,6 +14367,9 @@
       <c r="IV18" t="n">
         <v>20</v>
       </c>
+      <c r="IW18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15088,6 +15142,9 @@
       <c r="IV19" t="n">
         <v>24</v>
       </c>
+      <c r="IW19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15860,6 +15917,9 @@
       <c r="IV20" t="n">
         <v>12</v>
       </c>
+      <c r="IW20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16632,6 +16692,9 @@
       <c r="IV21" t="n">
         <v>8</v>
       </c>
+      <c r="IW21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17404,6 +17467,9 @@
       <c r="IV22" t="n">
         <v>6</v>
       </c>
+      <c r="IW22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18176,6 +18242,9 @@
       <c r="IV23" t="n">
         <v>2</v>
       </c>
+      <c r="IW23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18948,6 +19017,9 @@
       <c r="IV24" t="n">
         <v>20</v>
       </c>
+      <c r="IW24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19720,6 +19792,9 @@
       <c r="IV25" t="n">
         <v>60</v>
       </c>
+      <c r="IW25" t="n">
+        <v>42.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20492,6 +20567,9 @@
       <c r="IV26" t="n">
         <v>28.25</v>
       </c>
+      <c r="IW26" t="n">
+        <v>37.88</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21264,6 +21342,9 @@
       <c r="IV27" t="n">
         <v>16.95</v>
       </c>
+      <c r="IW27" t="n">
+        <v>15.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22036,6 +22117,9 @@
       <c r="IV28" t="n">
         <v>35</v>
       </c>
+      <c r="IW28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22808,6 +22892,9 @@
       <c r="IV29" t="n">
         <v>66</v>
       </c>
+      <c r="IW29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23580,6 +23667,9 @@
       <c r="IV30" t="n">
         <v>42</v>
       </c>
+      <c r="IW30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24352,6 +24442,9 @@
       <c r="IV31" t="n">
         <v>42</v>
       </c>
+      <c r="IW31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25124,6 +25217,9 @@
       <c r="IV32" t="n">
         <v>2.1</v>
       </c>
+      <c r="IW32" t="n">
+        <v>2.63</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25896,6 +25992,9 @@
       <c r="IV33" t="n">
         <v>3.5</v>
       </c>
+      <c r="IW33" t="n">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26668,6 +26767,9 @@
       <c r="IV34" t="n">
         <v>42.9</v>
       </c>
+      <c r="IW34" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27440,6 +27542,9 @@
       <c r="IV35" t="n">
         <v>28.6</v>
       </c>
+      <c r="IW35" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28212,6 +28317,9 @@
       <c r="IV36" t="n">
         <v>189</v>
       </c>
+      <c r="IW36" t="n">
+        <v>186.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28984,6 +29092,9 @@
       <c r="IV37" t="n">
         <v>86.8</v>
       </c>
+      <c r="IW37" t="n">
+        <v>83.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29756,6 +29867,9 @@
       <c r="IV38" t="n">
         <v>25.8</v>
       </c>
+      <c r="IW38" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30528,6 +30642,9 @@
       <c r="IV39" t="n">
         <v>91.09999999999999</v>
       </c>
+      <c r="IW39" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31300,6 +31417,9 @@
       <c r="IV40" t="n">
         <v>12</v>
       </c>
+      <c r="IW40" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32072,6 +32192,9 @@
       <c r="IV41" t="n">
         <v>3</v>
       </c>
+      <c r="IW41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32844,6 +32967,9 @@
       <c r="IV42" t="n">
         <v>1</v>
       </c>
+      <c r="IW42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33616,6 +33742,9 @@
       <c r="IV43" t="n">
         <v>6</v>
       </c>
+      <c r="IW43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34388,6 +34517,9 @@
       <c r="IV44" t="n">
         <v>122</v>
       </c>
+      <c r="IW44" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35160,6 +35292,9 @@
       <c r="IV45" t="n">
         <v>211</v>
       </c>
+      <c r="IW45" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35932,6 +36067,9 @@
       <c r="IV46" t="n">
         <v>250</v>
       </c>
+      <c r="IW46" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36704,6 +36842,9 @@
       <c r="IV47" t="n">
         <v>73.7</v>
       </c>
+      <c r="IW47" t="n">
+        <v>69.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37476,6 +37617,9 @@
       <c r="IV48" t="n">
         <v>66</v>
       </c>
+      <c r="IW48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38248,6 +38392,9 @@
       <c r="IV49" t="n">
         <v>6</v>
       </c>
+      <c r="IW49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39020,6 +39167,9 @@
       <c r="IV50" t="n">
         <v>9</v>
       </c>
+      <c r="IW50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39792,6 +39942,9 @@
       <c r="IV51" t="n">
         <v>35</v>
       </c>
+      <c r="IW51" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40564,6 +40717,9 @@
       <c r="IV52" t="n">
         <v>42</v>
       </c>
+      <c r="IW52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41336,6 +41492,9 @@
       <c r="IV53" t="n">
         <v>62</v>
       </c>
+      <c r="IW53" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42108,6 +42267,9 @@
       <c r="IV54" t="n">
         <v>4</v>
       </c>
+      <c r="IW54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -42880,6 +43042,9 @@
       <c r="IV55" t="n">
         <v>8</v>
       </c>
+      <c r="IW55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43652,6 +43817,9 @@
       <c r="IV56" t="n">
         <v>66.7</v>
       </c>
+      <c r="IW56" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44424,6 +44592,9 @@
       <c r="IV57" t="n">
         <v>212</v>
       </c>
+      <c r="IW57" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -45196,6 +45367,9 @@
       <c r="IV58" t="n">
         <v>143</v>
       </c>
+      <c r="IW58" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45968,6 +46142,9 @@
       <c r="IV59" t="n">
         <v>355</v>
       </c>
+      <c r="IW59" t="n">
+        <v>386</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -46740,6 +46917,9 @@
       <c r="IV60" t="n">
         <v>1.48</v>
       </c>
+      <c r="IW60" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -47512,6 +47692,9 @@
       <c r="IV61" t="n">
         <v>65</v>
       </c>
+      <c r="IW61" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -48284,6 +48467,9 @@
       <c r="IV62" t="n">
         <v>59</v>
       </c>
+      <c r="IW62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -49056,6 +49242,9 @@
       <c r="IV63" t="n">
         <v>35</v>
       </c>
+      <c r="IW63" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -49828,6 +50017,9 @@
       <c r="IV64" t="n">
         <v>24</v>
       </c>
+      <c r="IW64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -50600,6 +50792,9 @@
       <c r="IV65" t="n">
         <v>20</v>
       </c>
+      <c r="IW65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -51372,6 +51567,9 @@
       <c r="IV66" t="n">
         <v>16</v>
       </c>
+      <c r="IW66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -52144,6 +52342,9 @@
       <c r="IV67" t="n">
         <v>12</v>
       </c>
+      <c r="IW67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -52916,6 +53117,9 @@
       <c r="IV68" t="n">
         <v>8</v>
       </c>
+      <c r="IW68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -53688,6 +53892,9 @@
       <c r="IV69" t="n">
         <v>3</v>
       </c>
+      <c r="IW69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -54460,6 +54667,9 @@
       <c r="IV70" t="n">
         <v>27</v>
       </c>
+      <c r="IW70" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -55232,6 +55442,9 @@
       <c r="IV71" t="n">
         <v>59.3</v>
       </c>
+      <c r="IW71" t="n">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -56004,6 +56217,9 @@
       <c r="IV72" t="n">
         <v>22.19</v>
       </c>
+      <c r="IW72" t="n">
+        <v>38.6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -56776,6 +56992,9 @@
       <c r="IV73" t="n">
         <v>13.15</v>
       </c>
+      <c r="IW73" t="n">
+        <v>16.08</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -57548,6 +57767,9 @@
       <c r="IV74" t="n">
         <v>39</v>
       </c>
+      <c r="IW74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -58320,6 +58542,9 @@
       <c r="IV75" t="n">
         <v>65</v>
       </c>
+      <c r="IW75" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -59092,6 +59317,9 @@
       <c r="IV76" t="n">
         <v>30</v>
       </c>
+      <c r="IW76" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -59864,6 +60092,9 @@
       <c r="IV77" t="n">
         <v>59</v>
       </c>
+      <c r="IW77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -60636,6 +60867,9 @@
       <c r="IV78" t="n">
         <v>2.19</v>
       </c>
+      <c r="IW78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -61408,6 +61642,9 @@
       <c r="IV79" t="n">
         <v>3.69</v>
       </c>
+      <c r="IW79" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -62180,6 +62417,9 @@
       <c r="IV80" t="n">
         <v>40.7</v>
       </c>
+      <c r="IW80" t="n">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -62952,6 +63192,9 @@
       <c r="IV81" t="n">
         <v>27.1</v>
       </c>
+      <c r="IW81" t="n">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -63724,6 +63967,9 @@
       <c r="IV82" t="n">
         <v>188.4</v>
       </c>
+      <c r="IW82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -64496,6 +64742,9 @@
       <c r="IV83" t="n">
         <v>87.2</v>
       </c>
+      <c r="IW83" t="n">
+        <v>85.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -65268,6 +65517,9 @@
       <c r="IV84" t="n">
         <v>24.74</v>
       </c>
+      <c r="IW84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -66040,6 +66292,9 @@
       <c r="IV85" t="n">
         <v>77.90000000000001</v>
       </c>
+      <c r="IW85" t="n">
+        <v>81.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -66812,6 +67067,9 @@
       <c r="IV86" t="n">
         <v>7</v>
       </c>
+      <c r="IW86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -67584,6 +67842,9 @@
       <c r="IV87" t="n">
         <v>8</v>
       </c>
+      <c r="IW87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -68356,6 +68617,9 @@
       <c r="IV88" t="n">
         <v>4</v>
       </c>
+      <c r="IW88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -69128,6 +69392,9 @@
       <c r="IV89" t="n">
         <v>3</v>
       </c>
+      <c r="IW89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -69900,6 +70167,9 @@
       <c r="IV90" t="n">
         <v>156</v>
       </c>
+      <c r="IW90" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -70672,6 +70942,9 @@
       <c r="IV91" t="n">
         <v>190</v>
       </c>
+      <c r="IW91" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -71444,6 +71717,9 @@
       <c r="IV92" t="n">
         <v>239</v>
       </c>
+      <c r="IW92" t="n">
+        <v>283</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -72216,6 +72492,9 @@
       <c r="IV93" t="n">
         <v>67.3</v>
       </c>
+      <c r="IW93" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -72988,6 +73267,9 @@
       <c r="IV94" t="n">
         <v>65</v>
       </c>
+      <c r="IW94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -73760,6 +74042,9 @@
       <c r="IV95" t="n">
         <v>8</v>
       </c>
+      <c r="IW95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -74532,6 +74817,9 @@
       <c r="IV96" t="n">
         <v>16</v>
       </c>
+      <c r="IW96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -75304,6 +75592,9 @@
       <c r="IV97" t="n">
         <v>39</v>
       </c>
+      <c r="IW97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -76076,6 +76367,9 @@
       <c r="IV98" t="n">
         <v>30</v>
       </c>
+      <c r="IW98" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -76848,6 +77142,9 @@
       <c r="IV99" t="n">
         <v>38</v>
       </c>
+      <c r="IW99" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -77620,6 +77917,9 @@
       <c r="IV100" t="n">
         <v>2</v>
       </c>
+      <c r="IW100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -78392,6 +78692,9 @@
       <c r="IV101" t="n">
         <v>12</v>
       </c>
+      <c r="IW101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -79164,6 +79467,9 @@
       <c r="IV102" t="n">
         <v>75</v>
       </c>
+      <c r="IW102" t="n">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IW102"/>
+  <dimension ref="A1:IX102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1195,6 +1195,9 @@
       <c r="IW1" t="n">
         <v>10559</v>
       </c>
+      <c r="IX1" t="n">
+        <v>10570</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1970,6 +1973,9 @@
       <c r="IW2" t="n">
         <v>2022</v>
       </c>
+      <c r="IX2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2745,6 +2751,9 @@
       <c r="IW3" t="n">
         <v>2</v>
       </c>
+      <c r="IX3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3520,6 +3529,9 @@
       <c r="IW4" t="n">
         <v>1</v>
       </c>
+      <c r="IX4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4295,6 +4307,9 @@
       <c r="IW5" t="n">
         <v>0</v>
       </c>
+      <c r="IX5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5070,6 +5085,9 @@
       <c r="IW6" t="n">
         <v>59</v>
       </c>
+      <c r="IX6" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5845,6 +5863,9 @@
       <c r="IW7" t="n">
         <v>74</v>
       </c>
+      <c r="IX7" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6620,6 +6641,9 @@
       <c r="IW8" t="n">
         <v>-15</v>
       </c>
+      <c r="IX8" t="n">
+        <v>-55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7395,6 +7419,9 @@
       <c r="IW9" t="n">
         <v>0</v>
       </c>
+      <c r="IX9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8170,6 +8197,9 @@
       <c r="IW10" t="n">
         <v>12</v>
       </c>
+      <c r="IX10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8945,6 +8975,9 @@
       <c r="IW11" t="n">
         <v>204</v>
       </c>
+      <c r="IX11" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9720,6 +9753,9 @@
       <c r="IW12" t="n">
         <v>99</v>
       </c>
+      <c r="IX12" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10495,6 +10531,9 @@
       <c r="IW13" t="n">
         <v>303</v>
       </c>
+      <c r="IX13" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11270,6 +11309,9 @@
       <c r="IW14" t="n">
         <v>2.06</v>
       </c>
+      <c r="IX14" t="n">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12045,6 +12087,9 @@
       <c r="IW15" t="n">
         <v>94</v>
       </c>
+      <c r="IX15" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12820,6 +12865,9 @@
       <c r="IW16" t="n">
         <v>64</v>
       </c>
+      <c r="IX16" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13595,6 +13643,9 @@
       <c r="IW17" t="n">
         <v>13</v>
       </c>
+      <c r="IX17" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14370,6 +14421,9 @@
       <c r="IW18" t="n">
         <v>21</v>
       </c>
+      <c r="IX18" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15145,6 +15199,9 @@
       <c r="IW19" t="n">
         <v>25</v>
       </c>
+      <c r="IX19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15920,6 +15977,9 @@
       <c r="IW20" t="n">
         <v>8</v>
       </c>
+      <c r="IX20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16695,6 +16755,9 @@
       <c r="IW21" t="n">
         <v>3</v>
       </c>
+      <c r="IX21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17470,6 +17533,9 @@
       <c r="IW22" t="n">
         <v>8</v>
       </c>
+      <c r="IX22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18245,6 +18311,9 @@
       <c r="IW23" t="n">
         <v>3</v>
       </c>
+      <c r="IX23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19020,6 +19089,9 @@
       <c r="IW24" t="n">
         <v>19</v>
       </c>
+      <c r="IX24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19795,6 +19867,9 @@
       <c r="IW25" t="n">
         <v>42.1</v>
       </c>
+      <c r="IX25" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20570,6 +20645,9 @@
       <c r="IW26" t="n">
         <v>37.88</v>
       </c>
+      <c r="IX26" t="n">
+        <v>44.71</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21345,6 +21423,9 @@
       <c r="IW27" t="n">
         <v>15.95</v>
       </c>
+      <c r="IX27" t="n">
+        <v>26.08</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22120,6 +22201,9 @@
       <c r="IW28" t="n">
         <v>34</v>
       </c>
+      <c r="IX28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22895,6 +22979,9 @@
       <c r="IW29" t="n">
         <v>63</v>
       </c>
+      <c r="IX29" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23670,6 +23757,9 @@
       <c r="IW30" t="n">
         <v>38</v>
       </c>
+      <c r="IX30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24445,6 +24535,9 @@
       <c r="IW31" t="n">
         <v>50</v>
       </c>
+      <c r="IX31" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25220,6 +25313,9 @@
       <c r="IW32" t="n">
         <v>2.63</v>
       </c>
+      <c r="IX32" t="n">
+        <v>3.83</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25995,6 +26091,9 @@
       <c r="IW33" t="n">
         <v>6.25</v>
       </c>
+      <c r="IX33" t="n">
+        <v>6.57</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26770,6 +26869,9 @@
       <c r="IW34" t="n">
         <v>32</v>
       </c>
+      <c r="IX34" t="n">
+        <v>21.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27545,6 +27647,9 @@
       <c r="IW35" t="n">
         <v>16</v>
       </c>
+      <c r="IX35" t="n">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28320,6 +28425,9 @@
       <c r="IW36" t="n">
         <v>186.1</v>
       </c>
+      <c r="IX36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29095,6 +29203,9 @@
       <c r="IW37" t="n">
         <v>83.40000000000001</v>
       </c>
+      <c r="IX37" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29870,6 +29981,9 @@
       <c r="IW38" t="n">
         <v>25.24</v>
       </c>
+      <c r="IX38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30645,6 +30759,9 @@
       <c r="IW39" t="n">
         <v>68</v>
       </c>
+      <c r="IX39" t="n">
+        <v>98.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31420,6 +31537,9 @@
       <c r="IW40" t="n">
         <v>14</v>
       </c>
+      <c r="IX40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32195,6 +32315,9 @@
       <c r="IW41" t="n">
         <v>4</v>
       </c>
+      <c r="IX41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32970,6 +33093,9 @@
       <c r="IW42" t="n">
         <v>1</v>
       </c>
+      <c r="IX42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33745,6 +33871,9 @@
       <c r="IW43" t="n">
         <v>4</v>
       </c>
+      <c r="IX43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34520,6 +34649,9 @@
       <c r="IW44" t="n">
         <v>114</v>
       </c>
+      <c r="IX44" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35295,6 +35427,9 @@
       <c r="IW45" t="n">
         <v>180</v>
       </c>
+      <c r="IX45" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36070,6 +36205,9 @@
       <c r="IW46" t="n">
         <v>210</v>
       </c>
+      <c r="IX46" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36845,6 +36983,9 @@
       <c r="IW47" t="n">
         <v>69.3</v>
       </c>
+      <c r="IX47" t="n">
+        <v>68.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37620,6 +37761,9 @@
       <c r="IW48" t="n">
         <v>63</v>
       </c>
+      <c r="IX48" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38395,6 +38539,9 @@
       <c r="IW49" t="n">
         <v>6</v>
       </c>
+      <c r="IX49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39170,6 +39317,9 @@
       <c r="IW50" t="n">
         <v>8</v>
       </c>
+      <c r="IX50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39945,6 +40095,9 @@
       <c r="IW51" t="n">
         <v>34</v>
       </c>
+      <c r="IX51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40720,6 +40873,9 @@
       <c r="IW52" t="n">
         <v>38</v>
       </c>
+      <c r="IX52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41495,6 +41651,9 @@
       <c r="IW53" t="n">
         <v>46</v>
       </c>
+      <c r="IX53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42270,6 +42429,9 @@
       <c r="IW54" t="n">
         <v>4</v>
       </c>
+      <c r="IX54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -43045,6 +43207,9 @@
       <c r="IW55" t="n">
         <v>3</v>
       </c>
+      <c r="IX55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43820,6 +43985,9 @@
       <c r="IW56" t="n">
         <v>37.5</v>
       </c>
+      <c r="IX56" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44595,6 +44763,9 @@
       <c r="IW57" t="n">
         <v>236</v>
       </c>
+      <c r="IX57" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -45370,6 +45541,9 @@
       <c r="IW58" t="n">
         <v>150</v>
       </c>
+      <c r="IX58" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -46145,6 +46319,9 @@
       <c r="IW59" t="n">
         <v>386</v>
       </c>
+      <c r="IX59" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -46920,6 +47097,9 @@
       <c r="IW60" t="n">
         <v>1.57</v>
       </c>
+      <c r="IX60" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -47695,6 +47875,9 @@
       <c r="IW61" t="n">
         <v>112</v>
       </c>
+      <c r="IX61" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -48470,6 +48653,9 @@
       <c r="IW62" t="n">
         <v>54</v>
       </c>
+      <c r="IX62" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -49245,6 +49431,9 @@
       <c r="IW63" t="n">
         <v>44</v>
       </c>
+      <c r="IX63" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -50020,6 +50209,9 @@
       <c r="IW64" t="n">
         <v>25</v>
       </c>
+      <c r="IX64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -50795,6 +50987,9 @@
       <c r="IW65" t="n">
         <v>21</v>
       </c>
+      <c r="IX65" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -51570,6 +51765,9 @@
       <c r="IW66" t="n">
         <v>10</v>
       </c>
+      <c r="IX66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -52345,6 +52543,9 @@
       <c r="IW67" t="n">
         <v>7</v>
       </c>
+      <c r="IX67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -53120,6 +53321,9 @@
       <c r="IW68" t="n">
         <v>10</v>
       </c>
+      <c r="IX68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -53895,6 +54099,9 @@
       <c r="IW69" t="n">
         <v>4</v>
       </c>
+      <c r="IX69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -54670,6 +54877,9 @@
       <c r="IW70" t="n">
         <v>24</v>
       </c>
+      <c r="IX70" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -55445,6 +55655,9 @@
       <c r="IW71" t="n">
         <v>41.7</v>
       </c>
+      <c r="IX71" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -56220,6 +56433,9 @@
       <c r="IW72" t="n">
         <v>38.6</v>
       </c>
+      <c r="IX72" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -56995,6 +57211,9 @@
       <c r="IW73" t="n">
         <v>16.08</v>
       </c>
+      <c r="IX73" t="n">
+        <v>13.89</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -57770,6 +57989,9 @@
       <c r="IW74" t="n">
         <v>34</v>
       </c>
+      <c r="IX74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -58545,6 +58767,9 @@
       <c r="IW75" t="n">
         <v>63</v>
       </c>
+      <c r="IX75" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -59320,6 +59545,9 @@
       <c r="IW76" t="n">
         <v>41</v>
       </c>
+      <c r="IX76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -60095,6 +60323,9 @@
       <c r="IW77" t="n">
         <v>48</v>
       </c>
+      <c r="IX77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -60870,6 +61101,9 @@
       <c r="IW78" t="n">
         <v>2</v>
       </c>
+      <c r="IX78" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -61645,6 +61879,9 @@
       <c r="IW79" t="n">
         <v>4.8</v>
       </c>
+      <c r="IX79" t="n">
+        <v>3.67</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -62420,6 +62657,9 @@
       <c r="IW80" t="n">
         <v>41.7</v>
       </c>
+      <c r="IX80" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -63195,6 +63435,9 @@
       <c r="IW81" t="n">
         <v>20.8</v>
       </c>
+      <c r="IX81" t="n">
+        <v>27.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -63970,6 +64213,9 @@
       <c r="IW82" t="n">
         <v>188.5</v>
       </c>
+      <c r="IX82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -64745,6 +64991,9 @@
       <c r="IW83" t="n">
         <v>85.2</v>
       </c>
+      <c r="IX83" t="n">
+        <v>86.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -65520,6 +65769,9 @@
       <c r="IW84" t="n">
         <v>25</v>
       </c>
+      <c r="IX84" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -66295,6 +66547,9 @@
       <c r="IW85" t="n">
         <v>81.09999999999999</v>
       </c>
+      <c r="IX85" t="n">
+        <v>61.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -67070,6 +67325,9 @@
       <c r="IW86" t="n">
         <v>10</v>
       </c>
+      <c r="IX86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -67845,6 +68103,9 @@
       <c r="IW87" t="n">
         <v>5</v>
       </c>
+      <c r="IX87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -68620,6 +68881,9 @@
       <c r="IW88" t="n">
         <v>6</v>
       </c>
+      <c r="IX88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -69395,6 +69659,9 @@
       <c r="IW89" t="n">
         <v>2</v>
       </c>
+      <c r="IX89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -70170,6 +70437,9 @@
       <c r="IW90" t="n">
         <v>141</v>
       </c>
+      <c r="IX90" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -70945,6 +71215,9 @@
       <c r="IW91" t="n">
         <v>247</v>
       </c>
+      <c r="IX91" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -71720,6 +71993,9 @@
       <c r="IW92" t="n">
         <v>283</v>
       </c>
+      <c r="IX92" t="n">
+        <v>283</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -72495,6 +72771,9 @@
       <c r="IW93" t="n">
         <v>73.3</v>
       </c>
+      <c r="IX93" t="n">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -73270,6 +73549,9 @@
       <c r="IW94" t="n">
         <v>63</v>
       </c>
+      <c r="IX94" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -74045,6 +74327,9 @@
       <c r="IW95" t="n">
         <v>13</v>
       </c>
+      <c r="IX95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -74820,6 +75105,9 @@
       <c r="IW96" t="n">
         <v>14</v>
       </c>
+      <c r="IX96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -75595,6 +75883,9 @@
       <c r="IW97" t="n">
         <v>34</v>
       </c>
+      <c r="IX97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -76370,6 +76661,9 @@
       <c r="IW98" t="n">
         <v>41</v>
       </c>
+      <c r="IX98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -77145,6 +77439,9 @@
       <c r="IW99" t="n">
         <v>48</v>
       </c>
+      <c r="IX99" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -77920,6 +78217,9 @@
       <c r="IW100" t="n">
         <v>4</v>
       </c>
+      <c r="IX100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -78695,6 +78995,9 @@
       <c r="IW101" t="n">
         <v>7</v>
       </c>
+      <c r="IX101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -79470,6 +79773,9 @@
       <c r="IW102" t="n">
         <v>70</v>
       </c>
+      <c r="IX102" t="n">
+        <v>73.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IX102"/>
+  <dimension ref="A1:IY102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,6 +1198,9 @@
       <c r="IX1" t="n">
         <v>10570</v>
       </c>
+      <c r="IY1" t="n">
+        <v>10574</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1976,6 +1979,9 @@
       <c r="IX2" t="n">
         <v>2022</v>
       </c>
+      <c r="IY2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2754,6 +2760,9 @@
       <c r="IX3" t="n">
         <v>3</v>
       </c>
+      <c r="IY3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3532,6 +3541,9 @@
       <c r="IX4" t="n">
         <v>0</v>
       </c>
+      <c r="IY4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4310,6 +4322,9 @@
       <c r="IX5" t="n">
         <v>1</v>
       </c>
+      <c r="IY5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5088,6 +5103,9 @@
       <c r="IX6" t="n">
         <v>47</v>
       </c>
+      <c r="IY6" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5866,6 +5884,9 @@
       <c r="IX7" t="n">
         <v>102</v>
       </c>
+      <c r="IY7" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6644,6 +6665,9 @@
       <c r="IX8" t="n">
         <v>-55</v>
       </c>
+      <c r="IY8" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7422,6 +7446,9 @@
       <c r="IX9" t="n">
         <v>0</v>
       </c>
+      <c r="IY9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8200,6 +8227,9 @@
       <c r="IX10" t="n">
         <v>6</v>
       </c>
+      <c r="IY10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8978,6 +9008,9 @@
       <c r="IX11" t="n">
         <v>201</v>
       </c>
+      <c r="IY11" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9756,6 +9789,9 @@
       <c r="IX12" t="n">
         <v>112</v>
       </c>
+      <c r="IY12" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10534,6 +10570,9 @@
       <c r="IX13" t="n">
         <v>313</v>
       </c>
+      <c r="IY13" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11312,6 +11351,9 @@
       <c r="IX14" t="n">
         <v>1.79</v>
       </c>
+      <c r="IY14" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12090,6 +12132,9 @@
       <c r="IX15" t="n">
         <v>86</v>
       </c>
+      <c r="IY15" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12868,6 +12913,9 @@
       <c r="IX16" t="n">
         <v>55</v>
       </c>
+      <c r="IY16" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13646,6 +13694,9 @@
       <c r="IX17" t="n">
         <v>41</v>
       </c>
+      <c r="IY17" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14424,6 +14475,9 @@
       <c r="IX18" t="n">
         <v>29</v>
       </c>
+      <c r="IY18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15202,6 +15256,9 @@
       <c r="IX19" t="n">
         <v>22</v>
       </c>
+      <c r="IY19" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15980,6 +16037,9 @@
       <c r="IX20" t="n">
         <v>7</v>
       </c>
+      <c r="IY20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16758,6 +16818,9 @@
       <c r="IX21" t="n">
         <v>3</v>
       </c>
+      <c r="IY21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17536,6 +17599,9 @@
       <c r="IX22" t="n">
         <v>3</v>
       </c>
+      <c r="IY22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18314,6 +18380,9 @@
       <c r="IX23" t="n">
         <v>2</v>
       </c>
+      <c r="IY23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19092,6 +19161,9 @@
       <c r="IX24" t="n">
         <v>12</v>
       </c>
+      <c r="IY24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19870,6 +19942,9 @@
       <c r="IX25" t="n">
         <v>58.3</v>
       </c>
+      <c r="IY25" t="n">
+        <v>82.40000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20648,6 +20723,9 @@
       <c r="IX26" t="n">
         <v>44.71</v>
       </c>
+      <c r="IY26" t="n">
+        <v>24.14</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21426,6 +21504,9 @@
       <c r="IX27" t="n">
         <v>26.08</v>
       </c>
+      <c r="IY27" t="n">
+        <v>19.88</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22204,6 +22285,9 @@
       <c r="IX28" t="n">
         <v>29</v>
       </c>
+      <c r="IY28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22982,6 +23066,9 @@
       <c r="IX29" t="n">
         <v>62</v>
       </c>
+      <c r="IY29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23760,6 +23847,9 @@
       <c r="IX30" t="n">
         <v>39</v>
       </c>
+      <c r="IY30" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24538,6 +24628,9 @@
       <c r="IX31" t="n">
         <v>46</v>
       </c>
+      <c r="IY31" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25316,6 +25409,9 @@
       <c r="IX32" t="n">
         <v>3.83</v>
       </c>
+      <c r="IY32" t="n">
+        <v>2.47</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26094,6 +26190,9 @@
       <c r="IX33" t="n">
         <v>6.57</v>
       </c>
+      <c r="IY33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26872,6 +26971,9 @@
       <c r="IX34" t="n">
         <v>21.7</v>
       </c>
+      <c r="IY34" t="n">
+        <v>38.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27650,6 +27752,9 @@
       <c r="IX35" t="n">
         <v>15.2</v>
       </c>
+      <c r="IY35" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28428,6 +28533,9 @@
       <c r="IX36" t="n">
         <v>188.3</v>
       </c>
+      <c r="IY36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29206,6 +29314,9 @@
       <c r="IX37" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="IY37" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29984,6 +30095,9 @@
       <c r="IX38" t="n">
         <v>25.8</v>
       </c>
+      <c r="IY38" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30762,6 +30876,9 @@
       <c r="IX39" t="n">
         <v>98.3</v>
       </c>
+      <c r="IY39" t="n">
+        <v>93.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31540,6 +31657,9 @@
       <c r="IX40" t="n">
         <v>11</v>
       </c>
+      <c r="IY40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32318,6 +32438,9 @@
       <c r="IX41" t="n">
         <v>5</v>
       </c>
+      <c r="IY41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33096,6 +33219,9 @@
       <c r="IX42" t="n">
         <v>0</v>
       </c>
+      <c r="IY42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33874,6 +34000,9 @@
       <c r="IX43" t="n">
         <v>7</v>
       </c>
+      <c r="IY43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34652,6 +34781,9 @@
       <c r="IX44" t="n">
         <v>133</v>
       </c>
+      <c r="IY44" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35430,6 +35562,9 @@
       <c r="IX45" t="n">
         <v>183</v>
       </c>
+      <c r="IY45" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36208,6 +36343,9 @@
       <c r="IX46" t="n">
         <v>215</v>
       </c>
+      <c r="IY46" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36986,6 +37124,9 @@
       <c r="IX47" t="n">
         <v>68.7</v>
       </c>
+      <c r="IY47" t="n">
+        <v>72.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37764,6 +37905,9 @@
       <c r="IX48" t="n">
         <v>62</v>
       </c>
+      <c r="IY48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38542,6 +38686,9 @@
       <c r="IX49" t="n">
         <v>15</v>
       </c>
+      <c r="IY49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39320,6 +39467,9 @@
       <c r="IX50" t="n">
         <v>6</v>
       </c>
+      <c r="IY50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -40098,6 +40248,9 @@
       <c r="IX51" t="n">
         <v>29</v>
       </c>
+      <c r="IY51" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40876,6 +41029,9 @@
       <c r="IX52" t="n">
         <v>39</v>
       </c>
+      <c r="IY52" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41654,6 +41810,9 @@
       <c r="IX53" t="n">
         <v>51</v>
       </c>
+      <c r="IY53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42432,6 +42591,9 @@
       <c r="IX54" t="n">
         <v>1</v>
       </c>
+      <c r="IY54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -43210,6 +43372,9 @@
       <c r="IX55" t="n">
         <v>3</v>
       </c>
+      <c r="IY55" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43988,6 +44153,9 @@
       <c r="IX56" t="n">
         <v>42.9</v>
       </c>
+      <c r="IY56" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44766,6 +44934,9 @@
       <c r="IX57" t="n">
         <v>238</v>
       </c>
+      <c r="IY57" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -45544,6 +45715,9 @@
       <c r="IX58" t="n">
         <v>137</v>
       </c>
+      <c r="IY58" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -46322,6 +46496,9 @@
       <c r="IX59" t="n">
         <v>375</v>
       </c>
+      <c r="IY59" t="n">
+        <v>352</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -47100,6 +47277,9 @@
       <c r="IX60" t="n">
         <v>1.74</v>
       </c>
+      <c r="IY60" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -47878,6 +48058,9 @@
       <c r="IX61" t="n">
         <v>116</v>
       </c>
+      <c r="IY61" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -48656,6 +48839,9 @@
       <c r="IX62" t="n">
         <v>52</v>
       </c>
+      <c r="IY62" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -49434,6 +49620,9 @@
       <c r="IX63" t="n">
         <v>18</v>
       </c>
+      <c r="IY63" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -50212,6 +50401,9 @@
       <c r="IX64" t="n">
         <v>22</v>
       </c>
+      <c r="IY64" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -50990,6 +51182,9 @@
       <c r="IX65" t="n">
         <v>29</v>
       </c>
+      <c r="IY65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -51768,6 +51963,9 @@
       <c r="IX66" t="n">
         <v>15</v>
       </c>
+      <c r="IY66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -52546,6 +52744,9 @@
       <c r="IX67" t="n">
         <v>11</v>
       </c>
+      <c r="IY67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -53324,6 +53525,9 @@
       <c r="IX68" t="n">
         <v>10</v>
       </c>
+      <c r="IY68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -54102,6 +54306,9 @@
       <c r="IX69" t="n">
         <v>2</v>
       </c>
+      <c r="IY69" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -54880,6 +55087,9 @@
       <c r="IX70" t="n">
         <v>27</v>
       </c>
+      <c r="IY70" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -55658,6 +55868,9 @@
       <c r="IX71" t="n">
         <v>55.6</v>
       </c>
+      <c r="IY71" t="n">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -56436,6 +56649,9 @@
       <c r="IX72" t="n">
         <v>25</v>
       </c>
+      <c r="IY72" t="n">
+        <v>35.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -57214,6 +57430,9 @@
       <c r="IX73" t="n">
         <v>13.89</v>
       </c>
+      <c r="IY73" t="n">
+        <v>14.67</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -57992,6 +58211,9 @@
       <c r="IX74" t="n">
         <v>36</v>
       </c>
+      <c r="IY74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -58770,6 +58992,9 @@
       <c r="IX75" t="n">
         <v>69</v>
       </c>
+      <c r="IY75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -59548,6 +59773,9 @@
       <c r="IX76" t="n">
         <v>38</v>
       </c>
+      <c r="IY76" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -60326,6 +60554,9 @@
       <c r="IX77" t="n">
         <v>55</v>
       </c>
+      <c r="IY77" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -61104,6 +61335,9 @@
       <c r="IX78" t="n">
         <v>2.04</v>
       </c>
+      <c r="IY78" t="n">
+        <v>2.54</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -61882,6 +62116,9 @@
       <c r="IX79" t="n">
         <v>3.67</v>
       </c>
+      <c r="IY79" t="n">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -62660,6 +62897,9 @@
       <c r="IX80" t="n">
         <v>45.5</v>
       </c>
+      <c r="IY80" t="n">
+        <v>31.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -63438,6 +63678,9 @@
       <c r="IX81" t="n">
         <v>27.3</v>
       </c>
+      <c r="IY81" t="n">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -64216,6 +64459,9 @@
       <c r="IX82" t="n">
         <v>188.3</v>
       </c>
+      <c r="IY82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -64994,6 +65240,9 @@
       <c r="IX83" t="n">
         <v>86.40000000000001</v>
       </c>
+      <c r="IY83" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -65772,6 +66021,9 @@
       <c r="IX84" t="n">
         <v>24.33</v>
       </c>
+      <c r="IY84" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -66550,6 +66802,9 @@
       <c r="IX85" t="n">
         <v>61.3</v>
       </c>
+      <c r="IY85" t="n">
+        <v>94.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -67328,6 +67583,9 @@
       <c r="IX86" t="n">
         <v>12</v>
       </c>
+      <c r="IY86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -68106,6 +68364,9 @@
       <c r="IX87" t="n">
         <v>5</v>
       </c>
+      <c r="IY87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -68884,6 +69145,9 @@
       <c r="IX88" t="n">
         <v>5</v>
       </c>
+      <c r="IY88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -69662,6 +69926,9 @@
       <c r="IX89" t="n">
         <v>1</v>
       </c>
+      <c r="IY89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -70440,6 +70707,9 @@
       <c r="IX90" t="n">
         <v>126</v>
       </c>
+      <c r="IY90" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -71218,6 +71488,9 @@
       <c r="IX91" t="n">
         <v>248</v>
       </c>
+      <c r="IY91" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -71996,6 +72269,9 @@
       <c r="IX92" t="n">
         <v>283</v>
       </c>
+      <c r="IY92" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -72774,6 +73050,9 @@
       <c r="IX93" t="n">
         <v>75.5</v>
       </c>
+      <c r="IY93" t="n">
+        <v>74.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -73552,6 +73831,9 @@
       <c r="IX94" t="n">
         <v>69</v>
       </c>
+      <c r="IY94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -74330,6 +74612,9 @@
       <c r="IX95" t="n">
         <v>7</v>
       </c>
+      <c r="IY95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -75108,6 +75393,9 @@
       <c r="IX96" t="n">
         <v>15</v>
       </c>
+      <c r="IY96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -75886,6 +76174,9 @@
       <c r="IX97" t="n">
         <v>36</v>
       </c>
+      <c r="IY97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -76664,6 +76955,9 @@
       <c r="IX98" t="n">
         <v>38</v>
       </c>
+      <c r="IY98" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -77442,6 +77736,9 @@
       <c r="IX99" t="n">
         <v>61</v>
       </c>
+      <c r="IY99" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -78220,6 +78517,9 @@
       <c r="IX100" t="n">
         <v>5</v>
       </c>
+      <c r="IY100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -78998,6 +79298,9 @@
       <c r="IX101" t="n">
         <v>11</v>
       </c>
+      <c r="IY101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -79776,6 +80079,9 @@
       <c r="IX102" t="n">
         <v>73.3</v>
       </c>
+      <c r="IY102" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IY102"/>
+  <dimension ref="A1:IZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1201,6 +1201,9 @@
       <c r="IY1" t="n">
         <v>10574</v>
       </c>
+      <c r="IZ1" t="n">
+        <v>10582</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1982,6 +1985,9 @@
       <c r="IY2" t="n">
         <v>2022</v>
       </c>
+      <c r="IZ2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2763,6 +2769,9 @@
       <c r="IY3" t="n">
         <v>4</v>
       </c>
+      <c r="IZ3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3544,6 +3553,9 @@
       <c r="IY4" t="n">
         <v>1</v>
       </c>
+      <c r="IZ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4325,6 +4337,9 @@
       <c r="IY5" t="n">
         <v>1</v>
       </c>
+      <c r="IZ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5106,6 +5121,9 @@
       <c r="IY6" t="n">
         <v>87</v>
       </c>
+      <c r="IZ6" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5887,6 +5905,9 @@
       <c r="IY7" t="n">
         <v>74</v>
       </c>
+      <c r="IZ7" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6668,6 +6689,9 @@
       <c r="IY8" t="n">
         <v>13</v>
       </c>
+      <c r="IZ8" t="n">
+        <v>-63</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7449,6 +7473,9 @@
       <c r="IY9" t="n">
         <v>1</v>
       </c>
+      <c r="IZ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8230,6 +8257,9 @@
       <c r="IY10" t="n">
         <v>4</v>
       </c>
+      <c r="IZ10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9011,6 +9041,9 @@
       <c r="IY11" t="n">
         <v>214</v>
       </c>
+      <c r="IZ11" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9792,6 +9825,9 @@
       <c r="IY12" t="n">
         <v>124</v>
       </c>
+      <c r="IZ12" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10573,6 +10609,9 @@
       <c r="IY13" t="n">
         <v>338</v>
       </c>
+      <c r="IZ13" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11354,6 +11393,9 @@
       <c r="IY14" t="n">
         <v>1.73</v>
       </c>
+      <c r="IZ14" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12135,6 +12177,9 @@
       <c r="IY15" t="n">
         <v>99</v>
       </c>
+      <c r="IZ15" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12916,6 +12961,9 @@
       <c r="IY16" t="n">
         <v>41</v>
       </c>
+      <c r="IZ16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13697,6 +13745,9 @@
       <c r="IY17" t="n">
         <v>31</v>
       </c>
+      <c r="IZ17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14478,6 +14529,9 @@
       <c r="IY18" t="n">
         <v>21</v>
       </c>
+      <c r="IZ18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15259,6 +15313,9 @@
       <c r="IY19" t="n">
         <v>28</v>
       </c>
+      <c r="IZ19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16040,6 +16097,9 @@
       <c r="IY20" t="n">
         <v>14</v>
       </c>
+      <c r="IZ20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16821,6 +16881,9 @@
       <c r="IY21" t="n">
         <v>12</v>
       </c>
+      <c r="IZ21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17602,6 +17665,9 @@
       <c r="IY22" t="n">
         <v>2</v>
       </c>
+      <c r="IZ22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18383,6 +18449,9 @@
       <c r="IY23" t="n">
         <v>1</v>
       </c>
+      <c r="IZ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19164,6 +19233,9 @@
       <c r="IY24" t="n">
         <v>17</v>
       </c>
+      <c r="IZ24" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19945,6 +20017,9 @@
       <c r="IY25" t="n">
         <v>82.40000000000001</v>
       </c>
+      <c r="IZ25" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20726,6 +20801,9 @@
       <c r="IY26" t="n">
         <v>24.14</v>
       </c>
+      <c r="IZ26" t="n">
+        <v>34.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21507,6 +21585,9 @@
       <c r="IY27" t="n">
         <v>19.88</v>
       </c>
+      <c r="IZ27" t="n">
+        <v>24.08</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22288,6 +22369,9 @@
       <c r="IY28" t="n">
         <v>34</v>
       </c>
+      <c r="IZ28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23069,6 +23153,9 @@
       <c r="IY29" t="n">
         <v>63</v>
       </c>
+      <c r="IZ29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23850,6 +23937,9 @@
       <c r="IY30" t="n">
         <v>51</v>
       </c>
+      <c r="IZ30" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24631,6 +24721,9 @@
       <c r="IY31" t="n">
         <v>42</v>
       </c>
+      <c r="IZ31" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25412,6 +25505,9 @@
       <c r="IY32" t="n">
         <v>2.47</v>
       </c>
+      <c r="IZ32" t="n">
+        <v>2.23</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26193,6 +26289,9 @@
       <c r="IY33" t="n">
         <v>3</v>
       </c>
+      <c r="IZ33" t="n">
+        <v>3.22</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26974,6 +27073,9 @@
       <c r="IY34" t="n">
         <v>38.1</v>
       </c>
+      <c r="IZ34" t="n">
+        <v>44.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27755,6 +27857,9 @@
       <c r="IY35" t="n">
         <v>33.3</v>
       </c>
+      <c r="IZ35" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28536,6 +28641,9 @@
       <c r="IY36" t="n">
         <v>187.9</v>
       </c>
+      <c r="IZ36" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29317,6 +29425,9 @@
       <c r="IY37" t="n">
         <v>86.3</v>
       </c>
+      <c r="IZ37" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30098,6 +30209,9 @@
       <c r="IY38" t="n">
         <v>25.91</v>
       </c>
+      <c r="IZ38" t="n">
+        <v>26.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30879,6 +30993,9 @@
       <c r="IY39" t="n">
         <v>93.8</v>
       </c>
+      <c r="IZ39" t="n">
+        <v>110.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31660,6 +31777,9 @@
       <c r="IY40" t="n">
         <v>10</v>
       </c>
+      <c r="IZ40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32441,6 +32561,9 @@
       <c r="IY41" t="n">
         <v>5</v>
       </c>
+      <c r="IZ41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33222,6 +33345,9 @@
       <c r="IY42" t="n">
         <v>2</v>
       </c>
+      <c r="IZ42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34003,6 +34129,9 @@
       <c r="IY43" t="n">
         <v>6</v>
       </c>
+      <c r="IZ43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34784,6 +34913,9 @@
       <c r="IY44" t="n">
         <v>136</v>
       </c>
+      <c r="IZ44" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35565,6 +35697,9 @@
       <c r="IY45" t="n">
         <v>206</v>
       </c>
+      <c r="IZ45" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36346,6 +36481,9 @@
       <c r="IY46" t="n">
         <v>246</v>
       </c>
+      <c r="IZ46" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -37127,6 +37265,9 @@
       <c r="IY47" t="n">
         <v>72.8</v>
       </c>
+      <c r="IZ47" t="n">
+        <v>77.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37908,6 +38049,9 @@
       <c r="IY48" t="n">
         <v>63</v>
       </c>
+      <c r="IZ48" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38689,6 +38833,9 @@
       <c r="IY49" t="n">
         <v>8</v>
       </c>
+      <c r="IZ49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39470,6 +39617,9 @@
       <c r="IY50" t="n">
         <v>12</v>
       </c>
+      <c r="IZ50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -40251,6 +40401,9 @@
       <c r="IY51" t="n">
         <v>34</v>
       </c>
+      <c r="IZ51" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -41032,6 +41185,9 @@
       <c r="IY52" t="n">
         <v>51</v>
       </c>
+      <c r="IZ52" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41813,6 +41969,9 @@
       <c r="IY53" t="n">
         <v>47</v>
       </c>
+      <c r="IZ53" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42594,6 +42753,9 @@
       <c r="IY54" t="n">
         <v>1</v>
       </c>
+      <c r="IZ54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -43375,6 +43537,9 @@
       <c r="IY55" t="n">
         <v>12</v>
       </c>
+      <c r="IZ55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -44156,6 +44321,9 @@
       <c r="IY56" t="n">
         <v>85.7</v>
       </c>
+      <c r="IZ56" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44937,6 +45105,9 @@
       <c r="IY57" t="n">
         <v>206</v>
       </c>
+      <c r="IZ57" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -45718,6 +45889,9 @@
       <c r="IY58" t="n">
         <v>146</v>
       </c>
+      <c r="IZ58" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -46499,6 +46673,9 @@
       <c r="IY59" t="n">
         <v>352</v>
       </c>
+      <c r="IZ59" t="n">
+        <v>385</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -47280,6 +47457,9 @@
       <c r="IY60" t="n">
         <v>1.41</v>
       </c>
+      <c r="IZ60" t="n">
+        <v>1.71</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -48061,6 +48241,9 @@
       <c r="IY61" t="n">
         <v>88</v>
       </c>
+      <c r="IZ61" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -48842,6 +49025,9 @@
       <c r="IY62" t="n">
         <v>68</v>
       </c>
+      <c r="IZ62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -49623,6 +49809,9 @@
       <c r="IY63" t="n">
         <v>34</v>
       </c>
+      <c r="IZ63" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -50404,6 +50593,9 @@
       <c r="IY64" t="n">
         <v>28</v>
       </c>
+      <c r="IZ64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -51185,6 +51377,9 @@
       <c r="IY65" t="n">
         <v>21</v>
       </c>
+      <c r="IZ65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -51966,6 +52161,9 @@
       <c r="IY66" t="n">
         <v>10</v>
       </c>
+      <c r="IZ66" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -52747,6 +52945,9 @@
       <c r="IY67" t="n">
         <v>6</v>
       </c>
+      <c r="IZ67" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -53528,6 +53729,9 @@
       <c r="IY68" t="n">
         <v>9</v>
       </c>
+      <c r="IZ68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -54309,6 +54513,9 @@
       <c r="IY69" t="n">
         <v>5</v>
       </c>
+      <c r="IZ69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -55090,6 +55297,9 @@
       <c r="IY70" t="n">
         <v>24</v>
       </c>
+      <c r="IZ70" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -55871,6 +56081,9 @@
       <c r="IY71" t="n">
         <v>41.7</v>
       </c>
+      <c r="IZ71" t="n">
+        <v>58.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -56652,6 +56865,9 @@
       <c r="IY72" t="n">
         <v>35.2</v>
       </c>
+      <c r="IZ72" t="n">
+        <v>21.39</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -57433,6 +57649,9 @@
       <c r="IY73" t="n">
         <v>14.67</v>
       </c>
+      <c r="IZ73" t="n">
+        <v>12.42</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -58214,6 +58433,9 @@
       <c r="IY74" t="n">
         <v>35</v>
       </c>
+      <c r="IZ74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -58995,6 +59217,9 @@
       <c r="IY75" t="n">
         <v>59</v>
       </c>
+      <c r="IZ75" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -59776,6 +60001,9 @@
       <c r="IY76" t="n">
         <v>27</v>
       </c>
+      <c r="IZ76" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -60557,6 +60785,9 @@
       <c r="IY77" t="n">
         <v>61</v>
       </c>
+      <c r="IZ77" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -61338,6 +61569,9 @@
       <c r="IY78" t="n">
         <v>2.54</v>
       </c>
+      <c r="IZ78" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -62119,6 +62353,9 @@
       <c r="IY79" t="n">
         <v>6.1</v>
       </c>
+      <c r="IZ79" t="n">
+        <v>3.61</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -62900,6 +63137,9 @@
       <c r="IY80" t="n">
         <v>31.1</v>
       </c>
+      <c r="IZ80" t="n">
+        <v>44.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -63681,6 +63921,9 @@
       <c r="IY81" t="n">
         <v>16.4</v>
       </c>
+      <c r="IZ81" t="n">
+        <v>27.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -64462,6 +64705,9 @@
       <c r="IY82" t="n">
         <v>188.5</v>
       </c>
+      <c r="IZ82" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -65243,6 +65489,9 @@
       <c r="IY83" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="IZ83" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -66024,6 +66273,9 @@
       <c r="IY84" t="n">
         <v>25.66</v>
       </c>
+      <c r="IZ84" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -66805,6 +67057,9 @@
       <c r="IY85" t="n">
         <v>94.59999999999999</v>
       </c>
+      <c r="IZ85" t="n">
+        <v>82.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -67586,6 +67841,9 @@
       <c r="IY86" t="n">
         <v>10</v>
       </c>
+      <c r="IZ86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -68367,6 +68625,9 @@
       <c r="IY87" t="n">
         <v>4</v>
       </c>
+      <c r="IZ87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -69148,6 +69409,9 @@
       <c r="IY88" t="n">
         <v>3</v>
       </c>
+      <c r="IZ88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -69929,6 +70193,9 @@
       <c r="IY89" t="n">
         <v>6</v>
       </c>
+      <c r="IZ89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -70710,6 +70977,9 @@
       <c r="IY90" t="n">
         <v>129</v>
       </c>
+      <c r="IZ90" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -71491,6 +71761,9 @@
       <c r="IY91" t="n">
         <v>223</v>
       </c>
+      <c r="IZ91" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -72272,6 +72545,9 @@
       <c r="IY92" t="n">
         <v>261</v>
       </c>
+      <c r="IZ92" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -73053,6 +73329,9 @@
       <c r="IY93" t="n">
         <v>74.09999999999999</v>
       </c>
+      <c r="IZ93" t="n">
+        <v>74.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -73834,6 +74113,9 @@
       <c r="IY94" t="n">
         <v>59</v>
       </c>
+      <c r="IZ94" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -74615,6 +74897,9 @@
       <c r="IY95" t="n">
         <v>14</v>
       </c>
+      <c r="IZ95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -75396,6 +75681,9 @@
       <c r="IY96" t="n">
         <v>13</v>
       </c>
+      <c r="IZ96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -76177,6 +76465,9 @@
       <c r="IY97" t="n">
         <v>35</v>
       </c>
+      <c r="IZ97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -76958,6 +77249,9 @@
       <c r="IY98" t="n">
         <v>27</v>
       </c>
+      <c r="IZ98" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -77739,6 +78033,9 @@
       <c r="IY99" t="n">
         <v>45</v>
       </c>
+      <c r="IZ99" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -78520,6 +78817,9 @@
       <c r="IY100" t="n">
         <v>0</v>
       </c>
+      <c r="IZ100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -79301,6 +79601,9 @@
       <c r="IY101" t="n">
         <v>6</v>
       </c>
+      <c r="IZ101" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -80082,6 +80385,9 @@
       <c r="IY102" t="n">
         <v>60</v>
       </c>
+      <c r="IZ102" t="n">
+        <v>77.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IZ102"/>
+  <dimension ref="A1:JA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,6 +1204,9 @@
       <c r="IZ1" t="n">
         <v>10582</v>
       </c>
+      <c r="JA1" t="n">
+        <v>10591</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1988,6 +1991,9 @@
       <c r="IZ2" t="n">
         <v>2022</v>
       </c>
+      <c r="JA2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2772,6 +2778,9 @@
       <c r="IZ3" t="n">
         <v>5</v>
       </c>
+      <c r="JA3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3556,6 +3565,9 @@
       <c r="IZ4" t="n">
         <v>0</v>
       </c>
+      <c r="JA4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4340,6 +4352,9 @@
       <c r="IZ5" t="n">
         <v>1</v>
       </c>
+      <c r="JA5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5124,6 +5139,9 @@
       <c r="IZ6" t="n">
         <v>58</v>
       </c>
+      <c r="JA6" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5908,6 +5926,9 @@
       <c r="IZ7" t="n">
         <v>121</v>
       </c>
+      <c r="JA7" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6692,6 +6713,9 @@
       <c r="IZ8" t="n">
         <v>-63</v>
       </c>
+      <c r="JA8" t="n">
+        <v>-84</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7476,6 +7500,9 @@
       <c r="IZ9" t="n">
         <v>0</v>
       </c>
+      <c r="JA9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8260,6 +8287,9 @@
       <c r="IZ10" t="n">
         <v>16</v>
       </c>
+      <c r="JA10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9044,6 +9074,9 @@
       <c r="IZ11" t="n">
         <v>199</v>
       </c>
+      <c r="JA11" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9828,6 +9861,9 @@
       <c r="IZ12" t="n">
         <v>114</v>
       </c>
+      <c r="JA12" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10612,6 +10648,9 @@
       <c r="IZ13" t="n">
         <v>313</v>
       </c>
+      <c r="JA13" t="n">
+        <v>327</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11396,6 +11435,9 @@
       <c r="IZ14" t="n">
         <v>1.75</v>
       </c>
+      <c r="JA14" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12180,6 +12222,9 @@
       <c r="IZ15" t="n">
         <v>89</v>
       </c>
+      <c r="JA15" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12964,6 +13009,9 @@
       <c r="IZ16" t="n">
         <v>57</v>
       </c>
+      <c r="JA16" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13748,6 +13796,9 @@
       <c r="IZ17" t="n">
         <v>25</v>
       </c>
+      <c r="JA17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14532,6 +14583,9 @@
       <c r="IZ18" t="n">
         <v>19</v>
       </c>
+      <c r="JA18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15316,6 +15370,9 @@
       <c r="IZ19" t="n">
         <v>20</v>
       </c>
+      <c r="JA19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16100,6 +16157,9 @@
       <c r="IZ20" t="n">
         <v>9</v>
       </c>
+      <c r="JA20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16884,6 +16944,9 @@
       <c r="IZ21" t="n">
         <v>3</v>
       </c>
+      <c r="JA21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17668,6 +17731,9 @@
       <c r="IZ22" t="n">
         <v>4</v>
       </c>
+      <c r="JA22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18452,6 +18518,9 @@
       <c r="IZ23" t="n">
         <v>0</v>
       </c>
+      <c r="JA23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19236,6 +19305,9 @@
       <c r="IZ24" t="n">
         <v>13</v>
       </c>
+      <c r="JA24" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20020,6 +20092,9 @@
       <c r="IZ25" t="n">
         <v>69.2</v>
       </c>
+      <c r="JA25" t="n">
+        <v>30.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20804,6 +20879,9 @@
       <c r="IZ26" t="n">
         <v>34.78</v>
       </c>
+      <c r="JA26" t="n">
+        <v>81.75</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21588,6 +21666,9 @@
       <c r="IZ27" t="n">
         <v>24.08</v>
       </c>
+      <c r="JA27" t="n">
+        <v>25.15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22372,6 +22453,9 @@
       <c r="IZ28" t="n">
         <v>27</v>
       </c>
+      <c r="JA28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23156,6 +23240,9 @@
       <c r="IZ29" t="n">
         <v>54</v>
       </c>
+      <c r="JA29" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23940,6 +24027,9 @@
       <c r="IZ30" t="n">
         <v>47</v>
       </c>
+      <c r="JA30" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24724,6 +24814,9 @@
       <c r="IZ31" t="n">
         <v>29</v>
       </c>
+      <c r="JA31" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25508,6 +25601,9 @@
       <c r="IZ32" t="n">
         <v>2.23</v>
       </c>
+      <c r="JA32" t="n">
+        <v>2.62</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26292,6 +26388,9 @@
       <c r="IZ33" t="n">
         <v>3.22</v>
       </c>
+      <c r="JA33" t="n">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27076,6 +27175,9 @@
       <c r="IZ34" t="n">
         <v>44.8</v>
       </c>
+      <c r="JA34" t="n">
+        <v>35.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27860,6 +27962,9 @@
       <c r="IZ35" t="n">
         <v>31</v>
       </c>
+      <c r="JA35" t="n">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28644,6 +28749,9 @@
       <c r="IZ36" t="n">
         <v>187.5</v>
       </c>
+      <c r="JA36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29428,6 +29536,9 @@
       <c r="IZ37" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="JA37" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30212,6 +30323,9 @@
       <c r="IZ38" t="n">
         <v>26.74</v>
       </c>
+      <c r="JA38" t="n">
+        <v>26.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30996,6 +31110,9 @@
       <c r="IZ39" t="n">
         <v>110.5</v>
       </c>
+      <c r="JA39" t="n">
+        <v>107.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31780,6 +31897,9 @@
       <c r="IZ40" t="n">
         <v>8</v>
       </c>
+      <c r="JA40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32564,6 +32684,9 @@
       <c r="IZ41" t="n">
         <v>5</v>
       </c>
+      <c r="JA41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33348,6 +33471,9 @@
       <c r="IZ42" t="n">
         <v>2</v>
       </c>
+      <c r="JA42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34132,6 +34258,9 @@
       <c r="IZ43" t="n">
         <v>7</v>
       </c>
+      <c r="JA43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34916,6 +35045,9 @@
       <c r="IZ44" t="n">
         <v>111</v>
       </c>
+      <c r="JA44" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35700,6 +35832,9 @@
       <c r="IZ45" t="n">
         <v>194</v>
       </c>
+      <c r="JA45" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36484,6 +36619,9 @@
       <c r="IZ46" t="n">
         <v>243</v>
       </c>
+      <c r="JA46" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -37268,6 +37406,9 @@
       <c r="IZ47" t="n">
         <v>77.59999999999999</v>
       </c>
+      <c r="JA47" t="n">
+        <v>70.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -38052,6 +38193,9 @@
       <c r="IZ48" t="n">
         <v>54</v>
       </c>
+      <c r="JA48" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38836,6 +38980,9 @@
       <c r="IZ49" t="n">
         <v>5</v>
       </c>
+      <c r="JA49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39620,6 +39767,9 @@
       <c r="IZ50" t="n">
         <v>6</v>
       </c>
+      <c r="JA50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -40404,6 +40554,9 @@
       <c r="IZ51" t="n">
         <v>27</v>
       </c>
+      <c r="JA51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -41188,6 +41341,9 @@
       <c r="IZ52" t="n">
         <v>47</v>
       </c>
+      <c r="JA52" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41972,6 +42128,9 @@
       <c r="IZ53" t="n">
         <v>41</v>
       </c>
+      <c r="JA53" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42756,6 +42915,9 @@
       <c r="IZ54" t="n">
         <v>1</v>
       </c>
+      <c r="JA54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -43540,6 +43702,9 @@
       <c r="IZ55" t="n">
         <v>3</v>
       </c>
+      <c r="JA55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -44324,6 +44489,9 @@
       <c r="IZ56" t="n">
         <v>33.3</v>
       </c>
+      <c r="JA56" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -45108,6 +45276,9 @@
       <c r="IZ57" t="n">
         <v>243</v>
       </c>
+      <c r="JA57" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -45892,6 +46063,9 @@
       <c r="IZ58" t="n">
         <v>142</v>
       </c>
+      <c r="JA58" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -46676,6 +46850,9 @@
       <c r="IZ59" t="n">
         <v>385</v>
       </c>
+      <c r="JA59" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -47460,6 +47637,9 @@
       <c r="IZ60" t="n">
         <v>1.71</v>
       </c>
+      <c r="JA60" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -48244,6 +48424,9 @@
       <c r="IZ61" t="n">
         <v>103</v>
       </c>
+      <c r="JA61" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -49028,6 +49211,9 @@
       <c r="IZ62" t="n">
         <v>51</v>
       </c>
+      <c r="JA62" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -49812,6 +49998,9 @@
       <c r="IZ63" t="n">
         <v>34</v>
       </c>
+      <c r="JA63" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -50596,6 +50785,9 @@
       <c r="IZ64" t="n">
         <v>20</v>
       </c>
+      <c r="JA64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -51380,6 +51572,9 @@
       <c r="IZ65" t="n">
         <v>19</v>
       </c>
+      <c r="JA65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -52164,6 +52359,9 @@
       <c r="IZ66" t="n">
         <v>18</v>
       </c>
+      <c r="JA66" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -52948,6 +53146,9 @@
       <c r="IZ67" t="n">
         <v>14</v>
       </c>
+      <c r="JA67" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -53732,6 +53933,9 @@
       <c r="IZ68" t="n">
         <v>11</v>
       </c>
+      <c r="JA68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -54516,6 +54720,9 @@
       <c r="IZ69" t="n">
         <v>2</v>
       </c>
+      <c r="JA69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -55300,6 +55507,9 @@
       <c r="IZ70" t="n">
         <v>31</v>
       </c>
+      <c r="JA70" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -56084,6 +56294,9 @@
       <c r="IZ71" t="n">
         <v>58.1</v>
       </c>
+      <c r="JA71" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -56868,6 +57081,9 @@
       <c r="IZ72" t="n">
         <v>21.39</v>
       </c>
+      <c r="JA72" t="n">
+        <v>22.39</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -57652,6 +57868,9 @@
       <c r="IZ73" t="n">
         <v>12.42</v>
       </c>
+      <c r="JA73" t="n">
+        <v>14.93</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -58436,6 +58655,9 @@
       <c r="IZ74" t="n">
         <v>35</v>
       </c>
+      <c r="JA74" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -59220,6 +59442,9 @@
       <c r="IZ75" t="n">
         <v>56</v>
       </c>
+      <c r="JA75" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -60004,6 +60229,9 @@
       <c r="IZ76" t="n">
         <v>19</v>
       </c>
+      <c r="JA76" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -60788,6 +61016,9 @@
       <c r="IZ77" t="n">
         <v>65</v>
       </c>
+      <c r="JA77" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -61572,6 +61803,9 @@
       <c r="IZ78" t="n">
         <v>2.1</v>
       </c>
+      <c r="JA78" t="n">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -62356,6 +62590,9 @@
       <c r="IZ79" t="n">
         <v>3.61</v>
       </c>
+      <c r="JA79" t="n">
+        <v>3.61</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -63140,6 +63377,9 @@
       <c r="IZ80" t="n">
         <v>44.6</v>
       </c>
+      <c r="JA80" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -63924,6 +64164,9 @@
       <c r="IZ81" t="n">
         <v>27.7</v>
       </c>
+      <c r="JA81" t="n">
+        <v>27.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -64708,6 +64951,9 @@
       <c r="IZ82" t="n">
         <v>187.5</v>
       </c>
+      <c r="JA82" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -65492,6 +65738,9 @@
       <c r="IZ83" t="n">
         <v>85.7</v>
       </c>
+      <c r="JA83" t="n">
+        <v>87.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -66276,6 +66525,9 @@
       <c r="IZ84" t="n">
         <v>24.41</v>
       </c>
+      <c r="JA84" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -67060,6 +67312,9 @@
       <c r="IZ85" t="n">
         <v>82.5</v>
       </c>
+      <c r="JA85" t="n">
+        <v>107.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -67844,6 +68099,9 @@
       <c r="IZ86" t="n">
         <v>11</v>
       </c>
+      <c r="JA86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -68628,6 +68886,9 @@
       <c r="IZ87" t="n">
         <v>4</v>
       </c>
+      <c r="JA87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -69412,6 +69673,9 @@
       <c r="IZ88" t="n">
         <v>2</v>
       </c>
+      <c r="JA88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -70196,6 +70460,9 @@
       <c r="IZ89" t="n">
         <v>5</v>
       </c>
+      <c r="JA89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -70980,6 +71247,9 @@
       <c r="IZ90" t="n">
         <v>148</v>
       </c>
+      <c r="JA90" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -71764,6 +72034,9 @@
       <c r="IZ91" t="n">
         <v>239</v>
       </c>
+      <c r="JA91" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -72548,6 +72821,9 @@
       <c r="IZ92" t="n">
         <v>287</v>
       </c>
+      <c r="JA92" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -73332,6 +73608,9 @@
       <c r="IZ93" t="n">
         <v>74.5</v>
       </c>
+      <c r="JA93" t="n">
+        <v>75.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -74116,6 +74395,9 @@
       <c r="IZ94" t="n">
         <v>56</v>
       </c>
+      <c r="JA94" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -74900,6 +75182,9 @@
       <c r="IZ95" t="n">
         <v>11</v>
       </c>
+      <c r="JA95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -75684,6 +75969,9 @@
       <c r="IZ96" t="n">
         <v>15</v>
       </c>
+      <c r="JA96" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -76468,6 +76756,9 @@
       <c r="IZ97" t="n">
         <v>35</v>
       </c>
+      <c r="JA97" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -77252,6 +77543,9 @@
       <c r="IZ98" t="n">
         <v>19</v>
       </c>
+      <c r="JA98" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -78036,6 +78330,9 @@
       <c r="IZ99" t="n">
         <v>46</v>
       </c>
+      <c r="JA99" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -78820,6 +79117,9 @@
       <c r="IZ100" t="n">
         <v>6</v>
       </c>
+      <c r="JA100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -79604,6 +79904,9 @@
       <c r="IZ101" t="n">
         <v>14</v>
       </c>
+      <c r="JA101" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -80388,6 +80691,9 @@
       <c r="IZ102" t="n">
         <v>77.8</v>
       </c>
+      <c r="JA102" t="n">
+        <v>77.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JA102"/>
+  <dimension ref="A1:JC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,6 +1207,12 @@
       <c r="JA1" t="n">
         <v>10591</v>
       </c>
+      <c r="JB1" t="n">
+        <v>10598</v>
+      </c>
+      <c r="JC1" t="n">
+        <v>10613</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1994,6 +2000,12 @@
       <c r="JA2" t="n">
         <v>2022</v>
       </c>
+      <c r="JB2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2781,6 +2793,12 @@
       <c r="JA3" t="n">
         <v>6</v>
       </c>
+      <c r="JB3" t="n">
+        <v>7</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3568,6 +3586,12 @@
       <c r="JA4" t="n">
         <v>1</v>
       </c>
+      <c r="JB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4355,6 +4379,12 @@
       <c r="JA5" t="n">
         <v>0</v>
       </c>
+      <c r="JB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5142,6 +5172,12 @@
       <c r="JA6" t="n">
         <v>33</v>
       </c>
+      <c r="JB6" t="n">
+        <v>56</v>
+      </c>
+      <c r="JC6" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5929,6 +5965,12 @@
       <c r="JA7" t="n">
         <v>117</v>
       </c>
+      <c r="JB7" t="n">
+        <v>165</v>
+      </c>
+      <c r="JC7" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6716,6 +6758,12 @@
       <c r="JA8" t="n">
         <v>-84</v>
       </c>
+      <c r="JB8" t="n">
+        <v>-109</v>
+      </c>
+      <c r="JC8" t="n">
+        <v>-75</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7503,6 +7551,12 @@
       <c r="JA9" t="n">
         <v>0</v>
       </c>
+      <c r="JB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8290,6 +8344,12 @@
       <c r="JA10" t="n">
         <v>13</v>
       </c>
+      <c r="JB10" t="n">
+        <v>14</v>
+      </c>
+      <c r="JC10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9077,6 +9137,12 @@
       <c r="JA11" t="n">
         <v>195</v>
       </c>
+      <c r="JB11" t="n">
+        <v>219</v>
+      </c>
+      <c r="JC11" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9864,6 +9930,12 @@
       <c r="JA12" t="n">
         <v>132</v>
       </c>
+      <c r="JB12" t="n">
+        <v>139</v>
+      </c>
+      <c r="JC12" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10651,6 +10723,12 @@
       <c r="JA13" t="n">
         <v>327</v>
       </c>
+      <c r="JB13" t="n">
+        <v>358</v>
+      </c>
+      <c r="JC13" t="n">
+        <v>361</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11438,6 +11516,12 @@
       <c r="JA14" t="n">
         <v>1.48</v>
       </c>
+      <c r="JB14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="JC14" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12225,6 +12309,12 @@
       <c r="JA15" t="n">
         <v>85</v>
       </c>
+      <c r="JB15" t="n">
+        <v>118</v>
+      </c>
+      <c r="JC15" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13012,6 +13102,12 @@
       <c r="JA16" t="n">
         <v>58</v>
       </c>
+      <c r="JB16" t="n">
+        <v>43</v>
+      </c>
+      <c r="JC16" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13799,6 +13895,12 @@
       <c r="JA17" t="n">
         <v>28</v>
       </c>
+      <c r="JB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="JC17" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14586,6 +14688,12 @@
       <c r="JA18" t="n">
         <v>12</v>
       </c>
+      <c r="JB18" t="n">
+        <v>20</v>
+      </c>
+      <c r="JC18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15373,6 +15481,12 @@
       <c r="JA19" t="n">
         <v>22</v>
       </c>
+      <c r="JB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="JC19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16160,6 +16274,12 @@
       <c r="JA20" t="n">
         <v>4</v>
       </c>
+      <c r="JB20" t="n">
+        <v>8</v>
+      </c>
+      <c r="JC20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16947,6 +17067,12 @@
       <c r="JA21" t="n">
         <v>4</v>
       </c>
+      <c r="JB21" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17734,6 +17860,12 @@
       <c r="JA22" t="n">
         <v>8</v>
       </c>
+      <c r="JB22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JC22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18521,6 +18653,12 @@
       <c r="JA23" t="n">
         <v>1</v>
       </c>
+      <c r="JB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19308,6 +19446,12 @@
       <c r="JA24" t="n">
         <v>13</v>
       </c>
+      <c r="JB24" t="n">
+        <v>16</v>
+      </c>
+      <c r="JC24" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20095,6 +20239,12 @@
       <c r="JA25" t="n">
         <v>30.8</v>
       </c>
+      <c r="JB25" t="n">
+        <v>50</v>
+      </c>
+      <c r="JC25" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20882,6 +21032,12 @@
       <c r="JA26" t="n">
         <v>81.75</v>
       </c>
+      <c r="JB26" t="n">
+        <v>44.75</v>
+      </c>
+      <c r="JC26" t="n">
+        <v>90.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21669,6 +21825,12 @@
       <c r="JA27" t="n">
         <v>25.15</v>
       </c>
+      <c r="JB27" t="n">
+        <v>22.38</v>
+      </c>
+      <c r="JC27" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22456,6 +22618,12 @@
       <c r="JA28" t="n">
         <v>33</v>
       </c>
+      <c r="JB28" t="n">
+        <v>30</v>
+      </c>
+      <c r="JC28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23243,6 +23411,12 @@
       <c r="JA29" t="n">
         <v>52</v>
       </c>
+      <c r="JB29" t="n">
+        <v>70</v>
+      </c>
+      <c r="JC29" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24030,6 +24204,12 @@
       <c r="JA30" t="n">
         <v>46</v>
       </c>
+      <c r="JB30" t="n">
+        <v>39</v>
+      </c>
+      <c r="JC30" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24817,6 +24997,12 @@
       <c r="JA31" t="n">
         <v>34</v>
       </c>
+      <c r="JB31" t="n">
+        <v>36</v>
+      </c>
+      <c r="JC31" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25604,6 +25790,12 @@
       <c r="JA32" t="n">
         <v>2.62</v>
       </c>
+      <c r="JB32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="JC32" t="n">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26391,6 +26583,12 @@
       <c r="JA33" t="n">
         <v>8.5</v>
       </c>
+      <c r="JB33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="JC33" t="n">
+        <v>8.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27178,6 +27376,12 @@
       <c r="JA34" t="n">
         <v>35.3</v>
       </c>
+      <c r="JB34" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="JC34" t="n">
+        <v>30.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27965,6 +28169,12 @@
       <c r="JA35" t="n">
         <v>11.8</v>
       </c>
+      <c r="JB35" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="JC35" t="n">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28752,6 +28962,12 @@
       <c r="JA36" t="n">
         <v>187.7</v>
       </c>
+      <c r="JB36" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="JC36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29539,6 +29755,12 @@
       <c r="JA37" t="n">
         <v>86.3</v>
       </c>
+      <c r="JB37" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="JC37" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30326,6 +30548,12 @@
       <c r="JA38" t="n">
         <v>26.58</v>
       </c>
+      <c r="JB38" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JC38" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31113,6 +31341,12 @@
       <c r="JA39" t="n">
         <v>107.2</v>
       </c>
+      <c r="JB39" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="JC39" t="n">
+        <v>103.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31900,6 +32134,12 @@
       <c r="JA40" t="n">
         <v>8</v>
       </c>
+      <c r="JB40" t="n">
+        <v>8</v>
+      </c>
+      <c r="JC40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32687,6 +32927,12 @@
       <c r="JA41" t="n">
         <v>6</v>
       </c>
+      <c r="JB41" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33474,6 +33720,12 @@
       <c r="JA42" t="n">
         <v>2</v>
       </c>
+      <c r="JB42" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34261,6 +34513,12 @@
       <c r="JA43" t="n">
         <v>7</v>
       </c>
+      <c r="JB43" t="n">
+        <v>8</v>
+      </c>
+      <c r="JC43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -35048,6 +35306,12 @@
       <c r="JA44" t="n">
         <v>113</v>
       </c>
+      <c r="JB44" t="n">
+        <v>120</v>
+      </c>
+      <c r="JC44" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35835,6 +36099,12 @@
       <c r="JA45" t="n">
         <v>202</v>
       </c>
+      <c r="JB45" t="n">
+        <v>235</v>
+      </c>
+      <c r="JC45" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36622,6 +36892,12 @@
       <c r="JA46" t="n">
         <v>232</v>
       </c>
+      <c r="JB46" t="n">
+        <v>269</v>
+      </c>
+      <c r="JC46" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -37409,6 +37685,12 @@
       <c r="JA47" t="n">
         <v>70.90000000000001</v>
       </c>
+      <c r="JB47" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="JC47" t="n">
+        <v>72.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -38196,6 +38478,12 @@
       <c r="JA48" t="n">
         <v>52</v>
       </c>
+      <c r="JB48" t="n">
+        <v>70</v>
+      </c>
+      <c r="JC48" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38983,6 +39271,12 @@
       <c r="JA49" t="n">
         <v>11</v>
       </c>
+      <c r="JB49" t="n">
+        <v>18</v>
+      </c>
+      <c r="JC49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39770,6 +40064,12 @@
       <c r="JA50" t="n">
         <v>8</v>
       </c>
+      <c r="JB50" t="n">
+        <v>8</v>
+      </c>
+      <c r="JC50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -40557,6 +40857,12 @@
       <c r="JA51" t="n">
         <v>33</v>
       </c>
+      <c r="JB51" t="n">
+        <v>30</v>
+      </c>
+      <c r="JC51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -41344,6 +41650,12 @@
       <c r="JA52" t="n">
         <v>46</v>
       </c>
+      <c r="JB52" t="n">
+        <v>39</v>
+      </c>
+      <c r="JC52" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -42131,6 +42443,12 @@
       <c r="JA53" t="n">
         <v>32</v>
       </c>
+      <c r="JB53" t="n">
+        <v>57</v>
+      </c>
+      <c r="JC53" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42918,6 +43236,12 @@
       <c r="JA54" t="n">
         <v>4</v>
       </c>
+      <c r="JB54" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -43705,6 +44029,12 @@
       <c r="JA55" t="n">
         <v>4</v>
       </c>
+      <c r="JB55" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -44492,6 +44822,12 @@
       <c r="JA56" t="n">
         <v>100</v>
       </c>
+      <c r="JB56" t="n">
+        <v>75</v>
+      </c>
+      <c r="JC56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -45279,6 +45615,12 @@
       <c r="JA57" t="n">
         <v>231</v>
       </c>
+      <c r="JB57" t="n">
+        <v>245</v>
+      </c>
+      <c r="JC57" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -46066,6 +46408,12 @@
       <c r="JA58" t="n">
         <v>172</v>
       </c>
+      <c r="JB58" t="n">
+        <v>133</v>
+      </c>
+      <c r="JC58" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -46853,6 +47201,12 @@
       <c r="JA59" t="n">
         <v>403</v>
       </c>
+      <c r="JB59" t="n">
+        <v>378</v>
+      </c>
+      <c r="JC59" t="n">
+        <v>371</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -47640,6 +47994,12 @@
       <c r="JA60" t="n">
         <v>1.34</v>
       </c>
+      <c r="JB60" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="JC60" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -48427,6 +48787,12 @@
       <c r="JA61" t="n">
         <v>105</v>
       </c>
+      <c r="JB61" t="n">
+        <v>118</v>
+      </c>
+      <c r="JC61" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -49214,6 +49580,12 @@
       <c r="JA62" t="n">
         <v>75</v>
       </c>
+      <c r="JB62" t="n">
+        <v>42</v>
+      </c>
+      <c r="JC62" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -50001,6 +50373,12 @@
       <c r="JA63" t="n">
         <v>54</v>
       </c>
+      <c r="JB63" t="n">
+        <v>45</v>
+      </c>
+      <c r="JC63" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -50788,6 +51166,12 @@
       <c r="JA64" t="n">
         <v>22</v>
       </c>
+      <c r="JB64" t="n">
+        <v>23</v>
+      </c>
+      <c r="JC64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -51575,6 +51959,12 @@
       <c r="JA65" t="n">
         <v>12</v>
       </c>
+      <c r="JB65" t="n">
+        <v>20</v>
+      </c>
+      <c r="JC65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -52362,6 +52752,12 @@
       <c r="JA66" t="n">
         <v>18</v>
       </c>
+      <c r="JB66" t="n">
+        <v>25</v>
+      </c>
+      <c r="JC66" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -53149,6 +53545,12 @@
       <c r="JA67" t="n">
         <v>14</v>
       </c>
+      <c r="JB67" t="n">
+        <v>19</v>
+      </c>
+      <c r="JC67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -53936,6 +54338,12 @@
       <c r="JA68" t="n">
         <v>8</v>
       </c>
+      <c r="JB68" t="n">
+        <v>11</v>
+      </c>
+      <c r="JC68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -54723,6 +55131,12 @@
       <c r="JA69" t="n">
         <v>1</v>
       </c>
+      <c r="JB69" t="n">
+        <v>4</v>
+      </c>
+      <c r="JC69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -55510,6 +55924,12 @@
       <c r="JA70" t="n">
         <v>27</v>
       </c>
+      <c r="JB70" t="n">
+        <v>40</v>
+      </c>
+      <c r="JC70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -56297,6 +56717,12 @@
       <c r="JA71" t="n">
         <v>66.7</v>
       </c>
+      <c r="JB71" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="JC71" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -57084,6 +57510,12 @@
       <c r="JA72" t="n">
         <v>22.39</v>
       </c>
+      <c r="JB72" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="JC72" t="n">
+        <v>23.19</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -57871,6 +58303,12 @@
       <c r="JA73" t="n">
         <v>14.93</v>
       </c>
+      <c r="JB73" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="JC73" t="n">
+        <v>14.84</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -58658,6 +59096,12 @@
       <c r="JA74" t="n">
         <v>45</v>
       </c>
+      <c r="JB74" t="n">
+        <v>34</v>
+      </c>
+      <c r="JC74" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -59445,6 +59889,12 @@
       <c r="JA75" t="n">
         <v>67</v>
       </c>
+      <c r="JB75" t="n">
+        <v>58</v>
+      </c>
+      <c r="JC75" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -60232,6 +60682,12 @@
       <c r="JA76" t="n">
         <v>29</v>
       </c>
+      <c r="JB76" t="n">
+        <v>28</v>
+      </c>
+      <c r="JC76" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -61019,6 +61475,12 @@
       <c r="JA77" t="n">
         <v>65</v>
       </c>
+      <c r="JB77" t="n">
+        <v>65</v>
+      </c>
+      <c r="JC77" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -61806,6 +62268,12 @@
       <c r="JA78" t="n">
         <v>2.41</v>
       </c>
+      <c r="JB78" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="JC78" t="n">
+        <v>2.72</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -62593,6 +63061,12 @@
       <c r="JA79" t="n">
         <v>3.61</v>
       </c>
+      <c r="JB79" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="JC79" t="n">
+        <v>4.25</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -63380,6 +63854,12 @@
       <c r="JA80" t="n">
         <v>40</v>
       </c>
+      <c r="JB80" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="JC80" t="n">
+        <v>36.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -64167,6 +64647,12 @@
       <c r="JA81" t="n">
         <v>27.7</v>
       </c>
+      <c r="JB81" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="JC81" t="n">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -64954,6 +65440,12 @@
       <c r="JA82" t="n">
         <v>188.1</v>
       </c>
+      <c r="JB82" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="JC82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -65741,6 +66233,12 @@
       <c r="JA83" t="n">
         <v>87.40000000000001</v>
       </c>
+      <c r="JB83" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="JC83" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -66528,6 +67026,12 @@
       <c r="JA84" t="n">
         <v>25.91</v>
       </c>
+      <c r="JB84" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="JC84" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -67315,6 +67819,12 @@
       <c r="JA85" t="n">
         <v>107.1</v>
       </c>
+      <c r="JB85" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="JC85" t="n">
+        <v>101.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -68102,6 +68612,12 @@
       <c r="JA86" t="n">
         <v>5</v>
       </c>
+      <c r="JB86" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -68889,6 +69405,12 @@
       <c r="JA87" t="n">
         <v>7</v>
       </c>
+      <c r="JB87" t="n">
+        <v>5</v>
+      </c>
+      <c r="JC87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -69676,6 +70198,12 @@
       <c r="JA88" t="n">
         <v>6</v>
       </c>
+      <c r="JB88" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -70463,6 +70991,12 @@
       <c r="JA89" t="n">
         <v>5</v>
       </c>
+      <c r="JB89" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -71250,6 +71784,12 @@
       <c r="JA90" t="n">
         <v>147</v>
       </c>
+      <c r="JB90" t="n">
+        <v>140</v>
+      </c>
+      <c r="JC90" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -72037,6 +72577,12 @@
       <c r="JA91" t="n">
         <v>253</v>
       </c>
+      <c r="JB91" t="n">
+        <v>229</v>
+      </c>
+      <c r="JC91" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -72824,6 +73370,12 @@
       <c r="JA92" t="n">
         <v>306</v>
       </c>
+      <c r="JB92" t="n">
+        <v>282</v>
+      </c>
+      <c r="JC92" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -73611,6 +74163,12 @@
       <c r="JA93" t="n">
         <v>75.90000000000001</v>
       </c>
+      <c r="JB93" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="JC93" t="n">
+        <v>74.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -74398,6 +74956,12 @@
       <c r="JA94" t="n">
         <v>67</v>
       </c>
+      <c r="JB94" t="n">
+        <v>58</v>
+      </c>
+      <c r="JC94" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -75185,6 +75749,12 @@
       <c r="JA95" t="n">
         <v>10</v>
       </c>
+      <c r="JB95" t="n">
+        <v>22</v>
+      </c>
+      <c r="JC95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -75972,6 +76542,12 @@
       <c r="JA96" t="n">
         <v>19</v>
       </c>
+      <c r="JB96" t="n">
+        <v>23</v>
+      </c>
+      <c r="JC96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -76759,6 +77335,12 @@
       <c r="JA97" t="n">
         <v>45</v>
       </c>
+      <c r="JB97" t="n">
+        <v>34</v>
+      </c>
+      <c r="JC97" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -77546,6 +78128,12 @@
       <c r="JA98" t="n">
         <v>29</v>
       </c>
+      <c r="JB98" t="n">
+        <v>28</v>
+      </c>
+      <c r="JC98" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -78333,6 +78921,12 @@
       <c r="JA99" t="n">
         <v>47</v>
       </c>
+      <c r="JB99" t="n">
+        <v>49</v>
+      </c>
+      <c r="JC99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -79120,6 +79714,12 @@
       <c r="JA100" t="n">
         <v>2</v>
       </c>
+      <c r="JB100" t="n">
+        <v>12</v>
+      </c>
+      <c r="JC100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -79907,6 +80507,12 @@
       <c r="JA101" t="n">
         <v>14</v>
       </c>
+      <c r="JB101" t="n">
+        <v>19</v>
+      </c>
+      <c r="JC101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -80694,6 +81300,12 @@
       <c r="JA102" t="n">
         <v>77.8</v>
       </c>
+      <c r="JB102" t="n">
+        <v>76</v>
+      </c>
+      <c r="JC102" t="n">
+        <v>56.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JC102"/>
+  <dimension ref="A1:JE102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,6 +1213,12 @@
       <c r="JC1" t="n">
         <v>10613</v>
       </c>
+      <c r="JD1" t="n">
+        <v>10624</v>
+      </c>
+      <c r="JE1" t="n">
+        <v>10627</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2006,6 +2012,12 @@
       <c r="JC2" t="n">
         <v>2022</v>
       </c>
+      <c r="JD2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2799,6 +2811,12 @@
       <c r="JC3" t="n">
         <v>8</v>
       </c>
+      <c r="JD3" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3592,6 +3610,12 @@
       <c r="JC4" t="n">
         <v>1</v>
       </c>
+      <c r="JD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4385,6 +4409,12 @@
       <c r="JC5" t="n">
         <v>0</v>
       </c>
+      <c r="JD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5178,6 +5208,12 @@
       <c r="JC6" t="n">
         <v>30</v>
       </c>
+      <c r="JD6" t="n">
+        <v>38</v>
+      </c>
+      <c r="JE6" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5971,6 +6007,12 @@
       <c r="JC7" t="n">
         <v>105</v>
       </c>
+      <c r="JD7" t="n">
+        <v>112</v>
+      </c>
+      <c r="JE7" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6764,6 +6806,12 @@
       <c r="JC8" t="n">
         <v>-75</v>
       </c>
+      <c r="JD8" t="n">
+        <v>-74</v>
+      </c>
+      <c r="JE8" t="n">
+        <v>-52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7557,6 +7605,12 @@
       <c r="JC9" t="n">
         <v>0</v>
       </c>
+      <c r="JD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8350,6 +8404,12 @@
       <c r="JC10" t="n">
         <v>2</v>
       </c>
+      <c r="JD10" t="n">
+        <v>11</v>
+      </c>
+      <c r="JE10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9143,6 +9203,12 @@
       <c r="JC11" t="n">
         <v>218</v>
       </c>
+      <c r="JD11" t="n">
+        <v>208</v>
+      </c>
+      <c r="JE11" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9936,6 +10002,12 @@
       <c r="JC12" t="n">
         <v>143</v>
       </c>
+      <c r="JD12" t="n">
+        <v>141</v>
+      </c>
+      <c r="JE12" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10729,6 +10801,12 @@
       <c r="JC13" t="n">
         <v>361</v>
       </c>
+      <c r="JD13" t="n">
+        <v>349</v>
+      </c>
+      <c r="JE13" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11522,6 +11600,12 @@
       <c r="JC14" t="n">
         <v>1.52</v>
       </c>
+      <c r="JD14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="JE14" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12315,6 +12399,12 @@
       <c r="JC15" t="n">
         <v>107</v>
       </c>
+      <c r="JD15" t="n">
+        <v>102</v>
+      </c>
+      <c r="JE15" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13108,6 +13198,12 @@
       <c r="JC16" t="n">
         <v>64</v>
       </c>
+      <c r="JD16" t="n">
+        <v>61</v>
+      </c>
+      <c r="JE16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13901,6 +13997,12 @@
       <c r="JC17" t="n">
         <v>13</v>
       </c>
+      <c r="JD17" t="n">
+        <v>19</v>
+      </c>
+      <c r="JE17" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14694,6 +14796,12 @@
       <c r="JC18" t="n">
         <v>17</v>
       </c>
+      <c r="JD18" t="n">
+        <v>25</v>
+      </c>
+      <c r="JE18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15487,6 +15595,12 @@
       <c r="JC19" t="n">
         <v>18</v>
       </c>
+      <c r="JD19" t="n">
+        <v>18</v>
+      </c>
+      <c r="JE19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16280,6 +16394,12 @@
       <c r="JC20" t="n">
         <v>4</v>
       </c>
+      <c r="JD20" t="n">
+        <v>5</v>
+      </c>
+      <c r="JE20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17073,6 +17193,12 @@
       <c r="JC21" t="n">
         <v>2</v>
       </c>
+      <c r="JD21" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17866,6 +17992,12 @@
       <c r="JC22" t="n">
         <v>6</v>
       </c>
+      <c r="JD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="JE22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18659,6 +18791,12 @@
       <c r="JC23" t="n">
         <v>0</v>
       </c>
+      <c r="JD23" t="n">
+        <v>2</v>
+      </c>
+      <c r="JE23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19452,6 +19590,12 @@
       <c r="JC24" t="n">
         <v>10</v>
       </c>
+      <c r="JD24" t="n">
+        <v>13</v>
+      </c>
+      <c r="JE24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20245,6 +20389,12 @@
       <c r="JC25" t="n">
         <v>40</v>
       </c>
+      <c r="JD25" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="JE25" t="n">
+        <v>61.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21038,6 +21188,12 @@
       <c r="JC26" t="n">
         <v>90.25</v>
       </c>
+      <c r="JD26" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="JE26" t="n">
+        <v>22.15</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21831,6 +21987,12 @@
       <c r="JC27" t="n">
         <v>36.1</v>
       </c>
+      <c r="JD27" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="JE27" t="n">
+        <v>13.71</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22624,6 +22786,12 @@
       <c r="JC28" t="n">
         <v>37</v>
       </c>
+      <c r="JD28" t="n">
+        <v>27</v>
+      </c>
+      <c r="JE28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23417,6 +23585,12 @@
       <c r="JC29" t="n">
         <v>65</v>
       </c>
+      <c r="JD29" t="n">
+        <v>57</v>
+      </c>
+      <c r="JE29" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24210,6 +24384,12 @@
       <c r="JC30" t="n">
         <v>50</v>
       </c>
+      <c r="JD30" t="n">
+        <v>42</v>
+      </c>
+      <c r="JE30" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25003,6 +25183,12 @@
       <c r="JC31" t="n">
         <v>33</v>
       </c>
+      <c r="JD31" t="n">
+        <v>35</v>
+      </c>
+      <c r="JE31" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25796,6 +25982,12 @@
       <c r="JC32" t="n">
         <v>3.3</v>
       </c>
+      <c r="JD32" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="JE32" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26589,6 +26781,12 @@
       <c r="JC33" t="n">
         <v>8.25</v>
       </c>
+      <c r="JD33" t="n">
+        <v>7</v>
+      </c>
+      <c r="JE33" t="n">
+        <v>3.38</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27382,6 +27580,12 @@
       <c r="JC34" t="n">
         <v>30.3</v>
       </c>
+      <c r="JD34" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="JE34" t="n">
+        <v>40.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28175,6 +28379,12 @@
       <c r="JC35" t="n">
         <v>12.1</v>
       </c>
+      <c r="JD35" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="JE35" t="n">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28968,6 +29178,12 @@
       <c r="JC36" t="n">
         <v>187.4</v>
       </c>
+      <c r="JD36" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="JE36" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29761,6 +29977,12 @@
       <c r="JC37" t="n">
         <v>84.8</v>
       </c>
+      <c r="JD37" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="JE37" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30554,6 +30776,12 @@
       <c r="JC38" t="n">
         <v>26.24</v>
       </c>
+      <c r="JD38" t="n">
+        <v>25</v>
+      </c>
+      <c r="JE38" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31347,6 +31575,12 @@
       <c r="JC39" t="n">
         <v>103.4</v>
       </c>
+      <c r="JD39" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="JE39" t="n">
+        <v>88.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32140,6 +32374,12 @@
       <c r="JC40" t="n">
         <v>10</v>
       </c>
+      <c r="JD40" t="n">
+        <v>11</v>
+      </c>
+      <c r="JE40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32933,6 +33173,12 @@
       <c r="JC41" t="n">
         <v>4</v>
       </c>
+      <c r="JD41" t="n">
+        <v>6</v>
+      </c>
+      <c r="JE41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33726,6 +33972,12 @@
       <c r="JC42" t="n">
         <v>2</v>
       </c>
+      <c r="JD42" t="n">
+        <v>2</v>
+      </c>
+      <c r="JE42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34519,6 +34771,12 @@
       <c r="JC43" t="n">
         <v>7</v>
       </c>
+      <c r="JD43" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -35312,6 +35570,12 @@
       <c r="JC44" t="n">
         <v>136</v>
       </c>
+      <c r="JD44" t="n">
+        <v>118</v>
+      </c>
+      <c r="JE44" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -36105,6 +36369,12 @@
       <c r="JC45" t="n">
         <v>218</v>
       </c>
+      <c r="JD45" t="n">
+        <v>228</v>
+      </c>
+      <c r="JE45" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36898,6 +37168,12 @@
       <c r="JC46" t="n">
         <v>263</v>
       </c>
+      <c r="JD46" t="n">
+        <v>264</v>
+      </c>
+      <c r="JE46" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -37691,6 +37967,12 @@
       <c r="JC47" t="n">
         <v>72.90000000000001</v>
       </c>
+      <c r="JD47" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="JE47" t="n">
+        <v>75.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -38484,6 +38766,12 @@
       <c r="JC48" t="n">
         <v>65</v>
       </c>
+      <c r="JD48" t="n">
+        <v>57</v>
+      </c>
+      <c r="JE48" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -39277,6 +39565,12 @@
       <c r="JC49" t="n">
         <v>11</v>
       </c>
+      <c r="JD49" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -40070,6 +40364,12 @@
       <c r="JC50" t="n">
         <v>6</v>
       </c>
+      <c r="JD50" t="n">
+        <v>8</v>
+      </c>
+      <c r="JE50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -40863,6 +41163,12 @@
       <c r="JC51" t="n">
         <v>37</v>
       </c>
+      <c r="JD51" t="n">
+        <v>27</v>
+      </c>
+      <c r="JE51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -41656,6 +41962,12 @@
       <c r="JC52" t="n">
         <v>50</v>
       </c>
+      <c r="JD52" t="n">
+        <v>42</v>
+      </c>
+      <c r="JE52" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -42449,6 +42761,12 @@
       <c r="JC53" t="n">
         <v>38</v>
       </c>
+      <c r="JD53" t="n">
+        <v>54</v>
+      </c>
+      <c r="JE53" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -43242,6 +43560,12 @@
       <c r="JC54" t="n">
         <v>1</v>
       </c>
+      <c r="JD54" t="n">
+        <v>5</v>
+      </c>
+      <c r="JE54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -44035,6 +44359,12 @@
       <c r="JC55" t="n">
         <v>2</v>
       </c>
+      <c r="JD55" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -44828,6 +45158,12 @@
       <c r="JC56" t="n">
         <v>50</v>
       </c>
+      <c r="JD56" t="n">
+        <v>80</v>
+      </c>
+      <c r="JE56" t="n">
+        <v>61.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -45621,6 +45957,12 @@
       <c r="JC57" t="n">
         <v>241</v>
       </c>
+      <c r="JD57" t="n">
+        <v>222</v>
+      </c>
+      <c r="JE57" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -46414,6 +46756,12 @@
       <c r="JC58" t="n">
         <v>130</v>
       </c>
+      <c r="JD58" t="n">
+        <v>181</v>
+      </c>
+      <c r="JE58" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -47207,6 +47555,12 @@
       <c r="JC59" t="n">
         <v>371</v>
       </c>
+      <c r="JD59" t="n">
+        <v>403</v>
+      </c>
+      <c r="JE59" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -48000,6 +48354,12 @@
       <c r="JC60" t="n">
         <v>1.85</v>
       </c>
+      <c r="JD60" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="JE60" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -48793,6 +49153,12 @@
       <c r="JC61" t="n">
         <v>112</v>
       </c>
+      <c r="JD61" t="n">
+        <v>86</v>
+      </c>
+      <c r="JE61" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -49586,6 +49952,12 @@
       <c r="JC62" t="n">
         <v>74</v>
       </c>
+      <c r="JD62" t="n">
+        <v>52</v>
+      </c>
+      <c r="JE62" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -50379,6 +50751,12 @@
       <c r="JC63" t="n">
         <v>58</v>
       </c>
+      <c r="JD63" t="n">
+        <v>47</v>
+      </c>
+      <c r="JE63" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -51172,6 +51550,12 @@
       <c r="JC64" t="n">
         <v>18</v>
       </c>
+      <c r="JD64" t="n">
+        <v>18</v>
+      </c>
+      <c r="JE64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -51965,6 +52349,12 @@
       <c r="JC65" t="n">
         <v>17</v>
       </c>
+      <c r="JD65" t="n">
+        <v>25</v>
+      </c>
+      <c r="JE65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -52758,6 +53148,12 @@
       <c r="JC66" t="n">
         <v>16</v>
       </c>
+      <c r="JD66" t="n">
+        <v>16</v>
+      </c>
+      <c r="JE66" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -53551,6 +53947,12 @@
       <c r="JC67" t="n">
         <v>9</v>
       </c>
+      <c r="JD67" t="n">
+        <v>10</v>
+      </c>
+      <c r="JE67" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -54344,6 +54746,12 @@
       <c r="JC68" t="n">
         <v>9</v>
       </c>
+      <c r="JD68" t="n">
+        <v>14</v>
+      </c>
+      <c r="JE68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -55137,6 +55545,12 @@
       <c r="JC69" t="n">
         <v>0</v>
       </c>
+      <c r="JD69" t="n">
+        <v>2</v>
+      </c>
+      <c r="JE69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -55930,6 +56344,12 @@
       <c r="JC70" t="n">
         <v>25</v>
       </c>
+      <c r="JD70" t="n">
+        <v>32</v>
+      </c>
+      <c r="JE70" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -56723,6 +57143,12 @@
       <c r="JC71" t="n">
         <v>64</v>
       </c>
+      <c r="JD71" t="n">
+        <v>50</v>
+      </c>
+      <c r="JE71" t="n">
+        <v>63.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -57516,6 +57942,12 @@
       <c r="JC72" t="n">
         <v>23.19</v>
       </c>
+      <c r="JD72" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="JE72" t="n">
+        <v>18.48</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -58309,6 +58741,12 @@
       <c r="JC73" t="n">
         <v>14.84</v>
       </c>
+      <c r="JD73" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="JE73" t="n">
+        <v>11.76</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -59102,6 +59540,12 @@
       <c r="JC74" t="n">
         <v>38</v>
       </c>
+      <c r="JD74" t="n">
+        <v>37</v>
+      </c>
+      <c r="JE74" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -59895,6 +60339,12 @@
       <c r="JC75" t="n">
         <v>43</v>
       </c>
+      <c r="JD75" t="n">
+        <v>61</v>
+      </c>
+      <c r="JE75" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -60688,6 +61138,12 @@
       <c r="JC76" t="n">
         <v>27</v>
       </c>
+      <c r="JD76" t="n">
+        <v>29</v>
+      </c>
+      <c r="JE76" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -61481,6 +61937,12 @@
       <c r="JC77" t="n">
         <v>68</v>
       </c>
+      <c r="JD77" t="n">
+        <v>59</v>
+      </c>
+      <c r="JE77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -62274,6 +62736,12 @@
       <c r="JC78" t="n">
         <v>2.72</v>
       </c>
+      <c r="JD78" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="JE78" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -63067,6 +63535,12 @@
       <c r="JC79" t="n">
         <v>4.25</v>
       </c>
+      <c r="JD79" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="JE79" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -63860,6 +64334,12 @@
       <c r="JC80" t="n">
         <v>36.8</v>
       </c>
+      <c r="JD80" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="JE80" t="n">
+        <v>64.59999999999999</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -64653,6 +65133,12 @@
       <c r="JC81" t="n">
         <v>23.5</v>
       </c>
+      <c r="JD81" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="JE81" t="n">
+        <v>43.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -65446,6 +65932,12 @@
       <c r="JC82" t="n">
         <v>187.7</v>
       </c>
+      <c r="JD82" t="n">
+        <v>187</v>
+      </c>
+      <c r="JE82" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -66239,6 +66731,12 @@
       <c r="JC83" t="n">
         <v>88.09999999999999</v>
       </c>
+      <c r="JD83" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="JE83" t="n">
+        <v>87.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -67032,6 +67530,12 @@
       <c r="JC84" t="n">
         <v>26.8</v>
       </c>
+      <c r="JD84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JE84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -67825,6 +68329,12 @@
       <c r="JC85" t="n">
         <v>101.1</v>
       </c>
+      <c r="JD85" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="JE85" t="n">
+        <v>77.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -68618,6 +69128,12 @@
       <c r="JC86" t="n">
         <v>6</v>
       </c>
+      <c r="JD86" t="n">
+        <v>8</v>
+      </c>
+      <c r="JE86" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -69411,6 +69927,12 @@
       <c r="JC87" t="n">
         <v>7</v>
       </c>
+      <c r="JD87" t="n">
+        <v>2</v>
+      </c>
+      <c r="JE87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -70204,6 +70726,12 @@
       <c r="JC88" t="n">
         <v>4</v>
       </c>
+      <c r="JD88" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -70997,6 +71525,12 @@
       <c r="JC89" t="n">
         <v>6</v>
       </c>
+      <c r="JD89" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -71790,6 +72324,12 @@
       <c r="JC90" t="n">
         <v>138</v>
       </c>
+      <c r="JD90" t="n">
+        <v>137</v>
+      </c>
+      <c r="JE90" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -72583,6 +73123,12 @@
       <c r="JC91" t="n">
         <v>233</v>
       </c>
+      <c r="JD91" t="n">
+        <v>257</v>
+      </c>
+      <c r="JE91" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -73376,6 +73922,12 @@
       <c r="JC92" t="n">
         <v>278</v>
       </c>
+      <c r="JD92" t="n">
+        <v>307</v>
+      </c>
+      <c r="JE92" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -74169,6 +74721,12 @@
       <c r="JC93" t="n">
         <v>74.90000000000001</v>
       </c>
+      <c r="JD93" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="JE93" t="n">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -74962,6 +75520,12 @@
       <c r="JC94" t="n">
         <v>43</v>
       </c>
+      <c r="JD94" t="n">
+        <v>61</v>
+      </c>
+      <c r="JE94" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -75755,6 +76319,12 @@
       <c r="JC95" t="n">
         <v>8</v>
       </c>
+      <c r="JD95" t="n">
+        <v>5</v>
+      </c>
+      <c r="JE95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -76548,6 +77118,12 @@
       <c r="JC96" t="n">
         <v>15</v>
       </c>
+      <c r="JD96" t="n">
+        <v>13</v>
+      </c>
+      <c r="JE96" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -77341,6 +77917,12 @@
       <c r="JC97" t="n">
         <v>38</v>
       </c>
+      <c r="JD97" t="n">
+        <v>37</v>
+      </c>
+      <c r="JE97" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -78134,6 +78716,12 @@
       <c r="JC98" t="n">
         <v>27</v>
       </c>
+      <c r="JD98" t="n">
+        <v>29</v>
+      </c>
+      <c r="JE98" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -78927,6 +79515,12 @@
       <c r="JC99" t="n">
         <v>51</v>
       </c>
+      <c r="JD99" t="n">
+        <v>43</v>
+      </c>
+      <c r="JE99" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -79720,6 +80314,12 @@
       <c r="JC100" t="n">
         <v>0</v>
       </c>
+      <c r="JD100" t="n">
+        <v>6</v>
+      </c>
+      <c r="JE100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -80513,6 +81113,12 @@
       <c r="JC101" t="n">
         <v>9</v>
       </c>
+      <c r="JD101" t="n">
+        <v>10</v>
+      </c>
+      <c r="JE101" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -81306,6 +81912,12 @@
       <c r="JC102" t="n">
         <v>56.2</v>
       </c>
+      <c r="JD102" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="JE102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JE102"/>
+  <dimension ref="A1:JK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1219,6 +1219,24 @@
       <c r="JE1" t="n">
         <v>10627</v>
       </c>
+      <c r="JF1" t="n">
+        <v>10642</v>
+      </c>
+      <c r="JG1" t="n">
+        <v>10646</v>
+      </c>
+      <c r="JH1" t="n">
+        <v>10660</v>
+      </c>
+      <c r="JI1" t="n">
+        <v>10669</v>
+      </c>
+      <c r="JJ1" t="n">
+        <v>10676</v>
+      </c>
+      <c r="JK1" t="n">
+        <v>10687</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2018,6 +2036,24 @@
       <c r="JE2" t="n">
         <v>2022</v>
       </c>
+      <c r="JF2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2817,6 +2853,24 @@
       <c r="JE3" t="n">
         <v>10</v>
       </c>
+      <c r="JF3" t="n">
+        <v>11</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>12</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>14</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>16</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3616,6 +3670,24 @@
       <c r="JE4" t="n">
         <v>1</v>
       </c>
+      <c r="JF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4415,6 +4487,24 @@
       <c r="JE5" t="n">
         <v>0</v>
       </c>
+      <c r="JF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5214,6 +5304,24 @@
       <c r="JE6" t="n">
         <v>86</v>
       </c>
+      <c r="JF6" t="n">
+        <v>60</v>
+      </c>
+      <c r="JG6" t="n">
+        <v>57</v>
+      </c>
+      <c r="JH6" t="n">
+        <v>63</v>
+      </c>
+      <c r="JI6" t="n">
+        <v>107</v>
+      </c>
+      <c r="JJ6" t="n">
+        <v>93</v>
+      </c>
+      <c r="JK6" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6013,6 +6121,24 @@
       <c r="JE7" t="n">
         <v>138</v>
       </c>
+      <c r="JF7" t="n">
+        <v>161</v>
+      </c>
+      <c r="JG7" t="n">
+        <v>88</v>
+      </c>
+      <c r="JH7" t="n">
+        <v>81</v>
+      </c>
+      <c r="JI7" t="n">
+        <v>97</v>
+      </c>
+      <c r="JJ7" t="n">
+        <v>128</v>
+      </c>
+      <c r="JK7" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6812,6 +6938,24 @@
       <c r="JE8" t="n">
         <v>-52</v>
       </c>
+      <c r="JF8" t="n">
+        <v>-101</v>
+      </c>
+      <c r="JG8" t="n">
+        <v>-31</v>
+      </c>
+      <c r="JH8" t="n">
+        <v>-18</v>
+      </c>
+      <c r="JI8" t="n">
+        <v>10</v>
+      </c>
+      <c r="JJ8" t="n">
+        <v>-35</v>
+      </c>
+      <c r="JK8" t="n">
+        <v>-63</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7611,6 +7755,24 @@
       <c r="JE9" t="n">
         <v>0</v>
       </c>
+      <c r="JF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI9" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8410,6 +8572,24 @@
       <c r="JE10" t="n">
         <v>9</v>
       </c>
+      <c r="JF10" t="n">
+        <v>18</v>
+      </c>
+      <c r="JG10" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH10" t="n">
+        <v>7</v>
+      </c>
+      <c r="JI10" t="n">
+        <v>5</v>
+      </c>
+      <c r="JJ10" t="n">
+        <v>14</v>
+      </c>
+      <c r="JK10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9209,6 +9389,24 @@
       <c r="JE11" t="n">
         <v>169</v>
       </c>
+      <c r="JF11" t="n">
+        <v>208</v>
+      </c>
+      <c r="JG11" t="n">
+        <v>215</v>
+      </c>
+      <c r="JH11" t="n">
+        <v>209</v>
+      </c>
+      <c r="JI11" t="n">
+        <v>224</v>
+      </c>
+      <c r="JJ11" t="n">
+        <v>214</v>
+      </c>
+      <c r="JK11" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10008,6 +10206,24 @@
       <c r="JE12" t="n">
         <v>119</v>
       </c>
+      <c r="JF12" t="n">
+        <v>120</v>
+      </c>
+      <c r="JG12" t="n">
+        <v>125</v>
+      </c>
+      <c r="JH12" t="n">
+        <v>120</v>
+      </c>
+      <c r="JI12" t="n">
+        <v>95</v>
+      </c>
+      <c r="JJ12" t="n">
+        <v>164</v>
+      </c>
+      <c r="JK12" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10807,6 +11023,24 @@
       <c r="JE13" t="n">
         <v>288</v>
       </c>
+      <c r="JF13" t="n">
+        <v>328</v>
+      </c>
+      <c r="JG13" t="n">
+        <v>340</v>
+      </c>
+      <c r="JH13" t="n">
+        <v>329</v>
+      </c>
+      <c r="JI13" t="n">
+        <v>319</v>
+      </c>
+      <c r="JJ13" t="n">
+        <v>378</v>
+      </c>
+      <c r="JK13" t="n">
+        <v>298</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11606,6 +11840,24 @@
       <c r="JE14" t="n">
         <v>1.42</v>
       </c>
+      <c r="JF14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="JG14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="JH14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="JI14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="JJ14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="JK14" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12405,6 +12657,24 @@
       <c r="JE15" t="n">
         <v>79</v>
       </c>
+      <c r="JF15" t="n">
+        <v>106</v>
+      </c>
+      <c r="JG15" t="n">
+        <v>86</v>
+      </c>
+      <c r="JH15" t="n">
+        <v>109</v>
+      </c>
+      <c r="JI15" t="n">
+        <v>114</v>
+      </c>
+      <c r="JJ15" t="n">
+        <v>97</v>
+      </c>
+      <c r="JK15" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13204,6 +13474,24 @@
       <c r="JE16" t="n">
         <v>54</v>
       </c>
+      <c r="JF16" t="n">
+        <v>60</v>
+      </c>
+      <c r="JG16" t="n">
+        <v>74</v>
+      </c>
+      <c r="JH16" t="n">
+        <v>55</v>
+      </c>
+      <c r="JI16" t="n">
+        <v>43</v>
+      </c>
+      <c r="JJ16" t="n">
+        <v>33</v>
+      </c>
+      <c r="JK16" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14003,6 +14291,24 @@
       <c r="JE17" t="n">
         <v>48</v>
       </c>
+      <c r="JF17" t="n">
+        <v>23</v>
+      </c>
+      <c r="JG17" t="n">
+        <v>30</v>
+      </c>
+      <c r="JH17" t="n">
+        <v>27</v>
+      </c>
+      <c r="JI17" t="n">
+        <v>26</v>
+      </c>
+      <c r="JJ17" t="n">
+        <v>37</v>
+      </c>
+      <c r="JK17" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14802,6 +15108,24 @@
       <c r="JE18" t="n">
         <v>15</v>
       </c>
+      <c r="JF18" t="n">
+        <v>16</v>
+      </c>
+      <c r="JG18" t="n">
+        <v>23</v>
+      </c>
+      <c r="JH18" t="n">
+        <v>24</v>
+      </c>
+      <c r="JI18" t="n">
+        <v>14</v>
+      </c>
+      <c r="JJ18" t="n">
+        <v>16</v>
+      </c>
+      <c r="JK18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15601,6 +15925,24 @@
       <c r="JE19" t="n">
         <v>16</v>
       </c>
+      <c r="JF19" t="n">
+        <v>26</v>
+      </c>
+      <c r="JG19" t="n">
+        <v>23</v>
+      </c>
+      <c r="JH19" t="n">
+        <v>19</v>
+      </c>
+      <c r="JI19" t="n">
+        <v>13</v>
+      </c>
+      <c r="JJ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="JK19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16400,6 +16742,24 @@
       <c r="JE20" t="n">
         <v>13</v>
       </c>
+      <c r="JF20" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG20" t="n">
+        <v>8</v>
+      </c>
+      <c r="JH20" t="n">
+        <v>9</v>
+      </c>
+      <c r="JI20" t="n">
+        <v>16</v>
+      </c>
+      <c r="JJ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="JK20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17199,6 +17559,24 @@
       <c r="JE21" t="n">
         <v>8</v>
       </c>
+      <c r="JF21" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG21" t="n">
+        <v>6</v>
+      </c>
+      <c r="JH21" t="n">
+        <v>6</v>
+      </c>
+      <c r="JI21" t="n">
+        <v>12</v>
+      </c>
+      <c r="JJ21" t="n">
+        <v>8</v>
+      </c>
+      <c r="JK21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17998,6 +18376,24 @@
       <c r="JE22" t="n">
         <v>5</v>
       </c>
+      <c r="JF22" t="n">
+        <v>4</v>
+      </c>
+      <c r="JG22" t="n">
+        <v>4</v>
+      </c>
+      <c r="JH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="JI22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JJ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="JK22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18797,6 +19193,24 @@
       <c r="JE23" t="n">
         <v>3</v>
       </c>
+      <c r="JF23" t="n">
+        <v>2</v>
+      </c>
+      <c r="JG23" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="JI23" t="n">
+        <v>4</v>
+      </c>
+      <c r="JJ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19596,6 +20010,24 @@
       <c r="JE24" t="n">
         <v>21</v>
       </c>
+      <c r="JF24" t="n">
+        <v>15</v>
+      </c>
+      <c r="JG24" t="n">
+        <v>17</v>
+      </c>
+      <c r="JH24" t="n">
+        <v>18</v>
+      </c>
+      <c r="JI24" t="n">
+        <v>27</v>
+      </c>
+      <c r="JJ24" t="n">
+        <v>28</v>
+      </c>
+      <c r="JK24" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20395,6 +20827,24 @@
       <c r="JE25" t="n">
         <v>61.9</v>
       </c>
+      <c r="JF25" t="n">
+        <v>60</v>
+      </c>
+      <c r="JG25" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="JH25" t="n">
+        <v>50</v>
+      </c>
+      <c r="JI25" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="JJ25" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="JK25" t="n">
+        <v>61.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21194,6 +21644,24 @@
       <c r="JE26" t="n">
         <v>22.15</v>
       </c>
+      <c r="JF26" t="n">
+        <v>36.44</v>
+      </c>
+      <c r="JG26" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="JH26" t="n">
+        <v>36.56</v>
+      </c>
+      <c r="JI26" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="JJ26" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="JK26" t="n">
+        <v>37.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21993,6 +22461,24 @@
       <c r="JE27" t="n">
         <v>13.71</v>
       </c>
+      <c r="JF27" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="JG27" t="n">
+        <v>20</v>
+      </c>
+      <c r="JH27" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="JI27" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="JJ27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="JK27" t="n">
+        <v>22.92</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22792,6 +23278,24 @@
       <c r="JE28" t="n">
         <v>36</v>
       </c>
+      <c r="JF28" t="n">
+        <v>30</v>
+      </c>
+      <c r="JG28" t="n">
+        <v>34</v>
+      </c>
+      <c r="JH28" t="n">
+        <v>29</v>
+      </c>
+      <c r="JI28" t="n">
+        <v>30</v>
+      </c>
+      <c r="JJ28" t="n">
+        <v>44</v>
+      </c>
+      <c r="JK28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23591,6 +24095,24 @@
       <c r="JE29" t="n">
         <v>40</v>
       </c>
+      <c r="JF29" t="n">
+        <v>53</v>
+      </c>
+      <c r="JG29" t="n">
+        <v>69</v>
+      </c>
+      <c r="JH29" t="n">
+        <v>49</v>
+      </c>
+      <c r="JI29" t="n">
+        <v>43</v>
+      </c>
+      <c r="JJ29" t="n">
+        <v>55</v>
+      </c>
+      <c r="JK29" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24390,6 +24912,24 @@
       <c r="JE30" t="n">
         <v>27</v>
       </c>
+      <c r="JF30" t="n">
+        <v>40</v>
+      </c>
+      <c r="JG30" t="n">
+        <v>44</v>
+      </c>
+      <c r="JH30" t="n">
+        <v>37</v>
+      </c>
+      <c r="JI30" t="n">
+        <v>41</v>
+      </c>
+      <c r="JJ30" t="n">
+        <v>32</v>
+      </c>
+      <c r="JK30" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25189,6 +25729,24 @@
       <c r="JE31" t="n">
         <v>44</v>
       </c>
+      <c r="JF31" t="n">
+        <v>37</v>
+      </c>
+      <c r="JG31" t="n">
+        <v>44</v>
+      </c>
+      <c r="JH31" t="n">
+        <v>40</v>
+      </c>
+      <c r="JI31" t="n">
+        <v>42</v>
+      </c>
+      <c r="JJ31" t="n">
+        <v>57</v>
+      </c>
+      <c r="JK31" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25988,6 +26546,24 @@
       <c r="JE32" t="n">
         <v>2.1</v>
       </c>
+      <c r="JF32" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="JG32" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="JH32" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="JI32" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="JJ32" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="JK32" t="n">
+        <v>2.62</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26787,6 +27363,24 @@
       <c r="JE33" t="n">
         <v>3.38</v>
       </c>
+      <c r="JF33" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="JG33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="JH33" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="JI33" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="JJ33" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="JK33" t="n">
+        <v>4.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27586,6 +28180,24 @@
       <c r="JE34" t="n">
         <v>40.9</v>
       </c>
+      <c r="JF34" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="JG34" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="JH34" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="JI34" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="JJ34" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="JK34" t="n">
+        <v>35.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28385,6 +28997,24 @@
       <c r="JE35" t="n">
         <v>29.5</v>
       </c>
+      <c r="JF35" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="JG35" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="JH35" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="JI35" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="JJ35" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="JK35" t="n">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -29184,6 +29814,24 @@
       <c r="JE36" t="n">
         <v>189.1</v>
       </c>
+      <c r="JF36" t="n">
+        <v>189</v>
+      </c>
+      <c r="JG36" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="JH36" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="JI36" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JJ36" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="JK36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29983,6 +30631,24 @@
       <c r="JE37" t="n">
         <v>86.3</v>
       </c>
+      <c r="JF37" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="JG37" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JH37" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="JI37" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="JJ37" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="JK37" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30782,6 +31448,24 @@
       <c r="JE38" t="n">
         <v>25.41</v>
       </c>
+      <c r="JF38" t="n">
+        <v>26</v>
+      </c>
+      <c r="JG38" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JH38" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="JI38" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="JJ38" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JK38" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31581,6 +32265,24 @@
       <c r="JE39" t="n">
         <v>88.8</v>
       </c>
+      <c r="JF39" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="JG39" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="JH39" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="JI39" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="JJ39" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="JK39" t="n">
+        <v>113.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32380,6 +33082,24 @@
       <c r="JE40" t="n">
         <v>11</v>
       </c>
+      <c r="JF40" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG40" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH40" t="n">
+        <v>8</v>
+      </c>
+      <c r="JI40" t="n">
+        <v>8</v>
+      </c>
+      <c r="JJ40" t="n">
+        <v>8</v>
+      </c>
+      <c r="JK40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -33179,6 +33899,24 @@
       <c r="JE41" t="n">
         <v>4</v>
       </c>
+      <c r="JF41" t="n">
+        <v>4</v>
+      </c>
+      <c r="JG41" t="n">
+        <v>4</v>
+      </c>
+      <c r="JH41" t="n">
+        <v>2</v>
+      </c>
+      <c r="JI41" t="n">
+        <v>5</v>
+      </c>
+      <c r="JJ41" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33978,6 +34716,24 @@
       <c r="JE42" t="n">
         <v>2</v>
       </c>
+      <c r="JF42" t="n">
+        <v>3</v>
+      </c>
+      <c r="JG42" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH42" t="n">
+        <v>4</v>
+      </c>
+      <c r="JI42" t="n">
+        <v>2</v>
+      </c>
+      <c r="JJ42" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34777,6 +35533,24 @@
       <c r="JE43" t="n">
         <v>6</v>
       </c>
+      <c r="JF43" t="n">
+        <v>7</v>
+      </c>
+      <c r="JG43" t="n">
+        <v>7</v>
+      </c>
+      <c r="JH43" t="n">
+        <v>9</v>
+      </c>
+      <c r="JI43" t="n">
+        <v>8</v>
+      </c>
+      <c r="JJ43" t="n">
+        <v>8</v>
+      </c>
+      <c r="JK43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -35576,6 +36350,24 @@
       <c r="JE44" t="n">
         <v>113</v>
       </c>
+      <c r="JF44" t="n">
+        <v>112</v>
+      </c>
+      <c r="JG44" t="n">
+        <v>127</v>
+      </c>
+      <c r="JH44" t="n">
+        <v>105</v>
+      </c>
+      <c r="JI44" t="n">
+        <v>113</v>
+      </c>
+      <c r="JJ44" t="n">
+        <v>131</v>
+      </c>
+      <c r="JK44" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -36375,6 +37167,24 @@
       <c r="JE45" t="n">
         <v>171</v>
       </c>
+      <c r="JF45" t="n">
+        <v>217</v>
+      </c>
+      <c r="JG45" t="n">
+        <v>209</v>
+      </c>
+      <c r="JH45" t="n">
+        <v>220</v>
+      </c>
+      <c r="JI45" t="n">
+        <v>200</v>
+      </c>
+      <c r="JJ45" t="n">
+        <v>237</v>
+      </c>
+      <c r="JK45" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -37174,6 +37984,24 @@
       <c r="JE46" t="n">
         <v>217</v>
       </c>
+      <c r="JF46" t="n">
+        <v>259</v>
+      </c>
+      <c r="JG46" t="n">
+        <v>246</v>
+      </c>
+      <c r="JH46" t="n">
+        <v>238</v>
+      </c>
+      <c r="JI46" t="n">
+        <v>241</v>
+      </c>
+      <c r="JJ46" t="n">
+        <v>282</v>
+      </c>
+      <c r="JK46" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -37973,6 +38801,24 @@
       <c r="JE47" t="n">
         <v>75.3</v>
       </c>
+      <c r="JF47" t="n">
+        <v>79</v>
+      </c>
+      <c r="JG47" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="JH47" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="JI47" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="JJ47" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="JK47" t="n">
+        <v>71.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -38772,6 +39618,24 @@
       <c r="JE48" t="n">
         <v>40</v>
       </c>
+      <c r="JF48" t="n">
+        <v>53</v>
+      </c>
+      <c r="JG48" t="n">
+        <v>69</v>
+      </c>
+      <c r="JH48" t="n">
+        <v>49</v>
+      </c>
+      <c r="JI48" t="n">
+        <v>43</v>
+      </c>
+      <c r="JJ48" t="n">
+        <v>55</v>
+      </c>
+      <c r="JK48" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -39571,6 +40435,24 @@
       <c r="JE49" t="n">
         <v>12</v>
       </c>
+      <c r="JF49" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG49" t="n">
+        <v>10</v>
+      </c>
+      <c r="JH49" t="n">
+        <v>7</v>
+      </c>
+      <c r="JI49" t="n">
+        <v>8</v>
+      </c>
+      <c r="JJ49" t="n">
+        <v>12</v>
+      </c>
+      <c r="JK49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -40370,6 +41252,24 @@
       <c r="JE50" t="n">
         <v>13</v>
       </c>
+      <c r="JF50" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG50" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH50" t="n">
+        <v>7</v>
+      </c>
+      <c r="JI50" t="n">
+        <v>18</v>
+      </c>
+      <c r="JJ50" t="n">
+        <v>11</v>
+      </c>
+      <c r="JK50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -41169,6 +42069,24 @@
       <c r="JE51" t="n">
         <v>36</v>
       </c>
+      <c r="JF51" t="n">
+        <v>30</v>
+      </c>
+      <c r="JG51" t="n">
+        <v>34</v>
+      </c>
+      <c r="JH51" t="n">
+        <v>29</v>
+      </c>
+      <c r="JI51" t="n">
+        <v>30</v>
+      </c>
+      <c r="JJ51" t="n">
+        <v>44</v>
+      </c>
+      <c r="JK51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -41968,6 +42886,24 @@
       <c r="JE52" t="n">
         <v>27</v>
       </c>
+      <c r="JF52" t="n">
+        <v>40</v>
+      </c>
+      <c r="JG52" t="n">
+        <v>44</v>
+      </c>
+      <c r="JH52" t="n">
+        <v>37</v>
+      </c>
+      <c r="JI52" t="n">
+        <v>41</v>
+      </c>
+      <c r="JJ52" t="n">
+        <v>32</v>
+      </c>
+      <c r="JK52" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -42767,6 +43703,24 @@
       <c r="JE53" t="n">
         <v>33</v>
       </c>
+      <c r="JF53" t="n">
+        <v>37</v>
+      </c>
+      <c r="JG53" t="n">
+        <v>57</v>
+      </c>
+      <c r="JH53" t="n">
+        <v>26</v>
+      </c>
+      <c r="JI53" t="n">
+        <v>35</v>
+      </c>
+      <c r="JJ53" t="n">
+        <v>40</v>
+      </c>
+      <c r="JK53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -43566,6 +44520,24 @@
       <c r="JE54" t="n">
         <v>4</v>
       </c>
+      <c r="JF54" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG54" t="n">
+        <v>2</v>
+      </c>
+      <c r="JH54" t="n">
+        <v>8</v>
+      </c>
+      <c r="JI54" t="n">
+        <v>5</v>
+      </c>
+      <c r="JJ54" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -44365,6 +45337,24 @@
       <c r="JE55" t="n">
         <v>8</v>
       </c>
+      <c r="JF55" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG55" t="n">
+        <v>6</v>
+      </c>
+      <c r="JH55" t="n">
+        <v>6</v>
+      </c>
+      <c r="JI55" t="n">
+        <v>12</v>
+      </c>
+      <c r="JJ55" t="n">
+        <v>8</v>
+      </c>
+      <c r="JK55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -45164,6 +46154,24 @@
       <c r="JE56" t="n">
         <v>61.5</v>
       </c>
+      <c r="JF56" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="JG56" t="n">
+        <v>75</v>
+      </c>
+      <c r="JH56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JI56" t="n">
+        <v>75</v>
+      </c>
+      <c r="JJ56" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="JK56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -45963,6 +46971,24 @@
       <c r="JE57" t="n">
         <v>224</v>
       </c>
+      <c r="JF57" t="n">
+        <v>218</v>
+      </c>
+      <c r="JG57" t="n">
+        <v>201</v>
+      </c>
+      <c r="JH57" t="n">
+        <v>205</v>
+      </c>
+      <c r="JI57" t="n">
+        <v>203</v>
+      </c>
+      <c r="JJ57" t="n">
+        <v>204</v>
+      </c>
+      <c r="JK57" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -46762,6 +47788,24 @@
       <c r="JE58" t="n">
         <v>164</v>
       </c>
+      <c r="JF58" t="n">
+        <v>180</v>
+      </c>
+      <c r="JG58" t="n">
+        <v>166</v>
+      </c>
+      <c r="JH58" t="n">
+        <v>140</v>
+      </c>
+      <c r="JI58" t="n">
+        <v>132</v>
+      </c>
+      <c r="JJ58" t="n">
+        <v>144</v>
+      </c>
+      <c r="JK58" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -47561,6 +48605,24 @@
       <c r="JE59" t="n">
         <v>388</v>
       </c>
+      <c r="JF59" t="n">
+        <v>398</v>
+      </c>
+      <c r="JG59" t="n">
+        <v>367</v>
+      </c>
+      <c r="JH59" t="n">
+        <v>345</v>
+      </c>
+      <c r="JI59" t="n">
+        <v>335</v>
+      </c>
+      <c r="JJ59" t="n">
+        <v>348</v>
+      </c>
+      <c r="JK59" t="n">
+        <v>368</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -48360,6 +49422,24 @@
       <c r="JE60" t="n">
         <v>1.37</v>
       </c>
+      <c r="JF60" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="JG60" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="JH60" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="JI60" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="JJ60" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="JK60" t="n">
+        <v>1.97</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -49159,6 +50239,24 @@
       <c r="JE61" t="n">
         <v>121</v>
       </c>
+      <c r="JF61" t="n">
+        <v>93</v>
+      </c>
+      <c r="JG61" t="n">
+        <v>71</v>
+      </c>
+      <c r="JH61" t="n">
+        <v>99</v>
+      </c>
+      <c r="JI61" t="n">
+        <v>101</v>
+      </c>
+      <c r="JJ61" t="n">
+        <v>107</v>
+      </c>
+      <c r="JK61" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -49958,6 +51056,24 @@
       <c r="JE62" t="n">
         <v>63</v>
       </c>
+      <c r="JF62" t="n">
+        <v>60</v>
+      </c>
+      <c r="JG62" t="n">
+        <v>75</v>
+      </c>
+      <c r="JH62" t="n">
+        <v>55</v>
+      </c>
+      <c r="JI62" t="n">
+        <v>45</v>
+      </c>
+      <c r="JJ62" t="n">
+        <v>41</v>
+      </c>
+      <c r="JK62" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -50757,6 +51873,24 @@
       <c r="JE63" t="n">
         <v>42</v>
       </c>
+      <c r="JF63" t="n">
+        <v>44</v>
+      </c>
+      <c r="JG63" t="n">
+        <v>48</v>
+      </c>
+      <c r="JH63" t="n">
+        <v>43</v>
+      </c>
+      <c r="JI63" t="n">
+        <v>36</v>
+      </c>
+      <c r="JJ63" t="n">
+        <v>31</v>
+      </c>
+      <c r="JK63" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -51556,6 +52690,24 @@
       <c r="JE64" t="n">
         <v>16</v>
       </c>
+      <c r="JF64" t="n">
+        <v>26</v>
+      </c>
+      <c r="JG64" t="n">
+        <v>24</v>
+      </c>
+      <c r="JH64" t="n">
+        <v>19</v>
+      </c>
+      <c r="JI64" t="n">
+        <v>13</v>
+      </c>
+      <c r="JJ64" t="n">
+        <v>20</v>
+      </c>
+      <c r="JK64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -52355,6 +53507,24 @@
       <c r="JE65" t="n">
         <v>15</v>
       </c>
+      <c r="JF65" t="n">
+        <v>16</v>
+      </c>
+      <c r="JG65" t="n">
+        <v>22</v>
+      </c>
+      <c r="JH65" t="n">
+        <v>24</v>
+      </c>
+      <c r="JI65" t="n">
+        <v>14</v>
+      </c>
+      <c r="JJ65" t="n">
+        <v>16</v>
+      </c>
+      <c r="JK65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -53154,6 +54324,24 @@
       <c r="JE66" t="n">
         <v>21</v>
       </c>
+      <c r="JF66" t="n">
+        <v>25</v>
+      </c>
+      <c r="JG66" t="n">
+        <v>13</v>
+      </c>
+      <c r="JH66" t="n">
+        <v>12</v>
+      </c>
+      <c r="JI66" t="n">
+        <v>14</v>
+      </c>
+      <c r="JJ66" t="n">
+        <v>20</v>
+      </c>
+      <c r="JK66" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -53953,6 +55141,24 @@
       <c r="JE67" t="n">
         <v>14</v>
       </c>
+      <c r="JF67" t="n">
+        <v>17</v>
+      </c>
+      <c r="JG67" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH67" t="n">
+        <v>9</v>
+      </c>
+      <c r="JI67" t="n">
+        <v>11</v>
+      </c>
+      <c r="JJ67" t="n">
+        <v>11</v>
+      </c>
+      <c r="JK67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -54752,6 +55958,24 @@
       <c r="JE68" t="n">
         <v>10</v>
       </c>
+      <c r="JF68" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG68" t="n">
+        <v>7</v>
+      </c>
+      <c r="JH68" t="n">
+        <v>8</v>
+      </c>
+      <c r="JI68" t="n">
+        <v>11</v>
+      </c>
+      <c r="JJ68" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -55551,6 +56775,24 @@
       <c r="JE69" t="n">
         <v>2</v>
       </c>
+      <c r="JF69" t="n">
+        <v>2</v>
+      </c>
+      <c r="JG69" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH69" t="n">
+        <v>1</v>
+      </c>
+      <c r="JI69" t="n">
+        <v>2</v>
+      </c>
+      <c r="JJ69" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -56350,6 +57592,24 @@
       <c r="JE70" t="n">
         <v>33</v>
       </c>
+      <c r="JF70" t="n">
+        <v>36</v>
+      </c>
+      <c r="JG70" t="n">
+        <v>23</v>
+      </c>
+      <c r="JH70" t="n">
+        <v>21</v>
+      </c>
+      <c r="JI70" t="n">
+        <v>27</v>
+      </c>
+      <c r="JJ70" t="n">
+        <v>28</v>
+      </c>
+      <c r="JK70" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -57149,6 +58409,24 @@
       <c r="JE71" t="n">
         <v>63.6</v>
       </c>
+      <c r="JF71" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="JG71" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="JH71" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JI71" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="JJ71" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JK71" t="n">
+        <v>54.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -57948,6 +59226,24 @@
       <c r="JE72" t="n">
         <v>18.48</v>
       </c>
+      <c r="JF72" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="JG72" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="JH72" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="JI72" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="JJ72" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="JK72" t="n">
+        <v>21.65</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -58747,6 +60043,24 @@
       <c r="JE73" t="n">
         <v>11.76</v>
       </c>
+      <c r="JF73" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="JG73" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="JH73" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="JI73" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="JJ73" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="JK73" t="n">
+        <v>11.87</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -59546,6 +60860,24 @@
       <c r="JE74" t="n">
         <v>40</v>
       </c>
+      <c r="JF74" t="n">
+        <v>41</v>
+      </c>
+      <c r="JG74" t="n">
+        <v>37</v>
+      </c>
+      <c r="JH74" t="n">
+        <v>38</v>
+      </c>
+      <c r="JI74" t="n">
+        <v>37</v>
+      </c>
+      <c r="JJ74" t="n">
+        <v>32</v>
+      </c>
+      <c r="JK74" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -60345,6 +61677,24 @@
       <c r="JE75" t="n">
         <v>50</v>
       </c>
+      <c r="JF75" t="n">
+        <v>45</v>
+      </c>
+      <c r="JG75" t="n">
+        <v>61</v>
+      </c>
+      <c r="JH75" t="n">
+        <v>54</v>
+      </c>
+      <c r="JI75" t="n">
+        <v>52</v>
+      </c>
+      <c r="JJ75" t="n">
+        <v>49</v>
+      </c>
+      <c r="JK75" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -61144,6 +62494,24 @@
       <c r="JE76" t="n">
         <v>30</v>
       </c>
+      <c r="JF76" t="n">
+        <v>28</v>
+      </c>
+      <c r="JG76" t="n">
+        <v>36</v>
+      </c>
+      <c r="JH76" t="n">
+        <v>29</v>
+      </c>
+      <c r="JI76" t="n">
+        <v>26</v>
+      </c>
+      <c r="JJ76" t="n">
+        <v>41</v>
+      </c>
+      <c r="JK76" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -61943,6 +63311,24 @@
       <c r="JE77" t="n">
         <v>48</v>
       </c>
+      <c r="JF77" t="n">
+        <v>68</v>
+      </c>
+      <c r="JG77" t="n">
+        <v>59</v>
+      </c>
+      <c r="JH77" t="n">
+        <v>51</v>
+      </c>
+      <c r="JI77" t="n">
+        <v>58</v>
+      </c>
+      <c r="JJ77" t="n">
+        <v>53</v>
+      </c>
+      <c r="JK77" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -62742,6 +64128,24 @@
       <c r="JE78" t="n">
         <v>1.45</v>
       </c>
+      <c r="JF78" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="JG78" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="JH78" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="JI78" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="JJ78" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="JK78" t="n">
+        <v>2.23</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -63541,6 +64945,24 @@
       <c r="JE79" t="n">
         <v>2.29</v>
       </c>
+      <c r="JF79" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="JG79" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="JH79" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="JI79" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="JJ79" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="JK79" t="n">
+        <v>4.06</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -64340,6 +65762,24 @@
       <c r="JE80" t="n">
         <v>64.59999999999999</v>
       </c>
+      <c r="JF80" t="n">
+        <v>50</v>
+      </c>
+      <c r="JG80" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JH80" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="JI80" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="JJ80" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="JK80" t="n">
+        <v>40.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -65139,6 +66579,24 @@
       <c r="JE81" t="n">
         <v>43.8</v>
       </c>
+      <c r="JF81" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="JG81" t="n">
+        <v>22</v>
+      </c>
+      <c r="JH81" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="JI81" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="JJ81" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="JK81" t="n">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -65938,6 +67396,24 @@
       <c r="JE82" t="n">
         <v>188.7</v>
       </c>
+      <c r="JF82" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JG82" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="JH82" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JI82" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JJ82" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="JK82" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -66737,6 +68213,24 @@
       <c r="JE83" t="n">
         <v>87.09999999999999</v>
       </c>
+      <c r="JF83" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="JG83" t="n">
+        <v>86</v>
+      </c>
+      <c r="JH83" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JI83" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="JJ83" t="n">
+        <v>86</v>
+      </c>
+      <c r="JK83" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -67536,6 +69030,24 @@
       <c r="JE84" t="n">
         <v>25.16</v>
       </c>
+      <c r="JF84" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="JG84" t="n">
+        <v>24</v>
+      </c>
+      <c r="JH84" t="n">
+        <v>28.24</v>
+      </c>
+      <c r="JI84" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="JJ84" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="JK84" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -68335,6 +69847,24 @@
       <c r="JE85" t="n">
         <v>77.7</v>
       </c>
+      <c r="JF85" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="JG85" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="JH85" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="JI85" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="JJ85" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="JK85" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -69134,6 +70664,24 @@
       <c r="JE86" t="n">
         <v>13</v>
       </c>
+      <c r="JF86" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG86" t="n">
+        <v>13</v>
+      </c>
+      <c r="JH86" t="n">
+        <v>5</v>
+      </c>
+      <c r="JI86" t="n">
+        <v>11</v>
+      </c>
+      <c r="JJ86" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -69933,6 +71481,24 @@
       <c r="JE87" t="n">
         <v>2</v>
       </c>
+      <c r="JF87" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG87" t="n">
+        <v>6</v>
+      </c>
+      <c r="JH87" t="n">
+        <v>3</v>
+      </c>
+      <c r="JI87" t="n">
+        <v>5</v>
+      </c>
+      <c r="JJ87" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -70732,6 +72298,24 @@
       <c r="JE88" t="n">
         <v>3</v>
       </c>
+      <c r="JF88" t="n">
+        <v>3</v>
+      </c>
+      <c r="JG88" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH88" t="n">
+        <v>4</v>
+      </c>
+      <c r="JI88" t="n">
+        <v>3</v>
+      </c>
+      <c r="JJ88" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -71531,6 +73115,24 @@
       <c r="JE89" t="n">
         <v>5</v>
       </c>
+      <c r="JF89" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG89" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH89" t="n">
+        <v>10</v>
+      </c>
+      <c r="JI89" t="n">
+        <v>4</v>
+      </c>
+      <c r="JJ89" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -72330,6 +73932,24 @@
       <c r="JE90" t="n">
         <v>141</v>
       </c>
+      <c r="JF90" t="n">
+        <v>139</v>
+      </c>
+      <c r="JG90" t="n">
+        <v>153</v>
+      </c>
+      <c r="JH90" t="n">
+        <v>123</v>
+      </c>
+      <c r="JI90" t="n">
+        <v>118</v>
+      </c>
+      <c r="JJ90" t="n">
+        <v>112</v>
+      </c>
+      <c r="JK90" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -73129,6 +74749,24 @@
       <c r="JE91" t="n">
         <v>252</v>
       </c>
+      <c r="JF91" t="n">
+        <v>255</v>
+      </c>
+      <c r="JG91" t="n">
+        <v>215</v>
+      </c>
+      <c r="JH91" t="n">
+        <v>220</v>
+      </c>
+      <c r="JI91" t="n">
+        <v>217</v>
+      </c>
+      <c r="JJ91" t="n">
+        <v>232</v>
+      </c>
+      <c r="JK91" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -73928,6 +75566,24 @@
       <c r="JE92" t="n">
         <v>297</v>
       </c>
+      <c r="JF92" t="n">
+        <v>316</v>
+      </c>
+      <c r="JG92" t="n">
+        <v>267</v>
+      </c>
+      <c r="JH92" t="n">
+        <v>250</v>
+      </c>
+      <c r="JI92" t="n">
+        <v>259</v>
+      </c>
+      <c r="JJ92" t="n">
+        <v>271</v>
+      </c>
+      <c r="JK92" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -74727,6 +76383,24 @@
       <c r="JE93" t="n">
         <v>76.5</v>
       </c>
+      <c r="JF93" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="JG93" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="JH93" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="JI93" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="JJ93" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="JK93" t="n">
+        <v>73.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -75526,6 +77200,24 @@
       <c r="JE94" t="n">
         <v>50</v>
       </c>
+      <c r="JF94" t="n">
+        <v>45</v>
+      </c>
+      <c r="JG94" t="n">
+        <v>61</v>
+      </c>
+      <c r="JH94" t="n">
+        <v>54</v>
+      </c>
+      <c r="JI94" t="n">
+        <v>52</v>
+      </c>
+      <c r="JJ94" t="n">
+        <v>49</v>
+      </c>
+      <c r="JK94" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -76325,6 +78017,24 @@
       <c r="JE95" t="n">
         <v>13</v>
       </c>
+      <c r="JF95" t="n">
+        <v>11</v>
+      </c>
+      <c r="JG95" t="n">
+        <v>8</v>
+      </c>
+      <c r="JH95" t="n">
+        <v>8</v>
+      </c>
+      <c r="JI95" t="n">
+        <v>9</v>
+      </c>
+      <c r="JJ95" t="n">
+        <v>13</v>
+      </c>
+      <c r="JK95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -77124,6 +78834,24 @@
       <c r="JE96" t="n">
         <v>21</v>
       </c>
+      <c r="JF96" t="n">
+        <v>20</v>
+      </c>
+      <c r="JG96" t="n">
+        <v>11</v>
+      </c>
+      <c r="JH96" t="n">
+        <v>14</v>
+      </c>
+      <c r="JI96" t="n">
+        <v>13</v>
+      </c>
+      <c r="JJ96" t="n">
+        <v>13</v>
+      </c>
+      <c r="JK96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -77923,6 +79651,24 @@
       <c r="JE97" t="n">
         <v>40</v>
       </c>
+      <c r="JF97" t="n">
+        <v>41</v>
+      </c>
+      <c r="JG97" t="n">
+        <v>37</v>
+      </c>
+      <c r="JH97" t="n">
+        <v>38</v>
+      </c>
+      <c r="JI97" t="n">
+        <v>37</v>
+      </c>
+      <c r="JJ97" t="n">
+        <v>32</v>
+      </c>
+      <c r="JK97" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -78722,6 +80468,24 @@
       <c r="JE98" t="n">
         <v>30</v>
       </c>
+      <c r="JF98" t="n">
+        <v>28</v>
+      </c>
+      <c r="JG98" t="n">
+        <v>36</v>
+      </c>
+      <c r="JH98" t="n">
+        <v>29</v>
+      </c>
+      <c r="JI98" t="n">
+        <v>26</v>
+      </c>
+      <c r="JJ98" t="n">
+        <v>41</v>
+      </c>
+      <c r="JK98" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -79521,6 +81285,24 @@
       <c r="JE99" t="n">
         <v>37</v>
       </c>
+      <c r="JF99" t="n">
+        <v>41</v>
+      </c>
+      <c r="JG99" t="n">
+        <v>42</v>
+      </c>
+      <c r="JH99" t="n">
+        <v>41</v>
+      </c>
+      <c r="JI99" t="n">
+        <v>47</v>
+      </c>
+      <c r="JJ99" t="n">
+        <v>42</v>
+      </c>
+      <c r="JK99" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -80320,6 +82102,24 @@
       <c r="JE100" t="n">
         <v>5</v>
       </c>
+      <c r="JF100" t="n">
+        <v>13</v>
+      </c>
+      <c r="JG100" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH100" t="n">
+        <v>4</v>
+      </c>
+      <c r="JI100" t="n">
+        <v>6</v>
+      </c>
+      <c r="JJ100" t="n">
+        <v>25</v>
+      </c>
+      <c r="JK100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -81119,6 +82919,24 @@
       <c r="JE101" t="n">
         <v>14</v>
       </c>
+      <c r="JF101" t="n">
+        <v>17</v>
+      </c>
+      <c r="JG101" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH101" t="n">
+        <v>9</v>
+      </c>
+      <c r="JI101" t="n">
+        <v>11</v>
+      </c>
+      <c r="JJ101" t="n">
+        <v>11</v>
+      </c>
+      <c r="JK101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -81918,6 +83736,24 @@
       <c r="JE102" t="n">
         <v>66.7</v>
       </c>
+      <c r="JF102" t="n">
+        <v>68</v>
+      </c>
+      <c r="JG102" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="JH102" t="n">
+        <v>75</v>
+      </c>
+      <c r="JI102" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="JJ102" t="n">
+        <v>55</v>
+      </c>
+      <c r="JK102" t="n">
+        <v>41.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/West Coast_stats.xlsx
+++ b/django_AFL_ML/Data/West Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JK102"/>
+  <dimension ref="A1:JS102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,6 +1237,30 @@
       <c r="JK1" t="n">
         <v>10687</v>
       </c>
+      <c r="JL1" t="n">
+        <v>10691</v>
+      </c>
+      <c r="JM1" t="n">
+        <v>10691</v>
+      </c>
+      <c r="JN1" t="n">
+        <v>10691</v>
+      </c>
+      <c r="JO1" t="n">
+        <v>10705</v>
+      </c>
+      <c r="JP1" t="n">
+        <v>10709</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>10723</v>
+      </c>
+      <c r="JR1" t="n">
+        <v>10732</v>
+      </c>
+      <c r="JS1" t="n">
+        <v>10736</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2054,6 +2078,30 @@
       <c r="JK2" t="n">
         <v>2022</v>
       </c>
+      <c r="JL2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2871,6 +2919,30 @@
       <c r="JK3" t="n">
         <v>17</v>
       </c>
+      <c r="JL3" t="n">
+        <v>18</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>18</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>18</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>19</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>20</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>22</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3688,6 +3760,30 @@
       <c r="JK4" t="n">
         <v>0</v>
       </c>
+      <c r="JL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4505,6 +4601,30 @@
       <c r="JK5" t="n">
         <v>1</v>
       </c>
+      <c r="JL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5322,6 +5442,30 @@
       <c r="JK6" t="n">
         <v>53</v>
       </c>
+      <c r="JL6" t="n">
+        <v>77</v>
+      </c>
+      <c r="JM6" t="n">
+        <v>77</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>77</v>
+      </c>
+      <c r="JO6" t="n">
+        <v>62</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>104</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>86</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>47</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6139,6 +6283,30 @@
       <c r="JK7" t="n">
         <v>116</v>
       </c>
+      <c r="JL7" t="n">
+        <v>102</v>
+      </c>
+      <c r="JM7" t="n">
+        <v>102</v>
+      </c>
+      <c r="JN7" t="n">
+        <v>102</v>
+      </c>
+      <c r="JO7" t="n">
+        <v>90</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>107</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>102</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>71</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6956,6 +7124,30 @@
       <c r="JK8" t="n">
         <v>-63</v>
       </c>
+      <c r="JL8" t="n">
+        <v>-25</v>
+      </c>
+      <c r="JM8" t="n">
+        <v>-25</v>
+      </c>
+      <c r="JN8" t="n">
+        <v>-25</v>
+      </c>
+      <c r="JO8" t="n">
+        <v>-28</v>
+      </c>
+      <c r="JP8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>-16</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>-24</v>
+      </c>
+      <c r="JS8" t="n">
+        <v>-85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7773,6 +7965,30 @@
       <c r="JK9" t="n">
         <v>0</v>
       </c>
+      <c r="JL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8590,6 +8806,30 @@
       <c r="JK10" t="n">
         <v>3</v>
       </c>
+      <c r="JL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="JM10" t="n">
+        <v>10</v>
+      </c>
+      <c r="JN10" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9407,6 +9647,30 @@
       <c r="JK11" t="n">
         <v>202</v>
       </c>
+      <c r="JL11" t="n">
+        <v>224</v>
+      </c>
+      <c r="JM11" t="n">
+        <v>224</v>
+      </c>
+      <c r="JN11" t="n">
+        <v>224</v>
+      </c>
+      <c r="JO11" t="n">
+        <v>219</v>
+      </c>
+      <c r="JP11" t="n">
+        <v>222</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>206</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>211</v>
+      </c>
+      <c r="JS11" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10224,6 +10488,30 @@
       <c r="JK12" t="n">
         <v>96</v>
       </c>
+      <c r="JL12" t="n">
+        <v>122</v>
+      </c>
+      <c r="JM12" t="n">
+        <v>122</v>
+      </c>
+      <c r="JN12" t="n">
+        <v>122</v>
+      </c>
+      <c r="JO12" t="n">
+        <v>109</v>
+      </c>
+      <c r="JP12" t="n">
+        <v>146</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>136</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>102</v>
+      </c>
+      <c r="JS12" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11041,6 +11329,30 @@
       <c r="JK13" t="n">
         <v>298</v>
       </c>
+      <c r="JL13" t="n">
+        <v>346</v>
+      </c>
+      <c r="JM13" t="n">
+        <v>346</v>
+      </c>
+      <c r="JN13" t="n">
+        <v>346</v>
+      </c>
+      <c r="JO13" t="n">
+        <v>328</v>
+      </c>
+      <c r="JP13" t="n">
+        <v>368</v>
+      </c>
+      <c r="JQ13" t="n">
+        <v>342</v>
+      </c>
+      <c r="JR13" t="n">
+        <v>313</v>
+      </c>
+      <c r="JS13" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11858,6 +12170,30 @@
       <c r="JK14" t="n">
         <v>2.1</v>
       </c>
+      <c r="JL14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="JM14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="JN14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="JO14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="JP14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="JQ14" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="JR14" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="JS14" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12675,6 +13011,30 @@
       <c r="JK15" t="n">
         <v>90</v>
       </c>
+      <c r="JL15" t="n">
+        <v>98</v>
+      </c>
+      <c r="JM15" t="n">
+        <v>98</v>
+      </c>
+      <c r="JN15" t="n">
+        <v>98</v>
+      </c>
+      <c r="JO15" t="n">
+        <v>104</v>
+      </c>
+      <c r="JP15" t="n">
+        <v>110</v>
+      </c>
+      <c r="JQ15" t="n">
+        <v>93</v>
+      </c>
+      <c r="JR15" t="n">
+        <v>87</v>
+      </c>
+      <c r="JS15" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13492,6 +13852,30 @@
       <c r="JK16" t="n">
         <v>50</v>
       </c>
+      <c r="JL16" t="n">
+        <v>81</v>
+      </c>
+      <c r="JM16" t="n">
+        <v>81</v>
+      </c>
+      <c r="JN16" t="n">
+        <v>81</v>
+      </c>
+      <c r="JO16" t="n">
+        <v>67</v>
+      </c>
+      <c r="JP16" t="n">
+        <v>64</v>
+      </c>
+      <c r="JQ16" t="n">
+        <v>88</v>
+      </c>
+      <c r="JR16" t="n">
+        <v>82</v>
+      </c>
+      <c r="JS16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14309,6 +14693,30 @@
       <c r="JK17" t="n">
         <v>43</v>
       </c>
+      <c r="JL17" t="n">
+        <v>24</v>
+      </c>
+      <c r="JM17" t="n">
+        <v>24</v>
+      </c>
+      <c r="JN17" t="n">
+        <v>24</v>
+      </c>
+      <c r="JO17" t="n">
+        <v>31</v>
+      </c>
+      <c r="JP17" t="n">
+        <v>41</v>
+      </c>
+      <c r="JQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="JR17" t="n">
+        <v>28</v>
+      </c>
+      <c r="JS17" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15126,6 +15534,30 @@
       <c r="JK18" t="n">
         <v>22</v>
       </c>
+      <c r="JL18" t="n">
+        <v>19</v>
+      </c>
+      <c r="JM18" t="n">
+        <v>19</v>
+      </c>
+      <c r="JN18" t="n">
+        <v>19</v>
+      </c>
+      <c r="JO18" t="n">
+        <v>26</v>
+      </c>
+      <c r="JP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="JQ18" t="n">
+        <v>28</v>
+      </c>
+      <c r="JR18" t="n">
+        <v>22</v>
+      </c>
+      <c r="JS18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15943,6 +16375,30 @@
       <c r="JK19" t="n">
         <v>20</v>
       </c>
+      <c r="JL19" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM19" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN19" t="n">
+        <v>12</v>
+      </c>
+      <c r="JO19" t="n">
+        <v>19</v>
+      </c>
+      <c r="JP19" t="n">
+        <v>18</v>
+      </c>
+      <c r="JQ19" t="n">
+        <v>22</v>
+      </c>
+      <c r="JR19" t="n">
+        <v>19</v>
+      </c>
+      <c r="JS19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16760,6 +17216,30 @@
       <c r="JK20" t="n">
         <v>8</v>
       </c>
+      <c r="JL20" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM20" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN20" t="n">
+        <v>12</v>
+      </c>
+      <c r="JO20" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP20" t="n">
+        <v>16</v>
+      </c>
+      <c r="JQ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="JR20" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17577,6 +18057,30 @@
       <c r="JK21" t="n">
         <v>4</v>
       </c>
+      <c r="JL21" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM21" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN21" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO21" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP21" t="n">
+        <v>14</v>
+      </c>
+      <c r="JQ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="JR21" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18394,6 +18898,30 @@
       <c r="JK22" t="n">
         <v>4</v>
       </c>
+      <c r="JL22" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM22" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN22" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO22" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP22" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR22" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19211,6 +19739,30 @@
       <c r="JK23" t="n">
         <v>1</v>
       </c>
+      <c r="JL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP23" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20028,6 +20580,30 @@
       <c r="JK24" t="n">
         <v>13</v>
       </c>
+      <c r="JL24" t="n">
+        <v>17</v>
+      </c>
+      <c r="JM24" t="n">
+        <v>17</v>
+      </c>
+      <c r="JN24" t="n">
+        <v>17</v>
+      </c>
+      <c r="JO24" t="n">
+        <v>12</v>
+      </c>
+      <c r="JP24" t="n">
+        <v>24</v>
+      </c>
+      <c r="JQ24" t="n">
+        <v>21</v>
+      </c>
+      <c r="JR24" t="n">
+        <v>12</v>
+      </c>
+      <c r="JS24" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20845,6 +21421,30 @@
       <c r="JK25" t="n">
         <v>61.5</v>
       </c>
+      <c r="JL25" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="JM25" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="JN25" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="JO25" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="JP25" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JQ25" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="JR25" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="JS25" t="n">
+        <v>63.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21662,6 +22262,30 @@
       <c r="JK26" t="n">
         <v>37.25</v>
       </c>
+      <c r="JL26" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="JM26" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="JN26" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="JO26" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="JP26" t="n">
+        <v>23</v>
+      </c>
+      <c r="JQ26" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="JR26" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="JS26" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22479,6 +23103,30 @@
       <c r="JK27" t="n">
         <v>22.92</v>
       </c>
+      <c r="JL27" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="JM27" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="JN27" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="JO27" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="JP27" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="JQ27" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="JR27" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="JS27" t="n">
+        <v>31.82</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -23296,6 +23944,30 @@
       <c r="JK28" t="n">
         <v>33</v>
       </c>
+      <c r="JL28" t="n">
+        <v>46</v>
+      </c>
+      <c r="JM28" t="n">
+        <v>46</v>
+      </c>
+      <c r="JN28" t="n">
+        <v>46</v>
+      </c>
+      <c r="JO28" t="n">
+        <v>40</v>
+      </c>
+      <c r="JP28" t="n">
+        <v>32</v>
+      </c>
+      <c r="JQ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="JR28" t="n">
+        <v>34</v>
+      </c>
+      <c r="JS28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -24113,6 +24785,30 @@
       <c r="JK29" t="n">
         <v>57</v>
       </c>
+      <c r="JL29" t="n">
+        <v>39</v>
+      </c>
+      <c r="JM29" t="n">
+        <v>39</v>
+      </c>
+      <c r="JN29" t="n">
+        <v>39</v>
+      </c>
+      <c r="JO29" t="n">
+        <v>57</v>
+      </c>
+      <c r="JP29" t="n">
+        <v>57</v>
+      </c>
+      <c r="JQ29" t="n">
+        <v>53</v>
+      </c>
+      <c r="JR29" t="n">
+        <v>54</v>
+      </c>
+      <c r="JS29" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24930,6 +25626,30 @@
       <c r="JK30" t="n">
         <v>52</v>
       </c>
+      <c r="JL30" t="n">
+        <v>40</v>
+      </c>
+      <c r="JM30" t="n">
+        <v>40</v>
+      </c>
+      <c r="JN30" t="n">
+        <v>40</v>
+      </c>
+      <c r="JO30" t="n">
+        <v>37</v>
+      </c>
+      <c r="JP30" t="n">
+        <v>40</v>
+      </c>
+      <c r="JQ30" t="n">
+        <v>33</v>
+      </c>
+      <c r="JR30" t="n">
+        <v>46</v>
+      </c>
+      <c r="JS30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25747,6 +26467,30 @@
       <c r="JK31" t="n">
         <v>34</v>
       </c>
+      <c r="JL31" t="n">
+        <v>44</v>
+      </c>
+      <c r="JM31" t="n">
+        <v>44</v>
+      </c>
+      <c r="JN31" t="n">
+        <v>44</v>
+      </c>
+      <c r="JO31" t="n">
+        <v>46</v>
+      </c>
+      <c r="JP31" t="n">
+        <v>40</v>
+      </c>
+      <c r="JQ31" t="n">
+        <v>47</v>
+      </c>
+      <c r="JR31" t="n">
+        <v>44</v>
+      </c>
+      <c r="JS31" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26564,6 +27308,30 @@
       <c r="JK32" t="n">
         <v>2.62</v>
       </c>
+      <c r="JL32" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="JM32" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="JN32" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="JO32" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="JP32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="JQ32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="JR32" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="JS32" t="n">
+        <v>2.45</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -27381,6 +28149,30 @@
       <c r="JK33" t="n">
         <v>4.25</v>
       </c>
+      <c r="JL33" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="JM33" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="JN33" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="JO33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="JP33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="JQ33" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="JR33" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="JS33" t="n">
+        <v>3.86</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -28198,6 +28990,30 @@
       <c r="JK34" t="n">
         <v>35.3</v>
       </c>
+      <c r="JL34" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JM34" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JN34" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JO34" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="JP34" t="n">
+        <v>55</v>
+      </c>
+      <c r="JQ34" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="JR34" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="JS34" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -29015,6 +29831,30 @@
       <c r="JK35" t="n">
         <v>23.5</v>
       </c>
+      <c r="JL35" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="JM35" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="JN35" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="JO35" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="JP35" t="n">
+        <v>40</v>
+      </c>
+      <c r="JQ35" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="JR35" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="JS35" t="n">
+        <v>25.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -29832,6 +30672,30 @@
       <c r="JK36" t="n">
         <v>188.4</v>
       </c>
+      <c r="JL36" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="JM36" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="JN36" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="JO36" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JP36" t="n">
+        <v>188</v>
+      </c>
+      <c r="JQ36" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="JR36" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JS36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30649,6 +31513,30 @@
       <c r="JK37" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="JL37" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JM37" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JN37" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JO37" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="JP37" t="n">
+        <v>86</v>
+      </c>
+      <c r="JQ37" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="JR37" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="JS37" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -31466,6 +32354,30 @@
       <c r="JK38" t="n">
         <v>26.24</v>
       </c>
+      <c r="JL38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JM38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JN38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JO38" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="JP38" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JQ38" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JR38" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="JS38" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -32283,6 +33195,30 @@
       <c r="JK39" t="n">
         <v>113.6</v>
       </c>
+      <c r="JL39" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="JM39" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="JN39" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="JO39" t="n">
+        <v>113</v>
+      </c>
+      <c r="JP39" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="JQ39" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="JR39" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="JS39" t="n">
+        <v>98.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -33100,6 +34036,30 @@
       <c r="JK40" t="n">
         <v>9</v>
       </c>
+      <c r="JL40" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM40" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN40" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO40" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP40" t="n">
+        <v>10</v>
+      </c>
+      <c r="JQ40" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR40" t="n">
+        <v>9</v>
+      </c>
+      <c r="JS40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -33917,6 +34877,30 @@
       <c r="JK41" t="n">
         <v>4</v>
       </c>
+      <c r="JL41" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM41" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN41" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO41" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP41" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ41" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR41" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -34734,6 +35718,30 @@
       <c r="JK42" t="n">
         <v>3</v>
       </c>
+      <c r="JL42" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM42" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN42" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO42" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP42" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ42" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR42" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -35551,6 +36559,30 @@
       <c r="JK43" t="n">
         <v>7</v>
       </c>
+      <c r="JL43" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM43" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN43" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO43" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP43" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ43" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR43" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -36368,6 +37400,30 @@
       <c r="JK44" t="n">
         <v>121</v>
       </c>
+      <c r="JL44" t="n">
+        <v>129</v>
+      </c>
+      <c r="JM44" t="n">
+        <v>129</v>
+      </c>
+      <c r="JN44" t="n">
+        <v>129</v>
+      </c>
+      <c r="JO44" t="n">
+        <v>131</v>
+      </c>
+      <c r="JP44" t="n">
+        <v>124</v>
+      </c>
+      <c r="JQ44" t="n">
+        <v>139</v>
+      </c>
+      <c r="JR44" t="n">
+        <v>124</v>
+      </c>
+      <c r="JS44" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -37185,6 +38241,30 @@
       <c r="JK45" t="n">
         <v>167</v>
       </c>
+      <c r="JL45" t="n">
+        <v>204</v>
+      </c>
+      <c r="JM45" t="n">
+        <v>204</v>
+      </c>
+      <c r="JN45" t="n">
+        <v>204</v>
+      </c>
+      <c r="JO45" t="n">
+        <v>196</v>
+      </c>
+      <c r="JP45" t="n">
+        <v>236</v>
+      </c>
+      <c r="JQ45" t="n">
+        <v>201</v>
+      </c>
+      <c r="JR45" t="n">
+        <v>182</v>
+      </c>
+      <c r="JS45" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -38002,6 +39082,30 @@
       <c r="JK46" t="n">
         <v>212</v>
       </c>
+      <c r="JL46" t="n">
+        <v>257</v>
+      </c>
+      <c r="JM46" t="n">
+        <v>257</v>
+      </c>
+      <c r="JN46" t="n">
+        <v>257</v>
+      </c>
+      <c r="JO46" t="n">
+        <v>230</v>
+      </c>
+      <c r="JP46" t="n">
+        <v>274</v>
+      </c>
+      <c r="JQ46" t="n">
+        <v>246</v>
+      </c>
+      <c r="JR46" t="n">
+        <v>218</v>
+      </c>
+      <c r="JS46" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -38819,6 +39923,30 @@
       <c r="JK47" t="n">
         <v>71.09999999999999</v>
       </c>
+      <c r="JL47" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="JM47" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="JN47" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="JO47" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="JP47" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="JQ47" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="JR47" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="JS47" t="n">
+        <v>76.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -39636,6 +40764,30 @@
       <c r="JK48" t="n">
         <v>57</v>
       </c>
+      <c r="JL48" t="n">
+        <v>39</v>
+      </c>
+      <c r="JM48" t="n">
+        <v>39</v>
+      </c>
+      <c r="JN48" t="n">
+        <v>39</v>
+      </c>
+      <c r="JO48" t="n">
+        <v>57</v>
+      </c>
+      <c r="JP48" t="n">
+        <v>57</v>
+      </c>
+      <c r="JQ48" t="n">
+        <v>53</v>
+      </c>
+      <c r="JR48" t="n">
+        <v>54</v>
+      </c>
+      <c r="JS48" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -40453,6 +41605,30 @@
       <c r="JK49" t="n">
         <v>11</v>
       </c>
+      <c r="JL49" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM49" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN49" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO49" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP49" t="n">
+        <v>12</v>
+      </c>
+      <c r="JQ49" t="n">
+        <v>9</v>
+      </c>
+      <c r="JR49" t="n">
+        <v>10</v>
+      </c>
+      <c r="JS49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -41270,6 +42446,30 @@
       <c r="JK50" t="n">
         <v>6</v>
       </c>
+      <c r="JL50" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM50" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN50" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO50" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP50" t="n">
+        <v>17</v>
+      </c>
+      <c r="JQ50" t="n">
+        <v>12</v>
+      </c>
+      <c r="JR50" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -42087,6 +43287,30 @@
       <c r="JK51" t="n">
         <v>33</v>
       </c>
+      <c r="JL51" t="n">
+        <v>46</v>
+      </c>
+      <c r="JM51" t="n">
+        <v>46</v>
+      </c>
+      <c r="JN51" t="n">
+        <v>46</v>
+      </c>
+      <c r="JO51" t="n">
+        <v>40</v>
+      </c>
+      <c r="JP51" t="n">
+        <v>32</v>
+      </c>
+      <c r="JQ51" t="n">
+        <v>41</v>
+      </c>
+      <c r="JR51" t="n">
+        <v>34</v>
+      </c>
+      <c r="JS51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -42904,6 +44128,30 @@
       <c r="JK52" t="n">
         <v>52</v>
       </c>
+      <c r="JL52" t="n">
+        <v>40</v>
+      </c>
+      <c r="JM52" t="n">
+        <v>40</v>
+      </c>
+      <c r="JN52" t="n">
+        <v>40</v>
+      </c>
+      <c r="JO52" t="n">
+        <v>37</v>
+      </c>
+      <c r="JP52" t="n">
+        <v>40</v>
+      </c>
+      <c r="JQ52" t="n">
+        <v>33</v>
+      </c>
+      <c r="JR52" t="n">
+        <v>46</v>
+      </c>
+      <c r="JS52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -43721,6 +44969,30 @@
       <c r="JK53" t="n">
         <v>44</v>
       </c>
+      <c r="JL53" t="n">
+        <v>58</v>
+      </c>
+      <c r="JM53" t="n">
+        <v>58</v>
+      </c>
+      <c r="JN53" t="n">
+        <v>58</v>
+      </c>
+      <c r="JO53" t="n">
+        <v>39</v>
+      </c>
+      <c r="JP53" t="n">
+        <v>27</v>
+      </c>
+      <c r="JQ53" t="n">
+        <v>37</v>
+      </c>
+      <c r="JR53" t="n">
+        <v>48</v>
+      </c>
+      <c r="JS53" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -44538,6 +45810,30 @@
       <c r="JK54" t="n">
         <v>2</v>
       </c>
+      <c r="JL54" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM54" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN54" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO54" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP54" t="n">
+        <v>13</v>
+      </c>
+      <c r="JQ54" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR54" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -45355,6 +46651,30 @@
       <c r="JK55" t="n">
         <v>4</v>
       </c>
+      <c r="JL55" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM55" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN55" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO55" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP55" t="n">
+        <v>14</v>
+      </c>
+      <c r="JQ55" t="n">
+        <v>11</v>
+      </c>
+      <c r="JR55" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -46172,6 +47492,30 @@
       <c r="JK56" t="n">
         <v>50</v>
       </c>
+      <c r="JL56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JM56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JN56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JO56" t="n">
+        <v>50</v>
+      </c>
+      <c r="JP56" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JQ56" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="JR56" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JS56" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -46989,6 +48333,30 @@
       <c r="JK57" t="n">
         <v>244</v>
       </c>
+      <c r="JL57" t="n">
+        <v>233</v>
+      </c>
+      <c r="JM57" t="n">
+        <v>233</v>
+      </c>
+      <c r="JN57" t="n">
+        <v>233</v>
+      </c>
+      <c r="JO57" t="n">
+        <v>224</v>
+      </c>
+      <c r="JP57" t="n">
+        <v>187</v>
+      </c>
+      <c r="JQ57" t="n">
+        <v>165</v>
+      </c>
+      <c r="JR57" t="n">
+        <v>210</v>
+      </c>
+      <c r="JS57" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -47806,6 +49174,30 @@
       <c r="JK58" t="n">
         <v>124</v>
       </c>
+      <c r="JL58" t="n">
+        <v>167</v>
+      </c>
+      <c r="JM58" t="n">
+        <v>167</v>
+      </c>
+      <c r="JN58" t="n">
+        <v>167</v>
+      </c>
+      <c r="JO58" t="n">
+        <v>177</v>
+      </c>
+      <c r="JP58" t="n">
+        <v>115</v>
+      </c>
+      <c r="JQ58" t="n">
+        <v>123</v>
+      </c>
+      <c r="JR58" t="n">
+        <v>171</v>
+      </c>
+      <c r="JS58" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -48623,6 +50015,30 @@
       <c r="JK59" t="n">
         <v>368</v>
       </c>
+      <c r="JL59" t="n">
+        <v>400</v>
+      </c>
+      <c r="JM59" t="n">
+        <v>400</v>
+      </c>
+      <c r="JN59" t="n">
+        <v>400</v>
+      </c>
+      <c r="JO59" t="n">
+        <v>401</v>
+      </c>
+      <c r="JP59" t="n">
+        <v>302</v>
+      </c>
+      <c r="JQ59" t="n">
+        <v>288</v>
+      </c>
+      <c r="JR59" t="n">
+        <v>381</v>
+      </c>
+      <c r="JS59" t="n">
+        <v>397</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -49440,6 +50856,30 @@
       <c r="JK60" t="n">
         <v>1.97</v>
       </c>
+      <c r="JL60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="JM60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="JN60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="JO60" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="JP60" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="JQ60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="JR60" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="JS60" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -50257,6 +51697,30 @@
       <c r="JK61" t="n">
         <v>113</v>
       </c>
+      <c r="JL61" t="n">
+        <v>91</v>
+      </c>
+      <c r="JM61" t="n">
+        <v>91</v>
+      </c>
+      <c r="JN61" t="n">
+        <v>91</v>
+      </c>
+      <c r="JO61" t="n">
+        <v>96</v>
+      </c>
+      <c r="JP61" t="n">
+        <v>74</v>
+      </c>
+      <c r="JQ61" t="n">
+        <v>64</v>
+      </c>
+      <c r="JR61" t="n">
+        <v>67</v>
+      </c>
+      <c r="JS61" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -51074,6 +52538,30 @@
       <c r="JK62" t="n">
         <v>59</v>
       </c>
+      <c r="JL62" t="n">
+        <v>48</v>
+      </c>
+      <c r="JM62" t="n">
+        <v>48</v>
+      </c>
+      <c r="JN62" t="n">
+        <v>48</v>
+      </c>
+      <c r="JO62" t="n">
+        <v>71</v>
+      </c>
+      <c r="JP62" t="n">
+        <v>66</v>
+      </c>
+      <c r="JQ62" t="n">
+        <v>65</v>
+      </c>
+      <c r="JR62" t="n">
+        <v>64</v>
+      </c>
+      <c r="JS62" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -51891,6 +53379,30 @@
       <c r="JK63" t="n">
         <v>24</v>
       </c>
+      <c r="JL63" t="n">
+        <v>62</v>
+      </c>
+      <c r="JM63" t="n">
+        <v>62</v>
+      </c>
+      <c r="JN63" t="n">
+        <v>62</v>
+      </c>
+      <c r="JO63" t="n">
+        <v>55</v>
+      </c>
+      <c r="JP63" t="n">
+        <v>37</v>
+      </c>
+      <c r="JQ63" t="n">
+        <v>44</v>
+      </c>
+      <c r="JR63" t="n">
+        <v>62</v>
+      </c>
+      <c r="JS63" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -52708,6 +54220,30 @@
       <c r="JK64" t="n">
         <v>20</v>
       </c>
+      <c r="JL64" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM64" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN64" t="n">
+        <v>12</v>
+      </c>
+      <c r="JO64" t="n">
+        <v>19</v>
+      </c>
+      <c r="JP64" t="n">
+        <v>18</v>
+      </c>
+      <c r="JQ64" t="n">
+        <v>22</v>
+      </c>
+      <c r="JR64" t="n">
+        <v>21</v>
+      </c>
+      <c r="JS64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -53525,6 +55061,30 @@
       <c r="JK65" t="n">
         <v>22</v>
       </c>
+      <c r="JL65" t="n">
+        <v>19</v>
+      </c>
+      <c r="JM65" t="n">
+        <v>19</v>
+      </c>
+      <c r="JN65" t="n">
+        <v>19</v>
+      </c>
+      <c r="JO65" t="n">
+        <v>26</v>
+      </c>
+      <c r="JP65" t="n">
+        <v>17</v>
+      </c>
+      <c r="JQ65" t="n">
+        <v>28</v>
+      </c>
+      <c r="JR65" t="n">
+        <v>22</v>
+      </c>
+      <c r="JS65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -54342,6 +55902,30 @@
       <c r="JK66" t="n">
         <v>17</v>
       </c>
+      <c r="JL66" t="n">
+        <v>15</v>
+      </c>
+      <c r="JM66" t="n">
+        <v>15</v>
+      </c>
+      <c r="JN66" t="n">
+        <v>15</v>
+      </c>
+      <c r="JO66" t="n">
+        <v>14</v>
+      </c>
+      <c r="JP66" t="n">
+        <v>16</v>
+      </c>
+      <c r="JQ66" t="n">
+        <v>16</v>
+      </c>
+      <c r="JR66" t="n">
+        <v>9</v>
+      </c>
+      <c r="JS66" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -55159,6 +56743,30 @@
       <c r="JK67" t="n">
         <v>7</v>
       </c>
+      <c r="JL67" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM67" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN67" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO67" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP67" t="n">
+        <v>14</v>
+      </c>
+      <c r="JQ67" t="n">
+        <v>10</v>
+      </c>
+      <c r="JR67" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS67" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -55976,6 +57584,30 @@
       <c r="JK68" t="n">
         <v>11</v>
       </c>
+      <c r="JL68" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM68" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN68" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO68" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP68" t="n">
+        <v>10</v>
+      </c>
+      <c r="JQ68" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR68" t="n">
+        <v>14</v>
+      </c>
+      <c r="JS68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -56793,6 +58425,30 @@
       <c r="JK69" t="n">
         <v>3</v>
       </c>
+      <c r="JL69" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM69" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN69" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO69" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP69" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ69" t="n">
+        <v>2</v>
+      </c>
+      <c r="JR69" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -57610,6 +59266,30 @@
       <c r="JK70" t="n">
         <v>31</v>
       </c>
+      <c r="JL70" t="n">
+        <v>27</v>
+      </c>
+      <c r="JM70" t="n">
+        <v>27</v>
+      </c>
+      <c r="JN70" t="n">
+        <v>27</v>
+      </c>
+      <c r="JO70" t="n">
+        <v>20</v>
+      </c>
+      <c r="JP70" t="n">
+        <v>27</v>
+      </c>
+      <c r="JQ70" t="n">
+        <v>22</v>
+      </c>
+      <c r="JR70" t="n">
+        <v>26</v>
+      </c>
+      <c r="JS70" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -58427,6 +60107,30 @@
       <c r="JK71" t="n">
         <v>54.8</v>
       </c>
+      <c r="JL71" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="JM71" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="JN71" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="JO71" t="n">
+        <v>70</v>
+      </c>
+      <c r="JP71" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="JQ71" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="JR71" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="JS71" t="n">
+        <v>52.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -59244,6 +60948,30 @@
       <c r="JK72" t="n">
         <v>21.65</v>
       </c>
+      <c r="JL72" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="JM72" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="JN72" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="JO72" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="JP72" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="JQ72" t="n">
+        <v>18</v>
+      </c>
+      <c r="JR72" t="n">
+        <v>42.33</v>
+      </c>
+      <c r="JS72" t="n">
+        <v>20.89</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -60061,6 +61789,30 @@
       <c r="JK73" t="n">
         <v>11.87</v>
       </c>
+      <c r="JL73" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="JM73" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="JN73" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="JO73" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="JP73" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="JQ73" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="JR73" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="JS73" t="n">
+        <v>11.03</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -60878,6 +62630,30 @@
       <c r="JK74" t="n">
         <v>45</v>
       </c>
+      <c r="JL74" t="n">
+        <v>39</v>
+      </c>
+      <c r="JM74" t="n">
+        <v>39</v>
+      </c>
+      <c r="JN74" t="n">
+        <v>39</v>
+      </c>
+      <c r="JO74" t="n">
+        <v>39</v>
+      </c>
+      <c r="JP74" t="n">
+        <v>46</v>
+      </c>
+      <c r="JQ74" t="n">
+        <v>43</v>
+      </c>
+      <c r="JR74" t="n">
+        <v>46</v>
+      </c>
+      <c r="JS74" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -61695,6 +63471,30 @@
       <c r="JK75" t="n">
         <v>57</v>
       </c>
+      <c r="JL75" t="n">
+        <v>57</v>
+      </c>
+      <c r="JM75" t="n">
+        <v>57</v>
+      </c>
+      <c r="JN75" t="n">
+        <v>57</v>
+      </c>
+      <c r="JO75" t="n">
+        <v>65</v>
+      </c>
+      <c r="JP75" t="n">
+        <v>51</v>
+      </c>
+      <c r="JQ75" t="n">
+        <v>66</v>
+      </c>
+      <c r="JR75" t="n">
+        <v>56</v>
+      </c>
+      <c r="JS75" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -62512,6 +64312,30 @@
       <c r="JK76" t="n">
         <v>25</v>
       </c>
+      <c r="JL76" t="n">
+        <v>32</v>
+      </c>
+      <c r="JM76" t="n">
+        <v>32</v>
+      </c>
+      <c r="JN76" t="n">
+        <v>32</v>
+      </c>
+      <c r="JO76" t="n">
+        <v>36</v>
+      </c>
+      <c r="JP76" t="n">
+        <v>23</v>
+      </c>
+      <c r="JQ76" t="n">
+        <v>33</v>
+      </c>
+      <c r="JR76" t="n">
+        <v>37</v>
+      </c>
+      <c r="JS76" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -63329,6 +65153,30 @@
       <c r="JK77" t="n">
         <v>69</v>
       </c>
+      <c r="JL77" t="n">
+        <v>56</v>
+      </c>
+      <c r="JM77" t="n">
+        <v>56</v>
+      </c>
+      <c r="JN77" t="n">
+        <v>56</v>
+      </c>
+      <c r="JO77" t="n">
+        <v>53</v>
+      </c>
+      <c r="JP77" t="n">
+        <v>57</v>
+      </c>
+      <c r="JQ77" t="n">
+        <v>48</v>
+      </c>
+      <c r="JR77" t="n">
+        <v>57</v>
+      </c>
+      <c r="JS77" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -64146,6 +65994,30 @@
       <c r="JK78" t="n">
         <v>2.23</v>
       </c>
+      <c r="JL78" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="JM78" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="JN78" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="JO78" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="JP78" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="JQ78" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="JR78" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="JS78" t="n">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -64963,6 +66835,30 @@
       <c r="JK79" t="n">
         <v>4.06</v>
       </c>
+      <c r="JL79" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="JM79" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="JN79" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="JO79" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="JP79" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="JQ79" t="n">
+        <v>3</v>
+      </c>
+      <c r="JR79" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="JS79" t="n">
+        <v>3.26</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -65780,6 +67676,30 @@
       <c r="JK80" t="n">
         <v>40.6</v>
       </c>
+      <c r="JL80" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="JM80" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="JN80" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="JO80" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="JP80" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="JQ80" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="JR80" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="JS80" t="n">
+        <v>51.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -66597,6 +68517,30 @@
       <c r="JK81" t="n">
         <v>24.6</v>
       </c>
+      <c r="JL81" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JM81" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JN81" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JO81" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="JP81" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="JQ81" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="JR81" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="JS81" t="n">
+        <v>30.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -67414,6 +69358,30 @@
       <c r="JK82" t="n">
         <v>188.2</v>
       </c>
+      <c r="JL82" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JM82" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JN82" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JO82" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JP82" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="JQ82" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JR82" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JS82" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -68231,6 +70199,30 @@
       <c r="JK83" t="n">
         <v>87</v>
       </c>
+      <c r="JL83" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="JM83" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="JN83" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="JO83" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="JP83" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JQ83" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="JR83" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JS83" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -69048,6 +71040,30 @@
       <c r="JK84" t="n">
         <v>24.74</v>
       </c>
+      <c r="JL84" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="JM84" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="JN84" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="JO84" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JP84" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JQ84" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="JR84" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="JS84" t="n">
+        <v>27.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -69865,6 +71881,30 @@
       <c r="JK85" t="n">
         <v>83</v>
       </c>
+      <c r="JL85" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="JM85" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="JN85" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="JO85" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="JP85" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="JQ85" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="JR85" t="n">
+        <v>88</v>
+      </c>
+      <c r="JS85" t="n">
+        <v>145.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -70682,6 +72722,30 @@
       <c r="JK86" t="n">
         <v>7</v>
       </c>
+      <c r="JL86" t="n">
+        <v>14</v>
+      </c>
+      <c r="JM86" t="n">
+        <v>14</v>
+      </c>
+      <c r="JN86" t="n">
+        <v>14</v>
+      </c>
+      <c r="JO86" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP86" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ86" t="n">
+        <v>13</v>
+      </c>
+      <c r="JR86" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -71499,6 +73563,30 @@
       <c r="JK87" t="n">
         <v>9</v>
       </c>
+      <c r="JL87" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM87" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN87" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO87" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP87" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ87" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR87" t="n">
+        <v>9</v>
+      </c>
+      <c r="JS87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -72316,6 +74404,30 @@
       <c r="JK88" t="n">
         <v>5</v>
       </c>
+      <c r="JL88" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM88" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN88" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO88" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP88" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR88" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -73133,6 +75245,30 @@
       <c r="JK89" t="n">
         <v>2</v>
       </c>
+      <c r="JL89" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM89" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN89" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO89" t="n">
+        <v>3</v>
+      </c>
+      <c r="JP89" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ89" t="n">
+        <v>3</v>
+      </c>
+      <c r="JR89" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -73950,6 +76086,30 @@
       <c r="JK90" t="n">
         <v>143</v>
       </c>
+      <c r="JL90" t="n">
+        <v>164</v>
+      </c>
+      <c r="JM90" t="n">
+        <v>164</v>
+      </c>
+      <c r="JN90" t="n">
+        <v>164</v>
+      </c>
+      <c r="JO90" t="n">
+        <v>151</v>
+      </c>
+      <c r="JP90" t="n">
+        <v>139</v>
+      </c>
+      <c r="JQ90" t="n">
+        <v>139</v>
+      </c>
+      <c r="JR90" t="n">
+        <v>149</v>
+      </c>
+      <c r="JS90" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -74767,6 +76927,30 @@
       <c r="JK91" t="n">
         <v>233</v>
       </c>
+      <c r="JL91" t="n">
+        <v>234</v>
+      </c>
+      <c r="JM91" t="n">
+        <v>234</v>
+      </c>
+      <c r="JN91" t="n">
+        <v>234</v>
+      </c>
+      <c r="JO91" t="n">
+        <v>256</v>
+      </c>
+      <c r="JP91" t="n">
+        <v>166</v>
+      </c>
+      <c r="JQ91" t="n">
+        <v>159</v>
+      </c>
+      <c r="JR91" t="n">
+        <v>217</v>
+      </c>
+      <c r="JS91" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -75584,6 +77768,30 @@
       <c r="JK92" t="n">
         <v>269</v>
       </c>
+      <c r="JL92" t="n">
+        <v>282</v>
+      </c>
+      <c r="JM92" t="n">
+        <v>282</v>
+      </c>
+      <c r="JN92" t="n">
+        <v>282</v>
+      </c>
+      <c r="JO92" t="n">
+        <v>300</v>
+      </c>
+      <c r="JP92" t="n">
+        <v>209</v>
+      </c>
+      <c r="JQ92" t="n">
+        <v>196</v>
+      </c>
+      <c r="JR92" t="n">
+        <v>255</v>
+      </c>
+      <c r="JS92" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -76401,6 +78609,30 @@
       <c r="JK93" t="n">
         <v>73.09999999999999</v>
       </c>
+      <c r="JL93" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="JM93" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="JN93" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="JO93" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="JP93" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="JQ93" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="JR93" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="JS93" t="n">
+        <v>74.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -77218,6 +79450,30 @@
       <c r="JK94" t="n">
         <v>57</v>
       </c>
+      <c r="JL94" t="n">
+        <v>57</v>
+      </c>
+      <c r="JM94" t="n">
+        <v>57</v>
+      </c>
+      <c r="JN94" t="n">
+        <v>57</v>
+      </c>
+      <c r="JO94" t="n">
+        <v>65</v>
+      </c>
+      <c r="JP94" t="n">
+        <v>51</v>
+      </c>
+      <c r="JQ94" t="n">
+        <v>66</v>
+      </c>
+      <c r="JR94" t="n">
+        <v>56</v>
+      </c>
+      <c r="JS94" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -78035,6 +80291,30 @@
       <c r="JK95" t="n">
         <v>14</v>
       </c>
+      <c r="JL95" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM95" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN95" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO95" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP95" t="n">
+        <v>10</v>
+      </c>
+      <c r="JQ95" t="n">
+        <v>12</v>
+      </c>
+      <c r="JR95" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -78852,6 +81132,30 @@
       <c r="JK96" t="n">
         <v>18</v>
       </c>
+      <c r="JL96" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM96" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN96" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO96" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP96" t="n">
+        <v>13</v>
+      </c>
+      <c r="JQ96" t="n">
+        <v>12</v>
+      </c>
+      <c r="JR96" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -79669,6 +81973,30 @@
       <c r="JK97" t="n">
         <v>45</v>
       </c>
+      <c r="JL97" t="n">
+        <v>39</v>
+      </c>
+      <c r="JM97" t="n">
+        <v>39</v>
+      </c>
+      <c r="JN97" t="n">
+        <v>39</v>
+      </c>
+      <c r="JO97" t="n">
+        <v>39</v>
+      </c>
+      <c r="JP97" t="n">
+        <v>46</v>
+      </c>
+      <c r="JQ97" t="n">
+        <v>43</v>
+      </c>
+      <c r="JR97" t="n">
+        <v>46</v>
+      </c>
+      <c r="JS97" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -80486,6 +82814,30 @@
       <c r="JK98" t="n">
         <v>25</v>
       </c>
+      <c r="JL98" t="n">
+        <v>32</v>
+      </c>
+      <c r="JM98" t="n">
+        <v>32</v>
+      </c>
+      <c r="JN98" t="n">
+        <v>32</v>
+      </c>
+      <c r="JO98" t="n">
+        <v>36</v>
+      </c>
+      <c r="JP98" t="n">
+        <v>23</v>
+      </c>
+      <c r="JQ98" t="n">
+        <v>33</v>
+      </c>
+      <c r="JR98" t="n">
+        <v>37</v>
+      </c>
+      <c r="JS98" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -81303,6 +83655,30 @@
       <c r="JK99" t="n">
         <v>55</v>
       </c>
+      <c r="JL99" t="n">
+        <v>62</v>
+      </c>
+      <c r="JM99" t="n">
+        <v>62</v>
+      </c>
+      <c r="JN99" t="n">
+        <v>62</v>
+      </c>
+      <c r="JO99" t="n">
+        <v>46</v>
+      </c>
+      <c r="JP99" t="n">
+        <v>34</v>
+      </c>
+      <c r="JQ99" t="n">
+        <v>54</v>
+      </c>
+      <c r="JR99" t="n">
+        <v>59</v>
+      </c>
+      <c r="JS99" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -82120,6 +84496,30 @@
       <c r="JK100" t="n">
         <v>10</v>
       </c>
+      <c r="JL100" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM100" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN100" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO100" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP100" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ100" t="n">
+        <v>2</v>
+      </c>
+      <c r="JR100" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -82937,6 +85337,30 @@
       <c r="JK101" t="n">
         <v>7</v>
       </c>
+      <c r="JL101" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM101" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN101" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO101" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP101" t="n">
+        <v>14</v>
+      </c>
+      <c r="JQ101" t="n">
+        <v>10</v>
+      </c>
+      <c r="JR101" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS101" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -83754,6 +86178,30 @@
       <c r="JK102" t="n">
         <v>41.2</v>
       </c>
+      <c r="JL102" t="n">
+        <v>60</v>
+      </c>
+      <c r="JM102" t="n">
+        <v>60</v>
+      </c>
+      <c r="JN102" t="n">
+        <v>60</v>
+      </c>
+      <c r="JO102" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JP102" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JQ102" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="JR102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JS102" t="n">
+        <v>68.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
